--- a/data/ref.xlsx
+++ b/data/ref.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/Repositories/LCAdata/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BABA2D1-203D-DF4E-B27A-1DF790CBB089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739B229E-AEEC-764C-82FD-6CD9DBA91773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14500" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{3E07B60E-4189-0C47-9F5C-2C14AD002CA3}"/>
+    <workbookView xWindow="8720" yWindow="500" windowWidth="28040" windowHeight="16260" xr2:uid="{3E07B60E-4189-0C47-9F5C-2C14AD002CA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="128">
   <si>
     <t>Name of file</t>
   </si>
@@ -246,12 +246,333 @@
       <t xml:space="preserve">363-369. </t>
     </r>
   </si>
+  <si>
+    <t>file 1</t>
+  </si>
+  <si>
+    <t>file 2</t>
+  </si>
+  <si>
+    <t>file 3</t>
+  </si>
+  <si>
+    <t>file 4</t>
+  </si>
+  <si>
+    <t>file 5</t>
+  </si>
+  <si>
+    <t>file 6</t>
+  </si>
+  <si>
+    <t>file 7</t>
+  </si>
+  <si>
+    <t>file 8</t>
+  </si>
+  <si>
+    <t>file 9</t>
+  </si>
+  <si>
+    <t>file 10</t>
+  </si>
+  <si>
+    <t>file 11</t>
+  </si>
+  <si>
+    <t>file 12</t>
+  </si>
+  <si>
+    <t>file 13</t>
+  </si>
+  <si>
+    <t>file 14</t>
+  </si>
+  <si>
+    <t>file 15</t>
+  </si>
+  <si>
+    <t>file 16</t>
+  </si>
+  <si>
+    <t>file 17</t>
+  </si>
+  <si>
+    <t>file 18</t>
+  </si>
+  <si>
+    <t>file 19</t>
+  </si>
+  <si>
+    <t>file 20</t>
+  </si>
+  <si>
+    <t>file 21</t>
+  </si>
+  <si>
+    <t>file 22</t>
+  </si>
+  <si>
+    <t>file 23</t>
+  </si>
+  <si>
+    <t>file 24</t>
+  </si>
+  <si>
+    <t>file 25</t>
+  </si>
+  <si>
+    <t>file 26</t>
+  </si>
+  <si>
+    <t>file 27</t>
+  </si>
+  <si>
+    <t>file 28</t>
+  </si>
+  <si>
+    <t>file 29</t>
+  </si>
+  <si>
+    <t>file 30</t>
+  </si>
+  <si>
+    <t>file 31</t>
+  </si>
+  <si>
+    <t>file 32</t>
+  </si>
+  <si>
+    <t>file 33</t>
+  </si>
+  <si>
+    <t>file 34</t>
+  </si>
+  <si>
+    <t>file 35</t>
+  </si>
+  <si>
+    <t>file 36</t>
+  </si>
+  <si>
+    <t>file 37</t>
+  </si>
+  <si>
+    <t>file 38</t>
+  </si>
+  <si>
+    <t>file 39</t>
+  </si>
+  <si>
+    <t>file 40</t>
+  </si>
+  <si>
+    <t>file 41</t>
+  </si>
+  <si>
+    <t>file 42</t>
+  </si>
+  <si>
+    <t>file 43</t>
+  </si>
+  <si>
+    <t>file 44</t>
+  </si>
+  <si>
+    <t>file 45</t>
+  </si>
+  <si>
+    <t>file 46</t>
+  </si>
+  <si>
+    <t>file 47</t>
+  </si>
+  <si>
+    <t>file 48</t>
+  </si>
+  <si>
+    <t>file 49</t>
+  </si>
+  <si>
+    <t>file 50</t>
+  </si>
+  <si>
+    <t>file 51</t>
+  </si>
+  <si>
+    <t>file 52</t>
+  </si>
+  <si>
+    <t>file 53</t>
+  </si>
+  <si>
+    <t>file 54</t>
+  </si>
+  <si>
+    <t>file 55</t>
+  </si>
+  <si>
+    <t>file 56</t>
+  </si>
+  <si>
+    <t>file 57</t>
+  </si>
+  <si>
+    <t>file 58</t>
+  </si>
+  <si>
+    <t>file 59</t>
+  </si>
+  <si>
+    <t>file 60</t>
+  </si>
+  <si>
+    <t>file 61</t>
+  </si>
+  <si>
+    <t>file 62</t>
+  </si>
+  <si>
+    <t>file 63</t>
+  </si>
+  <si>
+    <t>file 64</t>
+  </si>
+  <si>
+    <t>file 65</t>
+  </si>
+  <si>
+    <t>file 66</t>
+  </si>
+  <si>
+    <t>file 67</t>
+  </si>
+  <si>
+    <t>file 68</t>
+  </si>
+  <si>
+    <t>file 69</t>
+  </si>
+  <si>
+    <t>file 70</t>
+  </si>
+  <si>
+    <t>file 71</t>
+  </si>
+  <si>
+    <t>file 72</t>
+  </si>
+  <si>
+    <t>file 73</t>
+  </si>
+  <si>
+    <t>file 74</t>
+  </si>
+  <si>
+    <t>file 75</t>
+  </si>
+  <si>
+    <t>file 76</t>
+  </si>
+  <si>
+    <t>file 77</t>
+  </si>
+  <si>
+    <t>file 78</t>
+  </si>
+  <si>
+    <t>file 79</t>
+  </si>
+  <si>
+    <t>file 80</t>
+  </si>
+  <si>
+    <t>file 81</t>
+  </si>
+  <si>
+    <t>Demuth, Jeffery Paul. Evolution of Hybrid Incompatibility in the Beetle Tribolium Castaneum. Indiana University, 2004.</t>
+  </si>
+  <si>
+    <t>LeRoy Powers. 1941. Inheritance of quantitative characters in crosses involving two species of Lycopersicon. J Agric Res 63. 149-175.</t>
+  </si>
+  <si>
+    <t>Miller, G. T., Starmer, W. T., &amp; S. Pitnick 2003. Quantitative genetic analysis of among-population variation in sperm and female sperm-storage organ length in Drosophila mojavensis. Genetical research, 81(03), 213-220.</t>
+  </si>
+  <si>
+    <t>Demuth, Jeffery P., Rebecca J. Flanagan, and Lynda F. Delph. Genetic architecture of isolation between two species of Silene with sex chromosomes and Haldane's rule. Evolution 68, no. 2 (2014): 332-342.</t>
+  </si>
+  <si>
+    <t>Fontenot, Brian E. Natural Hybridization And Speciation In Toads Of The Anaxyrus americanus Group. University of Texas at Arlington 2009</t>
+  </si>
+  <si>
+    <t>Fontenot, Brian E. Natural Hybridization And Speciation In Toads Of The Anaxyrus americanus Group. University of Texas at Arlington 2010</t>
+  </si>
+  <si>
+    <t>Fontenot, Brian E. Natural Hybridization And Speciation In Toads Of The Anaxyrus americanus Group. University of Texas at Arlington 2011</t>
+  </si>
+  <si>
+    <t>Fontenot, Brian E. Natural Hybridization And Speciation In Toads Of The Anaxyrus americanus Group. University of Texas at Arlington 2012</t>
+  </si>
+  <si>
+    <t>Fontenot, Brian E. Natural Hybridization And Speciation In Toads Of The Anaxyrus americanus Group. University of Texas at Arlington 2013</t>
+  </si>
+  <si>
+    <t>Fontenot, Brian E. Natural Hybridization And Speciation In Toads Of The Anaxyrus americanus Group. University of Texas at Arlington 2014</t>
+  </si>
+  <si>
+    <t>Fontenot, Brian E. Natural Hybridization And Speciation In Toads Of The Anaxyrus americanus Group. University of Texas at Arlington 2015</t>
+  </si>
+  <si>
+    <t>Fontenot, Brian E. Natural Hybridization And Speciation In Toads Of The Anaxyrus americanus Group. University of Texas at Arlington 2016</t>
+  </si>
+  <si>
+    <t>Fontenot, Brian E. Natural Hybridization And Speciation In Toads Of The Anaxyrus americanus Group. University of Texas at Arlington 2017</t>
+  </si>
+  <si>
+    <t>Fontenot, Brian E. Natural Hybridization And Speciation In Toads Of The Anaxyrus americanus Group. University of Texas at Arlington 2018</t>
+  </si>
+  <si>
+    <t>Fontenot, Brian E. Natural Hybridization And Speciation In Toads Of The Anaxyrus americanus Group. University of Texas at Arlington 2019</t>
+  </si>
+  <si>
+    <t>Fontenot, Brian E. Natural Hybridization And Speciation In Toads Of The Anaxyrus americanus Group. University of Texas at Arlington 2020</t>
+  </si>
+  <si>
+    <t>Fontenot, Brian E. Natural Hybridization And Speciation In Toads Of The Anaxyrus americanus Group. University of Texas at Arlington 2021</t>
+  </si>
+  <si>
+    <t>Fontenot, Brian E. Natural Hybridization And Speciation In Toads Of The Anaxyrus americanus Group. University of Texas at Arlington 2022</t>
+  </si>
+  <si>
+    <t>Fontenot, Brian E. Natural Hybridization And Speciation In Toads Of The Anaxyrus americanus Group. University of Texas at Arlington 2023</t>
+  </si>
+  <si>
+    <t>Fontenot, Brian E. Natural Hybridization And Speciation In Toads Of The Anaxyrus americanus Group. University of Texas at Arlington 2024</t>
+  </si>
+  <si>
+    <t>Fontenot, Brian E. Natural Hybridization And Speciation In Toads Of The Anaxyrus americanus Group. University of Texas at Arlington 2025</t>
+  </si>
+  <si>
+    <t>Fontenot, Brian E. Natural Hybridization And Speciation In Toads Of The Anaxyrus americanus Group. University of Texas at Arlington 2026</t>
+  </si>
+  <si>
+    <t>Fontenot, Brian E. Natural Hybridization And Speciation In Toads Of The Anaxyrus americanus Group. University of Texas at Arlington 2027</t>
+  </si>
+  <si>
+    <t>Fontenot, Brian E. Natural Hybridization And Speciation In Toads Of The Anaxyrus americanus Group. University of Texas at Arlington 2028</t>
+  </si>
+  <si>
+    <t>Fontenot, Brian E. Natural Hybridization And Speciation In Toads Of The Anaxyrus americanus Group. University of Texas at Arlington 2029</t>
+  </si>
+  <si>
+    <t>Fontenot, Brian E. Natural Hybridization And Speciation In Toads Of The Anaxyrus americanus Group. University of Texas at Arlington 2030</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -280,6 +601,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -619,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1753CE1A-CDCD-C54D-B238-DB0111BF3CAB}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="K86" sqref="K86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -735,7 +1062,656 @@
         <v>18</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>100</v>
+      </c>
+      <c r="B93" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>101</v>
+      </c>
+      <c r="B94" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/ref.xlsx
+++ b/data/ref.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/Repositories/LCAdata/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B651E1CD-8442-0A40-8076-31F60BF3D73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C159B2-3D85-C34E-9858-F0B6E115E662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="100" yWindow="500" windowWidth="28040" windowHeight="15880" xr2:uid="{4F28B243-04AE-1E4D-B411-E86C9FDA2FDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="301">
   <si>
     <t>old file name</t>
   </si>
@@ -1008,6 +1008,111 @@
   </si>
   <si>
     <t>fruit/flower</t>
+  </si>
+  <si>
+    <t>S=p1</t>
+  </si>
+  <si>
+    <t>number of aphids</t>
+  </si>
+  <si>
+    <t>aphid.surv.csv</t>
+  </si>
+  <si>
+    <t>mite.num.csv</t>
+  </si>
+  <si>
+    <t>aphid.num.csv</t>
+  </si>
+  <si>
+    <t>hatfield 1997</t>
+  </si>
+  <si>
+    <t>gill raker number</t>
+  </si>
+  <si>
+    <t>gill raker length</t>
+  </si>
+  <si>
+    <t>plate number</t>
+  </si>
+  <si>
+    <t>pelvic spine length</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>gill.rake.num.csv</t>
+  </si>
+  <si>
+    <t>gill.rake.len.csv</t>
+  </si>
+  <si>
+    <t>p1=limnetic</t>
+  </si>
+  <si>
+    <t>plate.num</t>
+  </si>
+  <si>
+    <t>pelvic.len</t>
+  </si>
+  <si>
+    <t>body weight</t>
+  </si>
+  <si>
+    <t>keightley 1998</t>
+  </si>
+  <si>
+    <t>mouse</t>
+  </si>
+  <si>
+    <t>starmer 1998</t>
+  </si>
+  <si>
+    <t>ovariole num corrected for thoraz length</t>
+  </si>
+  <si>
+    <t>salmon</t>
+  </si>
+  <si>
+    <t>mcclelland 2005</t>
+  </si>
+  <si>
+    <t>weight of embryos</t>
+  </si>
+  <si>
+    <t>growth rate</t>
+  </si>
+  <si>
+    <t>hochwender 2004</t>
+  </si>
+  <si>
+    <t>hybrid willow</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>polak 2000</t>
+  </si>
+  <si>
+    <t>fishes</t>
+  </si>
+  <si>
+    <t>moran 2018</t>
+  </si>
+  <si>
+    <t># eggs collected</t>
+  </si>
+  <si>
+    <t># eggs fertilized</t>
+  </si>
+  <si>
+    <t># eggs hatched</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># fry survive to feeding </t>
   </si>
 </sst>
 </file>
@@ -1408,10 +1513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1137BAE9-F081-9948-9F37-D6A451EE45DA}">
-  <dimension ref="A1:L140"/>
+  <dimension ref="A1:L178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="C140" sqref="C140"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="F167" sqref="F167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3318,12 +3423,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B99" s="3" t="s">
+        <v>268</v>
+      </c>
       <c r="C99" s="3" t="s">
         <v>213</v>
       </c>
@@ -3336,8 +3444,14 @@
       <c r="G99" s="3" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K99" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B100" s="3" t="s">
+        <v>269</v>
+      </c>
       <c r="C100" s="3" t="s">
         <v>214</v>
       </c>
@@ -3345,260 +3459,439 @@
         <v>170</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C102" s="3" t="s">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B101" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C104" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F102" s="3" t="s">
+      <c r="E104" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F104" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="G102" s="3" t="s">
+      <c r="G104" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C103" s="3" t="s">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C105" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E103" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C104" s="3" t="s">
+      <c r="E105" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C106" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C105" s="3" t="s">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C107" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C106" s="3" t="s">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C108" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="E106" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C107" s="3" t="s">
+      <c r="E108" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C109" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="E107" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C108" s="3" t="s">
+      <c r="E109" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C110" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E108" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C110" s="3" t="s">
-        <v>227</v>
-      </c>
       <c r="E110" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C111" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C112" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E112" s="3" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="113" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C113" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E113" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="114" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C114" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E114" s="3" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="115" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C115" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="117" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="F117" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="116" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C116" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="119" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C119" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>170</v>
+        <v>233</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="K119" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="120" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C120" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="121" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C121" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>169</v>
+        <v>232</v>
       </c>
     </row>
     <row r="122" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C122" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="123" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C123" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>169</v>
+      <c r="F122" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="125" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C125" s="3" t="s">
-        <v>246</v>
+        <v>238</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>245</v>
+        <v>237</v>
+      </c>
+      <c r="K125" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="126" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C126" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="127" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C127" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="128" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C128" s="3" t="s">
-        <v>250</v>
+        <v>242</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="129" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C129" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="130" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C130" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="131" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C131" s="3" t="s">
-        <v>253</v>
+        <v>243</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="132" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C132" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="134" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C134" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J134" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="L134" s="3" t="s">
-        <v>258</v>
+        <v>246</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="135" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C135" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="136" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C136" s="3" t="s">
-        <v>261</v>
+        <v>250</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="137" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C137" s="3" t="s">
-        <v>262</v>
+        <v>251</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="138" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C138" s="3" t="s">
-        <v>263</v>
+        <v>252</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="139" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C139" s="3" t="s">
-        <v>264</v>
+        <v>253</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="140" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C140" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="143" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C143" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J143" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="L143" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="144" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C144" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C145" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C146" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C147" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C148" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C149" s="3" t="s">
         <v>265</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B152" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B153" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B154" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="155" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B155" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="156" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C156" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="159" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C159" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="162" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C162" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="165" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C165" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="166" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C166" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="169" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C169" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="172" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C172" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="175" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C175" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="176" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C176" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="177" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C177" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="178" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C178" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/data/ref.xlsx
+++ b/data/ref.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/Repositories/LCAdata/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9510C29-016E-6C41-B8FC-502F1807FA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2F0AE5-3877-FA4B-A1AB-3D2A0CD3F02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40820" yWindow="4160" windowWidth="28040" windowHeight="15880" xr2:uid="{4F28B243-04AE-1E4D-B411-E86C9FDA2FDF}"/>
+    <workbookView xWindow="40820" yWindow="-260" windowWidth="28040" windowHeight="15880" xr2:uid="{4F28B243-04AE-1E4D-B411-E86C9FDA2FDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="458">
   <si>
     <t>old file name</t>
   </si>
@@ -894,9 +894,6 @@
     <t>gill.rake.len.csv</t>
   </si>
   <si>
-    <t>fishes</t>
-  </si>
-  <si>
     <t>find mean garden values fig 1</t>
   </si>
   <si>
@@ -2042,30 +2039,6 @@
     <t>seeds per fruit trio 2 F</t>
   </si>
   <si>
-    <t>sirexdam format?</t>
-  </si>
-  <si>
-    <t>what is sirexdam for BCs?</t>
-  </si>
-  <si>
-    <t>what is sex</t>
-  </si>
-  <si>
-    <t>what is sirexdam?</t>
-  </si>
-  <si>
-    <t>what are BC sirexdam?</t>
-  </si>
-  <si>
-    <t>Correct sirexdam?</t>
-  </si>
-  <si>
-    <t>sex? Sirexdam F2? Just F1xF1?</t>
-  </si>
-  <si>
-    <t>sex? F2 and rF2 sirexdam? Check first file</t>
-  </si>
-  <si>
     <t>NSC</t>
   </si>
   <si>
@@ -2083,6 +2056,27 @@
       </rPr>
       <t>Campanulastrum americanum</t>
     </r>
+  </si>
+  <si>
+    <t>assigned cmat is in working folder - sirexdam left blank?</t>
+  </si>
+  <si>
+    <t>assigned cmat in folder - add environ, leave sex blank, leave sirexdam blank</t>
+  </si>
+  <si>
+    <t>add sirexdam to all (copy from growth.years)</t>
+  </si>
+  <si>
+    <t>copy from gill.rake.len</t>
+  </si>
+  <si>
+    <t>darter fishes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assigned cmat in file </t>
+  </si>
+  <si>
+    <t>assigned cmat in folder. Red files will not let me save as .csv</t>
   </si>
 </sst>
 </file>
@@ -2135,12 +2129,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2160,6 +2160,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2173,7 +2179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2183,6 +2189,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2500,8 +2508,8 @@
   <dimension ref="A1:S243"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C232" sqref="C232"/>
+      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D198" sqref="D198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2627,7 +2635,7 @@
         <v>194</v>
       </c>
       <c r="D6" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E6" t="s">
         <v>169</v>
@@ -2647,7 +2655,7 @@
         <v>194</v>
       </c>
       <c r="D7" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E7" t="s">
         <v>169</v>
@@ -2747,7 +2755,7 @@
         <v>197</v>
       </c>
       <c r="D12" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E12" t="s">
         <v>168</v>
@@ -2873,7 +2881,7 @@
         <v>194</v>
       </c>
       <c r="D18" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E18" t="s">
         <v>168</v>
@@ -2893,7 +2901,7 @@
         <v>194</v>
       </c>
       <c r="D19" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E19" t="s">
         <v>168</v>
@@ -2913,7 +2921,7 @@
         <v>194</v>
       </c>
       <c r="D20" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E20" t="s">
         <v>168</v>
@@ -2933,7 +2941,7 @@
         <v>194</v>
       </c>
       <c r="D21" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E21" t="s">
         <v>168</v>
@@ -2953,7 +2961,7 @@
         <v>194</v>
       </c>
       <c r="D22" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E22" t="s">
         <v>168</v>
@@ -2973,7 +2981,7 @@
         <v>194</v>
       </c>
       <c r="D23" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E23" t="s">
         <v>168</v>
@@ -2993,7 +3001,7 @@
         <v>194</v>
       </c>
       <c r="D24" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E24" t="s">
         <v>168</v>
@@ -3013,7 +3021,7 @@
         <v>194</v>
       </c>
       <c r="D25" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E25" t="s">
         <v>168</v>
@@ -3033,7 +3041,7 @@
         <v>194</v>
       </c>
       <c r="D26" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E26" t="s">
         <v>168</v>
@@ -3053,7 +3061,7 @@
         <v>194</v>
       </c>
       <c r="D27" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E27" t="s">
         <v>168</v>
@@ -3073,7 +3081,7 @@
         <v>194</v>
       </c>
       <c r="D28" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E28" t="s">
         <v>168</v>
@@ -3093,7 +3101,7 @@
         <v>194</v>
       </c>
       <c r="D29" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E29" t="s">
         <v>168</v>
@@ -3293,7 +3301,7 @@
         <v>194</v>
       </c>
       <c r="D39" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E39" t="s">
         <v>168</v>
@@ -3313,7 +3321,7 @@
         <v>194</v>
       </c>
       <c r="D40" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E40" t="s">
         <v>168</v>
@@ -3333,7 +3341,7 @@
         <v>194</v>
       </c>
       <c r="D41" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E41" t="s">
         <v>168</v>
@@ -3353,7 +3361,7 @@
         <v>194</v>
       </c>
       <c r="D42" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E42" t="s">
         <v>168</v>
@@ -3373,7 +3381,7 @@
         <v>194</v>
       </c>
       <c r="D43" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E43" t="s">
         <v>168</v>
@@ -3616,7 +3624,7 @@
         <v>194</v>
       </c>
       <c r="D55" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E55" t="s">
         <v>169</v>
@@ -3636,7 +3644,7 @@
         <v>194</v>
       </c>
       <c r="D56" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E56" t="s">
         <v>169</v>
@@ -3656,7 +3664,7 @@
         <v>194</v>
       </c>
       <c r="D57" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E57" t="s">
         <v>169</v>
@@ -3676,7 +3684,7 @@
         <v>194</v>
       </c>
       <c r="D58" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E58" t="s">
         <v>169</v>
@@ -3696,7 +3704,7 @@
         <v>194</v>
       </c>
       <c r="D59" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E59" t="s">
         <v>169</v>
@@ -3716,7 +3724,7 @@
         <v>194</v>
       </c>
       <c r="D60" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E60" t="s">
         <v>169</v>
@@ -3736,7 +3744,7 @@
         <v>194</v>
       </c>
       <c r="D61" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E61" t="s">
         <v>169</v>
@@ -3756,7 +3764,7 @@
         <v>194</v>
       </c>
       <c r="D62" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E62" t="s">
         <v>169</v>
@@ -3776,7 +3784,7 @@
         <v>194</v>
       </c>
       <c r="D63" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E63" t="s">
         <v>169</v>
@@ -3796,7 +3804,7 @@
         <v>194</v>
       </c>
       <c r="D64" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E64" t="s">
         <v>169</v>
@@ -3836,7 +3844,7 @@
         <v>197</v>
       </c>
       <c r="D66" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E66" t="s">
         <v>168</v>
@@ -3879,7 +3887,7 @@
         <v>200</v>
       </c>
       <c r="D68" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E68" t="s">
         <v>168</v>
@@ -3899,7 +3907,7 @@
         <v>197</v>
       </c>
       <c r="D69" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E69" t="s">
         <v>168</v>
@@ -3979,7 +3987,7 @@
         <v>201</v>
       </c>
       <c r="D73" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E73" t="s">
         <v>169</v>
@@ -3999,7 +4007,7 @@
         <v>201</v>
       </c>
       <c r="D74" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E74" t="s">
         <v>169</v>
@@ -4019,7 +4027,7 @@
         <v>201</v>
       </c>
       <c r="D75" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E75" t="s">
         <v>169</v>
@@ -4039,7 +4047,7 @@
         <v>201</v>
       </c>
       <c r="D76" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E76" t="s">
         <v>169</v>
@@ -4059,7 +4067,7 @@
         <v>201</v>
       </c>
       <c r="D77" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E77" t="s">
         <v>169</v>
@@ -4079,7 +4087,7 @@
         <v>201</v>
       </c>
       <c r="D78" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E78" t="s">
         <v>169</v>
@@ -4099,7 +4107,7 @@
         <v>201</v>
       </c>
       <c r="D79" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E79" t="s">
         <v>169</v>
@@ -4119,7 +4127,7 @@
         <v>201</v>
       </c>
       <c r="D80" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E80" t="s">
         <v>169</v>
@@ -4139,7 +4147,7 @@
         <v>201</v>
       </c>
       <c r="D81" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E81" t="s">
         <v>169</v>
@@ -4159,7 +4167,7 @@
         <v>201</v>
       </c>
       <c r="D82" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E82" t="s">
         <v>169</v>
@@ -4179,7 +4187,7 @@
         <v>201</v>
       </c>
       <c r="D83" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E83" t="s">
         <v>169</v>
@@ -4199,7 +4207,7 @@
         <v>201</v>
       </c>
       <c r="D84" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E84" t="s">
         <v>169</v>
@@ -4219,7 +4227,7 @@
         <v>201</v>
       </c>
       <c r="D85" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E85" t="s">
         <v>169</v>
@@ -4239,7 +4247,7 @@
         <v>201</v>
       </c>
       <c r="D86" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E86" t="s">
         <v>169</v>
@@ -4259,7 +4267,7 @@
         <v>201</v>
       </c>
       <c r="D87" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E87" t="s">
         <v>169</v>
@@ -4279,7 +4287,7 @@
         <v>201</v>
       </c>
       <c r="D88" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E88" t="s">
         <v>169</v>
@@ -4299,7 +4307,7 @@
         <v>201</v>
       </c>
       <c r="D89" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E89" t="s">
         <v>169</v>
@@ -4319,7 +4327,7 @@
         <v>201</v>
       </c>
       <c r="D90" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E90" t="s">
         <v>169</v>
@@ -4339,7 +4347,7 @@
         <v>201</v>
       </c>
       <c r="D91" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E91" t="s">
         <v>169</v>
@@ -4359,7 +4367,7 @@
         <v>201</v>
       </c>
       <c r="D92" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E92" t="s">
         <v>169</v>
@@ -4379,7 +4387,7 @@
         <v>201</v>
       </c>
       <c r="D93" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E93" t="s">
         <v>169</v>
@@ -4399,7 +4407,7 @@
         <v>201</v>
       </c>
       <c r="D94" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E94" t="s">
         <v>169</v>
@@ -4414,63 +4422,63 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="8" t="s">
-        <v>270</v>
+      <c r="A99" s="9" t="s">
+        <v>269</v>
       </c>
       <c r="B99" t="s">
+        <v>265</v>
+      </c>
+      <c r="C99" t="s">
+        <v>402</v>
+      </c>
+      <c r="D99" t="s">
+        <v>449</v>
+      </c>
+      <c r="E99" t="s">
+        <v>169</v>
+      </c>
+      <c r="F99" t="s">
+        <v>267</v>
+      </c>
+      <c r="G99" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B100" t="s">
         <v>266</v>
       </c>
-      <c r="C99" t="s">
-        <v>403</v>
-      </c>
-      <c r="D99" t="s">
-        <v>458</v>
-      </c>
-      <c r="E99" t="s">
-        <v>169</v>
-      </c>
-      <c r="F99" t="s">
+      <c r="C100" t="s">
+        <v>402</v>
+      </c>
+      <c r="D100" t="s">
+        <v>449</v>
+      </c>
+      <c r="E100" t="s">
+        <v>169</v>
+      </c>
+      <c r="F100" t="s">
         <v>268</v>
       </c>
-      <c r="G99" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B100" t="s">
-        <v>267</v>
-      </c>
-      <c r="C100" t="s">
-        <v>403</v>
-      </c>
-      <c r="D100" t="s">
-        <v>458</v>
-      </c>
-      <c r="E100" t="s">
-        <v>169</v>
-      </c>
-      <c r="F100" t="s">
-        <v>269</v>
-      </c>
       <c r="G100" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="8" t="s">
-        <v>270</v>
+      <c r="A101" s="9" t="s">
+        <v>269</v>
       </c>
       <c r="B101" t="s">
         <v>226</v>
       </c>
       <c r="C101" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D101" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E101" t="s">
         <v>169</v>
@@ -4479,21 +4487,21 @@
         <v>211</v>
       </c>
       <c r="G101" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="8" t="s">
-        <v>270</v>
+      <c r="A102" s="9" t="s">
+        <v>269</v>
       </c>
       <c r="B102" t="s">
         <v>227</v>
       </c>
       <c r="C102" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D102" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E102" t="s">
         <v>169</v>
@@ -4502,328 +4510,340 @@
         <v>225</v>
       </c>
       <c r="G102" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B105" t="s">
+        <v>322</v>
+      </c>
+      <c r="C105" t="s">
+        <v>403</v>
+      </c>
+      <c r="D105" t="s">
+        <v>102</v>
+      </c>
+      <c r="E105" t="s">
+        <v>168</v>
+      </c>
+      <c r="F105" t="s">
+        <v>308</v>
+      </c>
+      <c r="G105" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B105" t="s">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B106" t="s">
         <v>323</v>
       </c>
-      <c r="C105" t="s">
-        <v>404</v>
-      </c>
-      <c r="D105" t="s">
-        <v>102</v>
-      </c>
-      <c r="E105" t="s">
-        <v>168</v>
-      </c>
-      <c r="F105" t="s">
+      <c r="C106" t="s">
+        <v>403</v>
+      </c>
+      <c r="D106" t="s">
+        <v>102</v>
+      </c>
+      <c r="E106" t="s">
+        <v>168</v>
+      </c>
+      <c r="F106" t="s">
         <v>309</v>
       </c>
-      <c r="G105" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B106" t="s">
+      <c r="G106" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B107" t="s">
         <v>324</v>
       </c>
-      <c r="C106" t="s">
-        <v>404</v>
-      </c>
-      <c r="D106" t="s">
-        <v>102</v>
-      </c>
-      <c r="E106" t="s">
-        <v>168</v>
-      </c>
-      <c r="F106" t="s">
+      <c r="C107" t="s">
+        <v>403</v>
+      </c>
+      <c r="D107" t="s">
+        <v>102</v>
+      </c>
+      <c r="E107" t="s">
+        <v>168</v>
+      </c>
+      <c r="F107" t="s">
         <v>310</v>
       </c>
-      <c r="G106" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B107" t="s">
+      <c r="G107" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B108" t="s">
         <v>325</v>
       </c>
-      <c r="C107" t="s">
-        <v>404</v>
-      </c>
-      <c r="D107" t="s">
-        <v>102</v>
-      </c>
-      <c r="F107" t="s">
+      <c r="C108" t="s">
+        <v>403</v>
+      </c>
+      <c r="D108" t="s">
+        <v>102</v>
+      </c>
+      <c r="E108" t="s">
+        <v>168</v>
+      </c>
+      <c r="F108" t="s">
         <v>311</v>
       </c>
-      <c r="G107" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B108" t="s">
+      <c r="G108" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B109" t="s">
         <v>326</v>
       </c>
-      <c r="C108" t="s">
-        <v>404</v>
-      </c>
-      <c r="D108" t="s">
-        <v>102</v>
-      </c>
-      <c r="F108" t="s">
+      <c r="C109" t="s">
+        <v>403</v>
+      </c>
+      <c r="D109" t="s">
+        <v>102</v>
+      </c>
+      <c r="E109" t="s">
+        <v>169</v>
+      </c>
+      <c r="F109" t="s">
         <v>312</v>
       </c>
-      <c r="G108" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B109" t="s">
+      <c r="G109" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B110" t="s">
         <v>327</v>
       </c>
-      <c r="C109" t="s">
-        <v>404</v>
-      </c>
-      <c r="D109" t="s">
-        <v>102</v>
-      </c>
-      <c r="E109" t="s">
-        <v>169</v>
-      </c>
-      <c r="F109" t="s">
+      <c r="C110" t="s">
+        <v>403</v>
+      </c>
+      <c r="D110" t="s">
+        <v>102</v>
+      </c>
+      <c r="E110" t="s">
+        <v>169</v>
+      </c>
+      <c r="F110" t="s">
         <v>313</v>
       </c>
-      <c r="G109" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B110" t="s">
+      <c r="G110" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B111" t="s">
         <v>328</v>
       </c>
-      <c r="C110" t="s">
-        <v>404</v>
-      </c>
-      <c r="D110" t="s">
-        <v>102</v>
-      </c>
-      <c r="E110" t="s">
-        <v>169</v>
-      </c>
-      <c r="F110" t="s">
+      <c r="C111" t="s">
+        <v>403</v>
+      </c>
+      <c r="D111" t="s">
+        <v>102</v>
+      </c>
+      <c r="E111" t="s">
+        <v>168</v>
+      </c>
+      <c r="F111" t="s">
         <v>314</v>
       </c>
-      <c r="G110" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B111" t="s">
+      <c r="G111" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B112" t="s">
         <v>329</v>
       </c>
-      <c r="C111" t="s">
-        <v>404</v>
-      </c>
-      <c r="D111" t="s">
-        <v>102</v>
-      </c>
-      <c r="E111" t="s">
-        <v>168</v>
-      </c>
-      <c r="F111" t="s">
+      <c r="C112" t="s">
+        <v>403</v>
+      </c>
+      <c r="D112" t="s">
+        <v>102</v>
+      </c>
+      <c r="E112" t="s">
+        <v>168</v>
+      </c>
+      <c r="F112" t="s">
         <v>315</v>
       </c>
-      <c r="G111" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B112" t="s">
+      <c r="G112" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B113" t="s">
         <v>330</v>
       </c>
-      <c r="C112" t="s">
-        <v>404</v>
-      </c>
-      <c r="D112" t="s">
-        <v>102</v>
-      </c>
-      <c r="E112" t="s">
-        <v>168</v>
-      </c>
-      <c r="F112" t="s">
+      <c r="C113" t="s">
+        <v>403</v>
+      </c>
+      <c r="D113" t="s">
+        <v>102</v>
+      </c>
+      <c r="E113" t="s">
+        <v>168</v>
+      </c>
+      <c r="F113" t="s">
         <v>316</v>
       </c>
-      <c r="G112" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B113" t="s">
+      <c r="G113" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B114" t="s">
         <v>331</v>
       </c>
-      <c r="C113" t="s">
-        <v>404</v>
-      </c>
-      <c r="D113" t="s">
-        <v>102</v>
-      </c>
-      <c r="E113" t="s">
-        <v>168</v>
-      </c>
-      <c r="F113" t="s">
+      <c r="C114" t="s">
+        <v>403</v>
+      </c>
+      <c r="D114" t="s">
+        <v>102</v>
+      </c>
+      <c r="E114" t="s">
+        <v>168</v>
+      </c>
+      <c r="F114" t="s">
         <v>317</v>
       </c>
-      <c r="G113" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B114" t="s">
+      <c r="G114" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B115" t="s">
         <v>332</v>
       </c>
-      <c r="C114" t="s">
-        <v>404</v>
-      </c>
-      <c r="D114" t="s">
-        <v>102</v>
-      </c>
-      <c r="F114" t="s">
+      <c r="C115" t="s">
+        <v>403</v>
+      </c>
+      <c r="D115" t="s">
+        <v>102</v>
+      </c>
+      <c r="E115" t="s">
+        <v>168</v>
+      </c>
+      <c r="F115" t="s">
         <v>318</v>
       </c>
-      <c r="G114" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B115" t="s">
+      <c r="G115" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B116" t="s">
         <v>333</v>
       </c>
-      <c r="C115" t="s">
-        <v>404</v>
-      </c>
-      <c r="D115" t="s">
-        <v>102</v>
-      </c>
-      <c r="F115" t="s">
+      <c r="C116" t="s">
+        <v>403</v>
+      </c>
+      <c r="D116" t="s">
+        <v>102</v>
+      </c>
+      <c r="E116" t="s">
+        <v>169</v>
+      </c>
+      <c r="F116" t="s">
         <v>319</v>
       </c>
-      <c r="G115" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B116" t="s">
+      <c r="G116" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B117" t="s">
         <v>334</v>
       </c>
-      <c r="C116" t="s">
-        <v>404</v>
-      </c>
-      <c r="D116" t="s">
-        <v>102</v>
-      </c>
-      <c r="E116" t="s">
-        <v>169</v>
-      </c>
-      <c r="F116" t="s">
+      <c r="C117" t="s">
+        <v>403</v>
+      </c>
+      <c r="D117" t="s">
+        <v>102</v>
+      </c>
+      <c r="E117" t="s">
+        <v>169</v>
+      </c>
+      <c r="F117" t="s">
         <v>320</v>
       </c>
-      <c r="G116" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B117" t="s">
+      <c r="G117" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B118" t="s">
         <v>335</v>
       </c>
-      <c r="C117" t="s">
-        <v>404</v>
-      </c>
-      <c r="D117" t="s">
-        <v>102</v>
-      </c>
-      <c r="E117" t="s">
-        <v>169</v>
-      </c>
-      <c r="F117" t="s">
+      <c r="C118" t="s">
+        <v>403</v>
+      </c>
+      <c r="D118" t="s">
+        <v>102</v>
+      </c>
+      <c r="E118" t="s">
+        <v>168</v>
+      </c>
+      <c r="F118" t="s">
         <v>321</v>
       </c>
-      <c r="G117" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B118" t="s">
-        <v>336</v>
-      </c>
-      <c r="C118" t="s">
-        <v>404</v>
-      </c>
-      <c r="D118" t="s">
-        <v>102</v>
-      </c>
-      <c r="E118" t="s">
-        <v>168</v>
-      </c>
-      <c r="F118" t="s">
-        <v>322</v>
-      </c>
       <c r="G118" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="7" t="s">
-        <v>270</v>
+      <c r="A121" s="9" t="s">
+        <v>269</v>
       </c>
       <c r="B121" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C121" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D121" t="s">
         <v>102</v>
@@ -4835,18 +4855,18 @@
         <v>212</v>
       </c>
       <c r="G121" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="7" t="s">
-        <v>270</v>
+      <c r="A122" s="9" t="s">
+        <v>269</v>
       </c>
       <c r="B122" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C122" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D122" t="s">
         <v>102</v>
@@ -4858,18 +4878,18 @@
         <v>213</v>
       </c>
       <c r="G122" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="7" t="s">
-        <v>270</v>
+      <c r="A123" s="9" t="s">
+        <v>269</v>
       </c>
       <c r="B123" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C123" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D123" t="s">
         <v>102</v>
@@ -4881,18 +4901,18 @@
         <v>214</v>
       </c>
       <c r="G123" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B124" t="s">
+        <v>401</v>
+      </c>
+      <c r="C124" t="s">
         <v>405</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B124" t="s">
-        <v>402</v>
-      </c>
-      <c r="C124" t="s">
-        <v>406</v>
       </c>
       <c r="D124" t="s">
         <v>102</v>
@@ -4904,379 +4924,443 @@
         <v>215</v>
       </c>
       <c r="G124" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>457</v>
-      </c>
+      <c r="A125" s="1"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="7" t="s">
-        <v>270</v>
+      <c r="A127" s="8" t="s">
+        <v>269</v>
       </c>
       <c r="B127" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C127" t="s">
         <v>216</v>
       </c>
+      <c r="D127" t="s">
+        <v>102</v>
+      </c>
+      <c r="E127" t="s">
+        <v>168</v>
+      </c>
       <c r="F127" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G127" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="7" t="s">
-        <v>270</v>
+      <c r="A128" s="8" t="s">
+        <v>269</v>
       </c>
       <c r="B128" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C128" t="s">
         <v>216</v>
       </c>
+      <c r="D128" t="s">
+        <v>102</v>
+      </c>
+      <c r="E128" t="s">
+        <v>168</v>
+      </c>
       <c r="F128" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G128" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" s="7" t="s">
-        <v>270</v>
+      <c r="A129" s="8" t="s">
+        <v>269</v>
       </c>
       <c r="B129" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C129" t="s">
         <v>216</v>
       </c>
+      <c r="D129" t="s">
+        <v>102</v>
+      </c>
+      <c r="E129" t="s">
+        <v>168</v>
+      </c>
       <c r="F129" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G129" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" s="7" t="s">
-        <v>270</v>
+      <c r="A130" s="8" t="s">
+        <v>269</v>
       </c>
       <c r="B130" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C130" t="s">
         <v>216</v>
       </c>
+      <c r="D130" t="s">
+        <v>102</v>
+      </c>
+      <c r="E130" t="s">
+        <v>168</v>
+      </c>
       <c r="F130" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G130" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" s="8" t="s">
-        <v>270</v>
+      <c r="A133" s="9" t="s">
+        <v>269</v>
       </c>
       <c r="B133" t="s">
+        <v>361</v>
+      </c>
+      <c r="C133" t="s">
+        <v>402</v>
+      </c>
+      <c r="D133" t="s">
+        <v>449</v>
+      </c>
+      <c r="E133" t="s">
+        <v>168</v>
+      </c>
+      <c r="F133" t="s">
+        <v>238</v>
+      </c>
+      <c r="G133" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B134" t="s">
         <v>362</v>
       </c>
-      <c r="C133" t="s">
-        <v>403</v>
-      </c>
-      <c r="D133" t="s">
-        <v>458</v>
-      </c>
-      <c r="F133" t="s">
+      <c r="C134" t="s">
+        <v>402</v>
+      </c>
+      <c r="D134" t="s">
+        <v>449</v>
+      </c>
+      <c r="E134" t="s">
+        <v>168</v>
+      </c>
+      <c r="F134" t="s">
         <v>239</v>
       </c>
-      <c r="G133" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B134" t="s">
+      <c r="G134" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B135" t="s">
         <v>363</v>
       </c>
-      <c r="C134" t="s">
-        <v>403</v>
-      </c>
-      <c r="D134" t="s">
-        <v>458</v>
-      </c>
-      <c r="F134" t="s">
+      <c r="C135" t="s">
+        <v>402</v>
+      </c>
+      <c r="D135" t="s">
+        <v>449</v>
+      </c>
+      <c r="E135" t="s">
+        <v>168</v>
+      </c>
+      <c r="F135" t="s">
         <v>240</v>
       </c>
-      <c r="G134" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B135" t="s">
+      <c r="G135" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B136" t="s">
         <v>364</v>
       </c>
-      <c r="C135" t="s">
-        <v>403</v>
-      </c>
-      <c r="D135" t="s">
-        <v>458</v>
-      </c>
-      <c r="F135" t="s">
+      <c r="C136" t="s">
+        <v>402</v>
+      </c>
+      <c r="D136" t="s">
+        <v>449</v>
+      </c>
+      <c r="E136" t="s">
+        <v>168</v>
+      </c>
+      <c r="F136" t="s">
         <v>241</v>
       </c>
-      <c r="G135" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A136" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B136" t="s">
+      <c r="G136" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B137" t="s">
         <v>365</v>
       </c>
-      <c r="C136" t="s">
-        <v>403</v>
-      </c>
-      <c r="D136" t="s">
-        <v>458</v>
-      </c>
-      <c r="F136" t="s">
+      <c r="C137" t="s">
+        <v>402</v>
+      </c>
+      <c r="D137" t="s">
+        <v>449</v>
+      </c>
+      <c r="E137" t="s">
+        <v>168</v>
+      </c>
+      <c r="F137" t="s">
+        <v>237</v>
+      </c>
+      <c r="G137" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B138" t="s">
+        <v>366</v>
+      </c>
+      <c r="C138" t="s">
+        <v>402</v>
+      </c>
+      <c r="D138" t="s">
+        <v>449</v>
+      </c>
+      <c r="E138" t="s">
+        <v>168</v>
+      </c>
+      <c r="F138" t="s">
+        <v>247</v>
+      </c>
+      <c r="G138" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B139" t="s">
+        <v>367</v>
+      </c>
+      <c r="C139" t="s">
+        <v>402</v>
+      </c>
+      <c r="D139" t="s">
+        <v>449</v>
+      </c>
+      <c r="E139" t="s">
+        <v>168</v>
+      </c>
+      <c r="F139" t="s">
+        <v>356</v>
+      </c>
+      <c r="G139" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B140" t="s">
+        <v>368</v>
+      </c>
+      <c r="C140" t="s">
+        <v>402</v>
+      </c>
+      <c r="D140" t="s">
+        <v>449</v>
+      </c>
+      <c r="E140" t="s">
+        <v>168</v>
+      </c>
+      <c r="F140" t="s">
+        <v>357</v>
+      </c>
+      <c r="G140" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B141" t="s">
+        <v>369</v>
+      </c>
+      <c r="C141" t="s">
+        <v>402</v>
+      </c>
+      <c r="D141" t="s">
+        <v>449</v>
+      </c>
+      <c r="E141" t="s">
+        <v>168</v>
+      </c>
+      <c r="F141" t="s">
         <v>242</v>
       </c>
-      <c r="G136" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B137" t="s">
-        <v>366</v>
-      </c>
-      <c r="C137" t="s">
-        <v>403</v>
-      </c>
-      <c r="D137" t="s">
-        <v>458</v>
-      </c>
-      <c r="F137" t="s">
-        <v>238</v>
-      </c>
-      <c r="G137" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B138" t="s">
-        <v>367</v>
-      </c>
-      <c r="C138" t="s">
-        <v>403</v>
-      </c>
-      <c r="D138" t="s">
-        <v>458</v>
-      </c>
-      <c r="F138" t="s">
-        <v>248</v>
-      </c>
-      <c r="G138" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A139" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B139" t="s">
-        <v>368</v>
-      </c>
-      <c r="C139" t="s">
-        <v>403</v>
-      </c>
-      <c r="D139" t="s">
-        <v>458</v>
-      </c>
-      <c r="F139" t="s">
-        <v>357</v>
-      </c>
-      <c r="G139" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B140" t="s">
-        <v>369</v>
-      </c>
-      <c r="C140" t="s">
-        <v>403</v>
-      </c>
-      <c r="D140" t="s">
-        <v>458</v>
-      </c>
-      <c r="F140" t="s">
+      <c r="G141" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B142" t="s">
+        <v>370</v>
+      </c>
+      <c r="C142" t="s">
+        <v>402</v>
+      </c>
+      <c r="D142" t="s">
+        <v>449</v>
+      </c>
+      <c r="E142" t="s">
+        <v>168</v>
+      </c>
+      <c r="F142" t="s">
+        <v>243</v>
+      </c>
+      <c r="G142" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B143" t="s">
+        <v>371</v>
+      </c>
+      <c r="C143" t="s">
+        <v>402</v>
+      </c>
+      <c r="D143" t="s">
+        <v>449</v>
+      </c>
+      <c r="E143" t="s">
+        <v>168</v>
+      </c>
+      <c r="F143" t="s">
         <v>358</v>
       </c>
-      <c r="G140" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B141" t="s">
-        <v>370</v>
-      </c>
-      <c r="C141" t="s">
-        <v>403</v>
-      </c>
-      <c r="D141" t="s">
-        <v>458</v>
-      </c>
-      <c r="F141" t="s">
-        <v>243</v>
-      </c>
-      <c r="G141" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B142" t="s">
-        <v>371</v>
-      </c>
-      <c r="C142" t="s">
-        <v>403</v>
-      </c>
-      <c r="D142" t="s">
-        <v>458</v>
-      </c>
-      <c r="F142" t="s">
+      <c r="G143" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B144" t="s">
+        <v>372</v>
+      </c>
+      <c r="C144" t="s">
+        <v>402</v>
+      </c>
+      <c r="D144" t="s">
+        <v>449</v>
+      </c>
+      <c r="E144" t="s">
+        <v>168</v>
+      </c>
+      <c r="F144" t="s">
         <v>244</v>
       </c>
-      <c r="G142" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B143" t="s">
-        <v>372</v>
-      </c>
-      <c r="C143" t="s">
-        <v>403</v>
-      </c>
-      <c r="D143" t="s">
-        <v>458</v>
-      </c>
-      <c r="F143" t="s">
+      <c r="G144" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A145" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B145" t="s">
+        <v>373</v>
+      </c>
+      <c r="C145" t="s">
+        <v>402</v>
+      </c>
+      <c r="D145" t="s">
+        <v>449</v>
+      </c>
+      <c r="E145" t="s">
+        <v>168</v>
+      </c>
+      <c r="F145" t="s">
         <v>359</v>
       </c>
-      <c r="G143" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B144" t="s">
-        <v>373</v>
-      </c>
-      <c r="C144" t="s">
-        <v>403</v>
-      </c>
-      <c r="D144" t="s">
-        <v>458</v>
-      </c>
-      <c r="F144" t="s">
-        <v>245</v>
-      </c>
-      <c r="G144" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A145" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B145" t="s">
+      <c r="G145" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A146" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B146" t="s">
         <v>374</v>
       </c>
-      <c r="C145" t="s">
-        <v>403</v>
-      </c>
-      <c r="D145" t="s">
-        <v>458</v>
-      </c>
-      <c r="F145" t="s">
+      <c r="C146" t="s">
+        <v>402</v>
+      </c>
+      <c r="D146" t="s">
+        <v>449</v>
+      </c>
+      <c r="E146" t="s">
+        <v>168</v>
+      </c>
+      <c r="F146" t="s">
         <v>360</v>
       </c>
-      <c r="G145" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A146" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B146" t="s">
-        <v>375</v>
-      </c>
-      <c r="C146" t="s">
-        <v>403</v>
-      </c>
-      <c r="D146" t="s">
-        <v>458</v>
-      </c>
-      <c r="F146" t="s">
-        <v>361</v>
-      </c>
       <c r="G146" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A149" s="8" t="s">
-        <v>270</v>
+      <c r="A149" s="9" t="s">
+        <v>269</v>
       </c>
       <c r="B149" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C149" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D149" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E149" t="s">
         <v>168</v>
@@ -5285,372 +5369,406 @@
         <v>217</v>
       </c>
       <c r="G149" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="S149" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A150" s="8" t="s">
-        <v>270</v>
+      <c r="A150" s="9" t="s">
+        <v>269</v>
       </c>
       <c r="B150" t="s">
+        <v>417</v>
+      </c>
+      <c r="C150" t="s">
+        <v>402</v>
+      </c>
+      <c r="D150" t="s">
+        <v>449</v>
+      </c>
+      <c r="E150" t="s">
+        <v>168</v>
+      </c>
+      <c r="F150" t="s">
+        <v>419</v>
+      </c>
+      <c r="G150" t="s">
+        <v>391</v>
+      </c>
+      <c r="S150" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A151" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B151" t="s">
         <v>418</v>
       </c>
-      <c r="C150" t="s">
-        <v>403</v>
-      </c>
-      <c r="D150" t="s">
-        <v>458</v>
-      </c>
-      <c r="E150" t="s">
-        <v>168</v>
-      </c>
-      <c r="F150" t="s">
+      <c r="C151" t="s">
+        <v>402</v>
+      </c>
+      <c r="D151" t="s">
+        <v>449</v>
+      </c>
+      <c r="E151" t="s">
+        <v>169</v>
+      </c>
+      <c r="F151" t="s">
+        <v>422</v>
+      </c>
+      <c r="G151" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A152" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B152" t="s">
         <v>420</v>
       </c>
-      <c r="G150" t="s">
-        <v>392</v>
-      </c>
-      <c r="S150" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A151" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B151" t="s">
-        <v>419</v>
-      </c>
-      <c r="C151" t="s">
-        <v>403</v>
-      </c>
-      <c r="D151" t="s">
-        <v>458</v>
-      </c>
-      <c r="E151" t="s">
-        <v>169</v>
-      </c>
-      <c r="F151" t="s">
+      <c r="C152" t="s">
+        <v>402</v>
+      </c>
+      <c r="D152" t="s">
+        <v>449</v>
+      </c>
+      <c r="E152" t="s">
+        <v>168</v>
+      </c>
+      <c r="F152" t="s">
+        <v>422</v>
+      </c>
+      <c r="G152" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A153" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B153" t="s">
+        <v>421</v>
+      </c>
+      <c r="C153" t="s">
+        <v>402</v>
+      </c>
+      <c r="D153" t="s">
+        <v>449</v>
+      </c>
+      <c r="E153" t="s">
+        <v>168</v>
+      </c>
+      <c r="F153" t="s">
         <v>423</v>
       </c>
-      <c r="G151" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A152" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B152" t="s">
-        <v>421</v>
-      </c>
-      <c r="C152" t="s">
-        <v>403</v>
-      </c>
-      <c r="D152" t="s">
-        <v>458</v>
-      </c>
-      <c r="E152" t="s">
-        <v>168</v>
-      </c>
-      <c r="F152" t="s">
-        <v>423</v>
-      </c>
-      <c r="G152" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A153" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B153" t="s">
-        <v>422</v>
-      </c>
-      <c r="C153" t="s">
-        <v>403</v>
-      </c>
-      <c r="D153" t="s">
-        <v>458</v>
-      </c>
-      <c r="E153" t="s">
-        <v>168</v>
-      </c>
-      <c r="F153" t="s">
+      <c r="G153" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A154" s="1"/>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A156" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B156" t="s">
         <v>424</v>
       </c>
-      <c r="G153" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A154" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A156" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
+        <v>450</v>
+      </c>
+      <c r="D156" t="s">
+        <v>449</v>
+      </c>
+      <c r="E156" t="s">
+        <v>168</v>
+      </c>
+      <c r="F156" t="s">
+        <v>430</v>
+      </c>
+      <c r="G156" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A157" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B157" t="s">
         <v>425</v>
       </c>
-      <c r="C156" t="s">
-        <v>459</v>
-      </c>
-      <c r="E156" t="s">
-        <v>168</v>
-      </c>
-      <c r="F156" t="s">
+      <c r="C157" t="s">
+        <v>450</v>
+      </c>
+      <c r="D157" t="s">
+        <v>449</v>
+      </c>
+      <c r="E157" t="s">
+        <v>168</v>
+      </c>
+      <c r="F157" t="s">
         <v>431</v>
       </c>
-      <c r="G156" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A157" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B157" t="s">
+      <c r="G157" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A158" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B158" t="s">
         <v>426</v>
       </c>
-      <c r="C157" t="s">
-        <v>459</v>
-      </c>
-      <c r="E157" t="s">
-        <v>168</v>
-      </c>
-      <c r="F157" t="s">
+      <c r="C158" t="s">
+        <v>450</v>
+      </c>
+      <c r="D158" t="s">
+        <v>449</v>
+      </c>
+      <c r="E158" t="s">
+        <v>168</v>
+      </c>
+      <c r="F158" t="s">
         <v>432</v>
       </c>
-      <c r="G157" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A158" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B158" t="s">
+      <c r="G158" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A159" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B159" t="s">
         <v>427</v>
       </c>
-      <c r="C158" t="s">
-        <v>459</v>
-      </c>
-      <c r="E158" t="s">
-        <v>168</v>
-      </c>
-      <c r="F158" t="s">
+      <c r="C159" t="s">
+        <v>450</v>
+      </c>
+      <c r="D159" t="s">
+        <v>449</v>
+      </c>
+      <c r="E159" t="s">
+        <v>168</v>
+      </c>
+      <c r="F159" t="s">
         <v>433</v>
       </c>
-      <c r="G158" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A159" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B159" t="s">
+      <c r="G159" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A160" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B160" t="s">
         <v>428</v>
       </c>
-      <c r="C159" t="s">
-        <v>459</v>
-      </c>
-      <c r="E159" t="s">
-        <v>168</v>
-      </c>
-      <c r="F159" t="s">
+      <c r="C160" t="s">
+        <v>450</v>
+      </c>
+      <c r="D160" t="s">
+        <v>449</v>
+      </c>
+      <c r="E160" t="s">
+        <v>168</v>
+      </c>
+      <c r="F160" t="s">
         <v>434</v>
       </c>
-      <c r="G159" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A160" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B160" t="s">
+      <c r="G160" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B161" t="s">
         <v>429</v>
       </c>
-      <c r="C160" t="s">
-        <v>459</v>
-      </c>
-      <c r="E160" t="s">
-        <v>168</v>
-      </c>
-      <c r="F160" t="s">
+      <c r="C161" t="s">
+        <v>450</v>
+      </c>
+      <c r="D161" t="s">
+        <v>449</v>
+      </c>
+      <c r="E161" t="s">
+        <v>168</v>
+      </c>
+      <c r="F161" t="s">
         <v>435</v>
       </c>
-      <c r="G160" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A161" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B161" t="s">
-        <v>430</v>
-      </c>
-      <c r="C161" t="s">
-        <v>459</v>
-      </c>
-      <c r="E161" t="s">
-        <v>168</v>
-      </c>
-      <c r="F161" t="s">
-        <v>436</v>
-      </c>
       <c r="G161" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A162" s="6" t="s">
-        <v>270</v>
+      <c r="A162" s="7" t="s">
+        <v>269</v>
       </c>
       <c r="B162" t="s">
+        <v>437</v>
+      </c>
+      <c r="C162" t="s">
+        <v>450</v>
+      </c>
+      <c r="D162" t="s">
+        <v>449</v>
+      </c>
+      <c r="E162" t="s">
+        <v>168</v>
+      </c>
+      <c r="F162" t="s">
+        <v>443</v>
+      </c>
+      <c r="G162" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B163" t="s">
         <v>438</v>
       </c>
-      <c r="C162" t="s">
-        <v>459</v>
-      </c>
-      <c r="E162" t="s">
-        <v>168</v>
-      </c>
-      <c r="F162" t="s">
+      <c r="C163" t="s">
+        <v>450</v>
+      </c>
+      <c r="D163" t="s">
+        <v>449</v>
+      </c>
+      <c r="E163" t="s">
+        <v>168</v>
+      </c>
+      <c r="F163" t="s">
         <v>444</v>
       </c>
-      <c r="G162" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A163" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B163" t="s">
+      <c r="G163" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B164" t="s">
         <v>439</v>
       </c>
-      <c r="C163" t="s">
-        <v>459</v>
-      </c>
-      <c r="E163" t="s">
-        <v>168</v>
-      </c>
-      <c r="F163" t="s">
+      <c r="C164" t="s">
+        <v>450</v>
+      </c>
+      <c r="D164" t="s">
+        <v>449</v>
+      </c>
+      <c r="E164" t="s">
+        <v>168</v>
+      </c>
+      <c r="F164" t="s">
         <v>445</v>
       </c>
-      <c r="G163" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A164" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B164" t="s">
+      <c r="G164" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B165" t="s">
         <v>440</v>
       </c>
-      <c r="C164" t="s">
-        <v>459</v>
-      </c>
-      <c r="E164" t="s">
-        <v>168</v>
-      </c>
-      <c r="F164" t="s">
+      <c r="C165" t="s">
+        <v>450</v>
+      </c>
+      <c r="D165" t="s">
+        <v>449</v>
+      </c>
+      <c r="E165" t="s">
+        <v>168</v>
+      </c>
+      <c r="F165" t="s">
         <v>446</v>
       </c>
-      <c r="G164" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B165" t="s">
+      <c r="G165" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B166" t="s">
         <v>441</v>
       </c>
-      <c r="C165" t="s">
-        <v>459</v>
-      </c>
-      <c r="E165" t="s">
-        <v>168</v>
-      </c>
-      <c r="F165" t="s">
+      <c r="C166" t="s">
+        <v>450</v>
+      </c>
+      <c r="D166" t="s">
+        <v>449</v>
+      </c>
+      <c r="E166" t="s">
+        <v>168</v>
+      </c>
+      <c r="F166" t="s">
         <v>447</v>
       </c>
-      <c r="G165" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A166" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B166" t="s">
+      <c r="G166" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B167" t="s">
         <v>442</v>
       </c>
-      <c r="C166" t="s">
-        <v>459</v>
-      </c>
-      <c r="E166" t="s">
-        <v>168</v>
-      </c>
-      <c r="F166" t="s">
+      <c r="C167" t="s">
+        <v>450</v>
+      </c>
+      <c r="D167" t="s">
+        <v>449</v>
+      </c>
+      <c r="E167" t="s">
+        <v>168</v>
+      </c>
+      <c r="F167" t="s">
         <v>448</v>
       </c>
-      <c r="G166" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A167" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B167" t="s">
-        <v>443</v>
-      </c>
-      <c r="C167" t="s">
-        <v>459</v>
-      </c>
-      <c r="E167" t="s">
-        <v>168</v>
-      </c>
-      <c r="F167" t="s">
-        <v>449</v>
-      </c>
       <c r="G167" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>166</v>
+        <v>452</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172" s="7" t="s">
-        <v>270</v>
+      <c r="A172" s="6" t="s">
+        <v>269</v>
       </c>
       <c r="B172" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C172" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D172" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E172" t="s">
         <v>168</v>
@@ -5659,21 +5777,21 @@
         <v>218</v>
       </c>
       <c r="G172" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A173" s="7" t="s">
-        <v>270</v>
+      <c r="A173" s="8" t="s">
+        <v>269</v>
       </c>
       <c r="B173" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C173" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D173" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E173" t="s">
         <v>168</v>
@@ -5682,21 +5800,21 @@
         <v>219</v>
       </c>
       <c r="G173" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A174" s="7" t="s">
-        <v>270</v>
+      <c r="A174" s="8" t="s">
+        <v>269</v>
       </c>
       <c r="B174" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C174" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D174" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E174" t="s">
         <v>169</v>
@@ -5705,21 +5823,21 @@
         <v>220</v>
       </c>
       <c r="G174" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A175" s="7" t="s">
-        <v>270</v>
+      <c r="A175" s="8" t="s">
+        <v>269</v>
       </c>
       <c r="B175" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C175" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D175" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E175" t="s">
         <v>169</v>
@@ -5728,21 +5846,21 @@
         <v>221</v>
       </c>
       <c r="G175" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A176" s="7" t="s">
-        <v>270</v>
+      <c r="A176" s="8" t="s">
+        <v>269</v>
       </c>
       <c r="B176" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C176" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D176" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E176" t="s">
         <v>168</v>
@@ -5751,21 +5869,21 @@
         <v>222</v>
       </c>
       <c r="G176" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A177" s="7" t="s">
-        <v>270</v>
+      <c r="A177" s="8" t="s">
+        <v>269</v>
       </c>
       <c r="B177" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C177" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D177" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E177" t="s">
         <v>168</v>
@@ -5774,21 +5892,21 @@
         <v>223</v>
       </c>
       <c r="G177" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A178" s="7" t="s">
-        <v>270</v>
+      <c r="A178" s="8" t="s">
+        <v>269</v>
       </c>
       <c r="B178" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C178" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D178" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E178" t="s">
         <v>168</v>
@@ -5797,66 +5915,66 @@
         <v>224</v>
       </c>
       <c r="G178" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A179" s="7" t="s">
-        <v>270</v>
+      <c r="A179" s="8" t="s">
+        <v>269</v>
       </c>
       <c r="B179" t="s">
+        <v>384</v>
+      </c>
+      <c r="C179" t="s">
+        <v>436</v>
+      </c>
+      <c r="D179" t="s">
+        <v>449</v>
+      </c>
+      <c r="E179" t="s">
+        <v>168</v>
+      </c>
+      <c r="F179" t="s">
+        <v>375</v>
+      </c>
+      <c r="G179" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B180" t="s">
         <v>385</v>
       </c>
-      <c r="C179" t="s">
-        <v>437</v>
-      </c>
-      <c r="D179" t="s">
-        <v>458</v>
-      </c>
-      <c r="E179" t="s">
-        <v>168</v>
-      </c>
-      <c r="F179" t="s">
+      <c r="C180" t="s">
+        <v>436</v>
+      </c>
+      <c r="D180" t="s">
+        <v>449</v>
+      </c>
+      <c r="E180" t="s">
+        <v>168</v>
+      </c>
+      <c r="F180" t="s">
         <v>376</v>
       </c>
-      <c r="G179" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A180" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B180" t="s">
-        <v>386</v>
-      </c>
-      <c r="C180" t="s">
-        <v>437</v>
-      </c>
-      <c r="D180" t="s">
-        <v>458</v>
-      </c>
-      <c r="E180" t="s">
-        <v>168</v>
-      </c>
-      <c r="F180" t="s">
-        <v>377</v>
-      </c>
       <c r="G180" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A184" s="7" t="s">
-        <v>270</v>
+      <c r="A184" s="6" t="s">
+        <v>269</v>
       </c>
       <c r="B184" t="s">
         <v>233</v>
@@ -5874,12 +5992,12 @@
         <v>228</v>
       </c>
       <c r="G184" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A185" s="7" t="s">
-        <v>270</v>
+      <c r="A185" s="8" t="s">
+        <v>269</v>
       </c>
       <c r="B185" t="s">
         <v>234</v>
@@ -5897,15 +6015,15 @@
         <v>229</v>
       </c>
       <c r="G185" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A186" s="7" t="s">
-        <v>270</v>
+      <c r="A186" s="8" t="s">
+        <v>269</v>
       </c>
       <c r="B186" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C186" t="s">
         <v>203</v>
@@ -5913,19 +6031,22 @@
       <c r="D186" t="s">
         <v>102</v>
       </c>
+      <c r="E186" t="s">
+        <v>169</v>
+      </c>
       <c r="F186" t="s">
         <v>230</v>
       </c>
       <c r="G186" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A187" s="7" t="s">
-        <v>270</v>
+      <c r="A187" s="8" t="s">
+        <v>269</v>
       </c>
       <c r="B187" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C187" t="s">
         <v>203</v>
@@ -5933,19 +6054,22 @@
       <c r="D187" t="s">
         <v>102</v>
       </c>
+      <c r="E187" t="s">
+        <v>169</v>
+      </c>
       <c r="F187" t="s">
         <v>231</v>
       </c>
       <c r="G187" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A188" s="7" t="s">
+      <c r="A188" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B188" t="s">
         <v>270</v>
-      </c>
-      <c r="B188" t="s">
-        <v>271</v>
       </c>
       <c r="C188" t="s">
         <v>203</v>
@@ -5953,998 +6077,1023 @@
       <c r="D188" t="s">
         <v>102</v>
       </c>
+      <c r="E188" t="s">
+        <v>168</v>
+      </c>
       <c r="F188" t="s">
         <v>232</v>
       </c>
       <c r="G188" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A192" s="7" t="s">
-        <v>270</v>
+      <c r="A192" s="9" t="s">
+        <v>269</v>
       </c>
       <c r="B192" t="s">
+        <v>291</v>
+      </c>
+      <c r="C192" t="s">
+        <v>415</v>
+      </c>
+      <c r="D192" t="s">
+        <v>102</v>
+      </c>
+      <c r="E192" t="s">
+        <v>169</v>
+      </c>
+      <c r="F192" t="s">
+        <v>274</v>
+      </c>
+      <c r="G192" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B193" t="s">
         <v>292</v>
       </c>
-      <c r="C192" t="s">
-        <v>416</v>
-      </c>
-      <c r="D192" t="s">
-        <v>102</v>
-      </c>
-      <c r="E192" t="s">
-        <v>169</v>
-      </c>
-      <c r="F192" t="s">
+      <c r="C193" t="s">
+        <v>415</v>
+      </c>
+      <c r="D193" t="s">
+        <v>102</v>
+      </c>
+      <c r="E193" t="s">
+        <v>169</v>
+      </c>
+      <c r="F193" t="s">
         <v>275</v>
       </c>
-      <c r="G192" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A193" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B193" t="s">
+      <c r="G193" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B194" t="s">
         <v>293</v>
       </c>
-      <c r="C193" t="s">
-        <v>416</v>
-      </c>
-      <c r="D193" t="s">
-        <v>102</v>
-      </c>
-      <c r="E193" t="s">
-        <v>169</v>
-      </c>
-      <c r="F193" t="s">
+      <c r="C194" t="s">
+        <v>415</v>
+      </c>
+      <c r="D194" t="s">
+        <v>102</v>
+      </c>
+      <c r="E194" t="s">
+        <v>169</v>
+      </c>
+      <c r="F194" t="s">
         <v>276</v>
       </c>
-      <c r="G193" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A194" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B194" t="s">
+      <c r="G194" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B195" t="s">
         <v>294</v>
       </c>
-      <c r="C194" t="s">
-        <v>416</v>
-      </c>
-      <c r="D194" t="s">
-        <v>102</v>
-      </c>
-      <c r="E194" t="s">
-        <v>169</v>
-      </c>
-      <c r="F194" t="s">
+      <c r="C195" t="s">
+        <v>415</v>
+      </c>
+      <c r="D195" t="s">
+        <v>102</v>
+      </c>
+      <c r="E195" t="s">
+        <v>169</v>
+      </c>
+      <c r="F195" t="s">
         <v>277</v>
       </c>
-      <c r="G194" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A195" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B195" t="s">
+      <c r="G195" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B196" t="s">
         <v>295</v>
       </c>
-      <c r="C195" t="s">
-        <v>416</v>
-      </c>
-      <c r="D195" t="s">
-        <v>102</v>
-      </c>
-      <c r="E195" t="s">
-        <v>169</v>
-      </c>
-      <c r="F195" t="s">
+      <c r="C196" t="s">
+        <v>415</v>
+      </c>
+      <c r="D196" t="s">
+        <v>102</v>
+      </c>
+      <c r="E196" t="s">
+        <v>169</v>
+      </c>
+      <c r="F196" t="s">
         <v>278</v>
       </c>
-      <c r="G195" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A196" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B196" t="s">
+      <c r="G196" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B197" t="s">
         <v>296</v>
       </c>
-      <c r="C196" t="s">
-        <v>416</v>
-      </c>
-      <c r="D196" t="s">
-        <v>102</v>
-      </c>
-      <c r="E196" t="s">
-        <v>169</v>
-      </c>
-      <c r="F196" t="s">
+      <c r="C197" t="s">
+        <v>415</v>
+      </c>
+      <c r="D197" t="s">
+        <v>102</v>
+      </c>
+      <c r="E197" t="s">
+        <v>169</v>
+      </c>
+      <c r="F197" t="s">
         <v>279</v>
       </c>
-      <c r="G196" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A197" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B197" t="s">
+      <c r="G197" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B198" t="s">
         <v>297</v>
       </c>
-      <c r="C197" t="s">
-        <v>416</v>
-      </c>
-      <c r="D197" t="s">
-        <v>102</v>
-      </c>
-      <c r="E197" t="s">
-        <v>169</v>
-      </c>
-      <c r="F197" t="s">
+      <c r="C198" t="s">
+        <v>415</v>
+      </c>
+      <c r="D198" t="s">
+        <v>102</v>
+      </c>
+      <c r="E198" t="s">
+        <v>169</v>
+      </c>
+      <c r="F198" t="s">
         <v>280</v>
       </c>
-      <c r="G197" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A198" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B198" t="s">
+      <c r="G198" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B199" t="s">
         <v>298</v>
       </c>
-      <c r="C198" t="s">
-        <v>416</v>
-      </c>
-      <c r="D198" t="s">
-        <v>102</v>
-      </c>
-      <c r="E198" t="s">
-        <v>169</v>
-      </c>
-      <c r="F198" t="s">
+      <c r="C199" t="s">
+        <v>415</v>
+      </c>
+      <c r="D199" t="s">
+        <v>102</v>
+      </c>
+      <c r="E199" t="s">
+        <v>169</v>
+      </c>
+      <c r="F199" t="s">
         <v>281</v>
       </c>
-      <c r="G198" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A199" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B199" t="s">
+      <c r="G199" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B200" t="s">
         <v>299</v>
       </c>
-      <c r="C199" t="s">
-        <v>416</v>
-      </c>
-      <c r="D199" t="s">
-        <v>102</v>
-      </c>
-      <c r="E199" t="s">
-        <v>169</v>
-      </c>
-      <c r="F199" t="s">
+      <c r="C200" t="s">
+        <v>415</v>
+      </c>
+      <c r="D200" t="s">
+        <v>102</v>
+      </c>
+      <c r="E200" t="s">
+        <v>169</v>
+      </c>
+      <c r="F200" t="s">
         <v>282</v>
       </c>
-      <c r="G199" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A200" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B200" t="s">
+      <c r="G200" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B201" t="s">
         <v>300</v>
       </c>
-      <c r="C200" t="s">
-        <v>416</v>
-      </c>
-      <c r="D200" t="s">
-        <v>102</v>
-      </c>
-      <c r="E200" t="s">
-        <v>169</v>
-      </c>
-      <c r="F200" t="s">
+      <c r="C201" t="s">
+        <v>415</v>
+      </c>
+      <c r="D201" t="s">
+        <v>102</v>
+      </c>
+      <c r="E201" t="s">
+        <v>169</v>
+      </c>
+      <c r="F201" t="s">
         <v>283</v>
       </c>
-      <c r="G200" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A201" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B201" t="s">
+      <c r="G201" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B202" t="s">
         <v>301</v>
       </c>
-      <c r="C201" t="s">
-        <v>416</v>
-      </c>
-      <c r="D201" t="s">
-        <v>102</v>
-      </c>
-      <c r="E201" t="s">
-        <v>169</v>
-      </c>
-      <c r="F201" t="s">
+      <c r="C202" t="s">
+        <v>415</v>
+      </c>
+      <c r="D202" t="s">
+        <v>102</v>
+      </c>
+      <c r="E202" t="s">
+        <v>169</v>
+      </c>
+      <c r="F202" t="s">
         <v>284</v>
       </c>
-      <c r="G201" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A202" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B202" t="s">
+      <c r="G202" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B203" t="s">
         <v>302</v>
       </c>
-      <c r="C202" t="s">
-        <v>416</v>
-      </c>
-      <c r="D202" t="s">
-        <v>102</v>
-      </c>
-      <c r="E202" t="s">
-        <v>169</v>
-      </c>
-      <c r="F202" t="s">
+      <c r="C203" t="s">
+        <v>415</v>
+      </c>
+      <c r="D203" t="s">
+        <v>102</v>
+      </c>
+      <c r="E203" t="s">
+        <v>169</v>
+      </c>
+      <c r="F203" t="s">
         <v>285</v>
       </c>
-      <c r="G202" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A203" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B203" t="s">
+      <c r="G203" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B204" t="s">
         <v>303</v>
       </c>
-      <c r="C203" t="s">
-        <v>416</v>
-      </c>
-      <c r="D203" t="s">
-        <v>102</v>
-      </c>
-      <c r="E203" t="s">
-        <v>169</v>
-      </c>
-      <c r="F203" t="s">
+      <c r="C204" t="s">
+        <v>415</v>
+      </c>
+      <c r="D204" t="s">
+        <v>102</v>
+      </c>
+      <c r="E204" t="s">
+        <v>169</v>
+      </c>
+      <c r="F204" t="s">
         <v>286</v>
       </c>
-      <c r="G203" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A204" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B204" t="s">
+      <c r="G204" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B205" t="s">
         <v>304</v>
       </c>
-      <c r="C204" t="s">
-        <v>416</v>
-      </c>
-      <c r="D204" t="s">
-        <v>102</v>
-      </c>
-      <c r="E204" t="s">
-        <v>169</v>
-      </c>
-      <c r="F204" t="s">
+      <c r="C205" t="s">
+        <v>415</v>
+      </c>
+      <c r="D205" t="s">
+        <v>102</v>
+      </c>
+      <c r="E205" t="s">
+        <v>169</v>
+      </c>
+      <c r="F205" t="s">
         <v>287</v>
       </c>
-      <c r="G204" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A205" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B205" t="s">
+      <c r="G205" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B206" t="s">
         <v>305</v>
       </c>
-      <c r="C205" t="s">
-        <v>416</v>
-      </c>
-      <c r="D205" t="s">
-        <v>102</v>
-      </c>
-      <c r="E205" t="s">
-        <v>169</v>
-      </c>
-      <c r="F205" t="s">
+      <c r="C206" t="s">
+        <v>415</v>
+      </c>
+      <c r="D206" t="s">
+        <v>102</v>
+      </c>
+      <c r="E206" t="s">
+        <v>169</v>
+      </c>
+      <c r="F206" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="G205" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A206" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B206" t="s">
+      <c r="G206" t="s">
+        <v>394</v>
+      </c>
+      <c r="H206" s="5"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B207" t="s">
         <v>306</v>
       </c>
-      <c r="C206" t="s">
-        <v>416</v>
-      </c>
-      <c r="D206" t="s">
-        <v>102</v>
-      </c>
-      <c r="E206" t="s">
-        <v>169</v>
-      </c>
-      <c r="F206" s="5" t="s">
+      <c r="C207" t="s">
+        <v>415</v>
+      </c>
+      <c r="D207" t="s">
+        <v>102</v>
+      </c>
+      <c r="E207" t="s">
+        <v>169</v>
+      </c>
+      <c r="F207" t="s">
         <v>289</v>
       </c>
-      <c r="G206" t="s">
-        <v>395</v>
-      </c>
-      <c r="H206" s="5"/>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A207" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B207" t="s">
+      <c r="G207" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B208" t="s">
         <v>307</v>
       </c>
-      <c r="C207" t="s">
-        <v>416</v>
-      </c>
-      <c r="D207" t="s">
-        <v>102</v>
-      </c>
-      <c r="E207" t="s">
-        <v>169</v>
-      </c>
-      <c r="F207" t="s">
+      <c r="C208" t="s">
+        <v>415</v>
+      </c>
+      <c r="D208" t="s">
+        <v>102</v>
+      </c>
+      <c r="E208" t="s">
+        <v>169</v>
+      </c>
+      <c r="F208" t="s">
         <v>290</v>
       </c>
-      <c r="G207" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A208" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B208" t="s">
-        <v>308</v>
-      </c>
-      <c r="C208" t="s">
-        <v>416</v>
-      </c>
-      <c r="D208" t="s">
-        <v>102</v>
-      </c>
-      <c r="E208" t="s">
-        <v>169</v>
-      </c>
-      <c r="F208" t="s">
-        <v>291</v>
-      </c>
       <c r="G208" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A211" s="8" t="s">
-        <v>270</v>
+      <c r="A211" s="9" t="s">
+        <v>269</v>
       </c>
       <c r="B211" t="s">
+        <v>251</v>
+      </c>
+      <c r="C211" t="s">
+        <v>402</v>
+      </c>
+      <c r="D211" t="s">
+        <v>449</v>
+      </c>
+      <c r="E211" t="s">
+        <v>169</v>
+      </c>
+      <c r="F211" t="s">
+        <v>237</v>
+      </c>
+      <c r="G211" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A212" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B212" t="s">
         <v>252</v>
       </c>
-      <c r="C211" t="s">
-        <v>403</v>
-      </c>
-      <c r="D211" t="s">
-        <v>458</v>
-      </c>
-      <c r="E211" t="s">
-        <v>169</v>
-      </c>
-      <c r="F211" t="s">
+      <c r="C212" t="s">
+        <v>402</v>
+      </c>
+      <c r="D212" t="s">
+        <v>449</v>
+      </c>
+      <c r="E212" t="s">
+        <v>169</v>
+      </c>
+      <c r="F212" t="s">
         <v>238</v>
       </c>
-      <c r="G211" t="s">
+      <c r="G212" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B213" t="s">
+        <v>253</v>
+      </c>
+      <c r="C213" t="s">
+        <v>402</v>
+      </c>
+      <c r="D213" t="s">
+        <v>449</v>
+      </c>
+      <c r="E213" t="s">
+        <v>169</v>
+      </c>
+      <c r="F213" t="s">
+        <v>239</v>
+      </c>
+      <c r="G213" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A214" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B214" t="s">
+        <v>254</v>
+      </c>
+      <c r="C214" t="s">
+        <v>402</v>
+      </c>
+      <c r="D214" t="s">
+        <v>449</v>
+      </c>
+      <c r="E214" t="s">
+        <v>169</v>
+      </c>
+      <c r="F214" t="s">
+        <v>240</v>
+      </c>
+      <c r="G214" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A215" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B215" t="s">
+        <v>255</v>
+      </c>
+      <c r="C215" t="s">
+        <v>402</v>
+      </c>
+      <c r="D215" t="s">
+        <v>449</v>
+      </c>
+      <c r="E215" t="s">
+        <v>169</v>
+      </c>
+      <c r="F215" t="s">
+        <v>241</v>
+      </c>
+      <c r="G215" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B216" t="s">
+        <v>256</v>
+      </c>
+      <c r="C216" t="s">
+        <v>402</v>
+      </c>
+      <c r="D216" t="s">
+        <v>449</v>
+      </c>
+      <c r="E216" t="s">
+        <v>169</v>
+      </c>
+      <c r="F216" t="s">
+        <v>242</v>
+      </c>
+      <c r="G216" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A217" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B217" t="s">
+        <v>257</v>
+      </c>
+      <c r="C217" t="s">
+        <v>402</v>
+      </c>
+      <c r="D217" t="s">
+        <v>449</v>
+      </c>
+      <c r="E217" t="s">
+        <v>169</v>
+      </c>
+      <c r="F217" t="s">
+        <v>243</v>
+      </c>
+      <c r="G217" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A218" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B218" t="s">
+        <v>258</v>
+      </c>
+      <c r="C218" t="s">
+        <v>402</v>
+      </c>
+      <c r="D218" t="s">
+        <v>449</v>
+      </c>
+      <c r="E218" t="s">
+        <v>169</v>
+      </c>
+      <c r="F218" t="s">
+        <v>244</v>
+      </c>
+      <c r="G218" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A219" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B219" t="s">
+        <v>259</v>
+      </c>
+      <c r="C219" t="s">
+        <v>402</v>
+      </c>
+      <c r="D219" t="s">
+        <v>449</v>
+      </c>
+      <c r="E219" t="s">
+        <v>169</v>
+      </c>
+      <c r="F219" t="s">
+        <v>245</v>
+      </c>
+      <c r="G219" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A220" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B220" t="s">
+        <v>263</v>
+      </c>
+      <c r="C220" t="s">
+        <v>402</v>
+      </c>
+      <c r="D220" t="s">
+        <v>449</v>
+      </c>
+      <c r="E220" t="s">
+        <v>169</v>
+      </c>
+      <c r="F220" t="s">
+        <v>246</v>
+      </c>
+      <c r="G220" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A221" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B221" t="s">
+        <v>262</v>
+      </c>
+      <c r="C221" t="s">
+        <v>402</v>
+      </c>
+      <c r="D221" t="s">
+        <v>449</v>
+      </c>
+      <c r="E221" t="s">
+        <v>169</v>
+      </c>
+      <c r="F221" t="s">
+        <v>247</v>
+      </c>
+      <c r="G221" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B222" t="s">
+        <v>261</v>
+      </c>
+      <c r="C222" t="s">
+        <v>402</v>
+      </c>
+      <c r="D222" t="s">
+        <v>449</v>
+      </c>
+      <c r="E222" t="s">
+        <v>169</v>
+      </c>
+      <c r="F222" t="s">
+        <v>248</v>
+      </c>
+      <c r="G222" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B223" t="s">
+        <v>260</v>
+      </c>
+      <c r="C223" t="s">
+        <v>402</v>
+      </c>
+      <c r="D223" t="s">
+        <v>449</v>
+      </c>
+      <c r="E223" t="s">
+        <v>169</v>
+      </c>
+      <c r="F223" t="s">
+        <v>249</v>
+      </c>
+      <c r="G223" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A224" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B224" t="s">
+        <v>264</v>
+      </c>
+      <c r="C224" t="s">
+        <v>402</v>
+      </c>
+      <c r="D224" t="s">
+        <v>449</v>
+      </c>
+      <c r="E224" t="s">
+        <v>169</v>
+      </c>
+      <c r="F224" t="s">
+        <v>250</v>
+      </c>
+      <c r="G224" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A227" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B227" t="s">
+        <v>347</v>
+      </c>
+      <c r="C227" t="s">
+        <v>405</v>
+      </c>
+      <c r="D227" t="s">
+        <v>102</v>
+      </c>
+      <c r="E227" t="s">
+        <v>169</v>
+      </c>
+      <c r="F227" t="s">
+        <v>413</v>
+      </c>
+      <c r="G227" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A212" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B212" t="s">
-        <v>253</v>
-      </c>
-      <c r="C212" t="s">
-        <v>403</v>
-      </c>
-      <c r="D212" t="s">
-        <v>458</v>
-      </c>
-      <c r="E212" t="s">
-        <v>169</v>
-      </c>
-      <c r="F212" t="s">
-        <v>239</v>
-      </c>
-      <c r="G212" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A213" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B213" t="s">
-        <v>254</v>
-      </c>
-      <c r="C213" t="s">
-        <v>403</v>
-      </c>
-      <c r="D213" t="s">
-        <v>458</v>
-      </c>
-      <c r="E213" t="s">
-        <v>169</v>
-      </c>
-      <c r="F213" t="s">
-        <v>240</v>
-      </c>
-      <c r="G213" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A214" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B214" t="s">
-        <v>255</v>
-      </c>
-      <c r="C214" t="s">
-        <v>403</v>
-      </c>
-      <c r="D214" t="s">
-        <v>458</v>
-      </c>
-      <c r="E214" t="s">
-        <v>169</v>
-      </c>
-      <c r="F214" t="s">
-        <v>241</v>
-      </c>
-      <c r="G214" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A215" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B215" t="s">
-        <v>256</v>
-      </c>
-      <c r="C215" t="s">
-        <v>403</v>
-      </c>
-      <c r="D215" t="s">
-        <v>458</v>
-      </c>
-      <c r="E215" t="s">
-        <v>169</v>
-      </c>
-      <c r="F215" t="s">
-        <v>242</v>
-      </c>
-      <c r="G215" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A216" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B216" t="s">
-        <v>257</v>
-      </c>
-      <c r="C216" t="s">
-        <v>403</v>
-      </c>
-      <c r="D216" t="s">
-        <v>458</v>
-      </c>
-      <c r="E216" t="s">
-        <v>169</v>
-      </c>
-      <c r="F216" t="s">
-        <v>243</v>
-      </c>
-      <c r="G216" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A217" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B217" t="s">
-        <v>258</v>
-      </c>
-      <c r="C217" t="s">
-        <v>403</v>
-      </c>
-      <c r="D217" t="s">
-        <v>458</v>
-      </c>
-      <c r="E217" t="s">
-        <v>169</v>
-      </c>
-      <c r="F217" t="s">
-        <v>244</v>
-      </c>
-      <c r="G217" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A218" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B218" t="s">
-        <v>259</v>
-      </c>
-      <c r="C218" t="s">
-        <v>403</v>
-      </c>
-      <c r="D218" t="s">
-        <v>458</v>
-      </c>
-      <c r="E218" t="s">
-        <v>169</v>
-      </c>
-      <c r="F218" t="s">
-        <v>245</v>
-      </c>
-      <c r="G218" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A219" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B219" t="s">
-        <v>260</v>
-      </c>
-      <c r="C219" t="s">
-        <v>403</v>
-      </c>
-      <c r="D219" t="s">
-        <v>458</v>
-      </c>
-      <c r="E219" t="s">
-        <v>169</v>
-      </c>
-      <c r="F219" t="s">
-        <v>246</v>
-      </c>
-      <c r="G219" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A220" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B220" t="s">
-        <v>264</v>
-      </c>
-      <c r="C220" t="s">
-        <v>403</v>
-      </c>
-      <c r="D220" t="s">
-        <v>458</v>
-      </c>
-      <c r="E220" t="s">
-        <v>169</v>
-      </c>
-      <c r="F220" t="s">
-        <v>247</v>
-      </c>
-      <c r="G220" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A221" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B221" t="s">
-        <v>263</v>
-      </c>
-      <c r="C221" t="s">
-        <v>403</v>
-      </c>
-      <c r="D221" t="s">
-        <v>458</v>
-      </c>
-      <c r="E221" t="s">
-        <v>169</v>
-      </c>
-      <c r="F221" t="s">
-        <v>248</v>
-      </c>
-      <c r="G221" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A222" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B222" t="s">
-        <v>262</v>
-      </c>
-      <c r="C222" t="s">
-        <v>403</v>
-      </c>
-      <c r="D222" t="s">
-        <v>458</v>
-      </c>
-      <c r="E222" t="s">
-        <v>169</v>
-      </c>
-      <c r="F222" t="s">
-        <v>249</v>
-      </c>
-      <c r="G222" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A223" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B223" t="s">
-        <v>261</v>
-      </c>
-      <c r="C223" t="s">
-        <v>403</v>
-      </c>
-      <c r="D223" t="s">
-        <v>458</v>
-      </c>
-      <c r="E223" t="s">
-        <v>169</v>
-      </c>
-      <c r="F223" t="s">
-        <v>250</v>
-      </c>
-      <c r="G223" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A224" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B224" t="s">
-        <v>265</v>
-      </c>
-      <c r="C224" t="s">
-        <v>403</v>
-      </c>
-      <c r="D224" t="s">
-        <v>458</v>
-      </c>
-      <c r="E224" t="s">
-        <v>169</v>
-      </c>
-      <c r="F224" t="s">
-        <v>251</v>
-      </c>
-      <c r="G224" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A227" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B227" t="s">
-        <v>348</v>
-      </c>
-      <c r="C227" t="s">
-        <v>406</v>
-      </c>
-      <c r="D227" t="s">
-        <v>102</v>
-      </c>
-      <c r="E227" t="s">
-        <v>169</v>
-      </c>
-      <c r="F227" t="s">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A228" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B228" t="s">
+        <v>411</v>
+      </c>
+      <c r="C228" t="s">
+        <v>405</v>
+      </c>
+      <c r="D228" t="s">
+        <v>102</v>
+      </c>
+      <c r="E228" t="s">
+        <v>169</v>
+      </c>
+      <c r="F228" t="s">
         <v>414</v>
       </c>
-      <c r="G227" t="s">
+      <c r="G228" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A230" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B230" t="s">
+        <v>272</v>
+      </c>
+      <c r="C230" t="s">
+        <v>455</v>
+      </c>
+      <c r="D230" t="s">
+        <v>449</v>
+      </c>
+      <c r="E230" t="s">
+        <v>168</v>
+      </c>
+      <c r="F230" t="s">
+        <v>271</v>
+      </c>
+      <c r="G230" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A228" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B228" t="s">
-        <v>412</v>
-      </c>
-      <c r="C228" t="s">
-        <v>406</v>
-      </c>
-      <c r="D228" t="s">
-        <v>102</v>
-      </c>
-      <c r="E228" t="s">
-        <v>169</v>
-      </c>
-      <c r="F228" t="s">
-        <v>415</v>
-      </c>
-      <c r="G228" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A230" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B230" t="s">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A231" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B231" t="s">
+        <v>337</v>
+      </c>
+      <c r="C231" t="s">
+        <v>455</v>
+      </c>
+      <c r="D231" t="s">
+        <v>449</v>
+      </c>
+      <c r="E231" t="s">
+        <v>168</v>
+      </c>
+      <c r="F231" t="s">
         <v>273</v>
       </c>
-      <c r="C230" t="s">
-        <v>235</v>
-      </c>
-      <c r="D230" t="s">
-        <v>102</v>
-      </c>
-      <c r="E230" t="s">
-        <v>168</v>
-      </c>
-      <c r="F230" t="s">
-        <v>272</v>
-      </c>
-      <c r="G230" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A231" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B231" t="s">
+      <c r="G231" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A232" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B232" t="s">
         <v>338</v>
       </c>
-      <c r="C231" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D231" t="s">
-        <v>102</v>
-      </c>
-      <c r="E231" t="s">
-        <v>168</v>
-      </c>
-      <c r="F231" t="s">
-        <v>274</v>
-      </c>
-      <c r="G231" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A232" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B232" t="s">
-        <v>339</v>
-      </c>
-      <c r="C232" s="3" t="s">
-        <v>235</v>
+      <c r="C232" t="s">
+        <v>455</v>
       </c>
       <c r="D232" t="s">
-        <v>102</v>
+        <v>449</v>
       </c>
       <c r="F232" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G232" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A233" s="1" t="s">
-        <v>452</v>
-      </c>
+      <c r="A233" s="1"/>
       <c r="C233" s="3"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A235" s="7" t="s">
-        <v>270</v>
+      <c r="A235" s="9" t="s">
+        <v>269</v>
       </c>
       <c r="B235" t="s">
+        <v>339</v>
+      </c>
+      <c r="C235" t="s">
+        <v>407</v>
+      </c>
+      <c r="D235" t="s">
+        <v>102</v>
+      </c>
+      <c r="E235" t="s">
+        <v>168</v>
+      </c>
+      <c r="G235" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A236" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B236" t="s">
         <v>340</v>
       </c>
-      <c r="C235" t="s">
-        <v>408</v>
-      </c>
-      <c r="D235" t="s">
-        <v>102</v>
-      </c>
-      <c r="G235" t="s">
+      <c r="C236" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A236" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B236" t="s">
+      <c r="D236" t="s">
+        <v>102</v>
+      </c>
+      <c r="E236" t="s">
+        <v>168</v>
+      </c>
+      <c r="G236" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A237" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B237" t="s">
         <v>341</v>
       </c>
-      <c r="C236" t="s">
-        <v>408</v>
-      </c>
-      <c r="D236" t="s">
-        <v>102</v>
-      </c>
-      <c r="G236" t="s">
+      <c r="C237" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A237" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B237" t="s">
+      <c r="D237" t="s">
+        <v>102</v>
+      </c>
+      <c r="E237" t="s">
+        <v>168</v>
+      </c>
+      <c r="G237" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A238" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B238" t="s">
         <v>342</v>
       </c>
-      <c r="C237" t="s">
-        <v>408</v>
-      </c>
-      <c r="D237" t="s">
-        <v>102</v>
-      </c>
-      <c r="G237" t="s">
+      <c r="C238" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A238" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B238" t="s">
+      <c r="D238" t="s">
+        <v>102</v>
+      </c>
+      <c r="E238" t="s">
+        <v>168</v>
+      </c>
+      <c r="G238" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A239" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B239" t="s">
         <v>343</v>
       </c>
-      <c r="C238" t="s">
-        <v>408</v>
-      </c>
-      <c r="D238" t="s">
-        <v>102</v>
-      </c>
-      <c r="G238" t="s">
+      <c r="C239" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A239" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B239" t="s">
+      <c r="D239" t="s">
+        <v>102</v>
+      </c>
+      <c r="E239" t="s">
+        <v>168</v>
+      </c>
+      <c r="G239" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A240" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B240" t="s">
         <v>344</v>
       </c>
-      <c r="C239" t="s">
-        <v>408</v>
-      </c>
-      <c r="D239" t="s">
-        <v>102</v>
-      </c>
-      <c r="G239" t="s">
+      <c r="C240" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A240" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B240" t="s">
+      <c r="D240" t="s">
+        <v>102</v>
+      </c>
+      <c r="E240" t="s">
+        <v>168</v>
+      </c>
+      <c r="G240" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A241" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B241" t="s">
         <v>345</v>
       </c>
-      <c r="C240" t="s">
-        <v>408</v>
-      </c>
-      <c r="D240" t="s">
-        <v>102</v>
-      </c>
-      <c r="G240" t="s">
+      <c r="C241" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A241" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B241" t="s">
+      <c r="D241" t="s">
+        <v>102</v>
+      </c>
+      <c r="E241" t="s">
+        <v>168</v>
+      </c>
+      <c r="G241" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A242" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B242" t="s">
         <v>346</v>
       </c>
-      <c r="C241" t="s">
-        <v>408</v>
-      </c>
-      <c r="D241" t="s">
-        <v>102</v>
-      </c>
-      <c r="G241" t="s">
+      <c r="C242" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A242" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B242" t="s">
-        <v>347</v>
-      </c>
-      <c r="C242" t="s">
-        <v>408</v>
-      </c>
       <c r="D242" t="s">
         <v>102</v>
       </c>
+      <c r="E242" t="s">
+        <v>168</v>
+      </c>
       <c r="G242" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>

--- a/data/ref.xlsx
+++ b/data/ref.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/Repositories/LCAdata/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A08CFE-D463-9A41-8512-C5DE012578B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC23EC0F-C65D-F240-BA09-B878B1B2DAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="17860" windowHeight="15880" xr2:uid="{4F28B243-04AE-1E4D-B411-E86C9FDA2FDF}"/>
+    <workbookView xWindow="220" yWindow="500" windowWidth="27140" windowHeight="15880" xr2:uid="{4F28B243-04AE-1E4D-B411-E86C9FDA2FDF}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="459">
   <si>
     <t>old file name</t>
   </si>
@@ -2059,9 +2059,6 @@
     <t>cmat = cmat.fox.csv</t>
   </si>
   <si>
-    <t>cmat=cmat.etterson.csv</t>
-  </si>
-  <si>
     <t>cmat=cmat.mcclelland.csv</t>
   </si>
   <si>
@@ -2072,6 +2069,18 @@
   </si>
   <si>
     <t>high density</t>
+  </si>
+  <si>
+    <t>cmat=cmatrix.sperm.csv</t>
+  </si>
+  <si>
+    <t>cmat=cmatrix.sr.csv</t>
+  </si>
+  <si>
+    <t>cmat=cmat.etterson.BDF.csv</t>
+  </si>
+  <si>
+    <t>cmat=cmat.etterson.ACE.csv</t>
   </si>
 </sst>
 </file>
@@ -2124,12 +2133,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2144,18 +2159,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2473,11 +2497,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1137BAE9-F081-9948-9F37-D6A451EE45DA}">
-  <dimension ref="A1:S229"/>
+  <dimension ref="A1:S227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F129" sqref="F129"/>
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A166" sqref="A166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3004,97 +3028,91 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>195</v>
+      <c r="B27" t="s">
+        <v>416</v>
+      </c>
+      <c r="C27" t="s">
+        <v>400</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
+        <v>447</v>
       </c>
       <c r="E27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F27" t="s">
-        <v>166</v>
+        <v>420</v>
       </c>
       <c r="G27" t="s">
-        <v>99</v>
+        <v>389</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>195</v>
+      <c r="B28" t="s">
+        <v>250</v>
+      </c>
+      <c r="C28" t="s">
+        <v>400</v>
       </c>
       <c r="D28" t="s">
-        <v>102</v>
+        <v>447</v>
       </c>
       <c r="E28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F28" t="s">
-        <v>166</v>
+        <v>236</v>
       </c>
       <c r="G28" t="s">
-        <v>99</v>
+        <v>393</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="C29" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D29" t="s">
-        <v>447</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F29" t="s">
-        <v>420</v>
+        <v>212</v>
       </c>
       <c r="G29" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="C30" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="D30" t="s">
         <v>447</v>
       </c>
       <c r="E30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F30" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="G30" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>397</v>
-      </c>
-      <c r="C31" t="s">
-        <v>403</v>
+        <v>88</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="D31" t="s">
         <v>102</v>
@@ -3102,39 +3120,39 @@
       <c r="E31" t="s">
         <v>168</v>
       </c>
-      <c r="F31" t="s">
-        <v>212</v>
-      </c>
       <c r="G31" t="s">
-        <v>386</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>270</v>
+        <v>345</v>
       </c>
       <c r="C32" t="s">
-        <v>449</v>
+        <v>403</v>
       </c>
       <c r="D32" t="s">
-        <v>447</v>
+        <v>102</v>
       </c>
       <c r="E32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F32" t="s">
-        <v>269</v>
+        <v>411</v>
       </c>
       <c r="G32" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>198</v>
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="D33" t="s">
         <v>102</v>
@@ -3143,15 +3161,15 @@
         <v>168</v>
       </c>
       <c r="G33" t="s">
-        <v>205</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>345</v>
-      </c>
-      <c r="C34" t="s">
-        <v>403</v>
+        <v>89</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="D34" t="s">
         <v>102</v>
@@ -3159,56 +3177,56 @@
       <c r="E34" t="s">
         <v>169</v>
       </c>
-      <c r="F34" t="s">
-        <v>411</v>
-      </c>
       <c r="G34" t="s">
-        <v>394</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>196</v>
+      <c r="B35" t="s">
+        <v>379</v>
+      </c>
+      <c r="C35" t="s">
+        <v>434</v>
       </c>
       <c r="D35" t="s">
-        <v>102</v>
+        <v>447</v>
       </c>
       <c r="E35" t="s">
         <v>168</v>
       </c>
+      <c r="F35" t="s">
+        <v>221</v>
+      </c>
       <c r="G35" t="s">
-        <v>100</v>
+        <v>390</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>199</v>
+        <v>376</v>
+      </c>
+      <c r="C36" t="s">
+        <v>434</v>
       </c>
       <c r="D36" t="s">
-        <v>102</v>
+        <v>447</v>
       </c>
       <c r="E36" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="F36" t="s">
+        <v>218</v>
       </c>
       <c r="G36" t="s">
-        <v>206</v>
+        <v>390</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>379</v>
+        <v>90</v>
       </c>
       <c r="C37" t="s">
-        <v>434</v>
+        <v>194</v>
       </c>
       <c r="D37" t="s">
         <v>447</v>
@@ -3216,16 +3234,13 @@
       <c r="E37" t="s">
         <v>168</v>
       </c>
-      <c r="F37" t="s">
-        <v>221</v>
-      </c>
       <c r="G37" t="s">
-        <v>390</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C38" t="s">
         <v>434</v>
@@ -3237,17 +3252,20 @@
         <v>168</v>
       </c>
       <c r="F38" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="G38" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D39" t="s">
@@ -3257,15 +3275,18 @@
         <v>168</v>
       </c>
       <c r="G39" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>381</v>
-      </c>
-      <c r="C40" t="s">
-        <v>434</v>
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="D40" t="s">
         <v>447</v>
@@ -3273,19 +3294,16 @@
       <c r="E40" t="s">
         <v>168</v>
       </c>
-      <c r="F40" t="s">
-        <v>223</v>
-      </c>
       <c r="G40" t="s">
-        <v>390</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>194</v>
@@ -3302,10 +3320,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>194</v>
@@ -3322,10 +3340,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>194</v>
@@ -3341,14 +3359,11 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>194</v>
+      <c r="B44" t="s">
+        <v>380</v>
+      </c>
+      <c r="C44" t="s">
+        <v>434</v>
       </c>
       <c r="D44" t="s">
         <v>447</v>
@@ -3356,16 +3371,19 @@
       <c r="E44" t="s">
         <v>168</v>
       </c>
+      <c r="F44" t="s">
+        <v>222</v>
+      </c>
       <c r="G44" t="s">
-        <v>98</v>
+        <v>390</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>194</v>
@@ -3381,11 +3399,14 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>380</v>
-      </c>
-      <c r="C46" t="s">
-        <v>434</v>
+      <c r="A46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="D46" t="s">
         <v>447</v>
@@ -3393,19 +3414,16 @@
       <c r="E46" t="s">
         <v>168</v>
       </c>
-      <c r="F46" t="s">
-        <v>222</v>
-      </c>
       <c r="G46" t="s">
-        <v>390</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>194</v>
@@ -3422,10 +3440,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>194</v>
@@ -3442,10 +3460,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>194</v>
@@ -3461,14 +3479,11 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>33</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>194</v>
+      <c r="B50" t="s">
+        <v>335</v>
+      </c>
+      <c r="C50" t="s">
+        <v>449</v>
       </c>
       <c r="D50" t="s">
         <v>447</v>
@@ -3476,19 +3491,19 @@
       <c r="E50" t="s">
         <v>168</v>
       </c>
+      <c r="F50" t="s">
+        <v>271</v>
+      </c>
       <c r="G50" t="s">
-        <v>98</v>
+        <v>395</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>34</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>194</v>
+      <c r="B51" t="s">
+        <v>415</v>
+      </c>
+      <c r="C51" t="s">
+        <v>400</v>
       </c>
       <c r="D51" t="s">
         <v>447</v>
@@ -3496,16 +3511,19 @@
       <c r="E51" t="s">
         <v>168</v>
       </c>
+      <c r="F51" t="s">
+        <v>417</v>
+      </c>
       <c r="G51" t="s">
-        <v>98</v>
+        <v>389</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>335</v>
+        <v>91</v>
       </c>
       <c r="C52" t="s">
-        <v>449</v>
+        <v>194</v>
       </c>
       <c r="D52" t="s">
         <v>447</v>
@@ -3513,53 +3531,53 @@
       <c r="E52" t="s">
         <v>168</v>
       </c>
-      <c r="F52" t="s">
-        <v>271</v>
-      </c>
       <c r="G52" t="s">
-        <v>395</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>415</v>
+        <v>233</v>
       </c>
       <c r="C53" t="s">
-        <v>400</v>
+        <v>203</v>
       </c>
       <c r="D53" t="s">
-        <v>447</v>
+        <v>102</v>
       </c>
       <c r="E53" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F53" t="s">
-        <v>417</v>
+        <v>228</v>
       </c>
       <c r="G53" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>91</v>
+        <v>232</v>
       </c>
       <c r="C54" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="D54" t="s">
-        <v>447</v>
+        <v>102</v>
       </c>
       <c r="E54" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="F54" t="s">
+        <v>227</v>
       </c>
       <c r="G54" t="s">
-        <v>85</v>
+        <v>391</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="C55" t="s">
         <v>203</v>
@@ -3568,10 +3586,10 @@
         <v>102</v>
       </c>
       <c r="E55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F55" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G55" t="s">
         <v>391</v>
@@ -3579,30 +3597,33 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>232</v>
+        <v>375</v>
       </c>
       <c r="C56" t="s">
-        <v>203</v>
+        <v>434</v>
       </c>
       <c r="D56" t="s">
-        <v>102</v>
+        <v>447</v>
       </c>
       <c r="E56" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F56" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="G56" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>268</v>
-      </c>
-      <c r="C57" t="s">
-        <v>203</v>
+      <c r="A57" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="D57" t="s">
         <v>102</v>
@@ -3610,39 +3631,36 @@
       <c r="E57" t="s">
         <v>168</v>
       </c>
-      <c r="F57" t="s">
-        <v>231</v>
-      </c>
       <c r="G57" t="s">
-        <v>391</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>375</v>
-      </c>
-      <c r="C58" t="s">
-        <v>434</v>
+      <c r="A58" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="D58" t="s">
-        <v>447</v>
+        <v>102</v>
       </c>
       <c r="E58" t="s">
         <v>168</v>
       </c>
-      <c r="F58" t="s">
-        <v>217</v>
-      </c>
       <c r="G58" t="s">
-        <v>390</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>193</v>
@@ -3659,10 +3677,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>193</v>
@@ -3679,10 +3697,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>193</v>
@@ -3699,10 +3717,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>193</v>
@@ -3719,10 +3737,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>193</v>
@@ -3739,10 +3757,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>193</v>
@@ -3759,10 +3777,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>193</v>
@@ -3778,91 +3796,91 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>25</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>193</v>
+      <c r="B66" t="s">
+        <v>262</v>
+      </c>
+      <c r="C66" t="s">
+        <v>400</v>
       </c>
       <c r="D66" t="s">
-        <v>102</v>
+        <v>447</v>
       </c>
       <c r="E66" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="F66" t="s">
+        <v>245</v>
       </c>
       <c r="G66" t="s">
-        <v>97</v>
+        <v>393</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>26</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>193</v>
+      <c r="B67" t="s">
+        <v>258</v>
+      </c>
+      <c r="C67" t="s">
+        <v>400</v>
       </c>
       <c r="D67" t="s">
-        <v>102</v>
+        <v>447</v>
       </c>
       <c r="E67" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="F67" t="s">
+        <v>244</v>
       </c>
       <c r="G67" t="s">
-        <v>97</v>
+        <v>393</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
-        <v>262</v>
-      </c>
-      <c r="C68" t="s">
-        <v>400</v>
+      <c r="A68" t="s">
+        <v>35</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="D68" t="s">
         <v>447</v>
       </c>
       <c r="E68" t="s">
-        <v>169</v>
-      </c>
-      <c r="F68" t="s">
-        <v>245</v>
+        <v>168</v>
       </c>
       <c r="G68" t="s">
-        <v>393</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
-        <v>258</v>
-      </c>
-      <c r="C69" t="s">
-        <v>400</v>
+      <c r="A69" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="D69" t="s">
         <v>447</v>
       </c>
       <c r="E69" t="s">
-        <v>169</v>
-      </c>
-      <c r="F69" t="s">
-        <v>244</v>
+        <v>168</v>
       </c>
       <c r="G69" t="s">
-        <v>393</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>194</v>
@@ -3879,10 +3897,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>194</v>
@@ -3899,10 +3917,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>194</v>
@@ -3919,50 +3937,50 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>194</v>
+        <v>128</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="D73" t="s">
-        <v>447</v>
+        <v>102</v>
       </c>
       <c r="E73" t="s">
         <v>168</v>
       </c>
       <c r="G73" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>194</v>
+        <v>129</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="D74" t="s">
-        <v>447</v>
+        <v>102</v>
       </c>
       <c r="E74" t="s">
         <v>168</v>
       </c>
       <c r="G74" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>193</v>
@@ -3979,13 +3997,13 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>193</v>
+        <v>159</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="D76" t="s">
         <v>102</v>
@@ -3994,135 +4012,135 @@
         <v>168</v>
       </c>
       <c r="G76" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C77" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D77" t="s">
+        <v>102</v>
+      </c>
+      <c r="E77" t="s">
+        <v>168</v>
+      </c>
+      <c r="G77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>383</v>
+      </c>
+      <c r="C78" t="s">
+        <v>434</v>
+      </c>
+      <c r="D78" t="s">
+        <v>447</v>
+      </c>
+      <c r="E78" t="s">
+        <v>168</v>
+      </c>
+      <c r="F78" t="s">
+        <v>374</v>
+      </c>
+      <c r="G78" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>225</v>
+      </c>
+      <c r="C79" t="s">
+        <v>400</v>
+      </c>
+      <c r="D79" t="s">
+        <v>447</v>
+      </c>
+      <c r="E79" t="s">
+        <v>169</v>
+      </c>
+      <c r="F79" t="s">
+        <v>210</v>
+      </c>
+      <c r="G79" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D77" t="s">
-        <v>102</v>
-      </c>
-      <c r="E77" t="s">
-        <v>168</v>
-      </c>
-      <c r="G77" t="s">
+      <c r="D80" t="s">
+        <v>102</v>
+      </c>
+      <c r="E80" t="s">
+        <v>168</v>
+      </c>
+      <c r="G80" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>58</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D78" t="s">
-        <v>102</v>
-      </c>
-      <c r="E78" t="s">
-        <v>168</v>
-      </c>
-      <c r="G78" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>59</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D79" t="s">
-        <v>102</v>
-      </c>
-      <c r="E79" t="s">
-        <v>168</v>
-      </c>
-      <c r="G79" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
-        <v>383</v>
-      </c>
-      <c r="C80" t="s">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D81" t="s">
+        <v>102</v>
+      </c>
+      <c r="E81" t="s">
+        <v>168</v>
+      </c>
+      <c r="G81" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>378</v>
+      </c>
+      <c r="C82" t="s">
         <v>434</v>
       </c>
-      <c r="D80" t="s">
-        <v>447</v>
-      </c>
-      <c r="E80" t="s">
-        <v>168</v>
-      </c>
-      <c r="F80" t="s">
-        <v>374</v>
-      </c>
-      <c r="G80" t="s">
+      <c r="D82" t="s">
+        <v>447</v>
+      </c>
+      <c r="E82" t="s">
+        <v>169</v>
+      </c>
+      <c r="F82" t="s">
+        <v>220</v>
+      </c>
+      <c r="G82" t="s">
         <v>390</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
-        <v>225</v>
-      </c>
-      <c r="C81" t="s">
-        <v>400</v>
-      </c>
-      <c r="D81" t="s">
-        <v>447</v>
-      </c>
-      <c r="E81" t="s">
-        <v>169</v>
-      </c>
-      <c r="F81" t="s">
-        <v>210</v>
-      </c>
-      <c r="G81" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>11</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D82" t="s">
-        <v>102</v>
-      </c>
-      <c r="E82" t="s">
-        <v>168</v>
-      </c>
-      <c r="G82" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>193</v>
@@ -4138,71 +4156,71 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
-        <v>378</v>
-      </c>
-      <c r="C84" t="s">
-        <v>434</v>
+      <c r="A84" t="s">
+        <v>60</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="D84" t="s">
-        <v>447</v>
+        <v>102</v>
       </c>
       <c r="E84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F84" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="G84" t="s">
-        <v>390</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>13</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>193</v>
+      <c r="B85" t="s">
+        <v>251</v>
+      </c>
+      <c r="C85" t="s">
+        <v>400</v>
       </c>
       <c r="D85" t="s">
-        <v>102</v>
+        <v>447</v>
       </c>
       <c r="E85" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="F85" t="s">
+        <v>237</v>
       </c>
       <c r="G85" t="s">
-        <v>97</v>
+        <v>393</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>60</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>196</v>
+      <c r="B86" t="s">
+        <v>252</v>
+      </c>
+      <c r="C86" t="s">
+        <v>400</v>
       </c>
       <c r="D86" t="s">
-        <v>102</v>
+        <v>447</v>
       </c>
       <c r="E86" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F86" t="s">
-        <v>164</v>
+        <v>238</v>
       </c>
       <c r="G86" t="s">
-        <v>100</v>
+        <v>393</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C87" t="s">
         <v>400</v>
@@ -4214,7 +4232,7 @@
         <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G87" t="s">
         <v>393</v>
@@ -4222,7 +4240,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C88" t="s">
         <v>400</v>
@@ -4234,7 +4252,7 @@
         <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G88" t="s">
         <v>393</v>
@@ -4242,7 +4260,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C89" t="s">
         <v>400</v>
@@ -4254,7 +4272,7 @@
         <v>169</v>
       </c>
       <c r="F89" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G89" t="s">
         <v>393</v>
@@ -4262,7 +4280,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C90" t="s">
         <v>400</v>
@@ -4274,7 +4292,7 @@
         <v>169</v>
       </c>
       <c r="F90" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G90" t="s">
         <v>393</v>
@@ -4282,70 +4300,73 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>254</v>
+        <v>382</v>
       </c>
       <c r="C91" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="D91" t="s">
         <v>447</v>
       </c>
       <c r="E91" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F91" t="s">
-        <v>240</v>
+        <v>373</v>
       </c>
       <c r="G91" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>253</v>
+        <v>398</v>
       </c>
       <c r="C92" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D92" t="s">
-        <v>447</v>
+        <v>102</v>
       </c>
       <c r="E92" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F92" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="G92" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="C93" t="s">
-        <v>434</v>
+        <v>203</v>
       </c>
       <c r="D93" t="s">
-        <v>447</v>
+        <v>102</v>
       </c>
       <c r="E93" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F93" t="s">
-        <v>373</v>
+        <v>230</v>
       </c>
       <c r="G93" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B94" t="s">
-        <v>398</v>
-      </c>
-      <c r="C94" t="s">
-        <v>403</v>
+      <c r="A94" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="D94" t="s">
         <v>102</v>
@@ -4353,79 +4374,76 @@
       <c r="E94" t="s">
         <v>168</v>
       </c>
-      <c r="F94" t="s">
-        <v>213</v>
-      </c>
       <c r="G94" t="s">
-        <v>402</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B95" t="s">
-        <v>407</v>
-      </c>
-      <c r="C95" t="s">
-        <v>203</v>
+      <c r="A95" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="D95" t="s">
         <v>102</v>
       </c>
       <c r="E95" t="s">
-        <v>169</v>
-      </c>
-      <c r="F95" t="s">
-        <v>230</v>
+        <v>168</v>
       </c>
       <c r="G95" t="s">
-        <v>391</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>193</v>
+        <v>146</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="D96" t="s">
-        <v>102</v>
+        <v>447</v>
       </c>
       <c r="E96" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G96" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>193</v>
+        <v>147</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="D97" t="s">
-        <v>102</v>
+        <v>447</v>
       </c>
       <c r="E97" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G97" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>194</v>
@@ -4442,10 +4460,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>194</v>
@@ -4462,10 +4480,10 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>194</v>
@@ -4482,10 +4500,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>194</v>
@@ -4502,10 +4520,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>194</v>
@@ -4522,10 +4540,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>194</v>
@@ -4542,10 +4560,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>194</v>
@@ -4562,10 +4580,10 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>194</v>
@@ -4581,74 +4599,71 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>53</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>194</v>
+      <c r="B106" t="s">
+        <v>406</v>
+      </c>
+      <c r="C106" t="s">
+        <v>203</v>
       </c>
       <c r="D106" t="s">
-        <v>447</v>
+        <v>102</v>
       </c>
       <c r="E106" t="s">
         <v>169</v>
       </c>
+      <c r="F106" t="s">
+        <v>229</v>
+      </c>
       <c r="G106" t="s">
-        <v>98</v>
+        <v>391</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>194</v>
+        <v>117</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="D107" t="s">
-        <v>447</v>
+        <v>102</v>
       </c>
       <c r="E107" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G107" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>406</v>
-      </c>
-      <c r="C108" t="s">
-        <v>203</v>
+        <v>92</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="D108" t="s">
-        <v>102</v>
+        <v>447</v>
       </c>
       <c r="E108" t="s">
-        <v>169</v>
-      </c>
-      <c r="F108" t="s">
-        <v>229</v>
+        <v>168</v>
       </c>
       <c r="G108" t="s">
-        <v>391</v>
+        <v>204</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>193</v>
+        <v>162</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="D109" t="s">
         <v>102</v>
@@ -4656,70 +4671,73 @@
       <c r="E109" t="s">
         <v>168</v>
       </c>
+      <c r="F109" t="s">
+        <v>165</v>
+      </c>
       <c r="G109" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>92</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>197</v>
+        <v>336</v>
+      </c>
+      <c r="C110" t="s">
+        <v>449</v>
       </c>
       <c r="D110" t="s">
         <v>447</v>
       </c>
-      <c r="E110" t="s">
-        <v>168</v>
+      <c r="F110" t="s">
+        <v>334</v>
       </c>
       <c r="G110" t="s">
-        <v>204</v>
+        <v>395</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>62</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>196</v>
+      <c r="B111" t="s">
+        <v>260</v>
+      </c>
+      <c r="C111" t="s">
+        <v>400</v>
       </c>
       <c r="D111" t="s">
-        <v>102</v>
+        <v>447</v>
       </c>
       <c r="E111" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F111" t="s">
-        <v>165</v>
+        <v>247</v>
       </c>
       <c r="G111" t="s">
-        <v>100</v>
+        <v>393</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>336</v>
+        <v>261</v>
       </c>
       <c r="C112" t="s">
-        <v>449</v>
+        <v>400</v>
       </c>
       <c r="D112" t="s">
         <v>447</v>
       </c>
+      <c r="E112" t="s">
+        <v>169</v>
+      </c>
       <c r="F112" t="s">
-        <v>334</v>
+        <v>246</v>
       </c>
       <c r="G112" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C113" t="s">
         <v>400</v>
@@ -4731,7 +4749,7 @@
         <v>169</v>
       </c>
       <c r="F113" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G113" t="s">
         <v>393</v>
@@ -4739,27 +4757,27 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>261</v>
+        <v>396</v>
       </c>
       <c r="C114" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D114" t="s">
-        <v>447</v>
+        <v>102</v>
       </c>
       <c r="E114" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F114" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="G114" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>259</v>
+        <v>419</v>
       </c>
       <c r="C115" t="s">
         <v>400</v>
@@ -4768,41 +4786,38 @@
         <v>447</v>
       </c>
       <c r="E115" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F115" t="s">
-        <v>248</v>
+        <v>421</v>
       </c>
       <c r="G115" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>396</v>
+        <v>93</v>
       </c>
       <c r="C116" t="s">
-        <v>403</v>
+        <v>200</v>
       </c>
       <c r="D116" t="s">
-        <v>102</v>
+        <v>447</v>
       </c>
       <c r="E116" t="s">
         <v>168</v>
       </c>
-      <c r="F116" t="s">
-        <v>211</v>
-      </c>
       <c r="G116" t="s">
-        <v>386</v>
+        <v>207</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>419</v>
-      </c>
-      <c r="C117" t="s">
-        <v>400</v>
+        <v>94</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="D117" t="s">
         <v>447</v>
@@ -4810,107 +4825,110 @@
       <c r="E117" t="s">
         <v>168</v>
       </c>
-      <c r="F117" t="s">
-        <v>421</v>
-      </c>
       <c r="G117" t="s">
-        <v>389</v>
+        <v>204</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B118" t="s">
-        <v>93</v>
-      </c>
-      <c r="C118" t="s">
-        <v>200</v>
+      <c r="A118" t="s">
+        <v>17</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="D118" t="s">
-        <v>447</v>
+        <v>102</v>
       </c>
       <c r="E118" t="s">
         <v>168</v>
       </c>
       <c r="G118" t="s">
-        <v>207</v>
+        <v>97</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>94</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>197</v>
+        <v>409</v>
+      </c>
+      <c r="C119" t="s">
+        <v>403</v>
       </c>
       <c r="D119" t="s">
-        <v>447</v>
+        <v>102</v>
       </c>
       <c r="E119" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="F119" t="s">
+        <v>412</v>
       </c>
       <c r="G119" t="s">
-        <v>204</v>
+        <v>410</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>17</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>193</v>
+      <c r="B120" t="s">
+        <v>95</v>
+      </c>
+      <c r="C120" t="s">
+        <v>202</v>
       </c>
       <c r="D120" t="s">
         <v>102</v>
       </c>
       <c r="E120" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G120" t="s">
-        <v>97</v>
+        <v>208</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>409</v>
+        <v>333</v>
       </c>
       <c r="C121" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D121" t="s">
         <v>102</v>
       </c>
       <c r="E121" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F121" t="s">
-        <v>412</v>
+        <v>319</v>
       </c>
       <c r="G121" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>95</v>
+        <v>329</v>
       </c>
       <c r="C122" t="s">
-        <v>202</v>
+        <v>401</v>
       </c>
       <c r="D122" t="s">
         <v>102</v>
       </c>
       <c r="E122" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="F122" t="s">
+        <v>315</v>
       </c>
       <c r="G122" t="s">
-        <v>208</v>
+        <v>385</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C123" t="s">
         <v>401</v>
@@ -4922,7 +4940,7 @@
         <v>168</v>
       </c>
       <c r="F123" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G123" t="s">
         <v>385</v>
@@ -4930,7 +4948,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C124" t="s">
         <v>401</v>
@@ -4939,10 +4957,10 @@
         <v>102</v>
       </c>
       <c r="E124" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F124" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G124" t="s">
         <v>385</v>
@@ -4950,7 +4968,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C125" t="s">
         <v>401</v>
@@ -4962,7 +4980,7 @@
         <v>168</v>
       </c>
       <c r="F125" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G125" t="s">
         <v>385</v>
@@ -4970,7 +4988,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C126" t="s">
         <v>401</v>
@@ -4979,10 +4997,10 @@
         <v>102</v>
       </c>
       <c r="E126" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F126" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G126" t="s">
         <v>385</v>
@@ -4990,7 +5008,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C127" t="s">
         <v>401</v>
@@ -4999,10 +5017,10 @@
         <v>102</v>
       </c>
       <c r="E127" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F127" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G127" t="s">
         <v>385</v>
@@ -5010,113 +5028,113 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>328</v>
+        <v>377</v>
       </c>
       <c r="C128" t="s">
-        <v>401</v>
+        <v>434</v>
       </c>
       <c r="D128" t="s">
-        <v>102</v>
+        <v>447</v>
       </c>
       <c r="E128" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F128" t="s">
-        <v>314</v>
+        <v>219</v>
       </c>
       <c r="G128" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>332</v>
+        <v>96</v>
       </c>
       <c r="C129" t="s">
-        <v>401</v>
+        <v>203</v>
       </c>
       <c r="D129" t="s">
         <v>102</v>
       </c>
       <c r="E129" t="s">
-        <v>169</v>
-      </c>
-      <c r="F129" t="s">
-        <v>318</v>
+        <v>168</v>
       </c>
       <c r="G129" t="s">
-        <v>385</v>
+        <v>209</v>
+      </c>
+      <c r="S129" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="C130" t="s">
-        <v>434</v>
+        <v>403</v>
       </c>
       <c r="D130" t="s">
-        <v>447</v>
+        <v>102</v>
       </c>
       <c r="E130" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F130" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G130" t="s">
-        <v>390</v>
+        <v>402</v>
+      </c>
+      <c r="S130" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B131" t="s">
-        <v>96</v>
-      </c>
-      <c r="C131" t="s">
-        <v>203</v>
+      <c r="A131" t="s">
+        <v>66</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="D131" t="s">
-        <v>102</v>
+        <v>447</v>
       </c>
       <c r="E131" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G131" t="s">
-        <v>209</v>
-      </c>
-      <c r="S131" t="s">
-        <v>235</v>
+        <v>101</v>
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B132" t="s">
-        <v>399</v>
-      </c>
-      <c r="C132" t="s">
-        <v>403</v>
+      <c r="A132" t="s">
+        <v>67</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="D132" t="s">
-        <v>102</v>
+        <v>447</v>
       </c>
       <c r="E132" t="s">
-        <v>168</v>
-      </c>
-      <c r="F132" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="G132" t="s">
-        <v>402</v>
-      </c>
-      <c r="S132" t="s">
-        <v>234</v>
+        <v>101</v>
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>201</v>
@@ -5133,10 +5151,10 @@
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>201</v>
@@ -5153,10 +5171,10 @@
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>201</v>
@@ -5173,10 +5191,10 @@
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>201</v>
@@ -5193,10 +5211,10 @@
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>201</v>
@@ -5213,10 +5231,10 @@
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>201</v>
@@ -5233,10 +5251,10 @@
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>201</v>
@@ -5253,10 +5271,10 @@
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>201</v>
@@ -5273,10 +5291,10 @@
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>201</v>
@@ -5293,10 +5311,10 @@
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>201</v>
@@ -5313,10 +5331,10 @@
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>201</v>
@@ -5333,10 +5351,10 @@
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>201</v>
@@ -5353,10 +5371,10 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>201</v>
@@ -5373,10 +5391,10 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>201</v>
@@ -5393,10 +5411,10 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>201</v>
@@ -5413,10 +5431,10 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>201</v>
@@ -5433,10 +5451,10 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>201</v>
@@ -5453,10 +5471,10 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>201</v>
@@ -5473,10 +5491,10 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>201</v>
@@ -5493,10 +5511,10 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>201</v>
@@ -5512,48 +5530,48 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>74</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>201</v>
+      <c r="B153" t="s">
+        <v>359</v>
+      </c>
+      <c r="C153" t="s">
+        <v>400</v>
       </c>
       <c r="D153" t="s">
         <v>447</v>
       </c>
       <c r="E153" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="F153" t="s">
+        <v>237</v>
       </c>
       <c r="G153" t="s">
-        <v>101</v>
+        <v>408</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>82</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>201</v>
+      <c r="B154" t="s">
+        <v>360</v>
+      </c>
+      <c r="C154" t="s">
+        <v>400</v>
       </c>
       <c r="D154" t="s">
         <v>447</v>
       </c>
       <c r="E154" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="F154" t="s">
+        <v>238</v>
       </c>
       <c r="G154" t="s">
-        <v>101</v>
+        <v>408</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C155" t="s">
         <v>400</v>
@@ -5565,7 +5583,7 @@
         <v>168</v>
       </c>
       <c r="F155" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G155" t="s">
         <v>408</v>
@@ -5573,7 +5591,7 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C156" t="s">
         <v>400</v>
@@ -5585,7 +5603,7 @@
         <v>168</v>
       </c>
       <c r="F156" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G156" t="s">
         <v>408</v>
@@ -5593,7 +5611,7 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C157" t="s">
         <v>400</v>
@@ -5605,7 +5623,7 @@
         <v>168</v>
       </c>
       <c r="F157" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G157" t="s">
         <v>408</v>
@@ -5613,7 +5631,7 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C158" t="s">
         <v>400</v>
@@ -5625,7 +5643,7 @@
         <v>168</v>
       </c>
       <c r="F158" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G158" t="s">
         <v>408</v>
@@ -5633,7 +5651,7 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C159" t="s">
         <v>400</v>
@@ -5645,7 +5663,7 @@
         <v>168</v>
       </c>
       <c r="F159" t="s">
-        <v>236</v>
+        <v>354</v>
       </c>
       <c r="G159" t="s">
         <v>408</v>
@@ -5653,7 +5671,7 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C160" t="s">
         <v>400</v>
@@ -5665,7 +5683,7 @@
         <v>168</v>
       </c>
       <c r="F160" t="s">
-        <v>246</v>
+        <v>355</v>
       </c>
       <c r="G160" t="s">
         <v>408</v>
@@ -5673,7 +5691,7 @@
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C161" t="s">
         <v>400</v>
@@ -5685,7 +5703,7 @@
         <v>168</v>
       </c>
       <c r="F161" t="s">
-        <v>354</v>
+        <v>241</v>
       </c>
       <c r="G161" t="s">
         <v>408</v>
@@ -5693,7 +5711,7 @@
     </row>
     <row r="162" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C162" t="s">
         <v>400</v>
@@ -5705,7 +5723,7 @@
         <v>168</v>
       </c>
       <c r="F162" t="s">
-        <v>355</v>
+        <v>242</v>
       </c>
       <c r="G162" t="s">
         <v>408</v>
@@ -5713,7 +5731,7 @@
     </row>
     <row r="163" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C163" t="s">
         <v>400</v>
@@ -5725,7 +5743,7 @@
         <v>168</v>
       </c>
       <c r="F163" t="s">
-        <v>241</v>
+        <v>356</v>
       </c>
       <c r="G163" t="s">
         <v>408</v>
@@ -5733,7 +5751,7 @@
     </row>
     <row r="164" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C164" t="s">
         <v>400</v>
@@ -5745,7 +5763,7 @@
         <v>168</v>
       </c>
       <c r="F164" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G164" t="s">
         <v>408</v>
@@ -5753,7 +5771,7 @@
     </row>
     <row r="165" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C165" t="s">
         <v>400</v>
@@ -5765,7 +5783,7 @@
         <v>168</v>
       </c>
       <c r="F165" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G165" t="s">
         <v>408</v>
@@ -5773,7 +5791,7 @@
     </row>
     <row r="166" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C166" t="s">
         <v>400</v>
@@ -5785,78 +5803,38 @@
         <v>168</v>
       </c>
       <c r="F166" t="s">
-        <v>243</v>
+        <v>358</v>
       </c>
       <c r="G166" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B167" t="s">
-        <v>371</v>
-      </c>
-      <c r="C167" t="s">
-        <v>400</v>
-      </c>
-      <c r="D167" t="s">
-        <v>447</v>
-      </c>
-      <c r="E167" t="s">
-        <v>168</v>
-      </c>
-      <c r="F167" t="s">
-        <v>357</v>
-      </c>
-      <c r="G167" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B168" t="s">
-        <v>372</v>
-      </c>
-      <c r="C168" t="s">
-        <v>400</v>
-      </c>
-      <c r="D168" t="s">
-        <v>447</v>
-      </c>
-      <c r="E168" t="s">
-        <v>168</v>
-      </c>
-      <c r="F168" t="s">
-        <v>358</v>
-      </c>
-      <c r="G168" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180" s="1"/>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A186" s="1"/>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A200" s="1"/>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F216" s="5"/>
-      <c r="H216" s="5"/>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A219" s="1"/>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A229" s="1"/>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" s="1"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" s="1"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" s="1"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F214" s="5"/>
+      <c r="H214" s="5"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A217" s="1"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G229">
-    <sortCondition ref="B1:B229"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G227">
+    <sortCondition ref="B1:B227"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"NSC"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5866,10 +5844,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C91914E-3409-184C-AC43-CBCE957AC7EF}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6229,33 +6207,21 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" t="s">
-        <v>451</v>
+      <c r="B20" s="7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="7" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>289</v>
-      </c>
-      <c r="C22" t="s">
-        <v>413</v>
-      </c>
-      <c r="D22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22" t="s">
-        <v>169</v>
-      </c>
-      <c r="F22" t="s">
-        <v>272</v>
-      </c>
-      <c r="G22" t="s">
-        <v>392</v>
-      </c>
+      <c r="B22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C23" t="s">
         <v>413</v>
@@ -6267,7 +6233,7 @@
         <v>169</v>
       </c>
       <c r="F23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G23" t="s">
         <v>392</v>
@@ -6275,7 +6241,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C24" t="s">
         <v>413</v>
@@ -6287,7 +6253,7 @@
         <v>169</v>
       </c>
       <c r="F24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G24" t="s">
         <v>392</v>
@@ -6295,7 +6261,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C25" t="s">
         <v>413</v>
@@ -6307,7 +6273,7 @@
         <v>169</v>
       </c>
       <c r="F25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G25" t="s">
         <v>392</v>
@@ -6315,7 +6281,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C26" t="s">
         <v>413</v>
@@ -6327,7 +6293,7 @@
         <v>169</v>
       </c>
       <c r="F26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G26" t="s">
         <v>392</v>
@@ -6335,7 +6301,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C27" t="s">
         <v>413</v>
@@ -6347,7 +6313,7 @@
         <v>169</v>
       </c>
       <c r="F27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G27" t="s">
         <v>392</v>
@@ -6355,7 +6321,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C28" t="s">
         <v>413</v>
@@ -6367,7 +6333,7 @@
         <v>169</v>
       </c>
       <c r="F28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G28" t="s">
         <v>392</v>
@@ -6375,7 +6341,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C29" t="s">
         <v>413</v>
@@ -6387,7 +6353,7 @@
         <v>169</v>
       </c>
       <c r="F29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G29" t="s">
         <v>392</v>
@@ -6395,7 +6361,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C30" t="s">
         <v>413</v>
@@ -6407,7 +6373,7 @@
         <v>169</v>
       </c>
       <c r="F30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G30" t="s">
         <v>392</v>
@@ -6415,7 +6381,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C31" t="s">
         <v>413</v>
@@ -6427,7 +6393,7 @@
         <v>169</v>
       </c>
       <c r="F31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G31" t="s">
         <v>392</v>
@@ -6435,7 +6401,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C32" t="s">
         <v>413</v>
@@ -6447,7 +6413,7 @@
         <v>169</v>
       </c>
       <c r="F32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G32" t="s">
         <v>392</v>
@@ -6455,7 +6421,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C33" t="s">
         <v>413</v>
@@ -6467,7 +6433,7 @@
         <v>169</v>
       </c>
       <c r="F33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G33" t="s">
         <v>392</v>
@@ -6475,7 +6441,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C34" t="s">
         <v>413</v>
@@ -6487,7 +6453,7 @@
         <v>169</v>
       </c>
       <c r="F34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G34" t="s">
         <v>392</v>
@@ -6495,7 +6461,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C35" t="s">
         <v>413</v>
@@ -6507,7 +6473,7 @@
         <v>169</v>
       </c>
       <c r="F35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G35" t="s">
         <v>392</v>
@@ -6515,7 +6481,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C36" t="s">
         <v>413</v>
@@ -6526,17 +6492,16 @@
       <c r="E36" t="s">
         <v>169</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>286</v>
+      <c r="F36" t="s">
+        <v>285</v>
       </c>
       <c r="G36" t="s">
         <v>392</v>
       </c>
-      <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C37" t="s">
         <v>413</v>
@@ -6547,16 +6512,17 @@
       <c r="E37" t="s">
         <v>169</v>
       </c>
-      <c r="F37" t="s">
-        <v>287</v>
+      <c r="F37" s="5" t="s">
+        <v>286</v>
       </c>
       <c r="G37" t="s">
         <v>392</v>
       </c>
+      <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C38" t="s">
         <v>413</v>
@@ -6568,41 +6534,41 @@
         <v>169</v>
       </c>
       <c r="F38" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G38" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
       <c r="B39" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>337</v>
-      </c>
-      <c r="C41" t="s">
-        <v>405</v>
-      </c>
-      <c r="D41" t="s">
-        <v>102</v>
-      </c>
-      <c r="E41" t="s">
-        <v>168</v>
-      </c>
-      <c r="F41" t="s">
-        <v>454</v>
-      </c>
-      <c r="G41" t="s">
-        <v>404</v>
+        <v>305</v>
+      </c>
+      <c r="C39" t="s">
+        <v>413</v>
+      </c>
+      <c r="D39" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" t="s">
+        <v>169</v>
+      </c>
+      <c r="F39" t="s">
+        <v>288</v>
+      </c>
+      <c r="G39" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C42" t="s">
         <v>405</v>
@@ -6614,7 +6580,7 @@
         <v>168</v>
       </c>
       <c r="F42" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G42" t="s">
         <v>404</v>
@@ -6622,7 +6588,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C43" t="s">
         <v>405</v>
@@ -6634,7 +6600,7 @@
         <v>168</v>
       </c>
       <c r="F43" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G43" t="s">
         <v>404</v>
@@ -6642,7 +6608,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C44" t="s">
         <v>405</v>
@@ -6654,7 +6620,7 @@
         <v>168</v>
       </c>
       <c r="F44" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G44" t="s">
         <v>404</v>
@@ -6662,7 +6628,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C45" t="s">
         <v>405</v>
@@ -6674,7 +6640,7 @@
         <v>168</v>
       </c>
       <c r="F45" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G45" t="s">
         <v>404</v>
@@ -6682,7 +6648,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C46" t="s">
         <v>405</v>
@@ -6694,7 +6660,7 @@
         <v>168</v>
       </c>
       <c r="F46" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G46" t="s">
         <v>404</v>
@@ -6702,7 +6668,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C47" t="s">
         <v>405</v>
@@ -6714,7 +6680,7 @@
         <v>168</v>
       </c>
       <c r="F47" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G47" t="s">
         <v>404</v>
@@ -6722,7 +6688,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C48" t="s">
         <v>405</v>
@@ -6734,19 +6700,102 @@
         <v>168</v>
       </c>
       <c r="F48" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G48" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>453</v>
+        <v>344</v>
+      </c>
+      <c r="C49" t="s">
+        <v>405</v>
+      </c>
+      <c r="D49" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" t="s">
+        <v>168</v>
+      </c>
+      <c r="F49" t="s">
+        <v>454</v>
+      </c>
+      <c r="G49" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D52" t="s">
+        <v>102</v>
+      </c>
+      <c r="E52" t="s">
+        <v>168</v>
+      </c>
+      <c r="F52" t="s">
+        <v>166</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B53" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D54" t="s">
+        <v>102</v>
+      </c>
+      <c r="E54" t="s">
+        <v>168</v>
+      </c>
+      <c r="F54" t="s">
+        <v>166</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B55" s="3" t="s">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D52:D54">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"NSC"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/ref.xlsx
+++ b/data/ref.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/Repositories/LCAdata/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC23EC0F-C65D-F240-BA09-B878B1B2DAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD63AB7-C4DE-6F42-B7B4-BE20562A86F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="500" windowWidth="27140" windowHeight="15880" xr2:uid="{4F28B243-04AE-1E4D-B411-E86C9FDA2FDF}"/>
+    <workbookView xWindow="10480" yWindow="800" windowWidth="27140" windowHeight="15880" activeTab="1" xr2:uid="{4F28B243-04AE-1E4D-B411-E86C9FDA2FDF}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="464">
   <si>
     <t>old file name</t>
   </si>
@@ -2077,10 +2077,25 @@
     <t>cmat=cmatrix.sr.csv</t>
   </si>
   <si>
-    <t>cmat=cmat.etterson.BDF.csv</t>
-  </si>
-  <si>
     <t>cmat=cmat.etterson.ACE.csv</t>
+  </si>
+  <si>
+    <t>plant vs animal</t>
+  </si>
+  <si>
+    <t>plant</t>
+  </si>
+  <si>
+    <t>animal</t>
+  </si>
+  <si>
+    <t>plant or animal</t>
+  </si>
+  <si>
+    <t>cmat=cmat.etterson.BD.csv</t>
+  </si>
+  <si>
+    <t>cmat=cmat.etterson.F.csv</t>
   </si>
 </sst>
 </file>
@@ -2133,18 +2148,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2159,7 +2168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2167,7 +2176,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2497,11 +2505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1137BAE9-F081-9948-9F37-D6A451EE45DA}">
-  <dimension ref="A1:S227"/>
+  <dimension ref="A1:T227"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A166" sqref="A166"/>
+    <sheetView zoomScale="106" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2509,11 +2517,12 @@
     <col min="1" max="1" width="19.1640625" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
     <col min="3" max="3" width="26.1640625" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="28.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2530,13 +2539,16 @@
         <v>167</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>263</v>
       </c>
@@ -2550,13 +2562,16 @@
         <v>169</v>
       </c>
       <c r="F2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G2" t="s">
         <v>249</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>326</v>
       </c>
@@ -2570,13 +2585,16 @@
         <v>168</v>
       </c>
       <c r="F3" t="s">
+        <v>460</v>
+      </c>
+      <c r="G3" t="s">
         <v>312</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>322</v>
       </c>
@@ -2590,13 +2608,16 @@
         <v>168</v>
       </c>
       <c r="F4" t="s">
+        <v>460</v>
+      </c>
+      <c r="G4" t="s">
         <v>308</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>320</v>
       </c>
@@ -2610,13 +2631,16 @@
         <v>168</v>
       </c>
       <c r="F5" t="s">
+        <v>460</v>
+      </c>
+      <c r="G5" t="s">
         <v>306</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>324</v>
       </c>
@@ -2630,13 +2654,16 @@
         <v>169</v>
       </c>
       <c r="F6" t="s">
+        <v>460</v>
+      </c>
+      <c r="G6" t="s">
         <v>310</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>323</v>
       </c>
@@ -2650,13 +2677,16 @@
         <v>168</v>
       </c>
       <c r="F7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G7" t="s">
         <v>309</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>321</v>
       </c>
@@ -2670,13 +2700,16 @@
         <v>168</v>
       </c>
       <c r="F8" t="s">
+        <v>460</v>
+      </c>
+      <c r="G8" t="s">
         <v>307</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>325</v>
       </c>
@@ -2690,13 +2723,16 @@
         <v>169</v>
       </c>
       <c r="F9" t="s">
+        <v>460</v>
+      </c>
+      <c r="G9" t="s">
         <v>311</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>226</v>
       </c>
@@ -2710,13 +2746,16 @@
         <v>169</v>
       </c>
       <c r="F10" t="s">
+        <v>459</v>
+      </c>
+      <c r="G10" t="s">
         <v>224</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>264</v>
       </c>
@@ -2730,13 +2769,16 @@
         <v>169</v>
       </c>
       <c r="F11" t="s">
+        <v>459</v>
+      </c>
+      <c r="G11" t="s">
         <v>266</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>265</v>
       </c>
@@ -2750,13 +2792,16 @@
         <v>169</v>
       </c>
       <c r="F12" t="s">
+        <v>459</v>
+      </c>
+      <c r="G12" t="s">
         <v>267</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2772,11 +2817,14 @@
       <c r="E13" t="s">
         <v>168</v>
       </c>
-      <c r="G13" t="s">
+      <c r="F13" t="s">
+        <v>460</v>
+      </c>
+      <c r="H13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -2792,11 +2840,14 @@
       <c r="E14" t="s">
         <v>168</v>
       </c>
-      <c r="G14" t="s">
+      <c r="F14" t="s">
+        <v>460</v>
+      </c>
+      <c r="H14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -2812,11 +2863,14 @@
       <c r="E15" t="s">
         <v>168</v>
       </c>
-      <c r="G15" t="s">
+      <c r="F15" t="s">
+        <v>460</v>
+      </c>
+      <c r="H15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -2832,11 +2886,14 @@
       <c r="E16" t="s">
         <v>168</v>
       </c>
-      <c r="G16" t="s">
+      <c r="F16" t="s">
+        <v>460</v>
+      </c>
+      <c r="H16" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>84</v>
       </c>
@@ -2849,11 +2906,14 @@
       <c r="E17" t="s">
         <v>169</v>
       </c>
-      <c r="G17" t="s">
+      <c r="F17" t="s">
+        <v>459</v>
+      </c>
+      <c r="H17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>257</v>
       </c>
@@ -2867,13 +2927,16 @@
         <v>169</v>
       </c>
       <c r="F18" t="s">
+        <v>459</v>
+      </c>
+      <c r="G18" t="s">
         <v>243</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>418</v>
       </c>
@@ -2887,13 +2950,16 @@
         <v>168</v>
       </c>
       <c r="F19" t="s">
+        <v>459</v>
+      </c>
+      <c r="G19" t="s">
         <v>420</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>414</v>
       </c>
@@ -2907,13 +2973,16 @@
         <v>168</v>
       </c>
       <c r="F20" t="s">
+        <v>459</v>
+      </c>
+      <c r="G20" t="s">
         <v>216</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>86</v>
       </c>
@@ -2926,11 +2995,14 @@
       <c r="E21" t="s">
         <v>169</v>
       </c>
-      <c r="G21" t="s">
+      <c r="F21" t="s">
+        <v>459</v>
+      </c>
+      <c r="H21" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -2946,11 +3018,14 @@
       <c r="E22" t="s">
         <v>168</v>
       </c>
-      <c r="G22" t="s">
+      <c r="F22" t="s">
+        <v>460</v>
+      </c>
+      <c r="H22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -2966,11 +3041,14 @@
       <c r="E23" t="s">
         <v>168</v>
       </c>
-      <c r="G23" t="s">
+      <c r="F23" t="s">
+        <v>460</v>
+      </c>
+      <c r="H23" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -2986,11 +3064,14 @@
       <c r="E24" t="s">
         <v>168</v>
       </c>
-      <c r="G24" t="s">
+      <c r="F24" t="s">
+        <v>460</v>
+      </c>
+      <c r="H24" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>109</v>
       </c>
@@ -3006,11 +3087,14 @@
       <c r="E25" t="s">
         <v>168</v>
       </c>
-      <c r="G25" t="s">
+      <c r="F25" t="s">
+        <v>460</v>
+      </c>
+      <c r="H25" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>87</v>
       </c>
@@ -3023,11 +3107,14 @@
       <c r="E26" t="s">
         <v>168</v>
       </c>
-      <c r="G26" t="s">
+      <c r="F26" t="s">
+        <v>459</v>
+      </c>
+      <c r="H26" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>416</v>
       </c>
@@ -3041,13 +3128,16 @@
         <v>169</v>
       </c>
       <c r="F27" t="s">
+        <v>459</v>
+      </c>
+      <c r="G27" t="s">
         <v>420</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>250</v>
       </c>
@@ -3061,13 +3151,16 @@
         <v>169</v>
       </c>
       <c r="F28" t="s">
+        <v>459</v>
+      </c>
+      <c r="G28" t="s">
         <v>236</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>397</v>
       </c>
@@ -3081,13 +3174,16 @@
         <v>168</v>
       </c>
       <c r="F29" t="s">
+        <v>460</v>
+      </c>
+      <c r="G29" t="s">
         <v>212</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>270</v>
       </c>
@@ -3101,13 +3197,16 @@
         <v>168</v>
       </c>
       <c r="F30" t="s">
+        <v>460</v>
+      </c>
+      <c r="G30" t="s">
         <v>269</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>88</v>
       </c>
@@ -3120,11 +3219,14 @@
       <c r="E31" t="s">
         <v>168</v>
       </c>
-      <c r="G31" t="s">
+      <c r="F31" t="s">
+        <v>460</v>
+      </c>
+      <c r="H31" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>345</v>
       </c>
@@ -3138,13 +3240,16 @@
         <v>169</v>
       </c>
       <c r="F32" t="s">
+        <v>460</v>
+      </c>
+      <c r="G32" t="s">
         <v>411</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -3160,11 +3265,14 @@
       <c r="E33" t="s">
         <v>168</v>
       </c>
-      <c r="G33" t="s">
+      <c r="F33" t="s">
+        <v>460</v>
+      </c>
+      <c r="H33" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>89</v>
       </c>
@@ -3177,11 +3285,14 @@
       <c r="E34" t="s">
         <v>169</v>
       </c>
-      <c r="G34" t="s">
+      <c r="F34" t="s">
+        <v>460</v>
+      </c>
+      <c r="H34" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>379</v>
       </c>
@@ -3195,13 +3306,16 @@
         <v>168</v>
       </c>
       <c r="F35" t="s">
+        <v>459</v>
+      </c>
+      <c r="G35" t="s">
         <v>221</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>376</v>
       </c>
@@ -3215,13 +3329,16 @@
         <v>168</v>
       </c>
       <c r="F36" t="s">
+        <v>459</v>
+      </c>
+      <c r="G36" t="s">
         <v>218</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>90</v>
       </c>
@@ -3234,11 +3351,14 @@
       <c r="E37" t="s">
         <v>168</v>
       </c>
-      <c r="G37" t="s">
+      <c r="F37" t="s">
+        <v>459</v>
+      </c>
+      <c r="H37" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>381</v>
       </c>
@@ -3252,13 +3372,16 @@
         <v>168</v>
       </c>
       <c r="F38" t="s">
+        <v>459</v>
+      </c>
+      <c r="G38" t="s">
         <v>223</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -3274,11 +3397,14 @@
       <c r="E39" t="s">
         <v>168</v>
       </c>
-      <c r="G39" t="s">
+      <c r="F39" t="s">
+        <v>459</v>
+      </c>
+      <c r="H39" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -3294,11 +3420,14 @@
       <c r="E40" t="s">
         <v>168</v>
       </c>
-      <c r="G40" t="s">
+      <c r="F40" t="s">
+        <v>459</v>
+      </c>
+      <c r="H40" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -3314,11 +3443,14 @@
       <c r="E41" t="s">
         <v>168</v>
       </c>
-      <c r="G41" t="s">
+      <c r="F41" t="s">
+        <v>459</v>
+      </c>
+      <c r="H41" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -3334,11 +3466,14 @@
       <c r="E42" t="s">
         <v>168</v>
       </c>
-      <c r="G42" t="s">
+      <c r="F42" t="s">
+        <v>459</v>
+      </c>
+      <c r="H42" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -3354,11 +3489,14 @@
       <c r="E43" t="s">
         <v>168</v>
       </c>
-      <c r="G43" t="s">
+      <c r="F43" t="s">
+        <v>459</v>
+      </c>
+      <c r="H43" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>380</v>
       </c>
@@ -3372,13 +3510,16 @@
         <v>168</v>
       </c>
       <c r="F44" t="s">
+        <v>459</v>
+      </c>
+      <c r="G44" t="s">
         <v>222</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -3394,11 +3535,14 @@
       <c r="E45" t="s">
         <v>168</v>
       </c>
-      <c r="G45" t="s">
+      <c r="F45" t="s">
+        <v>459</v>
+      </c>
+      <c r="H45" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -3414,11 +3558,14 @@
       <c r="E46" t="s">
         <v>168</v>
       </c>
-      <c r="G46" t="s">
+      <c r="F46" t="s">
+        <v>459</v>
+      </c>
+      <c r="H46" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -3434,11 +3581,14 @@
       <c r="E47" t="s">
         <v>168</v>
       </c>
-      <c r="G47" t="s">
+      <c r="F47" t="s">
+        <v>459</v>
+      </c>
+      <c r="H47" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -3454,11 +3604,14 @@
       <c r="E48" t="s">
         <v>168</v>
       </c>
-      <c r="G48" t="s">
+      <c r="F48" t="s">
+        <v>459</v>
+      </c>
+      <c r="H48" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -3474,11 +3627,14 @@
       <c r="E49" t="s">
         <v>168</v>
       </c>
-      <c r="G49" t="s">
+      <c r="F49" t="s">
+        <v>459</v>
+      </c>
+      <c r="H49" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>335</v>
       </c>
@@ -3492,13 +3648,16 @@
         <v>168</v>
       </c>
       <c r="F50" t="s">
+        <v>459</v>
+      </c>
+      <c r="G50" t="s">
         <v>271</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>415</v>
       </c>
@@ -3512,13 +3671,16 @@
         <v>168</v>
       </c>
       <c r="F51" t="s">
+        <v>459</v>
+      </c>
+      <c r="G51" t="s">
         <v>417</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>91</v>
       </c>
@@ -3531,11 +3693,14 @@
       <c r="E52" t="s">
         <v>168</v>
       </c>
-      <c r="G52" t="s">
+      <c r="F52" t="s">
+        <v>459</v>
+      </c>
+      <c r="H52" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>233</v>
       </c>
@@ -3549,13 +3714,16 @@
         <v>169</v>
       </c>
       <c r="F53" t="s">
+        <v>460</v>
+      </c>
+      <c r="G53" t="s">
         <v>228</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>232</v>
       </c>
@@ -3569,13 +3737,16 @@
         <v>169</v>
       </c>
       <c r="F54" t="s">
+        <v>460</v>
+      </c>
+      <c r="G54" t="s">
         <v>227</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>268</v>
       </c>
@@ -3589,13 +3760,16 @@
         <v>168</v>
       </c>
       <c r="F55" t="s">
+        <v>460</v>
+      </c>
+      <c r="G55" t="s">
         <v>231</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>375</v>
       </c>
@@ -3609,13 +3783,16 @@
         <v>168</v>
       </c>
       <c r="F56" t="s">
+        <v>459</v>
+      </c>
+      <c r="G56" t="s">
         <v>217</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -3631,11 +3808,14 @@
       <c r="E57" t="s">
         <v>168</v>
       </c>
-      <c r="G57" t="s">
+      <c r="F57" t="s">
+        <v>460</v>
+      </c>
+      <c r="H57" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -3651,11 +3831,14 @@
       <c r="E58" t="s">
         <v>168</v>
       </c>
-      <c r="G58" t="s">
+      <c r="F58" t="s">
+        <v>460</v>
+      </c>
+      <c r="H58" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>20</v>
       </c>
@@ -3671,11 +3854,14 @@
       <c r="E59" t="s">
         <v>168</v>
       </c>
-      <c r="G59" t="s">
+      <c r="F59" t="s">
+        <v>460</v>
+      </c>
+      <c r="H59" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -3691,11 +3877,14 @@
       <c r="E60" t="s">
         <v>168</v>
       </c>
-      <c r="G60" t="s">
+      <c r="F60" t="s">
+        <v>460</v>
+      </c>
+      <c r="H60" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>22</v>
       </c>
@@ -3711,11 +3900,14 @@
       <c r="E61" t="s">
         <v>168</v>
       </c>
-      <c r="G61" t="s">
+      <c r="F61" t="s">
+        <v>460</v>
+      </c>
+      <c r="H61" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>23</v>
       </c>
@@ -3731,11 +3923,14 @@
       <c r="E62" t="s">
         <v>168</v>
       </c>
-      <c r="G62" t="s">
+      <c r="F62" t="s">
+        <v>460</v>
+      </c>
+      <c r="H62" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -3751,11 +3946,14 @@
       <c r="E63" t="s">
         <v>168</v>
       </c>
-      <c r="G63" t="s">
+      <c r="F63" t="s">
+        <v>460</v>
+      </c>
+      <c r="H63" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>25</v>
       </c>
@@ -3771,11 +3969,14 @@
       <c r="E64" t="s">
         <v>168</v>
       </c>
-      <c r="G64" t="s">
+      <c r="F64" t="s">
+        <v>460</v>
+      </c>
+      <c r="H64" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>26</v>
       </c>
@@ -3791,11 +3992,14 @@
       <c r="E65" t="s">
         <v>168</v>
       </c>
-      <c r="G65" t="s">
+      <c r="F65" t="s">
+        <v>460</v>
+      </c>
+      <c r="H65" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>262</v>
       </c>
@@ -3809,13 +4013,16 @@
         <v>169</v>
       </c>
       <c r="F66" t="s">
+        <v>459</v>
+      </c>
+      <c r="G66" t="s">
         <v>245</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>258</v>
       </c>
@@ -3829,13 +4036,16 @@
         <v>169</v>
       </c>
       <c r="F67" t="s">
+        <v>459</v>
+      </c>
+      <c r="G67" t="s">
         <v>244</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>35</v>
       </c>
@@ -3851,11 +4061,14 @@
       <c r="E68" t="s">
         <v>168</v>
       </c>
-      <c r="G68" t="s">
+      <c r="F68" t="s">
+        <v>459</v>
+      </c>
+      <c r="H68" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>37</v>
       </c>
@@ -3871,11 +4084,14 @@
       <c r="E69" t="s">
         <v>168</v>
       </c>
-      <c r="G69" t="s">
+      <c r="F69" t="s">
+        <v>459</v>
+      </c>
+      <c r="H69" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>36</v>
       </c>
@@ -3891,11 +4107,14 @@
       <c r="E70" t="s">
         <v>168</v>
       </c>
-      <c r="G70" t="s">
+      <c r="F70" t="s">
+        <v>459</v>
+      </c>
+      <c r="H70" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -3911,11 +4130,14 @@
       <c r="E71" t="s">
         <v>168</v>
       </c>
-      <c r="G71" t="s">
+      <c r="F71" t="s">
+        <v>459</v>
+      </c>
+      <c r="H71" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>39</v>
       </c>
@@ -3931,11 +4153,14 @@
       <c r="E72" t="s">
         <v>168</v>
       </c>
-      <c r="G72" t="s">
+      <c r="F72" t="s">
+        <v>459</v>
+      </c>
+      <c r="H72" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>27</v>
       </c>
@@ -3951,11 +4176,14 @@
       <c r="E73" t="s">
         <v>168</v>
       </c>
-      <c r="G73" t="s">
+      <c r="F73" t="s">
+        <v>460</v>
+      </c>
+      <c r="H73" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>28</v>
       </c>
@@ -3971,11 +4199,14 @@
       <c r="E74" t="s">
         <v>168</v>
       </c>
-      <c r="G74" t="s">
+      <c r="F74" t="s">
+        <v>460</v>
+      </c>
+      <c r="H74" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>29</v>
       </c>
@@ -3991,11 +4222,14 @@
       <c r="E75" t="s">
         <v>168</v>
       </c>
-      <c r="G75" t="s">
+      <c r="F75" t="s">
+        <v>460</v>
+      </c>
+      <c r="H75" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>58</v>
       </c>
@@ -4011,11 +4245,14 @@
       <c r="E76" t="s">
         <v>168</v>
       </c>
-      <c r="G76" t="s">
+      <c r="F76" t="s">
+        <v>460</v>
+      </c>
+      <c r="H76" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>59</v>
       </c>
@@ -4031,11 +4268,14 @@
       <c r="E77" t="s">
         <v>168</v>
       </c>
-      <c r="G77" t="s">
+      <c r="F77" t="s">
+        <v>460</v>
+      </c>
+      <c r="H77" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>383</v>
       </c>
@@ -4049,13 +4289,16 @@
         <v>168</v>
       </c>
       <c r="F78" t="s">
+        <v>459</v>
+      </c>
+      <c r="G78" t="s">
         <v>374</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>225</v>
       </c>
@@ -4069,13 +4312,16 @@
         <v>169</v>
       </c>
       <c r="F79" t="s">
+        <v>459</v>
+      </c>
+      <c r="G79" t="s">
         <v>210</v>
       </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>11</v>
       </c>
@@ -4091,11 +4337,14 @@
       <c r="E80" t="s">
         <v>168</v>
       </c>
-      <c r="G80" t="s">
+      <c r="F80" t="s">
+        <v>460</v>
+      </c>
+      <c r="H80" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>12</v>
       </c>
@@ -4111,11 +4360,14 @@
       <c r="E81" t="s">
         <v>168</v>
       </c>
-      <c r="G81" t="s">
+      <c r="F81" t="s">
+        <v>460</v>
+      </c>
+      <c r="H81" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>378</v>
       </c>
@@ -4129,13 +4381,16 @@
         <v>169</v>
       </c>
       <c r="F82" t="s">
+        <v>459</v>
+      </c>
+      <c r="G82" t="s">
         <v>220</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -4151,11 +4406,14 @@
       <c r="E83" t="s">
         <v>168</v>
       </c>
-      <c r="G83" t="s">
+      <c r="F83" t="s">
+        <v>460</v>
+      </c>
+      <c r="H83" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>60</v>
       </c>
@@ -4172,13 +4430,16 @@
         <v>168</v>
       </c>
       <c r="F84" t="s">
+        <v>460</v>
+      </c>
+      <c r="G84" t="s">
         <v>164</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>251</v>
       </c>
@@ -4192,13 +4453,16 @@
         <v>169</v>
       </c>
       <c r="F85" t="s">
+        <v>459</v>
+      </c>
+      <c r="G85" t="s">
         <v>237</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>252</v>
       </c>
@@ -4212,13 +4476,16 @@
         <v>169</v>
       </c>
       <c r="F86" t="s">
+        <v>459</v>
+      </c>
+      <c r="G86" t="s">
         <v>238</v>
       </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>256</v>
       </c>
@@ -4232,13 +4499,16 @@
         <v>169</v>
       </c>
       <c r="F87" t="s">
+        <v>459</v>
+      </c>
+      <c r="G87" t="s">
         <v>242</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>255</v>
       </c>
@@ -4252,13 +4522,16 @@
         <v>169</v>
       </c>
       <c r="F88" t="s">
+        <v>459</v>
+      </c>
+      <c r="G88" t="s">
         <v>241</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>254</v>
       </c>
@@ -4272,13 +4545,16 @@
         <v>169</v>
       </c>
       <c r="F89" t="s">
+        <v>459</v>
+      </c>
+      <c r="G89" t="s">
         <v>240</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>253</v>
       </c>
@@ -4292,13 +4568,16 @@
         <v>169</v>
       </c>
       <c r="F90" t="s">
+        <v>459</v>
+      </c>
+      <c r="G90" t="s">
         <v>239</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>382</v>
       </c>
@@ -4312,13 +4591,16 @@
         <v>168</v>
       </c>
       <c r="F91" t="s">
+        <v>459</v>
+      </c>
+      <c r="G91" t="s">
         <v>373</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>398</v>
       </c>
@@ -4332,13 +4614,16 @@
         <v>168</v>
       </c>
       <c r="F92" t="s">
+        <v>460</v>
+      </c>
+      <c r="G92" t="s">
         <v>213</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>407</v>
       </c>
@@ -4352,13 +4637,16 @@
         <v>169</v>
       </c>
       <c r="F93" t="s">
+        <v>460</v>
+      </c>
+      <c r="G93" t="s">
         <v>230</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -4374,11 +4662,14 @@
       <c r="E94" t="s">
         <v>168</v>
       </c>
-      <c r="G94" t="s">
+      <c r="F94" t="s">
+        <v>460</v>
+      </c>
+      <c r="H94" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -4394,11 +4685,14 @@
       <c r="E95" t="s">
         <v>168</v>
       </c>
-      <c r="G95" t="s">
+      <c r="F95" t="s">
+        <v>460</v>
+      </c>
+      <c r="H95" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>45</v>
       </c>
@@ -4414,11 +4708,14 @@
       <c r="E96" t="s">
         <v>169</v>
       </c>
-      <c r="G96" t="s">
+      <c r="F96" t="s">
+        <v>459</v>
+      </c>
+      <c r="H96" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>46</v>
       </c>
@@ -4434,11 +4731,14 @@
       <c r="E97" t="s">
         <v>169</v>
       </c>
-      <c r="G97" t="s">
+      <c r="F97" t="s">
+        <v>459</v>
+      </c>
+      <c r="H97" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>47</v>
       </c>
@@ -4454,11 +4754,14 @@
       <c r="E98" t="s">
         <v>169</v>
       </c>
-      <c r="G98" t="s">
+      <c r="F98" t="s">
+        <v>459</v>
+      </c>
+      <c r="H98" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>48</v>
       </c>
@@ -4474,11 +4777,14 @@
       <c r="E99" t="s">
         <v>169</v>
       </c>
-      <c r="G99" t="s">
+      <c r="F99" t="s">
+        <v>459</v>
+      </c>
+      <c r="H99" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>49</v>
       </c>
@@ -4494,11 +4800,14 @@
       <c r="E100" t="s">
         <v>169</v>
       </c>
-      <c r="G100" t="s">
+      <c r="F100" t="s">
+        <v>459</v>
+      </c>
+      <c r="H100" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>50</v>
       </c>
@@ -4514,11 +4823,14 @@
       <c r="E101" t="s">
         <v>169</v>
       </c>
-      <c r="G101" t="s">
+      <c r="F101" t="s">
+        <v>459</v>
+      </c>
+      <c r="H101" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>51</v>
       </c>
@@ -4534,11 +4846,14 @@
       <c r="E102" t="s">
         <v>169</v>
       </c>
-      <c r="G102" t="s">
+      <c r="F102" t="s">
+        <v>459</v>
+      </c>
+      <c r="H102" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>52</v>
       </c>
@@ -4554,11 +4869,14 @@
       <c r="E103" t="s">
         <v>169</v>
       </c>
-      <c r="G103" t="s">
+      <c r="F103" t="s">
+        <v>459</v>
+      </c>
+      <c r="H103" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>53</v>
       </c>
@@ -4574,11 +4892,14 @@
       <c r="E104" t="s">
         <v>169</v>
       </c>
-      <c r="G104" t="s">
+      <c r="F104" t="s">
+        <v>459</v>
+      </c>
+      <c r="H104" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>54</v>
       </c>
@@ -4594,11 +4915,14 @@
       <c r="E105" t="s">
         <v>169</v>
       </c>
-      <c r="G105" t="s">
+      <c r="F105" t="s">
+        <v>459</v>
+      </c>
+      <c r="H105" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>406</v>
       </c>
@@ -4612,13 +4936,16 @@
         <v>169</v>
       </c>
       <c r="F106" t="s">
+        <v>460</v>
+      </c>
+      <c r="G106" t="s">
         <v>229</v>
       </c>
-      <c r="G106" t="s">
+      <c r="H106" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>16</v>
       </c>
@@ -4634,11 +4961,14 @@
       <c r="E107" t="s">
         <v>168</v>
       </c>
-      <c r="G107" t="s">
+      <c r="F107" t="s">
+        <v>460</v>
+      </c>
+      <c r="H107" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>92</v>
       </c>
@@ -4651,11 +4981,14 @@
       <c r="E108" t="s">
         <v>168</v>
       </c>
-      <c r="G108" t="s">
+      <c r="F108" t="s">
+        <v>459</v>
+      </c>
+      <c r="H108" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>62</v>
       </c>
@@ -4672,13 +5005,16 @@
         <v>168</v>
       </c>
       <c r="F109" t="s">
+        <v>459</v>
+      </c>
+      <c r="G109" t="s">
         <v>165</v>
       </c>
-      <c r="G109" t="s">
+      <c r="H109" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>336</v>
       </c>
@@ -4689,13 +5025,16 @@
         <v>447</v>
       </c>
       <c r="F110" t="s">
+        <v>460</v>
+      </c>
+      <c r="G110" t="s">
         <v>334</v>
       </c>
-      <c r="G110" t="s">
+      <c r="H110" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>260</v>
       </c>
@@ -4709,13 +5048,16 @@
         <v>169</v>
       </c>
       <c r="F111" t="s">
+        <v>459</v>
+      </c>
+      <c r="G111" t="s">
         <v>247</v>
       </c>
-      <c r="G111" t="s">
+      <c r="H111" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>261</v>
       </c>
@@ -4729,13 +5071,16 @@
         <v>169</v>
       </c>
       <c r="F112" t="s">
+        <v>459</v>
+      </c>
+      <c r="G112" t="s">
         <v>246</v>
       </c>
-      <c r="G112" t="s">
+      <c r="H112" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>259</v>
       </c>
@@ -4749,13 +5094,16 @@
         <v>169</v>
       </c>
       <c r="F113" t="s">
+        <v>459</v>
+      </c>
+      <c r="G113" t="s">
         <v>248</v>
       </c>
-      <c r="G113" t="s">
+      <c r="H113" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>396</v>
       </c>
@@ -4769,13 +5117,16 @@
         <v>168</v>
       </c>
       <c r="F114" t="s">
+        <v>460</v>
+      </c>
+      <c r="G114" t="s">
         <v>211</v>
       </c>
-      <c r="G114" t="s">
+      <c r="H114" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>419</v>
       </c>
@@ -4789,13 +5140,16 @@
         <v>168</v>
       </c>
       <c r="F115" t="s">
+        <v>459</v>
+      </c>
+      <c r="G115" t="s">
         <v>421</v>
       </c>
-      <c r="G115" t="s">
+      <c r="H115" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>93</v>
       </c>
@@ -4808,11 +5162,14 @@
       <c r="E116" t="s">
         <v>168</v>
       </c>
-      <c r="G116" t="s">
+      <c r="F116" t="s">
+        <v>459</v>
+      </c>
+      <c r="H116" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>94</v>
       </c>
@@ -4825,11 +5182,14 @@
       <c r="E117" t="s">
         <v>168</v>
       </c>
-      <c r="G117" t="s">
+      <c r="F117" t="s">
+        <v>459</v>
+      </c>
+      <c r="H117" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>17</v>
       </c>
@@ -4845,11 +5205,14 @@
       <c r="E118" t="s">
         <v>168</v>
       </c>
-      <c r="G118" t="s">
+      <c r="F118" t="s">
+        <v>460</v>
+      </c>
+      <c r="H118" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>409</v>
       </c>
@@ -4863,13 +5226,16 @@
         <v>169</v>
       </c>
       <c r="F119" t="s">
+        <v>460</v>
+      </c>
+      <c r="G119" t="s">
         <v>412</v>
       </c>
-      <c r="G119" t="s">
+      <c r="H119" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>95</v>
       </c>
@@ -4882,11 +5248,14 @@
       <c r="E120" t="s">
         <v>169</v>
       </c>
-      <c r="G120" t="s">
+      <c r="F120" t="s">
+        <v>460</v>
+      </c>
+      <c r="H120" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>333</v>
       </c>
@@ -4900,13 +5269,16 @@
         <v>168</v>
       </c>
       <c r="F121" t="s">
+        <v>460</v>
+      </c>
+      <c r="G121" t="s">
         <v>319</v>
       </c>
-      <c r="G121" t="s">
+      <c r="H121" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>329</v>
       </c>
@@ -4920,13 +5292,16 @@
         <v>168</v>
       </c>
       <c r="F122" t="s">
+        <v>460</v>
+      </c>
+      <c r="G122" t="s">
         <v>315</v>
       </c>
-      <c r="G122" t="s">
+      <c r="H122" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>327</v>
       </c>
@@ -4940,13 +5315,16 @@
         <v>168</v>
       </c>
       <c r="F123" t="s">
+        <v>460</v>
+      </c>
+      <c r="G123" t="s">
         <v>313</v>
       </c>
-      <c r="G123" t="s">
+      <c r="H123" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>331</v>
       </c>
@@ -4960,13 +5338,16 @@
         <v>169</v>
       </c>
       <c r="F124" t="s">
+        <v>460</v>
+      </c>
+      <c r="G124" t="s">
         <v>317</v>
       </c>
-      <c r="G124" t="s">
+      <c r="H124" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>330</v>
       </c>
@@ -4980,13 +5361,16 @@
         <v>168</v>
       </c>
       <c r="F125" t="s">
+        <v>460</v>
+      </c>
+      <c r="G125" t="s">
         <v>316</v>
       </c>
-      <c r="G125" t="s">
+      <c r="H125" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>328</v>
       </c>
@@ -5000,13 +5384,16 @@
         <v>168</v>
       </c>
       <c r="F126" t="s">
+        <v>460</v>
+      </c>
+      <c r="G126" t="s">
         <v>314</v>
       </c>
-      <c r="G126" t="s">
+      <c r="H126" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>332</v>
       </c>
@@ -5020,13 +5407,16 @@
         <v>169</v>
       </c>
       <c r="F127" t="s">
+        <v>460</v>
+      </c>
+      <c r="G127" t="s">
         <v>318</v>
       </c>
-      <c r="G127" t="s">
+      <c r="H127" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>377</v>
       </c>
@@ -5040,13 +5430,16 @@
         <v>169</v>
       </c>
       <c r="F128" t="s">
+        <v>459</v>
+      </c>
+      <c r="G128" t="s">
         <v>219</v>
       </c>
-      <c r="G128" t="s">
+      <c r="H128" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>96</v>
       </c>
@@ -5059,14 +5452,17 @@
       <c r="E129" t="s">
         <v>168</v>
       </c>
-      <c r="G129" t="s">
+      <c r="F129" t="s">
+        <v>460</v>
+      </c>
+      <c r="H129" t="s">
         <v>209</v>
       </c>
-      <c r="S129" t="s">
+      <c r="T129" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>399</v>
       </c>
@@ -5080,16 +5476,19 @@
         <v>168</v>
       </c>
       <c r="F130" t="s">
+        <v>460</v>
+      </c>
+      <c r="G130" t="s">
         <v>214</v>
       </c>
-      <c r="G130" t="s">
+      <c r="H130" t="s">
         <v>402</v>
       </c>
-      <c r="S130" t="s">
+      <c r="T130" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>66</v>
       </c>
@@ -5105,11 +5504,14 @@
       <c r="E131" t="s">
         <v>169</v>
       </c>
-      <c r="G131" t="s">
+      <c r="F131" t="s">
+        <v>460</v>
+      </c>
+      <c r="H131" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>67</v>
       </c>
@@ -5125,11 +5527,14 @@
       <c r="E132" t="s">
         <v>169</v>
       </c>
-      <c r="G132" t="s">
+      <c r="F132" t="s">
+        <v>460</v>
+      </c>
+      <c r="H132" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>68</v>
       </c>
@@ -5145,11 +5550,14 @@
       <c r="E133" t="s">
         <v>169</v>
       </c>
-      <c r="G133" t="s">
+      <c r="F133" t="s">
+        <v>460</v>
+      </c>
+      <c r="H133" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>64</v>
       </c>
@@ -5165,11 +5573,14 @@
       <c r="E134" t="s">
         <v>169</v>
       </c>
-      <c r="G134" t="s">
+      <c r="F134" t="s">
+        <v>460</v>
+      </c>
+      <c r="H134" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>70</v>
       </c>
@@ -5185,11 +5596,14 @@
       <c r="E135" t="s">
         <v>169</v>
       </c>
-      <c r="G135" t="s">
+      <c r="F135" t="s">
+        <v>460</v>
+      </c>
+      <c r="H135" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>65</v>
       </c>
@@ -5205,11 +5619,14 @@
       <c r="E136" t="s">
         <v>169</v>
       </c>
-      <c r="G136" t="s">
+      <c r="F136" t="s">
+        <v>460</v>
+      </c>
+      <c r="H136" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>72</v>
       </c>
@@ -5225,11 +5642,14 @@
       <c r="E137" t="s">
         <v>169</v>
       </c>
-      <c r="G137" t="s">
+      <c r="F137" t="s">
+        <v>460</v>
+      </c>
+      <c r="H137" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>69</v>
       </c>
@@ -5245,11 +5665,14 @@
       <c r="E138" t="s">
         <v>169</v>
       </c>
-      <c r="G138" t="s">
+      <c r="F138" t="s">
+        <v>460</v>
+      </c>
+      <c r="H138" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>61</v>
       </c>
@@ -5265,11 +5688,14 @@
       <c r="E139" t="s">
         <v>169</v>
       </c>
-      <c r="G139" t="s">
+      <c r="F139" t="s">
+        <v>460</v>
+      </c>
+      <c r="H139" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>63</v>
       </c>
@@ -5285,11 +5711,14 @@
       <c r="E140" t="s">
         <v>169</v>
       </c>
-      <c r="G140" t="s">
+      <c r="F140" t="s">
+        <v>460</v>
+      </c>
+      <c r="H140" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>71</v>
       </c>
@@ -5305,11 +5734,14 @@
       <c r="E141" t="s">
         <v>169</v>
       </c>
-      <c r="G141" t="s">
+      <c r="F141" t="s">
+        <v>460</v>
+      </c>
+      <c r="H141" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>77</v>
       </c>
@@ -5325,11 +5757,14 @@
       <c r="E142" t="s">
         <v>169</v>
       </c>
-      <c r="G142" t="s">
+      <c r="F142" t="s">
+        <v>460</v>
+      </c>
+      <c r="H142" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>78</v>
       </c>
@@ -5345,11 +5780,14 @@
       <c r="E143" t="s">
         <v>169</v>
       </c>
-      <c r="G143" t="s">
+      <c r="F143" t="s">
+        <v>460</v>
+      </c>
+      <c r="H143" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>79</v>
       </c>
@@ -5365,11 +5803,14 @@
       <c r="E144" t="s">
         <v>169</v>
       </c>
-      <c r="G144" t="s">
+      <c r="F144" t="s">
+        <v>460</v>
+      </c>
+      <c r="H144" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>75</v>
       </c>
@@ -5385,11 +5826,14 @@
       <c r="E145" t="s">
         <v>169</v>
       </c>
-      <c r="G145" t="s">
+      <c r="F145" t="s">
+        <v>460</v>
+      </c>
+      <c r="H145" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>81</v>
       </c>
@@ -5405,11 +5849,14 @@
       <c r="E146" t="s">
         <v>169</v>
       </c>
-      <c r="G146" t="s">
+      <c r="F146" t="s">
+        <v>460</v>
+      </c>
+      <c r="H146" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>76</v>
       </c>
@@ -5425,11 +5872,14 @@
       <c r="E147" t="s">
         <v>169</v>
       </c>
-      <c r="G147" t="s">
+      <c r="F147" t="s">
+        <v>460</v>
+      </c>
+      <c r="H147" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>83</v>
       </c>
@@ -5445,11 +5895,14 @@
       <c r="E148" t="s">
         <v>169</v>
       </c>
-      <c r="G148" t="s">
+      <c r="F148" t="s">
+        <v>460</v>
+      </c>
+      <c r="H148" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>80</v>
       </c>
@@ -5465,11 +5918,14 @@
       <c r="E149" t="s">
         <v>169</v>
       </c>
-      <c r="G149" t="s">
+      <c r="F149" t="s">
+        <v>460</v>
+      </c>
+      <c r="H149" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>73</v>
       </c>
@@ -5485,11 +5941,14 @@
       <c r="E150" t="s">
         <v>169</v>
       </c>
-      <c r="G150" t="s">
+      <c r="F150" t="s">
+        <v>460</v>
+      </c>
+      <c r="H150" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>74</v>
       </c>
@@ -5505,11 +5964,14 @@
       <c r="E151" t="s">
         <v>169</v>
       </c>
-      <c r="G151" t="s">
+      <c r="F151" t="s">
+        <v>460</v>
+      </c>
+      <c r="H151" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>82</v>
       </c>
@@ -5525,11 +5987,14 @@
       <c r="E152" t="s">
         <v>169</v>
       </c>
-      <c r="G152" t="s">
+      <c r="F152" t="s">
+        <v>460</v>
+      </c>
+      <c r="H152" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>359</v>
       </c>
@@ -5543,13 +6008,16 @@
         <v>168</v>
       </c>
       <c r="F153" t="s">
+        <v>459</v>
+      </c>
+      <c r="G153" t="s">
         <v>237</v>
       </c>
-      <c r="G153" t="s">
+      <c r="H153" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>360</v>
       </c>
@@ -5563,13 +6031,16 @@
         <v>168</v>
       </c>
       <c r="F154" t="s">
+        <v>459</v>
+      </c>
+      <c r="G154" t="s">
         <v>238</v>
       </c>
-      <c r="G154" t="s">
+      <c r="H154" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>361</v>
       </c>
@@ -5583,13 +6054,16 @@
         <v>168</v>
       </c>
       <c r="F155" t="s">
+        <v>459</v>
+      </c>
+      <c r="G155" t="s">
         <v>239</v>
       </c>
-      <c r="G155" t="s">
+      <c r="H155" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>362</v>
       </c>
@@ -5603,13 +6077,16 @@
         <v>168</v>
       </c>
       <c r="F156" t="s">
+        <v>459</v>
+      </c>
+      <c r="G156" t="s">
         <v>240</v>
       </c>
-      <c r="G156" t="s">
+      <c r="H156" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>363</v>
       </c>
@@ -5623,13 +6100,16 @@
         <v>168</v>
       </c>
       <c r="F157" t="s">
+        <v>459</v>
+      </c>
+      <c r="G157" t="s">
         <v>236</v>
       </c>
-      <c r="G157" t="s">
+      <c r="H157" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>364</v>
       </c>
@@ -5643,13 +6123,16 @@
         <v>168</v>
       </c>
       <c r="F158" t="s">
+        <v>459</v>
+      </c>
+      <c r="G158" t="s">
         <v>246</v>
       </c>
-      <c r="G158" t="s">
+      <c r="H158" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>365</v>
       </c>
@@ -5663,13 +6146,16 @@
         <v>168</v>
       </c>
       <c r="F159" t="s">
+        <v>459</v>
+      </c>
+      <c r="G159" t="s">
         <v>354</v>
       </c>
-      <c r="G159" t="s">
+      <c r="H159" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>366</v>
       </c>
@@ -5683,13 +6169,16 @@
         <v>168</v>
       </c>
       <c r="F160" t="s">
+        <v>459</v>
+      </c>
+      <c r="G160" t="s">
         <v>355</v>
       </c>
-      <c r="G160" t="s">
+      <c r="H160" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>367</v>
       </c>
@@ -5703,13 +6192,16 @@
         <v>168</v>
       </c>
       <c r="F161" t="s">
+        <v>459</v>
+      </c>
+      <c r="G161" t="s">
         <v>241</v>
       </c>
-      <c r="G161" t="s">
+      <c r="H161" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>368</v>
       </c>
@@ -5723,13 +6215,16 @@
         <v>168</v>
       </c>
       <c r="F162" t="s">
+        <v>459</v>
+      </c>
+      <c r="G162" t="s">
         <v>242</v>
       </c>
-      <c r="G162" t="s">
+      <c r="H162" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>369</v>
       </c>
@@ -5743,13 +6238,16 @@
         <v>168</v>
       </c>
       <c r="F163" t="s">
+        <v>459</v>
+      </c>
+      <c r="G163" t="s">
         <v>356</v>
       </c>
-      <c r="G163" t="s">
+      <c r="H163" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>370</v>
       </c>
@@ -5763,13 +6261,16 @@
         <v>168</v>
       </c>
       <c r="F164" t="s">
+        <v>459</v>
+      </c>
+      <c r="G164" t="s">
         <v>243</v>
       </c>
-      <c r="G164" t="s">
+      <c r="H164" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>371</v>
       </c>
@@ -5783,13 +6284,16 @@
         <v>168</v>
       </c>
       <c r="F165" t="s">
+        <v>459</v>
+      </c>
+      <c r="G165" t="s">
         <v>357</v>
       </c>
-      <c r="G165" t="s">
+      <c r="H165" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>372</v>
       </c>
@@ -5803,9 +6307,12 @@
         <v>168</v>
       </c>
       <c r="F166" t="s">
+        <v>459</v>
+      </c>
+      <c r="G166" t="s">
         <v>358</v>
       </c>
-      <c r="G166" t="s">
+      <c r="H166" t="s">
         <v>408</v>
       </c>
     </row>
@@ -5818,18 +6325,18 @@
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F214" s="5"/>
-      <c r="H214" s="5"/>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G214" s="5"/>
+      <c r="I214" s="5"/>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G227">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H227">
     <sortCondition ref="B1:B227"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -5844,19 +6351,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C91914E-3409-184C-AC43-CBCE957AC7EF}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.83203125" customWidth="1"/>
     <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5873,13 +6382,16 @@
         <v>167</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>350</v>
       </c>
@@ -5893,13 +6405,16 @@
         <v>168</v>
       </c>
       <c r="F2" t="s">
+        <v>460</v>
+      </c>
+      <c r="G2" t="s">
         <v>346</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>351</v>
       </c>
@@ -5913,13 +6428,16 @@
         <v>168</v>
       </c>
       <c r="F3" t="s">
+        <v>460</v>
+      </c>
+      <c r="G3" t="s">
         <v>347</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>352</v>
       </c>
@@ -5933,13 +6451,16 @@
         <v>168</v>
       </c>
       <c r="F4" t="s">
+        <v>460</v>
+      </c>
+      <c r="G4" t="s">
         <v>348</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>353</v>
       </c>
@@ -5953,19 +6474,22 @@
         <v>168</v>
       </c>
       <c r="F5" t="s">
+        <v>460</v>
+      </c>
+      <c r="G5" t="s">
         <v>349</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>422</v>
       </c>
@@ -5979,13 +6503,16 @@
         <v>168</v>
       </c>
       <c r="F8" t="s">
+        <v>459</v>
+      </c>
+      <c r="G8" t="s">
         <v>428</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>423</v>
       </c>
@@ -5999,13 +6526,16 @@
         <v>168</v>
       </c>
       <c r="F9" t="s">
+        <v>459</v>
+      </c>
+      <c r="G9" t="s">
         <v>429</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>424</v>
       </c>
@@ -6019,13 +6549,16 @@
         <v>168</v>
       </c>
       <c r="F10" t="s">
+        <v>459</v>
+      </c>
+      <c r="G10" t="s">
         <v>430</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>425</v>
       </c>
@@ -6039,13 +6572,16 @@
         <v>168</v>
       </c>
       <c r="F11" t="s">
+        <v>459</v>
+      </c>
+      <c r="G11" t="s">
         <v>431</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>426</v>
       </c>
@@ -6059,13 +6595,16 @@
         <v>168</v>
       </c>
       <c r="F12" t="s">
+        <v>459</v>
+      </c>
+      <c r="G12" t="s">
         <v>432</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>427</v>
       </c>
@@ -6079,13 +6618,16 @@
         <v>168</v>
       </c>
       <c r="F13" t="s">
+        <v>459</v>
+      </c>
+      <c r="G13" t="s">
         <v>433</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>435</v>
       </c>
@@ -6099,13 +6641,16 @@
         <v>168</v>
       </c>
       <c r="F14" t="s">
+        <v>459</v>
+      </c>
+      <c r="G14" t="s">
         <v>441</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>436</v>
       </c>
@@ -6119,13 +6664,16 @@
         <v>168</v>
       </c>
       <c r="F15" t="s">
+        <v>459</v>
+      </c>
+      <c r="G15" t="s">
         <v>442</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>437</v>
       </c>
@@ -6139,13 +6687,16 @@
         <v>168</v>
       </c>
       <c r="F16" t="s">
+        <v>459</v>
+      </c>
+      <c r="G16" t="s">
         <v>443</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>438</v>
       </c>
@@ -6159,13 +6710,16 @@
         <v>168</v>
       </c>
       <c r="F17" t="s">
+        <v>459</v>
+      </c>
+      <c r="G17" t="s">
         <v>444</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>439</v>
       </c>
@@ -6179,13 +6733,16 @@
         <v>168</v>
       </c>
       <c r="F18" t="s">
+        <v>459</v>
+      </c>
+      <c r="G18" t="s">
         <v>445</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>440</v>
       </c>
@@ -6199,49 +6756,34 @@
         <v>168</v>
       </c>
       <c r="F19" t="s">
+        <v>459</v>
+      </c>
+      <c r="G19" t="s">
         <v>446</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="7" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="6" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="6" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>289</v>
-      </c>
-      <c r="C23" t="s">
-        <v>413</v>
-      </c>
-      <c r="D23" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" t="s">
-        <v>169</v>
-      </c>
-      <c r="F23" t="s">
-        <v>272</v>
-      </c>
-      <c r="G23" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>290</v>
       </c>
       <c r="C24" t="s">
         <v>413</v>
@@ -6253,15 +6795,18 @@
         <v>169</v>
       </c>
       <c r="F24" t="s">
-        <v>273</v>
+        <v>460</v>
       </c>
       <c r="G24" t="s">
+        <v>272</v>
+      </c>
+      <c r="H24" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C25" t="s">
         <v>413</v>
@@ -6273,15 +6818,18 @@
         <v>169</v>
       </c>
       <c r="F25" t="s">
-        <v>274</v>
+        <v>460</v>
       </c>
       <c r="G25" t="s">
+        <v>273</v>
+      </c>
+      <c r="H25" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C26" t="s">
         <v>413</v>
@@ -6293,15 +6841,18 @@
         <v>169</v>
       </c>
       <c r="F26" t="s">
-        <v>275</v>
+        <v>460</v>
       </c>
       <c r="G26" t="s">
+        <v>274</v>
+      </c>
+      <c r="H26" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C27" t="s">
         <v>413</v>
@@ -6313,15 +6864,18 @@
         <v>169</v>
       </c>
       <c r="F27" t="s">
-        <v>276</v>
+        <v>460</v>
       </c>
       <c r="G27" t="s">
+        <v>275</v>
+      </c>
+      <c r="H27" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C28" t="s">
         <v>413</v>
@@ -6333,15 +6887,18 @@
         <v>169</v>
       </c>
       <c r="F28" t="s">
-        <v>277</v>
+        <v>460</v>
       </c>
       <c r="G28" t="s">
+        <v>276</v>
+      </c>
+      <c r="H28" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C29" t="s">
         <v>413</v>
@@ -6353,15 +6910,18 @@
         <v>169</v>
       </c>
       <c r="F29" t="s">
-        <v>278</v>
+        <v>460</v>
       </c>
       <c r="G29" t="s">
+        <v>277</v>
+      </c>
+      <c r="H29" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C30" t="s">
         <v>413</v>
@@ -6373,15 +6933,18 @@
         <v>169</v>
       </c>
       <c r="F30" t="s">
-        <v>279</v>
+        <v>460</v>
       </c>
       <c r="G30" t="s">
+        <v>278</v>
+      </c>
+      <c r="H30" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C31" t="s">
         <v>413</v>
@@ -6393,15 +6956,18 @@
         <v>169</v>
       </c>
       <c r="F31" t="s">
-        <v>280</v>
+        <v>460</v>
       </c>
       <c r="G31" t="s">
+        <v>279</v>
+      </c>
+      <c r="H31" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C32" t="s">
         <v>413</v>
@@ -6413,15 +6979,18 @@
         <v>169</v>
       </c>
       <c r="F32" t="s">
-        <v>281</v>
+        <v>460</v>
       </c>
       <c r="G32" t="s">
+        <v>280</v>
+      </c>
+      <c r="H32" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C33" t="s">
         <v>413</v>
@@ -6433,15 +7002,18 @@
         <v>169</v>
       </c>
       <c r="F33" t="s">
-        <v>282</v>
+        <v>460</v>
       </c>
       <c r="G33" t="s">
+        <v>281</v>
+      </c>
+      <c r="H33" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C34" t="s">
         <v>413</v>
@@ -6453,15 +7025,18 @@
         <v>169</v>
       </c>
       <c r="F34" t="s">
-        <v>283</v>
+        <v>460</v>
       </c>
       <c r="G34" t="s">
+        <v>282</v>
+      </c>
+      <c r="H34" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C35" t="s">
         <v>413</v>
@@ -6473,15 +7048,18 @@
         <v>169</v>
       </c>
       <c r="F35" t="s">
-        <v>284</v>
+        <v>460</v>
       </c>
       <c r="G35" t="s">
+        <v>283</v>
+      </c>
+      <c r="H35" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C36" t="s">
         <v>413</v>
@@ -6493,15 +7071,18 @@
         <v>169</v>
       </c>
       <c r="F36" t="s">
-        <v>285</v>
+        <v>460</v>
       </c>
       <c r="G36" t="s">
+        <v>284</v>
+      </c>
+      <c r="H36" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C37" t="s">
         <v>413</v>
@@ -6512,17 +7093,19 @@
       <c r="E37" t="s">
         <v>169</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>286</v>
+      <c r="F37" t="s">
+        <v>460</v>
       </c>
       <c r="G37" t="s">
+        <v>285</v>
+      </c>
+      <c r="H37" t="s">
         <v>392</v>
       </c>
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C38" t="s">
         <v>413</v>
@@ -6534,15 +7117,19 @@
         <v>169</v>
       </c>
       <c r="F38" t="s">
-        <v>287</v>
-      </c>
-      <c r="G38" t="s">
+        <v>460</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="H38" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C39" t="s">
         <v>413</v>
@@ -6554,41 +7141,47 @@
         <v>169</v>
       </c>
       <c r="F39" t="s">
+        <v>460</v>
+      </c>
+      <c r="G39" t="s">
+        <v>287</v>
+      </c>
+      <c r="H39" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>305</v>
+      </c>
+      <c r="C40" t="s">
+        <v>413</v>
+      </c>
+      <c r="D40" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" t="s">
+        <v>169</v>
+      </c>
+      <c r="F40" t="s">
+        <v>460</v>
+      </c>
+      <c r="G40" t="s">
         <v>288</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H40" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
         <v>337</v>
-      </c>
-      <c r="C42" t="s">
-        <v>405</v>
-      </c>
-      <c r="D42" t="s">
-        <v>102</v>
-      </c>
-      <c r="E42" t="s">
-        <v>168</v>
-      </c>
-      <c r="F42" t="s">
-        <v>453</v>
-      </c>
-      <c r="G42" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>338</v>
       </c>
       <c r="C43" t="s">
         <v>405</v>
@@ -6600,15 +7193,18 @@
         <v>168</v>
       </c>
       <c r="F43" t="s">
+        <v>460</v>
+      </c>
+      <c r="G43" t="s">
         <v>453</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C44" t="s">
         <v>405</v>
@@ -6620,15 +7216,18 @@
         <v>168</v>
       </c>
       <c r="F44" t="s">
+        <v>460</v>
+      </c>
+      <c r="G44" t="s">
         <v>453</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C45" t="s">
         <v>405</v>
@@ -6640,15 +7239,18 @@
         <v>168</v>
       </c>
       <c r="F45" t="s">
+        <v>460</v>
+      </c>
+      <c r="G45" t="s">
         <v>453</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C46" t="s">
         <v>405</v>
@@ -6660,15 +7262,18 @@
         <v>168</v>
       </c>
       <c r="F46" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="G46" t="s">
+        <v>453</v>
+      </c>
+      <c r="H46" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C47" t="s">
         <v>405</v>
@@ -6680,15 +7285,18 @@
         <v>168</v>
       </c>
       <c r="F47" t="s">
+        <v>460</v>
+      </c>
+      <c r="G47" t="s">
         <v>454</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C48" t="s">
         <v>405</v>
@@ -6700,15 +7308,18 @@
         <v>168</v>
       </c>
       <c r="F48" t="s">
+        <v>460</v>
+      </c>
+      <c r="G48" t="s">
         <v>454</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C49" t="s">
         <v>405</v>
@@ -6720,78 +7331,109 @@
         <v>168</v>
       </c>
       <c r="F49" t="s">
+        <v>460</v>
+      </c>
+      <c r="G49" t="s">
         <v>454</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
+        <v>344</v>
+      </c>
+      <c r="C50" t="s">
+        <v>405</v>
+      </c>
+      <c r="D50" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" t="s">
+        <v>168</v>
+      </c>
+      <c r="F50" t="s">
+        <v>460</v>
+      </c>
+      <c r="G50" t="s">
+        <v>454</v>
+      </c>
+      <c r="H50" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B53" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C53" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D52" t="s">
-        <v>102</v>
-      </c>
-      <c r="E52" t="s">
-        <v>168</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="D53" t="s">
+        <v>102</v>
+      </c>
+      <c r="E53" t="s">
+        <v>168</v>
+      </c>
+      <c r="F53" t="s">
+        <v>460</v>
+      </c>
+      <c r="G53" t="s">
         <v>166</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="H53" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B53" s="3" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B54" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="C53" s="4"/>
-      <c r="G53" s="6"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="C54" s="4"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C55" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D54" t="s">
-        <v>102</v>
-      </c>
-      <c r="E54" t="s">
-        <v>168</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="D55" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" t="s">
+        <v>168</v>
+      </c>
+      <c r="F55" t="s">
+        <v>460</v>
+      </c>
+      <c r="G55" t="s">
         <v>166</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="H55" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B55" s="3" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B56" s="3" t="s">
         <v>456</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D52:D54">
+  <conditionalFormatting sqref="D53:D55">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"NSC"</formula>
     </cfRule>

--- a/data/ref.xlsx
+++ b/data/ref.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/Repositories/LCAdata/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD63AB7-C4DE-6F42-B7B4-BE20562A86F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629B60B5-8FA9-1F43-A288-1AFCFF01091B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10480" yWindow="800" windowWidth="27140" windowHeight="15880" activeTab="1" xr2:uid="{4F28B243-04AE-1E4D-B411-E86C9FDA2FDF}"/>
+    <workbookView xWindow="39480" yWindow="1480" windowWidth="27140" windowHeight="15880" xr2:uid="{4F28B243-04AE-1E4D-B411-E86C9FDA2FDF}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="469">
   <si>
     <t>old file name</t>
   </si>
@@ -2096,6 +2096,21 @@
   </si>
   <si>
     <t>cmat=cmat.etterson.F.csv</t>
+  </si>
+  <si>
+    <t>within or between species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">within or between species </t>
+  </si>
+  <si>
+    <t>within</t>
+  </si>
+  <si>
+    <t>between</t>
+  </si>
+  <si>
+    <t xml:space="preserve">within </t>
   </si>
 </sst>
 </file>
@@ -2168,7 +2183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2176,6 +2191,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2505,11 +2521,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1137BAE9-F081-9948-9F37-D6A451EE45DA}">
-  <dimension ref="A1:T227"/>
+  <dimension ref="A1:U227"/>
   <sheetViews>
-    <sheetView zoomScale="106" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B166"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="106" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H151" sqref="H151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2517,12 +2533,14 @@
     <col min="1" max="1" width="19.1640625" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
     <col min="3" max="3" width="26.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="6"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="28.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2532,7 +2550,7 @@
       <c r="C1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -2542,20 +2560,23 @@
         <v>461</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>263</v>
       </c>
       <c r="C2" t="s">
         <v>400</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E2" t="s">
@@ -2565,20 +2586,23 @@
         <v>459</v>
       </c>
       <c r="G2" t="s">
+        <v>467</v>
+      </c>
+      <c r="H2" t="s">
         <v>249</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>326</v>
       </c>
       <c r="C3" t="s">
         <v>401</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E3" t="s">
@@ -2587,21 +2611,24 @@
       <c r="F3" t="s">
         <v>460</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="H3" t="s">
         <v>312</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>322</v>
       </c>
       <c r="C4" t="s">
         <v>401</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E4" t="s">
@@ -2610,21 +2637,24 @@
       <c r="F4" t="s">
         <v>460</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="H4" t="s">
         <v>308</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>320</v>
       </c>
       <c r="C5" t="s">
         <v>401</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E5" t="s">
@@ -2633,21 +2663,24 @@
       <c r="F5" t="s">
         <v>460</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="H5" t="s">
         <v>306</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>324</v>
       </c>
       <c r="C6" t="s">
         <v>401</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E6" t="s">
@@ -2656,21 +2689,24 @@
       <c r="F6" t="s">
         <v>460</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="H6" t="s">
         <v>310</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>323</v>
       </c>
       <c r="C7" t="s">
         <v>401</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E7" t="s">
@@ -2679,21 +2715,24 @@
       <c r="F7" t="s">
         <v>460</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="H7" t="s">
         <v>309</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>321</v>
       </c>
       <c r="C8" t="s">
         <v>401</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E8" t="s">
@@ -2702,21 +2741,24 @@
       <c r="F8" t="s">
         <v>460</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="H8" t="s">
         <v>307</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>325</v>
       </c>
       <c r="C9" t="s">
         <v>401</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E9" t="s">
@@ -2725,21 +2767,24 @@
       <c r="F9" t="s">
         <v>460</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="H9" t="s">
         <v>311</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>226</v>
       </c>
       <c r="C10" t="s">
         <v>400</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E10" t="s">
@@ -2749,20 +2794,23 @@
         <v>459</v>
       </c>
       <c r="G10" t="s">
+        <v>467</v>
+      </c>
+      <c r="H10" t="s">
         <v>224</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>264</v>
       </c>
       <c r="C11" t="s">
         <v>400</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E11" t="s">
@@ -2772,20 +2820,23 @@
         <v>459</v>
       </c>
       <c r="G11" t="s">
+        <v>467</v>
+      </c>
+      <c r="H11" t="s">
         <v>266</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>265</v>
       </c>
       <c r="C12" t="s">
         <v>400</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E12" t="s">
@@ -2795,13 +2846,16 @@
         <v>459</v>
       </c>
       <c r="G12" t="s">
+        <v>467</v>
+      </c>
+      <c r="H12" t="s">
         <v>267</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2811,7 +2865,7 @@
       <c r="C13" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E13" t="s">
@@ -2820,11 +2874,14 @@
       <c r="F13" t="s">
         <v>460</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G13" t="s">
+        <v>466</v>
+      </c>
+      <c r="I13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -2834,7 +2891,7 @@
       <c r="C14" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E14" t="s">
@@ -2843,11 +2900,14 @@
       <c r="F14" t="s">
         <v>460</v>
       </c>
-      <c r="H14" t="s">
+      <c r="G14" t="s">
+        <v>466</v>
+      </c>
+      <c r="I14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -2857,7 +2917,7 @@
       <c r="C15" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E15" t="s">
@@ -2866,11 +2926,14 @@
       <c r="F15" t="s">
         <v>460</v>
       </c>
-      <c r="H15" t="s">
+      <c r="G15" t="s">
+        <v>466</v>
+      </c>
+      <c r="I15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -2880,7 +2943,7 @@
       <c r="C16" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E16" t="s">
@@ -2889,18 +2952,21 @@
       <c r="F16" t="s">
         <v>460</v>
       </c>
-      <c r="H16" t="s">
+      <c r="G16" t="s">
+        <v>466</v>
+      </c>
+      <c r="I16" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>84</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E17" t="s">
@@ -2909,18 +2975,21 @@
       <c r="F17" t="s">
         <v>459</v>
       </c>
-      <c r="H17" t="s">
+      <c r="G17" t="s">
+        <v>467</v>
+      </c>
+      <c r="I17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>257</v>
       </c>
       <c r="C18" t="s">
         <v>400</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E18" t="s">
@@ -2930,20 +2999,23 @@
         <v>459</v>
       </c>
       <c r="G18" t="s">
+        <v>467</v>
+      </c>
+      <c r="H18" t="s">
         <v>243</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>418</v>
       </c>
       <c r="C19" t="s">
         <v>400</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E19" t="s">
@@ -2953,20 +3025,23 @@
         <v>459</v>
       </c>
       <c r="G19" t="s">
+        <v>467</v>
+      </c>
+      <c r="H19" t="s">
         <v>420</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>414</v>
       </c>
       <c r="C20" t="s">
         <v>400</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E20" t="s">
@@ -2976,20 +3051,23 @@
         <v>459</v>
       </c>
       <c r="G20" t="s">
+        <v>467</v>
+      </c>
+      <c r="H20" t="s">
         <v>216</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>86</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E21" t="s">
@@ -2998,11 +3076,14 @@
       <c r="F21" t="s">
         <v>459</v>
       </c>
-      <c r="H21" t="s">
+      <c r="G21" t="s">
+        <v>467</v>
+      </c>
+      <c r="I21" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -3012,7 +3093,7 @@
       <c r="C22" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E22" t="s">
@@ -3021,11 +3102,14 @@
       <c r="F22" t="s">
         <v>460</v>
       </c>
-      <c r="H22" t="s">
+      <c r="G22" t="s">
+        <v>468</v>
+      </c>
+      <c r="I22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -3035,7 +3119,7 @@
       <c r="C23" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E23" t="s">
@@ -3044,11 +3128,14 @@
       <c r="F23" t="s">
         <v>460</v>
       </c>
-      <c r="H23" t="s">
+      <c r="G23" t="s">
+        <v>468</v>
+      </c>
+      <c r="I23" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -3058,7 +3145,7 @@
       <c r="C24" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E24" t="s">
@@ -3067,11 +3154,14 @@
       <c r="F24" t="s">
         <v>460</v>
       </c>
-      <c r="H24" t="s">
+      <c r="G24" t="s">
+        <v>468</v>
+      </c>
+      <c r="I24" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>109</v>
       </c>
@@ -3081,7 +3171,7 @@
       <c r="C25" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E25" t="s">
@@ -3090,18 +3180,21 @@
       <c r="F25" t="s">
         <v>460</v>
       </c>
-      <c r="H25" t="s">
+      <c r="G25" t="s">
+        <v>468</v>
+      </c>
+      <c r="I25" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>87</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E26" t="s">
@@ -3110,18 +3203,21 @@
       <c r="F26" t="s">
         <v>459</v>
       </c>
-      <c r="H26" t="s">
+      <c r="G26" t="s">
+        <v>468</v>
+      </c>
+      <c r="I26" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>416</v>
       </c>
       <c r="C27" t="s">
         <v>400</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E27" t="s">
@@ -3131,20 +3227,23 @@
         <v>459</v>
       </c>
       <c r="G27" t="s">
+        <v>467</v>
+      </c>
+      <c r="H27" t="s">
         <v>420</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>250</v>
       </c>
       <c r="C28" t="s">
         <v>400</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E28" t="s">
@@ -3154,20 +3253,23 @@
         <v>459</v>
       </c>
       <c r="G28" t="s">
+        <v>467</v>
+      </c>
+      <c r="H28" t="s">
         <v>236</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>397</v>
       </c>
       <c r="C29" t="s">
         <v>403</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E29" t="s">
@@ -3177,20 +3279,23 @@
         <v>460</v>
       </c>
       <c r="G29" t="s">
+        <v>467</v>
+      </c>
+      <c r="H29" t="s">
         <v>212</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>270</v>
       </c>
       <c r="C30" t="s">
         <v>449</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E30" t="s">
@@ -3200,20 +3305,23 @@
         <v>460</v>
       </c>
       <c r="G30" t="s">
+        <v>467</v>
+      </c>
+      <c r="H30" t="s">
         <v>269</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>88</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E31" t="s">
@@ -3222,18 +3330,21 @@
       <c r="F31" t="s">
         <v>460</v>
       </c>
-      <c r="H31" t="s">
+      <c r="G31" t="s">
+        <v>466</v>
+      </c>
+      <c r="I31" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>345</v>
       </c>
       <c r="C32" t="s">
         <v>403</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E32" t="s">
@@ -3243,13 +3354,16 @@
         <v>460</v>
       </c>
       <c r="G32" t="s">
+        <v>466</v>
+      </c>
+      <c r="H32" t="s">
         <v>411</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -3259,7 +3373,7 @@
       <c r="C33" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E33" t="s">
@@ -3268,18 +3382,21 @@
       <c r="F33" t="s">
         <v>460</v>
       </c>
-      <c r="H33" t="s">
+      <c r="G33" t="s">
+        <v>467</v>
+      </c>
+      <c r="I33" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>89</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E34" t="s">
@@ -3288,18 +3405,21 @@
       <c r="F34" t="s">
         <v>460</v>
       </c>
-      <c r="H34" t="s">
+      <c r="G34" t="s">
+        <v>466</v>
+      </c>
+      <c r="I34" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>379</v>
       </c>
       <c r="C35" t="s">
         <v>434</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E35" t="s">
@@ -3309,20 +3429,23 @@
         <v>459</v>
       </c>
       <c r="G35" t="s">
+        <v>467</v>
+      </c>
+      <c r="H35" t="s">
         <v>221</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>376</v>
       </c>
       <c r="C36" t="s">
         <v>434</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E36" t="s">
@@ -3332,20 +3455,23 @@
         <v>459</v>
       </c>
       <c r="G36" t="s">
+        <v>467</v>
+      </c>
+      <c r="H36" t="s">
         <v>218</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>90</v>
       </c>
       <c r="C37" t="s">
         <v>194</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E37" t="s">
@@ -3354,18 +3480,21 @@
       <c r="F37" t="s">
         <v>459</v>
       </c>
-      <c r="H37" t="s">
+      <c r="G37" t="s">
+        <v>467</v>
+      </c>
+      <c r="I37" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>381</v>
       </c>
       <c r="C38" t="s">
         <v>434</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E38" t="s">
@@ -3375,13 +3504,16 @@
         <v>459</v>
       </c>
       <c r="G38" t="s">
+        <v>467</v>
+      </c>
+      <c r="H38" t="s">
         <v>223</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -3391,7 +3523,7 @@
       <c r="C39" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E39" t="s">
@@ -3400,11 +3532,14 @@
       <c r="F39" t="s">
         <v>459</v>
       </c>
-      <c r="H39" t="s">
+      <c r="G39" t="s">
+        <v>467</v>
+      </c>
+      <c r="I39" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -3414,7 +3549,7 @@
       <c r="C40" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E40" t="s">
@@ -3423,11 +3558,14 @@
       <c r="F40" t="s">
         <v>459</v>
       </c>
-      <c r="H40" t="s">
+      <c r="G40" t="s">
+        <v>467</v>
+      </c>
+      <c r="I40" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -3437,7 +3575,7 @@
       <c r="C41" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E41" t="s">
@@ -3446,11 +3584,14 @@
       <c r="F41" t="s">
         <v>459</v>
       </c>
-      <c r="H41" t="s">
+      <c r="G41" t="s">
+        <v>467</v>
+      </c>
+      <c r="I41" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -3460,7 +3601,7 @@
       <c r="C42" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E42" t="s">
@@ -3469,11 +3610,14 @@
       <c r="F42" t="s">
         <v>459</v>
       </c>
-      <c r="H42" t="s">
+      <c r="G42" t="s">
+        <v>467</v>
+      </c>
+      <c r="I42" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -3483,7 +3627,7 @@
       <c r="C43" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E43" t="s">
@@ -3492,18 +3636,21 @@
       <c r="F43" t="s">
         <v>459</v>
       </c>
-      <c r="H43" t="s">
+      <c r="G43" t="s">
+        <v>467</v>
+      </c>
+      <c r="I43" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>380</v>
       </c>
       <c r="C44" t="s">
         <v>434</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E44" t="s">
@@ -3513,13 +3660,16 @@
         <v>459</v>
       </c>
       <c r="G44" t="s">
+        <v>467</v>
+      </c>
+      <c r="H44" t="s">
         <v>222</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -3529,7 +3679,7 @@
       <c r="C45" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E45" t="s">
@@ -3538,11 +3688,14 @@
       <c r="F45" t="s">
         <v>459</v>
       </c>
-      <c r="H45" t="s">
+      <c r="G45" t="s">
+        <v>467</v>
+      </c>
+      <c r="I45" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -3552,7 +3705,7 @@
       <c r="C46" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E46" t="s">
@@ -3561,11 +3714,14 @@
       <c r="F46" t="s">
         <v>459</v>
       </c>
-      <c r="H46" t="s">
+      <c r="G46" t="s">
+        <v>467</v>
+      </c>
+      <c r="I46" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -3575,7 +3731,7 @@
       <c r="C47" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E47" t="s">
@@ -3584,11 +3740,14 @@
       <c r="F47" t="s">
         <v>459</v>
       </c>
-      <c r="H47" t="s">
+      <c r="G47" t="s">
+        <v>467</v>
+      </c>
+      <c r="I47" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -3598,7 +3757,7 @@
       <c r="C48" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E48" t="s">
@@ -3607,11 +3766,14 @@
       <c r="F48" t="s">
         <v>459</v>
       </c>
-      <c r="H48" t="s">
+      <c r="G48" t="s">
+        <v>467</v>
+      </c>
+      <c r="I48" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -3621,7 +3783,7 @@
       <c r="C49" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E49" t="s">
@@ -3630,18 +3792,21 @@
       <c r="F49" t="s">
         <v>459</v>
       </c>
-      <c r="H49" t="s">
+      <c r="G49" t="s">
+        <v>467</v>
+      </c>
+      <c r="I49" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>335</v>
       </c>
       <c r="C50" t="s">
         <v>449</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E50" t="s">
@@ -3651,20 +3816,23 @@
         <v>459</v>
       </c>
       <c r="G50" t="s">
+        <v>467</v>
+      </c>
+      <c r="H50" t="s">
         <v>271</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>415</v>
       </c>
       <c r="C51" t="s">
         <v>400</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E51" t="s">
@@ -3674,20 +3842,23 @@
         <v>459</v>
       </c>
       <c r="G51" t="s">
+        <v>467</v>
+      </c>
+      <c r="H51" t="s">
         <v>417</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>91</v>
       </c>
       <c r="C52" t="s">
         <v>194</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E52" t="s">
@@ -3696,18 +3867,21 @@
       <c r="F52" t="s">
         <v>459</v>
       </c>
-      <c r="H52" t="s">
+      <c r="G52" t="s">
+        <v>467</v>
+      </c>
+      <c r="I52" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>233</v>
       </c>
       <c r="C53" t="s">
         <v>203</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E53" t="s">
@@ -3717,20 +3891,23 @@
         <v>460</v>
       </c>
       <c r="G53" t="s">
+        <v>466</v>
+      </c>
+      <c r="H53" t="s">
         <v>228</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>232</v>
       </c>
       <c r="C54" t="s">
         <v>203</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E54" t="s">
@@ -3740,20 +3917,23 @@
         <v>460</v>
       </c>
       <c r="G54" t="s">
+        <v>466</v>
+      </c>
+      <c r="H54" t="s">
         <v>227</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>268</v>
       </c>
       <c r="C55" t="s">
         <v>203</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E55" t="s">
@@ -3763,20 +3943,23 @@
         <v>460</v>
       </c>
       <c r="G55" t="s">
+        <v>466</v>
+      </c>
+      <c r="H55" t="s">
         <v>231</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>375</v>
       </c>
       <c r="C56" t="s">
         <v>434</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E56" t="s">
@@ -3786,13 +3969,16 @@
         <v>459</v>
       </c>
       <c r="G56" t="s">
+        <v>467</v>
+      </c>
+      <c r="H56" t="s">
         <v>217</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -3802,7 +3988,7 @@
       <c r="C57" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E57" t="s">
@@ -3811,11 +3997,14 @@
       <c r="F57" t="s">
         <v>460</v>
       </c>
-      <c r="H57" t="s">
+      <c r="G57" t="s">
+        <v>466</v>
+      </c>
+      <c r="I57" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -3825,7 +4014,7 @@
       <c r="C58" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E58" t="s">
@@ -3834,11 +4023,14 @@
       <c r="F58" t="s">
         <v>460</v>
       </c>
-      <c r="H58" t="s">
+      <c r="G58" t="s">
+        <v>466</v>
+      </c>
+      <c r="I58" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>20</v>
       </c>
@@ -3848,7 +4040,7 @@
       <c r="C59" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E59" t="s">
@@ -3857,11 +4049,14 @@
       <c r="F59" t="s">
         <v>460</v>
       </c>
-      <c r="H59" t="s">
+      <c r="G59" t="s">
+        <v>466</v>
+      </c>
+      <c r="I59" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -3871,7 +4066,7 @@
       <c r="C60" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E60" t="s">
@@ -3880,11 +4075,14 @@
       <c r="F60" t="s">
         <v>460</v>
       </c>
-      <c r="H60" t="s">
+      <c r="G60" t="s">
+        <v>466</v>
+      </c>
+      <c r="I60" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>22</v>
       </c>
@@ -3894,7 +4092,7 @@
       <c r="C61" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E61" t="s">
@@ -3903,11 +4101,14 @@
       <c r="F61" t="s">
         <v>460</v>
       </c>
-      <c r="H61" t="s">
+      <c r="G61" t="s">
+        <v>466</v>
+      </c>
+      <c r="I61" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>23</v>
       </c>
@@ -3917,7 +4118,7 @@
       <c r="C62" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E62" t="s">
@@ -3926,11 +4127,14 @@
       <c r="F62" t="s">
         <v>460</v>
       </c>
-      <c r="H62" t="s">
+      <c r="G62" t="s">
+        <v>466</v>
+      </c>
+      <c r="I62" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -3940,7 +4144,7 @@
       <c r="C63" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E63" t="s">
@@ -3949,11 +4153,14 @@
       <c r="F63" t="s">
         <v>460</v>
       </c>
-      <c r="H63" t="s">
+      <c r="G63" t="s">
+        <v>466</v>
+      </c>
+      <c r="I63" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>25</v>
       </c>
@@ -3963,7 +4170,7 @@
       <c r="C64" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E64" t="s">
@@ -3972,11 +4179,14 @@
       <c r="F64" t="s">
         <v>460</v>
       </c>
-      <c r="H64" t="s">
+      <c r="G64" t="s">
+        <v>466</v>
+      </c>
+      <c r="I64" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>26</v>
       </c>
@@ -3986,7 +4196,7 @@
       <c r="C65" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E65" t="s">
@@ -3995,18 +4205,21 @@
       <c r="F65" t="s">
         <v>460</v>
       </c>
-      <c r="H65" t="s">
+      <c r="G65" t="s">
+        <v>466</v>
+      </c>
+      <c r="I65" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>262</v>
       </c>
       <c r="C66" t="s">
         <v>400</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E66" t="s">
@@ -4016,20 +4229,23 @@
         <v>459</v>
       </c>
       <c r="G66" t="s">
+        <v>467</v>
+      </c>
+      <c r="H66" t="s">
         <v>245</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>258</v>
       </c>
       <c r="C67" t="s">
         <v>400</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E67" t="s">
@@ -4039,13 +4255,16 @@
         <v>459</v>
       </c>
       <c r="G67" t="s">
+        <v>467</v>
+      </c>
+      <c r="H67" t="s">
         <v>244</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>35</v>
       </c>
@@ -4055,7 +4274,7 @@
       <c r="C68" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E68" t="s">
@@ -4064,11 +4283,14 @@
       <c r="F68" t="s">
         <v>459</v>
       </c>
-      <c r="H68" t="s">
+      <c r="G68" t="s">
+        <v>467</v>
+      </c>
+      <c r="I68" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>37</v>
       </c>
@@ -4078,7 +4300,7 @@
       <c r="C69" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E69" t="s">
@@ -4087,11 +4309,14 @@
       <c r="F69" t="s">
         <v>459</v>
       </c>
-      <c r="H69" t="s">
+      <c r="G69" t="s">
+        <v>467</v>
+      </c>
+      <c r="I69" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>36</v>
       </c>
@@ -4101,7 +4326,7 @@
       <c r="C70" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E70" t="s">
@@ -4110,11 +4335,14 @@
       <c r="F70" t="s">
         <v>459</v>
       </c>
-      <c r="H70" t="s">
+      <c r="G70" t="s">
+        <v>467</v>
+      </c>
+      <c r="I70" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -4124,7 +4352,7 @@
       <c r="C71" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E71" t="s">
@@ -4133,11 +4361,14 @@
       <c r="F71" t="s">
         <v>459</v>
       </c>
-      <c r="H71" t="s">
+      <c r="G71" t="s">
+        <v>467</v>
+      </c>
+      <c r="I71" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>39</v>
       </c>
@@ -4147,7 +4378,7 @@
       <c r="C72" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E72" t="s">
@@ -4156,11 +4387,14 @@
       <c r="F72" t="s">
         <v>459</v>
       </c>
-      <c r="H72" t="s">
+      <c r="G72" t="s">
+        <v>467</v>
+      </c>
+      <c r="I72" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>27</v>
       </c>
@@ -4170,7 +4404,7 @@
       <c r="C73" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E73" t="s">
@@ -4179,11 +4413,14 @@
       <c r="F73" t="s">
         <v>460</v>
       </c>
-      <c r="H73" t="s">
+      <c r="G73" t="s">
+        <v>467</v>
+      </c>
+      <c r="I73" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>28</v>
       </c>
@@ -4193,7 +4430,7 @@
       <c r="C74" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E74" t="s">
@@ -4202,11 +4439,14 @@
       <c r="F74" t="s">
         <v>460</v>
       </c>
-      <c r="H74" t="s">
+      <c r="G74" t="s">
+        <v>467</v>
+      </c>
+      <c r="I74" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>29</v>
       </c>
@@ -4216,7 +4456,7 @@
       <c r="C75" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E75" t="s">
@@ -4225,11 +4465,14 @@
       <c r="F75" t="s">
         <v>460</v>
       </c>
-      <c r="H75" t="s">
+      <c r="G75" t="s">
+        <v>467</v>
+      </c>
+      <c r="I75" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>58</v>
       </c>
@@ -4239,7 +4482,7 @@
       <c r="C76" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E76" t="s">
@@ -4248,11 +4491,14 @@
       <c r="F76" t="s">
         <v>460</v>
       </c>
-      <c r="H76" t="s">
+      <c r="G76" t="s">
+        <v>467</v>
+      </c>
+      <c r="I76" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>59</v>
       </c>
@@ -4262,7 +4508,7 @@
       <c r="C77" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E77" t="s">
@@ -4271,18 +4517,21 @@
       <c r="F77" t="s">
         <v>460</v>
       </c>
-      <c r="H77" t="s">
+      <c r="G77" t="s">
+        <v>467</v>
+      </c>
+      <c r="I77" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>383</v>
       </c>
       <c r="C78" t="s">
         <v>434</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E78" t="s">
@@ -4292,20 +4541,23 @@
         <v>459</v>
       </c>
       <c r="G78" t="s">
+        <v>467</v>
+      </c>
+      <c r="H78" t="s">
         <v>374</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>225</v>
       </c>
       <c r="C79" t="s">
         <v>400</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E79" t="s">
@@ -4315,13 +4567,16 @@
         <v>459</v>
       </c>
       <c r="G79" t="s">
+        <v>467</v>
+      </c>
+      <c r="H79" t="s">
         <v>210</v>
       </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>11</v>
       </c>
@@ -4331,7 +4586,7 @@
       <c r="C80" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E80" t="s">
@@ -4340,11 +4595,14 @@
       <c r="F80" t="s">
         <v>460</v>
       </c>
-      <c r="H80" t="s">
+      <c r="G80" t="s">
+        <v>467</v>
+      </c>
+      <c r="I80" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>12</v>
       </c>
@@ -4354,7 +4612,7 @@
       <c r="C81" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E81" t="s">
@@ -4363,18 +4621,21 @@
       <c r="F81" t="s">
         <v>460</v>
       </c>
-      <c r="H81" t="s">
+      <c r="G81" t="s">
+        <v>467</v>
+      </c>
+      <c r="I81" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>378</v>
       </c>
       <c r="C82" t="s">
         <v>434</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E82" t="s">
@@ -4384,13 +4645,16 @@
         <v>459</v>
       </c>
       <c r="G82" t="s">
+        <v>467</v>
+      </c>
+      <c r="H82" t="s">
         <v>220</v>
       </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -4400,7 +4664,7 @@
       <c r="C83" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E83" t="s">
@@ -4409,11 +4673,14 @@
       <c r="F83" t="s">
         <v>460</v>
       </c>
-      <c r="H83" t="s">
+      <c r="G83" t="s">
+        <v>467</v>
+      </c>
+      <c r="I83" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>60</v>
       </c>
@@ -4423,7 +4690,7 @@
       <c r="C84" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E84" t="s">
@@ -4433,20 +4700,23 @@
         <v>460</v>
       </c>
       <c r="G84" t="s">
+        <v>467</v>
+      </c>
+      <c r="H84" t="s">
         <v>164</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>251</v>
       </c>
       <c r="C85" t="s">
         <v>400</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E85" t="s">
@@ -4456,20 +4726,23 @@
         <v>459</v>
       </c>
       <c r="G85" t="s">
+        <v>467</v>
+      </c>
+      <c r="H85" t="s">
         <v>237</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>252</v>
       </c>
       <c r="C86" t="s">
         <v>400</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E86" t="s">
@@ -4479,20 +4752,23 @@
         <v>459</v>
       </c>
       <c r="G86" t="s">
+        <v>467</v>
+      </c>
+      <c r="H86" t="s">
         <v>238</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>256</v>
       </c>
       <c r="C87" t="s">
         <v>400</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E87" t="s">
@@ -4502,20 +4778,23 @@
         <v>459</v>
       </c>
       <c r="G87" t="s">
+        <v>467</v>
+      </c>
+      <c r="H87" t="s">
         <v>242</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>255</v>
       </c>
       <c r="C88" t="s">
         <v>400</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E88" t="s">
@@ -4525,20 +4804,23 @@
         <v>459</v>
       </c>
       <c r="G88" t="s">
+        <v>467</v>
+      </c>
+      <c r="H88" t="s">
         <v>241</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>254</v>
       </c>
       <c r="C89" t="s">
         <v>400</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E89" t="s">
@@ -4548,20 +4830,23 @@
         <v>459</v>
       </c>
       <c r="G89" t="s">
+        <v>467</v>
+      </c>
+      <c r="H89" t="s">
         <v>240</v>
       </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>253</v>
       </c>
       <c r="C90" t="s">
         <v>400</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E90" t="s">
@@ -4571,20 +4856,23 @@
         <v>459</v>
       </c>
       <c r="G90" t="s">
+        <v>467</v>
+      </c>
+      <c r="H90" t="s">
         <v>239</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>382</v>
       </c>
       <c r="C91" t="s">
         <v>434</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E91" t="s">
@@ -4594,20 +4882,23 @@
         <v>459</v>
       </c>
       <c r="G91" t="s">
+        <v>467</v>
+      </c>
+      <c r="H91" t="s">
         <v>373</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>398</v>
       </c>
       <c r="C92" t="s">
         <v>403</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E92" t="s">
@@ -4617,20 +4908,23 @@
         <v>460</v>
       </c>
       <c r="G92" t="s">
+        <v>467</v>
+      </c>
+      <c r="H92" t="s">
         <v>213</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>407</v>
       </c>
       <c r="C93" t="s">
         <v>203</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E93" t="s">
@@ -4640,13 +4934,16 @@
         <v>460</v>
       </c>
       <c r="G93" t="s">
+        <v>466</v>
+      </c>
+      <c r="H93" t="s">
         <v>230</v>
       </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -4656,7 +4953,7 @@
       <c r="C94" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E94" t="s">
@@ -4665,11 +4962,14 @@
       <c r="F94" t="s">
         <v>460</v>
       </c>
-      <c r="H94" t="s">
+      <c r="G94" t="s">
+        <v>467</v>
+      </c>
+      <c r="I94" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -4679,7 +4979,7 @@
       <c r="C95" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E95" t="s">
@@ -4688,11 +4988,14 @@
       <c r="F95" t="s">
         <v>460</v>
       </c>
-      <c r="H95" t="s">
+      <c r="G95" t="s">
+        <v>467</v>
+      </c>
+      <c r="I95" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>45</v>
       </c>
@@ -4702,7 +5005,7 @@
       <c r="C96" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E96" t="s">
@@ -4711,11 +5014,14 @@
       <c r="F96" t="s">
         <v>459</v>
       </c>
-      <c r="H96" t="s">
+      <c r="G96" t="s">
+        <v>467</v>
+      </c>
+      <c r="I96" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>46</v>
       </c>
@@ -4725,7 +5031,7 @@
       <c r="C97" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E97" t="s">
@@ -4734,11 +5040,14 @@
       <c r="F97" t="s">
         <v>459</v>
       </c>
-      <c r="H97" t="s">
+      <c r="G97" t="s">
+        <v>467</v>
+      </c>
+      <c r="I97" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>47</v>
       </c>
@@ -4748,7 +5057,7 @@
       <c r="C98" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E98" t="s">
@@ -4757,11 +5066,14 @@
       <c r="F98" t="s">
         <v>459</v>
       </c>
-      <c r="H98" t="s">
+      <c r="G98" t="s">
+        <v>467</v>
+      </c>
+      <c r="I98" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>48</v>
       </c>
@@ -4771,7 +5083,7 @@
       <c r="C99" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E99" t="s">
@@ -4780,11 +5092,14 @@
       <c r="F99" t="s">
         <v>459</v>
       </c>
-      <c r="H99" t="s">
+      <c r="G99" t="s">
+        <v>467</v>
+      </c>
+      <c r="I99" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>49</v>
       </c>
@@ -4794,7 +5109,7 @@
       <c r="C100" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E100" t="s">
@@ -4803,11 +5118,14 @@
       <c r="F100" t="s">
         <v>459</v>
       </c>
-      <c r="H100" t="s">
+      <c r="G100" t="s">
+        <v>467</v>
+      </c>
+      <c r="I100" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>50</v>
       </c>
@@ -4817,7 +5135,7 @@
       <c r="C101" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E101" t="s">
@@ -4826,11 +5144,14 @@
       <c r="F101" t="s">
         <v>459</v>
       </c>
-      <c r="H101" t="s">
+      <c r="G101" t="s">
+        <v>467</v>
+      </c>
+      <c r="I101" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>51</v>
       </c>
@@ -4840,7 +5161,7 @@
       <c r="C102" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E102" t="s">
@@ -4849,11 +5170,14 @@
       <c r="F102" t="s">
         <v>459</v>
       </c>
-      <c r="H102" t="s">
+      <c r="G102" t="s">
+        <v>467</v>
+      </c>
+      <c r="I102" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>52</v>
       </c>
@@ -4863,7 +5187,7 @@
       <c r="C103" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E103" t="s">
@@ -4872,11 +5196,14 @@
       <c r="F103" t="s">
         <v>459</v>
       </c>
-      <c r="H103" t="s">
+      <c r="G103" t="s">
+        <v>467</v>
+      </c>
+      <c r="I103" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>53</v>
       </c>
@@ -4886,7 +5213,7 @@
       <c r="C104" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E104" t="s">
@@ -4895,11 +5222,14 @@
       <c r="F104" t="s">
         <v>459</v>
       </c>
-      <c r="H104" t="s">
+      <c r="G104" t="s">
+        <v>467</v>
+      </c>
+      <c r="I104" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>54</v>
       </c>
@@ -4909,7 +5239,7 @@
       <c r="C105" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E105" t="s">
@@ -4918,18 +5248,21 @@
       <c r="F105" t="s">
         <v>459</v>
       </c>
-      <c r="H105" t="s">
+      <c r="G105" t="s">
+        <v>467</v>
+      </c>
+      <c r="I105" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>406</v>
       </c>
       <c r="C106" t="s">
         <v>203</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E106" t="s">
@@ -4939,13 +5272,16 @@
         <v>460</v>
       </c>
       <c r="G106" t="s">
+        <v>466</v>
+      </c>
+      <c r="H106" t="s">
         <v>229</v>
       </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>16</v>
       </c>
@@ -4955,7 +5291,7 @@
       <c r="C107" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E107" t="s">
@@ -4964,18 +5300,21 @@
       <c r="F107" t="s">
         <v>460</v>
       </c>
-      <c r="H107" t="s">
+      <c r="G107" t="s">
+        <v>467</v>
+      </c>
+      <c r="I107" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>92</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E108" t="s">
@@ -4984,11 +5323,14 @@
       <c r="F108" t="s">
         <v>459</v>
       </c>
-      <c r="H108" t="s">
+      <c r="G108" t="s">
+        <v>466</v>
+      </c>
+      <c r="I108" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>62</v>
       </c>
@@ -4998,7 +5340,7 @@
       <c r="C109" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E109" t="s">
@@ -5008,40 +5350,46 @@
         <v>459</v>
       </c>
       <c r="G109" t="s">
+        <v>467</v>
+      </c>
+      <c r="H109" t="s">
         <v>165</v>
       </c>
-      <c r="H109" t="s">
+      <c r="I109" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>336</v>
       </c>
       <c r="C110" t="s">
         <v>449</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="6" t="s">
         <v>447</v>
       </c>
       <c r="F110" t="s">
         <v>460</v>
       </c>
       <c r="G110" t="s">
+        <v>467</v>
+      </c>
+      <c r="H110" t="s">
         <v>334</v>
       </c>
-      <c r="H110" t="s">
+      <c r="I110" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>260</v>
       </c>
       <c r="C111" t="s">
         <v>400</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E111" t="s">
@@ -5051,20 +5399,23 @@
         <v>459</v>
       </c>
       <c r="G111" t="s">
+        <v>467</v>
+      </c>
+      <c r="H111" t="s">
         <v>247</v>
       </c>
-      <c r="H111" t="s">
+      <c r="I111" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>261</v>
       </c>
       <c r="C112" t="s">
         <v>400</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E112" t="s">
@@ -5074,20 +5425,23 @@
         <v>459</v>
       </c>
       <c r="G112" t="s">
+        <v>467</v>
+      </c>
+      <c r="H112" t="s">
         <v>246</v>
       </c>
-      <c r="H112" t="s">
+      <c r="I112" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>259</v>
       </c>
       <c r="C113" t="s">
         <v>400</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E113" t="s">
@@ -5097,20 +5451,23 @@
         <v>459</v>
       </c>
       <c r="G113" t="s">
+        <v>467</v>
+      </c>
+      <c r="H113" t="s">
         <v>248</v>
       </c>
-      <c r="H113" t="s">
+      <c r="I113" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>396</v>
       </c>
       <c r="C114" t="s">
         <v>403</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E114" t="s">
@@ -5120,20 +5477,23 @@
         <v>460</v>
       </c>
       <c r="G114" t="s">
+        <v>467</v>
+      </c>
+      <c r="H114" t="s">
         <v>211</v>
       </c>
-      <c r="H114" t="s">
+      <c r="I114" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>419</v>
       </c>
       <c r="C115" t="s">
         <v>400</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E115" t="s">
@@ -5143,20 +5503,23 @@
         <v>459</v>
       </c>
       <c r="G115" t="s">
+        <v>467</v>
+      </c>
+      <c r="H115" t="s">
         <v>421</v>
       </c>
-      <c r="H115" t="s">
+      <c r="I115" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>93</v>
       </c>
       <c r="C116" t="s">
         <v>200</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E116" t="s">
@@ -5165,18 +5528,21 @@
       <c r="F116" t="s">
         <v>459</v>
       </c>
-      <c r="H116" t="s">
+      <c r="G116" t="s">
+        <v>466</v>
+      </c>
+      <c r="I116" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>94</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E117" t="s">
@@ -5185,11 +5551,14 @@
       <c r="F117" t="s">
         <v>459</v>
       </c>
-      <c r="H117" t="s">
+      <c r="G117" t="s">
+        <v>466</v>
+      </c>
+      <c r="I117" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>17</v>
       </c>
@@ -5199,7 +5568,7 @@
       <c r="C118" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E118" t="s">
@@ -5208,18 +5577,21 @@
       <c r="F118" t="s">
         <v>460</v>
       </c>
-      <c r="H118" t="s">
+      <c r="G118" t="s">
+        <v>467</v>
+      </c>
+      <c r="I118" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>409</v>
       </c>
       <c r="C119" t="s">
         <v>403</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E119" t="s">
@@ -5229,20 +5601,23 @@
         <v>460</v>
       </c>
       <c r="G119" t="s">
+        <v>466</v>
+      </c>
+      <c r="H119" t="s">
         <v>412</v>
       </c>
-      <c r="H119" t="s">
+      <c r="I119" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>95</v>
       </c>
       <c r="C120" t="s">
         <v>202</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E120" t="s">
@@ -5251,18 +5626,21 @@
       <c r="F120" t="s">
         <v>460</v>
       </c>
-      <c r="H120" t="s">
+      <c r="G120" t="s">
+        <v>466</v>
+      </c>
+      <c r="I120" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>333</v>
       </c>
       <c r="C121" t="s">
         <v>401</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E121" t="s">
@@ -5272,20 +5650,23 @@
         <v>460</v>
       </c>
       <c r="G121" t="s">
+        <v>466</v>
+      </c>
+      <c r="H121" t="s">
         <v>319</v>
       </c>
-      <c r="H121" t="s">
+      <c r="I121" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>329</v>
       </c>
       <c r="C122" t="s">
         <v>401</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E122" t="s">
@@ -5295,20 +5676,23 @@
         <v>460</v>
       </c>
       <c r="G122" t="s">
+        <v>466</v>
+      </c>
+      <c r="H122" t="s">
         <v>315</v>
       </c>
-      <c r="H122" t="s">
+      <c r="I122" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>327</v>
       </c>
       <c r="C123" t="s">
         <v>401</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E123" t="s">
@@ -5318,20 +5702,23 @@
         <v>460</v>
       </c>
       <c r="G123" t="s">
+        <v>466</v>
+      </c>
+      <c r="H123" t="s">
         <v>313</v>
       </c>
-      <c r="H123" t="s">
+      <c r="I123" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>331</v>
       </c>
       <c r="C124" t="s">
         <v>401</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E124" t="s">
@@ -5341,20 +5728,23 @@
         <v>460</v>
       </c>
       <c r="G124" t="s">
+        <v>466</v>
+      </c>
+      <c r="H124" t="s">
         <v>317</v>
       </c>
-      <c r="H124" t="s">
+      <c r="I124" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>330</v>
       </c>
       <c r="C125" t="s">
         <v>401</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E125" t="s">
@@ -5364,20 +5754,23 @@
         <v>460</v>
       </c>
       <c r="G125" t="s">
+        <v>466</v>
+      </c>
+      <c r="H125" t="s">
         <v>316</v>
       </c>
-      <c r="H125" t="s">
+      <c r="I125" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>328</v>
       </c>
       <c r="C126" t="s">
         <v>401</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E126" t="s">
@@ -5387,20 +5780,23 @@
         <v>460</v>
       </c>
       <c r="G126" t="s">
+        <v>466</v>
+      </c>
+      <c r="H126" t="s">
         <v>314</v>
       </c>
-      <c r="H126" t="s">
+      <c r="I126" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>332</v>
       </c>
       <c r="C127" t="s">
         <v>401</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E127" t="s">
@@ -5410,20 +5806,23 @@
         <v>460</v>
       </c>
       <c r="G127" t="s">
+        <v>466</v>
+      </c>
+      <c r="H127" t="s">
         <v>318</v>
       </c>
-      <c r="H127" t="s">
+      <c r="I127" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>377</v>
       </c>
       <c r="C128" t="s">
         <v>434</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E128" t="s">
@@ -5433,20 +5832,23 @@
         <v>459</v>
       </c>
       <c r="G128" t="s">
+        <v>467</v>
+      </c>
+      <c r="H128" t="s">
         <v>219</v>
       </c>
-      <c r="H128" t="s">
+      <c r="I128" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>96</v>
       </c>
       <c r="C129" t="s">
         <v>203</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E129" t="s">
@@ -5455,21 +5857,24 @@
       <c r="F129" t="s">
         <v>460</v>
       </c>
-      <c r="H129" t="s">
+      <c r="G129" t="s">
+        <v>466</v>
+      </c>
+      <c r="I129" t="s">
         <v>209</v>
       </c>
-      <c r="T129" t="s">
+      <c r="U129" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>399</v>
       </c>
       <c r="C130" t="s">
         <v>403</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E130" t="s">
@@ -5479,16 +5884,19 @@
         <v>460</v>
       </c>
       <c r="G130" t="s">
+        <v>467</v>
+      </c>
+      <c r="H130" t="s">
         <v>214</v>
       </c>
-      <c r="H130" t="s">
+      <c r="I130" t="s">
         <v>402</v>
       </c>
-      <c r="T130" t="s">
+      <c r="U130" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>66</v>
       </c>
@@ -5498,7 +5906,7 @@
       <c r="C131" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E131" t="s">
@@ -5507,11 +5915,14 @@
       <c r="F131" t="s">
         <v>460</v>
       </c>
-      <c r="H131" t="s">
+      <c r="G131" t="s">
+        <v>467</v>
+      </c>
+      <c r="I131" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>67</v>
       </c>
@@ -5521,7 +5932,7 @@
       <c r="C132" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E132" t="s">
@@ -5530,11 +5941,14 @@
       <c r="F132" t="s">
         <v>460</v>
       </c>
-      <c r="H132" t="s">
+      <c r="G132" t="s">
+        <v>467</v>
+      </c>
+      <c r="I132" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>68</v>
       </c>
@@ -5544,7 +5958,7 @@
       <c r="C133" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E133" t="s">
@@ -5553,11 +5967,14 @@
       <c r="F133" t="s">
         <v>460</v>
       </c>
-      <c r="H133" t="s">
+      <c r="G133" t="s">
+        <v>467</v>
+      </c>
+      <c r="I133" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>64</v>
       </c>
@@ -5567,7 +5984,7 @@
       <c r="C134" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E134" t="s">
@@ -5576,11 +5993,14 @@
       <c r="F134" t="s">
         <v>460</v>
       </c>
-      <c r="H134" t="s">
+      <c r="G134" t="s">
+        <v>467</v>
+      </c>
+      <c r="I134" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>70</v>
       </c>
@@ -5590,7 +6010,7 @@
       <c r="C135" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E135" t="s">
@@ -5599,11 +6019,14 @@
       <c r="F135" t="s">
         <v>460</v>
       </c>
-      <c r="H135" t="s">
+      <c r="G135" t="s">
+        <v>467</v>
+      </c>
+      <c r="I135" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>65</v>
       </c>
@@ -5613,7 +6036,7 @@
       <c r="C136" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E136" t="s">
@@ -5622,11 +6045,14 @@
       <c r="F136" t="s">
         <v>460</v>
       </c>
-      <c r="H136" t="s">
+      <c r="G136" t="s">
+        <v>467</v>
+      </c>
+      <c r="I136" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>72</v>
       </c>
@@ -5636,7 +6062,7 @@
       <c r="C137" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E137" t="s">
@@ -5645,11 +6071,14 @@
       <c r="F137" t="s">
         <v>460</v>
       </c>
-      <c r="H137" t="s">
+      <c r="G137" t="s">
+        <v>467</v>
+      </c>
+      <c r="I137" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>69</v>
       </c>
@@ -5659,7 +6088,7 @@
       <c r="C138" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E138" t="s">
@@ -5668,11 +6097,14 @@
       <c r="F138" t="s">
         <v>460</v>
       </c>
-      <c r="H138" t="s">
+      <c r="G138" t="s">
+        <v>467</v>
+      </c>
+      <c r="I138" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>61</v>
       </c>
@@ -5682,7 +6114,7 @@
       <c r="C139" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E139" t="s">
@@ -5691,11 +6123,14 @@
       <c r="F139" t="s">
         <v>460</v>
       </c>
-      <c r="H139" t="s">
+      <c r="G139" t="s">
+        <v>467</v>
+      </c>
+      <c r="I139" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>63</v>
       </c>
@@ -5705,7 +6140,7 @@
       <c r="C140" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E140" t="s">
@@ -5714,11 +6149,14 @@
       <c r="F140" t="s">
         <v>460</v>
       </c>
-      <c r="H140" t="s">
+      <c r="G140" t="s">
+        <v>467</v>
+      </c>
+      <c r="I140" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>71</v>
       </c>
@@ -5728,7 +6166,7 @@
       <c r="C141" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E141" t="s">
@@ -5737,11 +6175,14 @@
       <c r="F141" t="s">
         <v>460</v>
       </c>
-      <c r="H141" t="s">
+      <c r="G141" t="s">
+        <v>467</v>
+      </c>
+      <c r="I141" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>77</v>
       </c>
@@ -5751,7 +6192,7 @@
       <c r="C142" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E142" t="s">
@@ -5760,11 +6201,14 @@
       <c r="F142" t="s">
         <v>460</v>
       </c>
-      <c r="H142" t="s">
+      <c r="G142" t="s">
+        <v>467</v>
+      </c>
+      <c r="I142" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>78</v>
       </c>
@@ -5774,7 +6218,7 @@
       <c r="C143" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E143" t="s">
@@ -5783,11 +6227,14 @@
       <c r="F143" t="s">
         <v>460</v>
       </c>
-      <c r="H143" t="s">
+      <c r="G143" t="s">
+        <v>467</v>
+      </c>
+      <c r="I143" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>79</v>
       </c>
@@ -5797,7 +6244,7 @@
       <c r="C144" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E144" t="s">
@@ -5806,11 +6253,14 @@
       <c r="F144" t="s">
         <v>460</v>
       </c>
-      <c r="H144" t="s">
+      <c r="G144" t="s">
+        <v>467</v>
+      </c>
+      <c r="I144" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>75</v>
       </c>
@@ -5820,7 +6270,7 @@
       <c r="C145" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E145" t="s">
@@ -5829,11 +6279,14 @@
       <c r="F145" t="s">
         <v>460</v>
       </c>
-      <c r="H145" t="s">
+      <c r="G145" t="s">
+        <v>467</v>
+      </c>
+      <c r="I145" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>81</v>
       </c>
@@ -5843,7 +6296,7 @@
       <c r="C146" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E146" t="s">
@@ -5852,11 +6305,14 @@
       <c r="F146" t="s">
         <v>460</v>
       </c>
-      <c r="H146" t="s">
+      <c r="G146" t="s">
+        <v>467</v>
+      </c>
+      <c r="I146" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>76</v>
       </c>
@@ -5866,7 +6322,7 @@
       <c r="C147" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E147" t="s">
@@ -5875,11 +6331,14 @@
       <c r="F147" t="s">
         <v>460</v>
       </c>
-      <c r="H147" t="s">
+      <c r="G147" t="s">
+        <v>467</v>
+      </c>
+      <c r="I147" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>83</v>
       </c>
@@ -5889,7 +6348,7 @@
       <c r="C148" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E148" t="s">
@@ -5898,11 +6357,14 @@
       <c r="F148" t="s">
         <v>460</v>
       </c>
-      <c r="H148" t="s">
+      <c r="G148" t="s">
+        <v>467</v>
+      </c>
+      <c r="I148" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>80</v>
       </c>
@@ -5912,7 +6374,7 @@
       <c r="C149" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E149" t="s">
@@ -5921,11 +6383,14 @@
       <c r="F149" t="s">
         <v>460</v>
       </c>
-      <c r="H149" t="s">
+      <c r="G149" t="s">
+        <v>467</v>
+      </c>
+      <c r="I149" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>73</v>
       </c>
@@ -5935,7 +6400,7 @@
       <c r="C150" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E150" t="s">
@@ -5944,11 +6409,14 @@
       <c r="F150" t="s">
         <v>460</v>
       </c>
-      <c r="H150" t="s">
+      <c r="G150" t="s">
+        <v>467</v>
+      </c>
+      <c r="I150" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>74</v>
       </c>
@@ -5958,7 +6426,7 @@
       <c r="C151" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E151" t="s">
@@ -5967,11 +6435,14 @@
       <c r="F151" t="s">
         <v>460</v>
       </c>
-      <c r="H151" t="s">
+      <c r="G151" t="s">
+        <v>467</v>
+      </c>
+      <c r="I151" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>82</v>
       </c>
@@ -5981,7 +6452,7 @@
       <c r="C152" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E152" t="s">
@@ -5990,18 +6461,21 @@
       <c r="F152" t="s">
         <v>460</v>
       </c>
-      <c r="H152" t="s">
+      <c r="G152" t="s">
+        <v>467</v>
+      </c>
+      <c r="I152" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>359</v>
       </c>
       <c r="C153" t="s">
         <v>400</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E153" t="s">
@@ -6011,20 +6485,23 @@
         <v>459</v>
       </c>
       <c r="G153" t="s">
+        <v>467</v>
+      </c>
+      <c r="H153" t="s">
         <v>237</v>
       </c>
-      <c r="H153" t="s">
+      <c r="I153" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>360</v>
       </c>
       <c r="C154" t="s">
         <v>400</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E154" t="s">
@@ -6034,20 +6511,23 @@
         <v>459</v>
       </c>
       <c r="G154" t="s">
+        <v>467</v>
+      </c>
+      <c r="H154" t="s">
         <v>238</v>
       </c>
-      <c r="H154" t="s">
+      <c r="I154" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>361</v>
       </c>
       <c r="C155" t="s">
         <v>400</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E155" t="s">
@@ -6057,20 +6537,23 @@
         <v>459</v>
       </c>
       <c r="G155" t="s">
+        <v>467</v>
+      </c>
+      <c r="H155" t="s">
         <v>239</v>
       </c>
-      <c r="H155" t="s">
+      <c r="I155" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>362</v>
       </c>
       <c r="C156" t="s">
         <v>400</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E156" t="s">
@@ -6080,20 +6563,23 @@
         <v>459</v>
       </c>
       <c r="G156" t="s">
+        <v>467</v>
+      </c>
+      <c r="H156" t="s">
         <v>240</v>
       </c>
-      <c r="H156" t="s">
+      <c r="I156" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>363</v>
       </c>
       <c r="C157" t="s">
         <v>400</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E157" t="s">
@@ -6103,20 +6589,23 @@
         <v>459</v>
       </c>
       <c r="G157" t="s">
+        <v>467</v>
+      </c>
+      <c r="H157" t="s">
         <v>236</v>
       </c>
-      <c r="H157" t="s">
+      <c r="I157" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>364</v>
       </c>
       <c r="C158" t="s">
         <v>400</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E158" t="s">
@@ -6126,20 +6615,23 @@
         <v>459</v>
       </c>
       <c r="G158" t="s">
+        <v>467</v>
+      </c>
+      <c r="H158" t="s">
         <v>246</v>
       </c>
-      <c r="H158" t="s">
+      <c r="I158" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>365</v>
       </c>
       <c r="C159" t="s">
         <v>400</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E159" t="s">
@@ -6149,20 +6641,23 @@
         <v>459</v>
       </c>
       <c r="G159" t="s">
+        <v>467</v>
+      </c>
+      <c r="H159" t="s">
         <v>354</v>
       </c>
-      <c r="H159" t="s">
+      <c r="I159" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>366</v>
       </c>
       <c r="C160" t="s">
         <v>400</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E160" t="s">
@@ -6172,20 +6667,23 @@
         <v>459</v>
       </c>
       <c r="G160" t="s">
+        <v>467</v>
+      </c>
+      <c r="H160" t="s">
         <v>355</v>
       </c>
-      <c r="H160" t="s">
+      <c r="I160" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>367</v>
       </c>
       <c r="C161" t="s">
         <v>400</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E161" t="s">
@@ -6195,20 +6693,23 @@
         <v>459</v>
       </c>
       <c r="G161" t="s">
+        <v>467</v>
+      </c>
+      <c r="H161" t="s">
         <v>241</v>
       </c>
-      <c r="H161" t="s">
+      <c r="I161" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>368</v>
       </c>
       <c r="C162" t="s">
         <v>400</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E162" t="s">
@@ -6218,20 +6719,23 @@
         <v>459</v>
       </c>
       <c r="G162" t="s">
+        <v>467</v>
+      </c>
+      <c r="H162" t="s">
         <v>242</v>
       </c>
-      <c r="H162" t="s">
+      <c r="I162" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>369</v>
       </c>
       <c r="C163" t="s">
         <v>400</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E163" t="s">
@@ -6241,20 +6745,23 @@
         <v>459</v>
       </c>
       <c r="G163" t="s">
+        <v>467</v>
+      </c>
+      <c r="H163" t="s">
         <v>356</v>
       </c>
-      <c r="H163" t="s">
+      <c r="I163" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>370</v>
       </c>
       <c r="C164" t="s">
         <v>400</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E164" t="s">
@@ -6264,20 +6771,23 @@
         <v>459</v>
       </c>
       <c r="G164" t="s">
+        <v>467</v>
+      </c>
+      <c r="H164" t="s">
         <v>243</v>
       </c>
-      <c r="H164" t="s">
+      <c r="I164" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>371</v>
       </c>
       <c r="C165" t="s">
         <v>400</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E165" t="s">
@@ -6287,20 +6797,23 @@
         <v>459</v>
       </c>
       <c r="G165" t="s">
+        <v>467</v>
+      </c>
+      <c r="H165" t="s">
         <v>357</v>
       </c>
-      <c r="H165" t="s">
+      <c r="I165" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>372</v>
       </c>
       <c r="C166" t="s">
         <v>400</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="6" t="s">
         <v>447</v>
       </c>
       <c r="E166" t="s">
@@ -6310,9 +6823,12 @@
         <v>459</v>
       </c>
       <c r="G166" t="s">
+        <v>467</v>
+      </c>
+      <c r="H166" t="s">
         <v>358</v>
       </c>
-      <c r="H166" t="s">
+      <c r="I166" t="s">
         <v>408</v>
       </c>
     </row>
@@ -6325,18 +6841,18 @@
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G214" s="5"/>
-      <c r="I214" s="5"/>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H214" s="5"/>
+      <c r="J214" s="5"/>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H227">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I227">
     <sortCondition ref="B1:B227"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -6346,16 +6862,17 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C91914E-3409-184C-AC43-CBCE957AC7EF}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomLeft" activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6363,9 +6880,10 @@
     <col min="1" max="1" width="15.83203125" customWidth="1"/>
     <col min="2" max="2" width="20.1640625" customWidth="1"/>
     <col min="6" max="6" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6385,13 +6903,16 @@
         <v>458</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>350</v>
       </c>
@@ -6408,13 +6929,16 @@
         <v>460</v>
       </c>
       <c r="G2" t="s">
+        <v>466</v>
+      </c>
+      <c r="H2" t="s">
         <v>346</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>351</v>
       </c>
@@ -6431,13 +6955,16 @@
         <v>460</v>
       </c>
       <c r="G3" t="s">
+        <v>466</v>
+      </c>
+      <c r="H3" t="s">
         <v>347</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>352</v>
       </c>
@@ -6454,13 +6981,16 @@
         <v>460</v>
       </c>
       <c r="G4" t="s">
+        <v>466</v>
+      </c>
+      <c r="H4" t="s">
         <v>348</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>353</v>
       </c>
@@ -6477,19 +7007,22 @@
         <v>460</v>
       </c>
       <c r="G5" t="s">
+        <v>466</v>
+      </c>
+      <c r="H5" t="s">
         <v>349</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>422</v>
       </c>
@@ -6506,13 +7039,16 @@
         <v>459</v>
       </c>
       <c r="G8" t="s">
+        <v>466</v>
+      </c>
+      <c r="H8" t="s">
         <v>428</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>423</v>
       </c>
@@ -6529,13 +7065,16 @@
         <v>459</v>
       </c>
       <c r="G9" t="s">
+        <v>466</v>
+      </c>
+      <c r="H9" t="s">
         <v>429</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>424</v>
       </c>
@@ -6552,13 +7091,16 @@
         <v>459</v>
       </c>
       <c r="G10" t="s">
+        <v>466</v>
+      </c>
+      <c r="H10" t="s">
         <v>430</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>425</v>
       </c>
@@ -6575,13 +7117,16 @@
         <v>459</v>
       </c>
       <c r="G11" t="s">
+        <v>466</v>
+      </c>
+      <c r="H11" t="s">
         <v>431</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>426</v>
       </c>
@@ -6598,13 +7143,16 @@
         <v>459</v>
       </c>
       <c r="G12" t="s">
+        <v>466</v>
+      </c>
+      <c r="H12" t="s">
         <v>432</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>427</v>
       </c>
@@ -6621,13 +7169,16 @@
         <v>459</v>
       </c>
       <c r="G13" t="s">
+        <v>466</v>
+      </c>
+      <c r="H13" t="s">
         <v>433</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>435</v>
       </c>
@@ -6644,13 +7195,16 @@
         <v>459</v>
       </c>
       <c r="G14" t="s">
+        <v>466</v>
+      </c>
+      <c r="H14" t="s">
         <v>441</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>436</v>
       </c>
@@ -6667,13 +7221,16 @@
         <v>459</v>
       </c>
       <c r="G15" t="s">
+        <v>466</v>
+      </c>
+      <c r="H15" t="s">
         <v>442</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>437</v>
       </c>
@@ -6690,13 +7247,16 @@
         <v>459</v>
       </c>
       <c r="G16" t="s">
+        <v>466</v>
+      </c>
+      <c r="H16" t="s">
         <v>443</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>438</v>
       </c>
@@ -6713,13 +7273,16 @@
         <v>459</v>
       </c>
       <c r="G17" t="s">
+        <v>466</v>
+      </c>
+      <c r="H17" t="s">
         <v>444</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>439</v>
       </c>
@@ -6736,13 +7299,16 @@
         <v>459</v>
       </c>
       <c r="G18" t="s">
+        <v>466</v>
+      </c>
+      <c r="H18" t="s">
         <v>445</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>440</v>
       </c>
@@ -6759,29 +7325,32 @@
         <v>459</v>
       </c>
       <c r="G19" t="s">
+        <v>466</v>
+      </c>
+      <c r="H19" t="s">
         <v>446</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="6" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>289</v>
       </c>
@@ -6798,13 +7367,16 @@
         <v>460</v>
       </c>
       <c r="G24" t="s">
+        <v>466</v>
+      </c>
+      <c r="H24" t="s">
         <v>272</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>290</v>
       </c>
@@ -6821,13 +7393,16 @@
         <v>460</v>
       </c>
       <c r="G25" t="s">
+        <v>466</v>
+      </c>
+      <c r="H25" t="s">
         <v>273</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>291</v>
       </c>
@@ -6844,13 +7419,16 @@
         <v>460</v>
       </c>
       <c r="G26" t="s">
+        <v>466</v>
+      </c>
+      <c r="H26" t="s">
         <v>274</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>292</v>
       </c>
@@ -6867,13 +7445,16 @@
         <v>460</v>
       </c>
       <c r="G27" t="s">
+        <v>466</v>
+      </c>
+      <c r="H27" t="s">
         <v>275</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>293</v>
       </c>
@@ -6890,13 +7471,16 @@
         <v>460</v>
       </c>
       <c r="G28" t="s">
+        <v>466</v>
+      </c>
+      <c r="H28" t="s">
         <v>276</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>294</v>
       </c>
@@ -6913,13 +7497,16 @@
         <v>460</v>
       </c>
       <c r="G29" t="s">
+        <v>466</v>
+      </c>
+      <c r="H29" t="s">
         <v>277</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>295</v>
       </c>
@@ -6936,13 +7523,16 @@
         <v>460</v>
       </c>
       <c r="G30" t="s">
+        <v>466</v>
+      </c>
+      <c r="H30" t="s">
         <v>278</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>296</v>
       </c>
@@ -6959,13 +7549,16 @@
         <v>460</v>
       </c>
       <c r="G31" t="s">
+        <v>466</v>
+      </c>
+      <c r="H31" t="s">
         <v>279</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>297</v>
       </c>
@@ -6982,13 +7575,16 @@
         <v>460</v>
       </c>
       <c r="G32" t="s">
+        <v>466</v>
+      </c>
+      <c r="H32" t="s">
         <v>280</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>298</v>
       </c>
@@ -7005,13 +7601,16 @@
         <v>460</v>
       </c>
       <c r="G33" t="s">
+        <v>466</v>
+      </c>
+      <c r="H33" t="s">
         <v>281</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>299</v>
       </c>
@@ -7028,13 +7627,16 @@
         <v>460</v>
       </c>
       <c r="G34" t="s">
+        <v>466</v>
+      </c>
+      <c r="H34" t="s">
         <v>282</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>300</v>
       </c>
@@ -7051,13 +7653,16 @@
         <v>460</v>
       </c>
       <c r="G35" t="s">
+        <v>466</v>
+      </c>
+      <c r="H35" t="s">
         <v>283</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>301</v>
       </c>
@@ -7074,13 +7679,16 @@
         <v>460</v>
       </c>
       <c r="G36" t="s">
+        <v>466</v>
+      </c>
+      <c r="H36" t="s">
         <v>284</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>302</v>
       </c>
@@ -7097,13 +7705,16 @@
         <v>460</v>
       </c>
       <c r="G37" t="s">
+        <v>466</v>
+      </c>
+      <c r="H37" t="s">
         <v>285</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>303</v>
       </c>
@@ -7119,15 +7730,18 @@
       <c r="F38" t="s">
         <v>460</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" t="s">
+        <v>466</v>
+      </c>
+      <c r="H38" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>392</v>
       </c>
-      <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>304</v>
       </c>
@@ -7144,13 +7758,16 @@
         <v>460</v>
       </c>
       <c r="G39" t="s">
+        <v>466</v>
+      </c>
+      <c r="H39" t="s">
         <v>287</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>305</v>
       </c>
@@ -7167,19 +7784,22 @@
         <v>460</v>
       </c>
       <c r="G40" t="s">
+        <v>466</v>
+      </c>
+      <c r="H40" t="s">
         <v>288</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>337</v>
       </c>
@@ -7196,13 +7816,16 @@
         <v>460</v>
       </c>
       <c r="G43" t="s">
+        <v>466</v>
+      </c>
+      <c r="H43" t="s">
         <v>453</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>338</v>
       </c>
@@ -7219,13 +7842,16 @@
         <v>460</v>
       </c>
       <c r="G44" t="s">
+        <v>466</v>
+      </c>
+      <c r="H44" t="s">
         <v>453</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>339</v>
       </c>
@@ -7242,13 +7868,16 @@
         <v>460</v>
       </c>
       <c r="G45" t="s">
+        <v>466</v>
+      </c>
+      <c r="H45" t="s">
         <v>453</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>340</v>
       </c>
@@ -7265,13 +7894,16 @@
         <v>460</v>
       </c>
       <c r="G46" t="s">
+        <v>466</v>
+      </c>
+      <c r="H46" t="s">
         <v>453</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>341</v>
       </c>
@@ -7288,13 +7920,16 @@
         <v>460</v>
       </c>
       <c r="G47" t="s">
+        <v>466</v>
+      </c>
+      <c r="H47" t="s">
         <v>454</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>342</v>
       </c>
@@ -7311,13 +7946,16 @@
         <v>460</v>
       </c>
       <c r="G48" t="s">
+        <v>466</v>
+      </c>
+      <c r="H48" t="s">
         <v>454</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>343</v>
       </c>
@@ -7334,13 +7972,16 @@
         <v>460</v>
       </c>
       <c r="G49" t="s">
+        <v>466</v>
+      </c>
+      <c r="H49" t="s">
         <v>454</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>344</v>
       </c>
@@ -7357,19 +7998,22 @@
         <v>460</v>
       </c>
       <c r="G50" t="s">
+        <v>466</v>
+      </c>
+      <c r="H50" t="s">
         <v>454</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -7389,19 +8033,22 @@
         <v>460</v>
       </c>
       <c r="G53" t="s">
+        <v>466</v>
+      </c>
+      <c r="H53" t="s">
         <v>166</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
         <v>455</v>
       </c>
       <c r="C54" s="4"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -7421,13 +8068,16 @@
         <v>460</v>
       </c>
       <c r="G55" t="s">
+        <v>466</v>
+      </c>
+      <c r="H55" t="s">
         <v>166</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
         <v>456</v>
       </c>

--- a/data/ref.xlsx
+++ b/data/ref.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/Repositories/LCAdata/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629B60B5-8FA9-1F43-A288-1AFCFF01091B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B58E9C-14AC-E641-BE9F-53EA2DF52AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39480" yWindow="1480" windowWidth="27140" windowHeight="15880" xr2:uid="{4F28B243-04AE-1E4D-B411-E86C9FDA2FDF}"/>
+    <workbookView xWindow="9180" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{4F28B243-04AE-1E4D-B411-E86C9FDA2FDF}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="data.cmat" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="468">
   <si>
     <t>old file name</t>
   </si>
@@ -2056,33 +2055,12 @@
     <t>darter fishes</t>
   </si>
   <si>
-    <t>cmat = cmat.fox.csv</t>
-  </si>
-  <si>
-    <t>cmat=cmat.mcclelland.csv</t>
-  </si>
-  <si>
-    <t>cmat=cmat.armbruster.csv</t>
-  </si>
-  <si>
     <t>low density</t>
   </si>
   <si>
     <t>high density</t>
   </si>
   <si>
-    <t>cmat=cmatrix.sperm.csv</t>
-  </si>
-  <si>
-    <t>cmat=cmatrix.sr.csv</t>
-  </si>
-  <si>
-    <t>cmat=cmat.etterson.ACE.csv</t>
-  </si>
-  <si>
-    <t>plant vs animal</t>
-  </si>
-  <si>
     <t>plant</t>
   </si>
   <si>
@@ -2092,18 +2070,9 @@
     <t>plant or animal</t>
   </si>
   <si>
-    <t>cmat=cmat.etterson.BD.csv</t>
-  </si>
-  <si>
-    <t>cmat=cmat.etterson.F.csv</t>
-  </si>
-  <si>
     <t>within or between species</t>
   </si>
   <si>
-    <t xml:space="preserve">within or between species </t>
-  </si>
-  <si>
     <t>within</t>
   </si>
   <si>
@@ -2111,6 +2080,33 @@
   </si>
   <si>
     <t xml:space="preserve">within </t>
+  </si>
+  <si>
+    <t>cmat (if assigned)</t>
+  </si>
+  <si>
+    <t>cmat.fox.csv</t>
+  </si>
+  <si>
+    <t>cmat.etterson.ACE.csv</t>
+  </si>
+  <si>
+    <t>cmat.etterson.BD.csv</t>
+  </si>
+  <si>
+    <t>cmat.etterson.F.csv</t>
+  </si>
+  <si>
+    <t>cmat.mcclelland.csv</t>
+  </si>
+  <si>
+    <t>cmat.armbruster.csv</t>
+  </si>
+  <si>
+    <t>cmatrix.sperm.csv</t>
+  </si>
+  <si>
+    <t>cmatrix.sr.csv</t>
   </si>
 </sst>
 </file>
@@ -2190,20 +2186,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -2225,7 +2214,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2513,7 +2502,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2521,11 +2510,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1137BAE9-F081-9948-9F37-D6A451EE45DA}">
-  <dimension ref="A1:U227"/>
+  <dimension ref="A1:V216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="106" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H151" sqref="H151"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C217" sqref="C217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2533,14 +2522,14 @@
     <col min="1" max="1" width="19.1640625" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
     <col min="3" max="3" width="26.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="6"/>
+    <col min="4" max="4" width="10.83203125" style="7"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="28.33203125" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="8" max="9" width="28.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2550,312 +2539,315 @@
       <c r="C1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>167</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>163</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>263</v>
       </c>
       <c r="C2" t="s">
         <v>400</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E2" t="s">
         <v>169</v>
       </c>
       <c r="F2" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G2" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H2" t="s">
         <v>249</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>326</v>
       </c>
       <c r="C3" t="s">
         <v>401</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E3" t="s">
         <v>168</v>
       </c>
       <c r="F3" t="s">
-        <v>460</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>466</v>
+        <v>453</v>
+      </c>
+      <c r="G3" t="s">
+        <v>456</v>
       </c>
       <c r="H3" t="s">
         <v>312</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>322</v>
       </c>
       <c r="C4" t="s">
         <v>401</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E4" t="s">
         <v>168</v>
       </c>
       <c r="F4" t="s">
-        <v>460</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>466</v>
+        <v>453</v>
+      </c>
+      <c r="G4" t="s">
+        <v>456</v>
       </c>
       <c r="H4" t="s">
         <v>308</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>320</v>
       </c>
       <c r="C5" t="s">
         <v>401</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E5" t="s">
         <v>168</v>
       </c>
       <c r="F5" t="s">
-        <v>460</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>466</v>
+        <v>453</v>
+      </c>
+      <c r="G5" t="s">
+        <v>456</v>
       </c>
       <c r="H5" t="s">
         <v>306</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>324</v>
       </c>
       <c r="C6" t="s">
         <v>401</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E6" t="s">
         <v>169</v>
       </c>
       <c r="F6" t="s">
-        <v>460</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>466</v>
+        <v>453</v>
+      </c>
+      <c r="G6" t="s">
+        <v>456</v>
       </c>
       <c r="H6" t="s">
         <v>310</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>323</v>
       </c>
       <c r="C7" t="s">
         <v>401</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E7" t="s">
         <v>168</v>
       </c>
       <c r="F7" t="s">
-        <v>460</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>466</v>
+        <v>453</v>
+      </c>
+      <c r="G7" t="s">
+        <v>456</v>
       </c>
       <c r="H7" t="s">
         <v>309</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>321</v>
       </c>
       <c r="C8" t="s">
         <v>401</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E8" t="s">
         <v>168</v>
       </c>
       <c r="F8" t="s">
-        <v>460</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>466</v>
+        <v>453</v>
+      </c>
+      <c r="G8" t="s">
+        <v>456</v>
       </c>
       <c r="H8" t="s">
         <v>307</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>325</v>
       </c>
       <c r="C9" t="s">
         <v>401</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E9" t="s">
         <v>169</v>
       </c>
       <c r="F9" t="s">
-        <v>460</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>466</v>
+        <v>453</v>
+      </c>
+      <c r="G9" t="s">
+        <v>456</v>
       </c>
       <c r="H9" t="s">
         <v>311</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>226</v>
       </c>
       <c r="C10" t="s">
         <v>400</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E10" t="s">
         <v>169</v>
       </c>
       <c r="F10" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G10" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H10" t="s">
         <v>224</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>264</v>
       </c>
       <c r="C11" t="s">
         <v>400</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E11" t="s">
         <v>169</v>
       </c>
       <c r="F11" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G11" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H11" t="s">
         <v>266</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>265</v>
       </c>
       <c r="C12" t="s">
         <v>400</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E12" t="s">
         <v>169</v>
       </c>
       <c r="F12" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G12" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H12" t="s">
         <v>267</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2865,23 +2857,23 @@
       <c r="C13" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E13" t="s">
         <v>168</v>
       </c>
       <c r="F13" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G13" t="s">
-        <v>466</v>
-      </c>
-      <c r="I13" t="s">
+        <v>456</v>
+      </c>
+      <c r="J13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -2891,23 +2883,23 @@
       <c r="C14" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E14" t="s">
         <v>168</v>
       </c>
       <c r="F14" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G14" t="s">
-        <v>466</v>
-      </c>
-      <c r="I14" t="s">
+        <v>456</v>
+      </c>
+      <c r="J14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -2917,23 +2909,23 @@
       <c r="C15" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E15" t="s">
         <v>168</v>
       </c>
       <c r="F15" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G15" t="s">
-        <v>466</v>
-      </c>
-      <c r="I15" t="s">
+        <v>456</v>
+      </c>
+      <c r="J15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -2943,147 +2935,147 @@
       <c r="C16" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E16" t="s">
         <v>168</v>
       </c>
       <c r="F16" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G16" t="s">
-        <v>466</v>
-      </c>
-      <c r="I16" t="s">
+        <v>456</v>
+      </c>
+      <c r="J16" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>84</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E17" t="s">
         <v>169</v>
       </c>
       <c r="F17" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G17" t="s">
-        <v>467</v>
-      </c>
-      <c r="I17" t="s">
+        <v>457</v>
+      </c>
+      <c r="J17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>257</v>
       </c>
       <c r="C18" t="s">
         <v>400</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E18" t="s">
         <v>169</v>
       </c>
       <c r="F18" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G18" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H18" t="s">
         <v>243</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>418</v>
       </c>
       <c r="C19" t="s">
         <v>400</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E19" t="s">
         <v>168</v>
       </c>
       <c r="F19" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G19" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H19" t="s">
         <v>420</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>414</v>
       </c>
       <c r="C20" t="s">
         <v>400</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E20" t="s">
         <v>168</v>
       </c>
       <c r="F20" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G20" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H20" t="s">
         <v>216</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>86</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E21" t="s">
         <v>169</v>
       </c>
       <c r="F21" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G21" t="s">
-        <v>467</v>
-      </c>
-      <c r="I21" t="s">
+        <v>457</v>
+      </c>
+      <c r="J21" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -3093,23 +3085,23 @@
       <c r="C22" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E22" t="s">
         <v>168</v>
       </c>
       <c r="F22" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G22" t="s">
-        <v>468</v>
-      </c>
-      <c r="I22" t="s">
+        <v>458</v>
+      </c>
+      <c r="J22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -3119,23 +3111,23 @@
       <c r="C23" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E23" t="s">
         <v>168</v>
       </c>
       <c r="F23" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G23" t="s">
-        <v>468</v>
-      </c>
-      <c r="I23" t="s">
+        <v>458</v>
+      </c>
+      <c r="J23" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -3145,23 +3137,23 @@
       <c r="C24" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E24" t="s">
         <v>168</v>
       </c>
       <c r="F24" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G24" t="s">
-        <v>468</v>
-      </c>
-      <c r="I24" t="s">
+        <v>458</v>
+      </c>
+      <c r="J24" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>109</v>
       </c>
@@ -3171,199 +3163,199 @@
       <c r="C25" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E25" t="s">
         <v>168</v>
       </c>
       <c r="F25" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G25" t="s">
-        <v>468</v>
-      </c>
-      <c r="I25" t="s">
+        <v>458</v>
+      </c>
+      <c r="J25" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>87</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E26" t="s">
         <v>168</v>
       </c>
       <c r="F26" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G26" t="s">
-        <v>468</v>
-      </c>
-      <c r="I26" t="s">
+        <v>458</v>
+      </c>
+      <c r="J26" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>416</v>
       </c>
       <c r="C27" t="s">
         <v>400</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E27" t="s">
         <v>169</v>
       </c>
       <c r="F27" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G27" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H27" t="s">
         <v>420</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>250</v>
       </c>
       <c r="C28" t="s">
         <v>400</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E28" t="s">
         <v>169</v>
       </c>
       <c r="F28" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G28" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H28" t="s">
         <v>236</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>397</v>
       </c>
       <c r="C29" t="s">
         <v>403</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E29" t="s">
         <v>168</v>
       </c>
       <c r="F29" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G29" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H29" t="s">
         <v>212</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>270</v>
       </c>
       <c r="C30" t="s">
         <v>449</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E30" t="s">
         <v>168</v>
       </c>
       <c r="F30" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G30" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H30" t="s">
         <v>269</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>88</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E31" t="s">
         <v>168</v>
       </c>
       <c r="F31" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G31" t="s">
-        <v>466</v>
-      </c>
-      <c r="I31" t="s">
+        <v>456</v>
+      </c>
+      <c r="J31" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>345</v>
       </c>
       <c r="C32" t="s">
         <v>403</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E32" t="s">
         <v>169</v>
       </c>
       <c r="F32" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G32" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="H32" t="s">
         <v>411</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -3373,147 +3365,147 @@
       <c r="C33" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E33" t="s">
         <v>168</v>
       </c>
       <c r="F33" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G33" t="s">
-        <v>467</v>
-      </c>
-      <c r="I33" t="s">
+        <v>457</v>
+      </c>
+      <c r="J33" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>89</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E34" t="s">
         <v>169</v>
       </c>
       <c r="F34" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G34" t="s">
-        <v>466</v>
-      </c>
-      <c r="I34" t="s">
+        <v>456</v>
+      </c>
+      <c r="J34" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>379</v>
       </c>
       <c r="C35" t="s">
         <v>434</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E35" t="s">
         <v>168</v>
       </c>
       <c r="F35" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G35" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H35" t="s">
         <v>221</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>376</v>
       </c>
       <c r="C36" t="s">
         <v>434</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E36" t="s">
         <v>168</v>
       </c>
       <c r="F36" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G36" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H36" t="s">
         <v>218</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>90</v>
       </c>
       <c r="C37" t="s">
         <v>194</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E37" t="s">
         <v>168</v>
       </c>
       <c r="F37" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G37" t="s">
-        <v>467</v>
-      </c>
-      <c r="I37" t="s">
+        <v>457</v>
+      </c>
+      <c r="J37" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>381</v>
       </c>
       <c r="C38" t="s">
         <v>434</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E38" t="s">
         <v>168</v>
       </c>
       <c r="F38" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G38" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H38" t="s">
         <v>223</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -3523,23 +3515,23 @@
       <c r="C39" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E39" t="s">
         <v>168</v>
       </c>
       <c r="F39" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G39" t="s">
-        <v>467</v>
-      </c>
-      <c r="I39" t="s">
+        <v>457</v>
+      </c>
+      <c r="J39" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -3549,23 +3541,23 @@
       <c r="C40" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E40" t="s">
         <v>168</v>
       </c>
       <c r="F40" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G40" t="s">
-        <v>467</v>
-      </c>
-      <c r="I40" t="s">
+        <v>457</v>
+      </c>
+      <c r="J40" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -3575,23 +3567,23 @@
       <c r="C41" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E41" t="s">
         <v>168</v>
       </c>
       <c r="F41" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G41" t="s">
-        <v>467</v>
-      </c>
-      <c r="I41" t="s">
+        <v>457</v>
+      </c>
+      <c r="J41" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -3601,23 +3593,23 @@
       <c r="C42" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E42" t="s">
         <v>168</v>
       </c>
       <c r="F42" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G42" t="s">
-        <v>467</v>
-      </c>
-      <c r="I42" t="s">
+        <v>457</v>
+      </c>
+      <c r="J42" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -3627,49 +3619,49 @@
       <c r="C43" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E43" t="s">
         <v>168</v>
       </c>
       <c r="F43" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G43" t="s">
-        <v>467</v>
-      </c>
-      <c r="I43" t="s">
+        <v>457</v>
+      </c>
+      <c r="J43" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>380</v>
       </c>
       <c r="C44" t="s">
         <v>434</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E44" t="s">
         <v>168</v>
       </c>
       <c r="F44" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G44" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H44" t="s">
         <v>222</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -3679,23 +3671,23 @@
       <c r="C45" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E45" t="s">
         <v>168</v>
       </c>
       <c r="F45" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G45" t="s">
-        <v>467</v>
-      </c>
-      <c r="I45" t="s">
+        <v>457</v>
+      </c>
+      <c r="J45" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -3705,23 +3697,23 @@
       <c r="C46" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E46" t="s">
         <v>168</v>
       </c>
       <c r="F46" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G46" t="s">
-        <v>467</v>
-      </c>
-      <c r="I46" t="s">
+        <v>457</v>
+      </c>
+      <c r="J46" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -3731,23 +3723,23 @@
       <c r="C47" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
       </c>
       <c r="F47" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G47" t="s">
-        <v>467</v>
-      </c>
-      <c r="I47" t="s">
+        <v>457</v>
+      </c>
+      <c r="J47" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -3757,23 +3749,23 @@
       <c r="C48" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E48" t="s">
         <v>168</v>
       </c>
       <c r="F48" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G48" t="s">
-        <v>467</v>
-      </c>
-      <c r="I48" t="s">
+        <v>457</v>
+      </c>
+      <c r="J48" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -3783,202 +3775,202 @@
       <c r="C49" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E49" t="s">
         <v>168</v>
       </c>
       <c r="F49" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G49" t="s">
-        <v>467</v>
-      </c>
-      <c r="I49" t="s">
+        <v>457</v>
+      </c>
+      <c r="J49" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>335</v>
       </c>
       <c r="C50" t="s">
         <v>449</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E50" t="s">
         <v>168</v>
       </c>
       <c r="F50" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G50" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H50" t="s">
         <v>271</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>415</v>
       </c>
       <c r="C51" t="s">
         <v>400</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E51" t="s">
         <v>168</v>
       </c>
       <c r="F51" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G51" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H51" t="s">
         <v>417</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>91</v>
       </c>
       <c r="C52" t="s">
         <v>194</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E52" t="s">
         <v>168</v>
       </c>
       <c r="F52" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G52" t="s">
-        <v>467</v>
-      </c>
-      <c r="I52" t="s">
+        <v>457</v>
+      </c>
+      <c r="J52" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>233</v>
       </c>
       <c r="C53" t="s">
         <v>203</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E53" t="s">
         <v>169</v>
       </c>
       <c r="F53" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G53" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="H53" t="s">
         <v>228</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>232</v>
       </c>
       <c r="C54" t="s">
         <v>203</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E54" t="s">
         <v>169</v>
       </c>
       <c r="F54" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G54" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="H54" t="s">
         <v>227</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>268</v>
       </c>
       <c r="C55" t="s">
         <v>203</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E55" t="s">
         <v>168</v>
       </c>
       <c r="F55" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G55" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="H55" t="s">
         <v>231</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>375</v>
       </c>
       <c r="C56" t="s">
         <v>434</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E56" t="s">
         <v>168</v>
       </c>
       <c r="F56" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G56" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H56" t="s">
         <v>217</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -3988,23 +3980,23 @@
       <c r="C57" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E57" t="s">
         <v>168</v>
       </c>
       <c r="F57" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G57" t="s">
-        <v>466</v>
-      </c>
-      <c r="I57" t="s">
+        <v>456</v>
+      </c>
+      <c r="J57" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -4014,23 +4006,23 @@
       <c r="C58" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E58" t="s">
         <v>168</v>
       </c>
       <c r="F58" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G58" t="s">
-        <v>466</v>
-      </c>
-      <c r="I58" t="s">
+        <v>456</v>
+      </c>
+      <c r="J58" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>20</v>
       </c>
@@ -4040,23 +4032,23 @@
       <c r="C59" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E59" t="s">
         <v>168</v>
       </c>
       <c r="F59" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G59" t="s">
-        <v>466</v>
-      </c>
-      <c r="I59" t="s">
+        <v>456</v>
+      </c>
+      <c r="J59" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -4066,23 +4058,23 @@
       <c r="C60" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E60" t="s">
         <v>168</v>
       </c>
       <c r="F60" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G60" t="s">
-        <v>466</v>
-      </c>
-      <c r="I60" t="s">
+        <v>456</v>
+      </c>
+      <c r="J60" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>22</v>
       </c>
@@ -4092,23 +4084,23 @@
       <c r="C61" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E61" t="s">
         <v>168</v>
       </c>
       <c r="F61" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G61" t="s">
-        <v>466</v>
-      </c>
-      <c r="I61" t="s">
+        <v>456</v>
+      </c>
+      <c r="J61" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>23</v>
       </c>
@@ -4118,23 +4110,23 @@
       <c r="C62" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E62" t="s">
         <v>168</v>
       </c>
       <c r="F62" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G62" t="s">
-        <v>466</v>
-      </c>
-      <c r="I62" t="s">
+        <v>456</v>
+      </c>
+      <c r="J62" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -4144,23 +4136,23 @@
       <c r="C63" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E63" t="s">
         <v>168</v>
       </c>
       <c r="F63" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G63" t="s">
-        <v>466</v>
-      </c>
-      <c r="I63" t="s">
+        <v>456</v>
+      </c>
+      <c r="J63" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>25</v>
       </c>
@@ -4170,23 +4162,23 @@
       <c r="C64" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E64" t="s">
         <v>168</v>
       </c>
       <c r="F64" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G64" t="s">
-        <v>466</v>
-      </c>
-      <c r="I64" t="s">
+        <v>456</v>
+      </c>
+      <c r="J64" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>26</v>
       </c>
@@ -4196,75 +4188,75 @@
       <c r="C65" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E65" t="s">
         <v>168</v>
       </c>
       <c r="F65" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G65" t="s">
-        <v>466</v>
-      </c>
-      <c r="I65" t="s">
+        <v>456</v>
+      </c>
+      <c r="J65" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>262</v>
       </c>
       <c r="C66" t="s">
         <v>400</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E66" t="s">
         <v>169</v>
       </c>
       <c r="F66" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G66" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H66" t="s">
         <v>245</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>258</v>
       </c>
       <c r="C67" t="s">
         <v>400</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D67" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E67" t="s">
         <v>169</v>
       </c>
       <c r="F67" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G67" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H67" t="s">
         <v>244</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>35</v>
       </c>
@@ -4274,23 +4266,23 @@
       <c r="C68" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E68" t="s">
         <v>168</v>
       </c>
       <c r="F68" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G68" t="s">
-        <v>467</v>
-      </c>
-      <c r="I68" t="s">
+        <v>457</v>
+      </c>
+      <c r="J68" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>37</v>
       </c>
@@ -4300,23 +4292,23 @@
       <c r="C69" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E69" t="s">
         <v>168</v>
       </c>
       <c r="F69" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G69" t="s">
-        <v>467</v>
-      </c>
-      <c r="I69" t="s">
+        <v>457</v>
+      </c>
+      <c r="J69" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>36</v>
       </c>
@@ -4326,23 +4318,23 @@
       <c r="C70" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E70" t="s">
         <v>168</v>
       </c>
       <c r="F70" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G70" t="s">
-        <v>467</v>
-      </c>
-      <c r="I70" t="s">
+        <v>457</v>
+      </c>
+      <c r="J70" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -4352,23 +4344,23 @@
       <c r="C71" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D71" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E71" t="s">
         <v>168</v>
       </c>
       <c r="F71" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G71" t="s">
-        <v>467</v>
-      </c>
-      <c r="I71" t="s">
+        <v>457</v>
+      </c>
+      <c r="J71" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>39</v>
       </c>
@@ -4378,23 +4370,23 @@
       <c r="C72" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E72" t="s">
         <v>168</v>
       </c>
       <c r="F72" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G72" t="s">
-        <v>467</v>
-      </c>
-      <c r="I72" t="s">
+        <v>457</v>
+      </c>
+      <c r="J72" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>27</v>
       </c>
@@ -4404,23 +4396,23 @@
       <c r="C73" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D73" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E73" t="s">
         <v>168</v>
       </c>
       <c r="F73" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G73" t="s">
-        <v>467</v>
-      </c>
-      <c r="I73" t="s">
+        <v>457</v>
+      </c>
+      <c r="J73" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>28</v>
       </c>
@@ -4430,23 +4422,23 @@
       <c r="C74" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D74" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E74" t="s">
         <v>168</v>
       </c>
       <c r="F74" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G74" t="s">
-        <v>467</v>
-      </c>
-      <c r="I74" t="s">
+        <v>457</v>
+      </c>
+      <c r="J74" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>29</v>
       </c>
@@ -4456,23 +4448,23 @@
       <c r="C75" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D75" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E75" t="s">
         <v>168</v>
       </c>
       <c r="F75" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G75" t="s">
-        <v>467</v>
-      </c>
-      <c r="I75" t="s">
+        <v>457</v>
+      </c>
+      <c r="J75" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>58</v>
       </c>
@@ -4482,23 +4474,23 @@
       <c r="C76" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="D76" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E76" t="s">
         <v>168</v>
       </c>
       <c r="F76" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G76" t="s">
-        <v>467</v>
-      </c>
-      <c r="I76" t="s">
+        <v>457</v>
+      </c>
+      <c r="J76" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>59</v>
       </c>
@@ -4508,75 +4500,75 @@
       <c r="C77" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="D77" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E77" t="s">
         <v>168</v>
       </c>
       <c r="F77" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G77" t="s">
-        <v>467</v>
-      </c>
-      <c r="I77" t="s">
+        <v>457</v>
+      </c>
+      <c r="J77" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>383</v>
       </c>
       <c r="C78" t="s">
         <v>434</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="D78" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E78" t="s">
         <v>168</v>
       </c>
       <c r="F78" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G78" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H78" t="s">
         <v>374</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>225</v>
       </c>
       <c r="C79" t="s">
         <v>400</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="D79" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E79" t="s">
         <v>169</v>
       </c>
       <c r="F79" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G79" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H79" t="s">
         <v>210</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>11</v>
       </c>
@@ -4586,23 +4578,23 @@
       <c r="C80" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D80" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E80" t="s">
         <v>168</v>
       </c>
       <c r="F80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G80" t="s">
-        <v>467</v>
-      </c>
-      <c r="I80" t="s">
+        <v>457</v>
+      </c>
+      <c r="J80" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>12</v>
       </c>
@@ -4612,49 +4604,49 @@
       <c r="C81" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="D81" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E81" t="s">
         <v>168</v>
       </c>
       <c r="F81" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G81" t="s">
-        <v>467</v>
-      </c>
-      <c r="I81" t="s">
+        <v>457</v>
+      </c>
+      <c r="J81" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>378</v>
       </c>
       <c r="C82" t="s">
         <v>434</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D82" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E82" t="s">
         <v>169</v>
       </c>
       <c r="F82" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G82" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H82" t="s">
         <v>220</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -4664,23 +4656,23 @@
       <c r="C83" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D83" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E83" t="s">
         <v>168</v>
       </c>
       <c r="F83" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G83" t="s">
-        <v>467</v>
-      </c>
-      <c r="I83" t="s">
+        <v>457</v>
+      </c>
+      <c r="J83" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>60</v>
       </c>
@@ -4690,260 +4682,260 @@
       <c r="C84" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D84" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E84" t="s">
         <v>168</v>
       </c>
       <c r="F84" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G84" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H84" t="s">
         <v>164</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>251</v>
       </c>
       <c r="C85" t="s">
         <v>400</v>
       </c>
-      <c r="D85" s="6" t="s">
+      <c r="D85" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E85" t="s">
         <v>169</v>
       </c>
       <c r="F85" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G85" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H85" t="s">
         <v>237</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>252</v>
       </c>
       <c r="C86" t="s">
         <v>400</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="D86" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E86" t="s">
         <v>169</v>
       </c>
       <c r="F86" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G86" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H86" t="s">
         <v>238</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>256</v>
       </c>
       <c r="C87" t="s">
         <v>400</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="D87" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E87" t="s">
         <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G87" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H87" t="s">
         <v>242</v>
       </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>255</v>
       </c>
       <c r="C88" t="s">
         <v>400</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="D88" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E88" t="s">
         <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G88" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H88" t="s">
         <v>241</v>
       </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>254</v>
       </c>
       <c r="C89" t="s">
         <v>400</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="D89" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E89" t="s">
         <v>169</v>
       </c>
       <c r="F89" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G89" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H89" t="s">
         <v>240</v>
       </c>
-      <c r="I89" t="s">
+      <c r="J89" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>253</v>
       </c>
       <c r="C90" t="s">
         <v>400</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="D90" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E90" t="s">
         <v>169</v>
       </c>
       <c r="F90" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G90" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H90" t="s">
         <v>239</v>
       </c>
-      <c r="I90" t="s">
+      <c r="J90" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>382</v>
       </c>
       <c r="C91" t="s">
         <v>434</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="D91" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E91" t="s">
         <v>168</v>
       </c>
       <c r="F91" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G91" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H91" t="s">
         <v>373</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>398</v>
       </c>
       <c r="C92" t="s">
         <v>403</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D92" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E92" t="s">
         <v>168</v>
       </c>
       <c r="F92" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G92" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H92" t="s">
         <v>213</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>407</v>
       </c>
       <c r="C93" t="s">
         <v>203</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D93" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E93" t="s">
         <v>169</v>
       </c>
       <c r="F93" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G93" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="H93" t="s">
         <v>230</v>
       </c>
-      <c r="I93" t="s">
+      <c r="J93" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -4953,23 +4945,23 @@
       <c r="C94" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="D94" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E94" t="s">
         <v>168</v>
       </c>
       <c r="F94" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G94" t="s">
-        <v>467</v>
-      </c>
-      <c r="I94" t="s">
+        <v>457</v>
+      </c>
+      <c r="J94" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -4979,23 +4971,23 @@
       <c r="C95" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D95" s="6" t="s">
+      <c r="D95" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E95" t="s">
         <v>168</v>
       </c>
       <c r="F95" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G95" t="s">
-        <v>467</v>
-      </c>
-      <c r="I95" t="s">
+        <v>457</v>
+      </c>
+      <c r="J95" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>45</v>
       </c>
@@ -5005,23 +4997,23 @@
       <c r="C96" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D96" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E96" t="s">
         <v>169</v>
       </c>
       <c r="F96" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G96" t="s">
-        <v>467</v>
-      </c>
-      <c r="I96" t="s">
+        <v>457</v>
+      </c>
+      <c r="J96" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>46</v>
       </c>
@@ -5031,23 +5023,23 @@
       <c r="C97" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D97" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E97" t="s">
         <v>169</v>
       </c>
       <c r="F97" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G97" t="s">
-        <v>467</v>
-      </c>
-      <c r="I97" t="s">
+        <v>457</v>
+      </c>
+      <c r="J97" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>47</v>
       </c>
@@ -5057,23 +5049,23 @@
       <c r="C98" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="D98" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E98" t="s">
         <v>169</v>
       </c>
       <c r="F98" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G98" t="s">
-        <v>467</v>
-      </c>
-      <c r="I98" t="s">
+        <v>457</v>
+      </c>
+      <c r="J98" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>48</v>
       </c>
@@ -5083,23 +5075,23 @@
       <c r="C99" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D99" s="6" t="s">
+      <c r="D99" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E99" t="s">
         <v>169</v>
       </c>
       <c r="F99" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G99" t="s">
-        <v>467</v>
-      </c>
-      <c r="I99" t="s">
+        <v>457</v>
+      </c>
+      <c r="J99" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>49</v>
       </c>
@@ -5109,23 +5101,23 @@
       <c r="C100" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="D100" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E100" t="s">
         <v>169</v>
       </c>
       <c r="F100" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G100" t="s">
-        <v>467</v>
-      </c>
-      <c r="I100" t="s">
+        <v>457</v>
+      </c>
+      <c r="J100" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>50</v>
       </c>
@@ -5135,23 +5127,23 @@
       <c r="C101" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="D101" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E101" t="s">
         <v>169</v>
       </c>
       <c r="F101" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G101" t="s">
-        <v>467</v>
-      </c>
-      <c r="I101" t="s">
+        <v>457</v>
+      </c>
+      <c r="J101" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>51</v>
       </c>
@@ -5161,23 +5153,23 @@
       <c r="C102" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="D102" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E102" t="s">
         <v>169</v>
       </c>
       <c r="F102" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G102" t="s">
-        <v>467</v>
-      </c>
-      <c r="I102" t="s">
+        <v>457</v>
+      </c>
+      <c r="J102" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>52</v>
       </c>
@@ -5187,23 +5179,23 @@
       <c r="C103" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D103" s="6" t="s">
+      <c r="D103" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E103" t="s">
         <v>169</v>
       </c>
       <c r="F103" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G103" t="s">
-        <v>467</v>
-      </c>
-      <c r="I103" t="s">
+        <v>457</v>
+      </c>
+      <c r="J103" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>53</v>
       </c>
@@ -5213,23 +5205,23 @@
       <c r="C104" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="D104" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E104" t="s">
         <v>169</v>
       </c>
       <c r="F104" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G104" t="s">
-        <v>467</v>
-      </c>
-      <c r="I104" t="s">
+        <v>457</v>
+      </c>
+      <c r="J104" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>54</v>
       </c>
@@ -5239,49 +5231,49 @@
       <c r="C105" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="D105" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E105" t="s">
         <v>169</v>
       </c>
       <c r="F105" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G105" t="s">
-        <v>467</v>
-      </c>
-      <c r="I105" t="s">
+        <v>457</v>
+      </c>
+      <c r="J105" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>406</v>
       </c>
       <c r="C106" t="s">
         <v>203</v>
       </c>
-      <c r="D106" s="6" t="s">
+      <c r="D106" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E106" t="s">
         <v>169</v>
       </c>
       <c r="F106" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G106" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="H106" t="s">
         <v>229</v>
       </c>
-      <c r="I106" t="s">
+      <c r="J106" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>16</v>
       </c>
@@ -5291,46 +5283,46 @@
       <c r="C107" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D107" s="6" t="s">
+      <c r="D107" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E107" t="s">
         <v>168</v>
       </c>
       <c r="F107" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G107" t="s">
-        <v>467</v>
-      </c>
-      <c r="I107" t="s">
+        <v>457</v>
+      </c>
+      <c r="J107" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>92</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D108" s="6" t="s">
+      <c r="D108" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E108" t="s">
         <v>168</v>
       </c>
       <c r="F108" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G108" t="s">
-        <v>466</v>
-      </c>
-      <c r="I108" t="s">
+        <v>456</v>
+      </c>
+      <c r="J108" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>62</v>
       </c>
@@ -5340,225 +5332,225 @@
       <c r="C109" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D109" s="6" t="s">
+      <c r="D109" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E109" t="s">
         <v>168</v>
       </c>
       <c r="F109" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G109" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H109" t="s">
         <v>165</v>
       </c>
-      <c r="I109" t="s">
+      <c r="J109" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>336</v>
       </c>
       <c r="C110" t="s">
         <v>449</v>
       </c>
-      <c r="D110" s="6" t="s">
+      <c r="D110" s="7" t="s">
         <v>447</v>
       </c>
       <c r="F110" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G110" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H110" t="s">
         <v>334</v>
       </c>
-      <c r="I110" t="s">
+      <c r="J110" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>260</v>
       </c>
       <c r="C111" t="s">
         <v>400</v>
       </c>
-      <c r="D111" s="6" t="s">
+      <c r="D111" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E111" t="s">
         <v>169</v>
       </c>
       <c r="F111" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G111" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H111" t="s">
         <v>247</v>
       </c>
-      <c r="I111" t="s">
+      <c r="J111" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>261</v>
       </c>
       <c r="C112" t="s">
         <v>400</v>
       </c>
-      <c r="D112" s="6" t="s">
+      <c r="D112" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E112" t="s">
         <v>169</v>
       </c>
       <c r="F112" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G112" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H112" t="s">
         <v>246</v>
       </c>
-      <c r="I112" t="s">
+      <c r="J112" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>259</v>
       </c>
       <c r="C113" t="s">
         <v>400</v>
       </c>
-      <c r="D113" s="6" t="s">
+      <c r="D113" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E113" t="s">
         <v>169</v>
       </c>
       <c r="F113" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G113" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H113" t="s">
         <v>248</v>
       </c>
-      <c r="I113" t="s">
+      <c r="J113" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>396</v>
       </c>
       <c r="C114" t="s">
         <v>403</v>
       </c>
-      <c r="D114" s="6" t="s">
+      <c r="D114" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E114" t="s">
         <v>168</v>
       </c>
       <c r="F114" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G114" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H114" t="s">
         <v>211</v>
       </c>
-      <c r="I114" t="s">
+      <c r="J114" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>419</v>
       </c>
       <c r="C115" t="s">
         <v>400</v>
       </c>
-      <c r="D115" s="6" t="s">
+      <c r="D115" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E115" t="s">
         <v>168</v>
       </c>
       <c r="F115" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G115" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H115" t="s">
         <v>421</v>
       </c>
-      <c r="I115" t="s">
+      <c r="J115" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>93</v>
       </c>
       <c r="C116" t="s">
         <v>200</v>
       </c>
-      <c r="D116" s="6" t="s">
+      <c r="D116" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E116" t="s">
         <v>168</v>
       </c>
       <c r="F116" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G116" t="s">
-        <v>466</v>
-      </c>
-      <c r="I116" t="s">
+        <v>456</v>
+      </c>
+      <c r="J116" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>94</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D117" s="6" t="s">
+      <c r="D117" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E117" t="s">
         <v>168</v>
       </c>
       <c r="F117" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G117" t="s">
-        <v>466</v>
-      </c>
-      <c r="I117" t="s">
+        <v>456</v>
+      </c>
+      <c r="J117" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>17</v>
       </c>
@@ -5568,335 +5560,335 @@
       <c r="C118" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D118" s="6" t="s">
+      <c r="D118" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E118" t="s">
         <v>168</v>
       </c>
       <c r="F118" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G118" t="s">
-        <v>467</v>
-      </c>
-      <c r="I118" t="s">
+        <v>457</v>
+      </c>
+      <c r="J118" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>409</v>
       </c>
       <c r="C119" t="s">
         <v>403</v>
       </c>
-      <c r="D119" s="6" t="s">
+      <c r="D119" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E119" t="s">
         <v>169</v>
       </c>
       <c r="F119" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G119" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="H119" t="s">
         <v>412</v>
       </c>
-      <c r="I119" t="s">
+      <c r="J119" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>95</v>
       </c>
       <c r="C120" t="s">
         <v>202</v>
       </c>
-      <c r="D120" s="6" t="s">
+      <c r="D120" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E120" t="s">
         <v>169</v>
       </c>
       <c r="F120" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G120" t="s">
-        <v>466</v>
-      </c>
-      <c r="I120" t="s">
+        <v>456</v>
+      </c>
+      <c r="J120" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>333</v>
       </c>
       <c r="C121" t="s">
         <v>401</v>
       </c>
-      <c r="D121" s="6" t="s">
+      <c r="D121" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E121" t="s">
         <v>168</v>
       </c>
       <c r="F121" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G121" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="H121" t="s">
         <v>319</v>
       </c>
-      <c r="I121" t="s">
+      <c r="J121" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>329</v>
       </c>
       <c r="C122" t="s">
         <v>401</v>
       </c>
-      <c r="D122" s="6" t="s">
+      <c r="D122" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E122" t="s">
         <v>168</v>
       </c>
       <c r="F122" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G122" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="H122" t="s">
         <v>315</v>
       </c>
-      <c r="I122" t="s">
+      <c r="J122" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>327</v>
       </c>
       <c r="C123" t="s">
         <v>401</v>
       </c>
-      <c r="D123" s="6" t="s">
+      <c r="D123" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E123" t="s">
         <v>168</v>
       </c>
       <c r="F123" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G123" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="H123" t="s">
         <v>313</v>
       </c>
-      <c r="I123" t="s">
+      <c r="J123" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>331</v>
       </c>
       <c r="C124" t="s">
         <v>401</v>
       </c>
-      <c r="D124" s="6" t="s">
+      <c r="D124" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E124" t="s">
         <v>169</v>
       </c>
       <c r="F124" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G124" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="H124" t="s">
         <v>317</v>
       </c>
-      <c r="I124" t="s">
+      <c r="J124" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>330</v>
       </c>
       <c r="C125" t="s">
         <v>401</v>
       </c>
-      <c r="D125" s="6" t="s">
+      <c r="D125" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E125" t="s">
         <v>168</v>
       </c>
       <c r="F125" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G125" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="H125" t="s">
         <v>316</v>
       </c>
-      <c r="I125" t="s">
+      <c r="J125" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>328</v>
       </c>
       <c r="C126" t="s">
         <v>401</v>
       </c>
-      <c r="D126" s="6" t="s">
+      <c r="D126" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E126" t="s">
         <v>168</v>
       </c>
       <c r="F126" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G126" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="H126" t="s">
         <v>314</v>
       </c>
-      <c r="I126" t="s">
+      <c r="J126" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>332</v>
       </c>
       <c r="C127" t="s">
         <v>401</v>
       </c>
-      <c r="D127" s="6" t="s">
+      <c r="D127" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E127" t="s">
         <v>169</v>
       </c>
       <c r="F127" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G127" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="H127" t="s">
         <v>318</v>
       </c>
-      <c r="I127" t="s">
+      <c r="J127" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>377</v>
       </c>
       <c r="C128" t="s">
         <v>434</v>
       </c>
-      <c r="D128" s="6" t="s">
+      <c r="D128" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E128" t="s">
         <v>169</v>
       </c>
       <c r="F128" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G128" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H128" t="s">
         <v>219</v>
       </c>
-      <c r="I128" t="s">
+      <c r="J128" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>96</v>
       </c>
       <c r="C129" t="s">
         <v>203</v>
       </c>
-      <c r="D129" s="6" t="s">
+      <c r="D129" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E129" t="s">
         <v>168</v>
       </c>
       <c r="F129" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G129" t="s">
-        <v>466</v>
-      </c>
-      <c r="I129" t="s">
+        <v>456</v>
+      </c>
+      <c r="J129" t="s">
         <v>209</v>
       </c>
-      <c r="U129" t="s">
+      <c r="V129" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>399</v>
       </c>
       <c r="C130" t="s">
         <v>403</v>
       </c>
-      <c r="D130" s="6" t="s">
+      <c r="D130" s="7" t="s">
         <v>102</v>
       </c>
       <c r="E130" t="s">
         <v>168</v>
       </c>
       <c r="F130" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G130" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H130" t="s">
         <v>214</v>
       </c>
-      <c r="I130" t="s">
+      <c r="J130" t="s">
         <v>402</v>
       </c>
-      <c r="U130" t="s">
+      <c r="V130" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>66</v>
       </c>
@@ -5906,23 +5898,23 @@
       <c r="C131" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D131" s="6" t="s">
+      <c r="D131" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E131" t="s">
         <v>169</v>
       </c>
       <c r="F131" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G131" t="s">
-        <v>467</v>
-      </c>
-      <c r="I131" t="s">
+        <v>457</v>
+      </c>
+      <c r="J131" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>67</v>
       </c>
@@ -5932,23 +5924,23 @@
       <c r="C132" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D132" s="6" t="s">
+      <c r="D132" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E132" t="s">
         <v>169</v>
       </c>
       <c r="F132" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G132" t="s">
-        <v>467</v>
-      </c>
-      <c r="I132" t="s">
+        <v>457</v>
+      </c>
+      <c r="J132" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>68</v>
       </c>
@@ -5958,23 +5950,23 @@
       <c r="C133" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D133" s="6" t="s">
+      <c r="D133" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E133" t="s">
         <v>169</v>
       </c>
       <c r="F133" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G133" t="s">
-        <v>467</v>
-      </c>
-      <c r="I133" t="s">
+        <v>457</v>
+      </c>
+      <c r="J133" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>64</v>
       </c>
@@ -5984,23 +5976,23 @@
       <c r="C134" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D134" s="6" t="s">
+      <c r="D134" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E134" t="s">
         <v>169</v>
       </c>
       <c r="F134" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G134" t="s">
-        <v>467</v>
-      </c>
-      <c r="I134" t="s">
+        <v>457</v>
+      </c>
+      <c r="J134" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>70</v>
       </c>
@@ -6010,23 +6002,23 @@
       <c r="C135" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D135" s="6" t="s">
+      <c r="D135" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E135" t="s">
         <v>169</v>
       </c>
       <c r="F135" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G135" t="s">
-        <v>467</v>
-      </c>
-      <c r="I135" t="s">
+        <v>457</v>
+      </c>
+      <c r="J135" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>65</v>
       </c>
@@ -6036,23 +6028,23 @@
       <c r="C136" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D136" s="6" t="s">
+      <c r="D136" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E136" t="s">
         <v>169</v>
       </c>
       <c r="F136" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G136" t="s">
-        <v>467</v>
-      </c>
-      <c r="I136" t="s">
+        <v>457</v>
+      </c>
+      <c r="J136" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>72</v>
       </c>
@@ -6062,23 +6054,23 @@
       <c r="C137" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D137" s="6" t="s">
+      <c r="D137" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E137" t="s">
         <v>169</v>
       </c>
       <c r="F137" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G137" t="s">
-        <v>467</v>
-      </c>
-      <c r="I137" t="s">
+        <v>457</v>
+      </c>
+      <c r="J137" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>69</v>
       </c>
@@ -6088,23 +6080,23 @@
       <c r="C138" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D138" s="6" t="s">
+      <c r="D138" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E138" t="s">
         <v>169</v>
       </c>
       <c r="F138" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G138" t="s">
-        <v>467</v>
-      </c>
-      <c r="I138" t="s">
+        <v>457</v>
+      </c>
+      <c r="J138" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>61</v>
       </c>
@@ -6114,23 +6106,23 @@
       <c r="C139" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D139" s="6" t="s">
+      <c r="D139" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E139" t="s">
         <v>169</v>
       </c>
       <c r="F139" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G139" t="s">
-        <v>467</v>
-      </c>
-      <c r="I139" t="s">
+        <v>457</v>
+      </c>
+      <c r="J139" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>63</v>
       </c>
@@ -6140,23 +6132,23 @@
       <c r="C140" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D140" s="6" t="s">
+      <c r="D140" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E140" t="s">
         <v>169</v>
       </c>
       <c r="F140" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G140" t="s">
-        <v>467</v>
-      </c>
-      <c r="I140" t="s">
+        <v>457</v>
+      </c>
+      <c r="J140" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>71</v>
       </c>
@@ -6166,23 +6158,23 @@
       <c r="C141" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D141" s="6" t="s">
+      <c r="D141" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E141" t="s">
         <v>169</v>
       </c>
       <c r="F141" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G141" t="s">
-        <v>467</v>
-      </c>
-      <c r="I141" t="s">
+        <v>457</v>
+      </c>
+      <c r="J141" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>77</v>
       </c>
@@ -6192,23 +6184,23 @@
       <c r="C142" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D142" s="6" t="s">
+      <c r="D142" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E142" t="s">
         <v>169</v>
       </c>
       <c r="F142" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G142" t="s">
-        <v>467</v>
-      </c>
-      <c r="I142" t="s">
+        <v>457</v>
+      </c>
+      <c r="J142" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>78</v>
       </c>
@@ -6218,23 +6210,23 @@
       <c r="C143" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D143" s="6" t="s">
+      <c r="D143" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E143" t="s">
         <v>169</v>
       </c>
       <c r="F143" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G143" t="s">
-        <v>467</v>
-      </c>
-      <c r="I143" t="s">
+        <v>457</v>
+      </c>
+      <c r="J143" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>79</v>
       </c>
@@ -6244,23 +6236,23 @@
       <c r="C144" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D144" s="6" t="s">
+      <c r="D144" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E144" t="s">
         <v>169</v>
       </c>
       <c r="F144" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G144" t="s">
-        <v>467</v>
-      </c>
-      <c r="I144" t="s">
+        <v>457</v>
+      </c>
+      <c r="J144" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>75</v>
       </c>
@@ -6270,23 +6262,23 @@
       <c r="C145" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D145" s="6" t="s">
+      <c r="D145" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E145" t="s">
         <v>169</v>
       </c>
       <c r="F145" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G145" t="s">
-        <v>467</v>
-      </c>
-      <c r="I145" t="s">
+        <v>457</v>
+      </c>
+      <c r="J145" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>81</v>
       </c>
@@ -6296,23 +6288,23 @@
       <c r="C146" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D146" s="6" t="s">
+      <c r="D146" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E146" t="s">
         <v>169</v>
       </c>
       <c r="F146" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G146" t="s">
-        <v>467</v>
-      </c>
-      <c r="I146" t="s">
+        <v>457</v>
+      </c>
+      <c r="J146" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>76</v>
       </c>
@@ -6322,23 +6314,23 @@
       <c r="C147" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D147" s="6" t="s">
+      <c r="D147" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E147" t="s">
         <v>169</v>
       </c>
       <c r="F147" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G147" t="s">
-        <v>467</v>
-      </c>
-      <c r="I147" t="s">
+        <v>457</v>
+      </c>
+      <c r="J147" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>83</v>
       </c>
@@ -6348,23 +6340,23 @@
       <c r="C148" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D148" s="6" t="s">
+      <c r="D148" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E148" t="s">
         <v>169</v>
       </c>
       <c r="F148" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G148" t="s">
-        <v>467</v>
-      </c>
-      <c r="I148" t="s">
+        <v>457</v>
+      </c>
+      <c r="J148" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>80</v>
       </c>
@@ -6374,23 +6366,23 @@
       <c r="C149" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D149" s="6" t="s">
+      <c r="D149" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E149" t="s">
         <v>169</v>
       </c>
       <c r="F149" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G149" t="s">
-        <v>467</v>
-      </c>
-      <c r="I149" t="s">
+        <v>457</v>
+      </c>
+      <c r="J149" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>73</v>
       </c>
@@ -6400,23 +6392,23 @@
       <c r="C150" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D150" s="6" t="s">
+      <c r="D150" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E150" t="s">
         <v>169</v>
       </c>
       <c r="F150" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G150" t="s">
-        <v>467</v>
-      </c>
-      <c r="I150" t="s">
+        <v>457</v>
+      </c>
+      <c r="J150" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>74</v>
       </c>
@@ -6426,23 +6418,23 @@
       <c r="C151" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D151" s="6" t="s">
+      <c r="D151" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E151" t="s">
         <v>169</v>
       </c>
       <c r="F151" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G151" t="s">
-        <v>467</v>
-      </c>
-      <c r="I151" t="s">
+        <v>457</v>
+      </c>
+      <c r="J151" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>82</v>
       </c>
@@ -6452,1642 +6444,1657 @@
       <c r="C152" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D152" s="6" t="s">
+      <c r="D152" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E152" t="s">
         <v>169</v>
       </c>
       <c r="F152" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G152" t="s">
-        <v>467</v>
-      </c>
-      <c r="I152" t="s">
+        <v>457</v>
+      </c>
+      <c r="J152" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>359</v>
       </c>
       <c r="C153" t="s">
         <v>400</v>
       </c>
-      <c r="D153" s="6" t="s">
+      <c r="D153" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E153" t="s">
         <v>168</v>
       </c>
       <c r="F153" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G153" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H153" t="s">
         <v>237</v>
       </c>
-      <c r="I153" t="s">
+      <c r="J153" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>360</v>
       </c>
       <c r="C154" t="s">
         <v>400</v>
       </c>
-      <c r="D154" s="6" t="s">
+      <c r="D154" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E154" t="s">
         <v>168</v>
       </c>
       <c r="F154" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G154" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H154" t="s">
         <v>238</v>
       </c>
-      <c r="I154" t="s">
+      <c r="J154" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>361</v>
       </c>
       <c r="C155" t="s">
         <v>400</v>
       </c>
-      <c r="D155" s="6" t="s">
+      <c r="D155" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E155" t="s">
         <v>168</v>
       </c>
       <c r="F155" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G155" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H155" t="s">
         <v>239</v>
       </c>
-      <c r="I155" t="s">
+      <c r="J155" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>362</v>
       </c>
       <c r="C156" t="s">
         <v>400</v>
       </c>
-      <c r="D156" s="6" t="s">
+      <c r="D156" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E156" t="s">
         <v>168</v>
       </c>
       <c r="F156" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G156" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H156" t="s">
         <v>240</v>
       </c>
-      <c r="I156" t="s">
+      <c r="J156" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>363</v>
       </c>
       <c r="C157" t="s">
         <v>400</v>
       </c>
-      <c r="D157" s="6" t="s">
+      <c r="D157" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E157" t="s">
         <v>168</v>
       </c>
       <c r="F157" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G157" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H157" t="s">
         <v>236</v>
       </c>
-      <c r="I157" t="s">
+      <c r="J157" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>364</v>
       </c>
       <c r="C158" t="s">
         <v>400</v>
       </c>
-      <c r="D158" s="6" t="s">
+      <c r="D158" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E158" t="s">
         <v>168</v>
       </c>
       <c r="F158" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G158" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H158" t="s">
         <v>246</v>
       </c>
-      <c r="I158" t="s">
+      <c r="J158" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>365</v>
       </c>
       <c r="C159" t="s">
         <v>400</v>
       </c>
-      <c r="D159" s="6" t="s">
+      <c r="D159" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E159" t="s">
         <v>168</v>
       </c>
       <c r="F159" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G159" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H159" t="s">
         <v>354</v>
       </c>
-      <c r="I159" t="s">
+      <c r="J159" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>366</v>
       </c>
       <c r="C160" t="s">
         <v>400</v>
       </c>
-      <c r="D160" s="6" t="s">
+      <c r="D160" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E160" t="s">
         <v>168</v>
       </c>
       <c r="F160" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G160" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H160" t="s">
         <v>355</v>
       </c>
-      <c r="I160" t="s">
+      <c r="J160" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>367</v>
       </c>
       <c r="C161" t="s">
         <v>400</v>
       </c>
-      <c r="D161" s="6" t="s">
+      <c r="D161" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E161" t="s">
         <v>168</v>
       </c>
       <c r="F161" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G161" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H161" t="s">
         <v>241</v>
       </c>
-      <c r="I161" t="s">
+      <c r="J161" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>368</v>
       </c>
       <c r="C162" t="s">
         <v>400</v>
       </c>
-      <c r="D162" s="6" t="s">
+      <c r="D162" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E162" t="s">
         <v>168</v>
       </c>
       <c r="F162" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G162" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H162" t="s">
         <v>242</v>
       </c>
-      <c r="I162" t="s">
+      <c r="J162" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>369</v>
       </c>
       <c r="C163" t="s">
         <v>400</v>
       </c>
-      <c r="D163" s="6" t="s">
+      <c r="D163" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E163" t="s">
         <v>168</v>
       </c>
       <c r="F163" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G163" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H163" t="s">
         <v>356</v>
       </c>
-      <c r="I163" t="s">
+      <c r="J163" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>370</v>
       </c>
       <c r="C164" t="s">
         <v>400</v>
       </c>
-      <c r="D164" s="6" t="s">
+      <c r="D164" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E164" t="s">
         <v>168</v>
       </c>
       <c r="F164" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G164" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H164" t="s">
         <v>243</v>
       </c>
-      <c r="I164" t="s">
+      <c r="J164" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>371</v>
       </c>
       <c r="C165" t="s">
         <v>400</v>
       </c>
-      <c r="D165" s="6" t="s">
+      <c r="D165" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E165" t="s">
         <v>168</v>
       </c>
       <c r="F165" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G165" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H165" t="s">
         <v>357</v>
       </c>
-      <c r="I165" t="s">
+      <c r="J165" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>372</v>
       </c>
       <c r="C166" t="s">
         <v>400</v>
       </c>
-      <c r="D166" s="6" t="s">
+      <c r="D166" s="7" t="s">
         <v>447</v>
       </c>
       <c r="E166" t="s">
         <v>168</v>
       </c>
       <c r="F166" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G166" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="H166" t="s">
         <v>358</v>
       </c>
-      <c r="I166" t="s">
+      <c r="J166" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" s="1"/>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A184" s="1"/>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A198" s="1"/>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H214" s="5"/>
-      <c r="J214" s="5"/>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A217" s="1"/>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A227" s="1"/>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B167" t="s">
+        <v>343</v>
+      </c>
+      <c r="C167" t="s">
+        <v>405</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E167" t="s">
+        <v>168</v>
+      </c>
+      <c r="F167" t="s">
+        <v>453</v>
+      </c>
+      <c r="G167" t="s">
+        <v>456</v>
+      </c>
+      <c r="H167" t="s">
+        <v>451</v>
+      </c>
+      <c r="I167" t="s">
+        <v>465</v>
+      </c>
+      <c r="J167" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B168" t="s">
+        <v>339</v>
+      </c>
+      <c r="C168" t="s">
+        <v>405</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E168" t="s">
+        <v>168</v>
+      </c>
+      <c r="F168" t="s">
+        <v>453</v>
+      </c>
+      <c r="G168" t="s">
+        <v>456</v>
+      </c>
+      <c r="H168" t="s">
+        <v>450</v>
+      </c>
+      <c r="I168" t="s">
+        <v>465</v>
+      </c>
+      <c r="J168" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B169" t="s">
+        <v>344</v>
+      </c>
+      <c r="C169" t="s">
+        <v>405</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E169" t="s">
+        <v>168</v>
+      </c>
+      <c r="F169" t="s">
+        <v>453</v>
+      </c>
+      <c r="G169" t="s">
+        <v>456</v>
+      </c>
+      <c r="H169" t="s">
+        <v>451</v>
+      </c>
+      <c r="I169" t="s">
+        <v>465</v>
+      </c>
+      <c r="J169" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B170" t="s">
+        <v>340</v>
+      </c>
+      <c r="C170" t="s">
+        <v>405</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E170" t="s">
+        <v>168</v>
+      </c>
+      <c r="F170" t="s">
+        <v>453</v>
+      </c>
+      <c r="G170" t="s">
+        <v>456</v>
+      </c>
+      <c r="H170" t="s">
+        <v>450</v>
+      </c>
+      <c r="I170" t="s">
+        <v>465</v>
+      </c>
+      <c r="J170" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B171" t="s">
+        <v>342</v>
+      </c>
+      <c r="C171" t="s">
+        <v>405</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E171" t="s">
+        <v>168</v>
+      </c>
+      <c r="F171" t="s">
+        <v>453</v>
+      </c>
+      <c r="G171" t="s">
+        <v>456</v>
+      </c>
+      <c r="H171" t="s">
+        <v>451</v>
+      </c>
+      <c r="I171" t="s">
+        <v>465</v>
+      </c>
+      <c r="J171" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B172" t="s">
+        <v>338</v>
+      </c>
+      <c r="C172" t="s">
+        <v>405</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E172" t="s">
+        <v>168</v>
+      </c>
+      <c r="F172" t="s">
+        <v>453</v>
+      </c>
+      <c r="G172" t="s">
+        <v>456</v>
+      </c>
+      <c r="H172" t="s">
+        <v>450</v>
+      </c>
+      <c r="I172" t="s">
+        <v>465</v>
+      </c>
+      <c r="J172" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B173" t="s">
+        <v>337</v>
+      </c>
+      <c r="C173" t="s">
+        <v>405</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E173" t="s">
+        <v>168</v>
+      </c>
+      <c r="F173" t="s">
+        <v>453</v>
+      </c>
+      <c r="G173" t="s">
+        <v>456</v>
+      </c>
+      <c r="H173" t="s">
+        <v>450</v>
+      </c>
+      <c r="I173" t="s">
+        <v>465</v>
+      </c>
+      <c r="J173" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B174" t="s">
+        <v>341</v>
+      </c>
+      <c r="C174" t="s">
+        <v>405</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E174" t="s">
+        <v>168</v>
+      </c>
+      <c r="F174" t="s">
+        <v>453</v>
+      </c>
+      <c r="G174" t="s">
+        <v>456</v>
+      </c>
+      <c r="H174" t="s">
+        <v>451</v>
+      </c>
+      <c r="I174" t="s">
+        <v>465</v>
+      </c>
+      <c r="J174" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B175" t="s">
+        <v>435</v>
+      </c>
+      <c r="C175" t="s">
+        <v>448</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="E175" t="s">
+        <v>168</v>
+      </c>
+      <c r="F175" t="s">
+        <v>452</v>
+      </c>
+      <c r="G175" t="s">
+        <v>456</v>
+      </c>
+      <c r="H175" t="s">
+        <v>441</v>
+      </c>
+      <c r="I175" t="s">
+        <v>461</v>
+      </c>
+      <c r="J175" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B176" t="s">
+        <v>437</v>
+      </c>
+      <c r="C176" t="s">
+        <v>448</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="E176" t="s">
+        <v>168</v>
+      </c>
+      <c r="F176" t="s">
+        <v>452</v>
+      </c>
+      <c r="G176" t="s">
+        <v>456</v>
+      </c>
+      <c r="H176" t="s">
+        <v>443</v>
+      </c>
+      <c r="I176" t="s">
+        <v>461</v>
+      </c>
+      <c r="J176" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B177" t="s">
+        <v>439</v>
+      </c>
+      <c r="C177" t="s">
+        <v>448</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="E177" t="s">
+        <v>168</v>
+      </c>
+      <c r="F177" t="s">
+        <v>452</v>
+      </c>
+      <c r="G177" t="s">
+        <v>456</v>
+      </c>
+      <c r="H177" t="s">
+        <v>445</v>
+      </c>
+      <c r="I177" t="s">
+        <v>461</v>
+      </c>
+      <c r="J177" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B178" t="s">
+        <v>422</v>
+      </c>
+      <c r="C178" t="s">
+        <v>448</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="E178" t="s">
+        <v>168</v>
+      </c>
+      <c r="F178" t="s">
+        <v>452</v>
+      </c>
+      <c r="G178" t="s">
+        <v>456</v>
+      </c>
+      <c r="H178" t="s">
+        <v>428</v>
+      </c>
+      <c r="I178" t="s">
+        <v>461</v>
+      </c>
+      <c r="J178" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B179" t="s">
+        <v>424</v>
+      </c>
+      <c r="C179" t="s">
+        <v>448</v>
+      </c>
+      <c r="D179" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="E179" t="s">
+        <v>168</v>
+      </c>
+      <c r="F179" t="s">
+        <v>452</v>
+      </c>
+      <c r="G179" t="s">
+        <v>456</v>
+      </c>
+      <c r="H179" t="s">
+        <v>430</v>
+      </c>
+      <c r="I179" t="s">
+        <v>461</v>
+      </c>
+      <c r="J179" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B180" t="s">
+        <v>426</v>
+      </c>
+      <c r="C180" t="s">
+        <v>448</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="E180" t="s">
+        <v>168</v>
+      </c>
+      <c r="F180" t="s">
+        <v>452</v>
+      </c>
+      <c r="G180" t="s">
+        <v>456</v>
+      </c>
+      <c r="H180" t="s">
+        <v>432</v>
+      </c>
+      <c r="I180" t="s">
+        <v>461</v>
+      </c>
+      <c r="J180" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B181" t="s">
+        <v>436</v>
+      </c>
+      <c r="C181" t="s">
+        <v>448</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="E181" t="s">
+        <v>168</v>
+      </c>
+      <c r="F181" t="s">
+        <v>452</v>
+      </c>
+      <c r="G181" t="s">
+        <v>456</v>
+      </c>
+      <c r="H181" t="s">
+        <v>442</v>
+      </c>
+      <c r="I181" t="s">
+        <v>462</v>
+      </c>
+      <c r="J181" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B182" t="s">
+        <v>438</v>
+      </c>
+      <c r="C182" t="s">
+        <v>448</v>
+      </c>
+      <c r="D182" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="E182" t="s">
+        <v>168</v>
+      </c>
+      <c r="F182" t="s">
+        <v>452</v>
+      </c>
+      <c r="G182" t="s">
+        <v>456</v>
+      </c>
+      <c r="H182" t="s">
+        <v>444</v>
+      </c>
+      <c r="I182" t="s">
+        <v>462</v>
+      </c>
+      <c r="J182" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B183" t="s">
+        <v>440</v>
+      </c>
+      <c r="C183" t="s">
+        <v>448</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="E183" t="s">
+        <v>168</v>
+      </c>
+      <c r="F183" t="s">
+        <v>452</v>
+      </c>
+      <c r="G183" t="s">
+        <v>456</v>
+      </c>
+      <c r="H183" t="s">
+        <v>446</v>
+      </c>
+      <c r="I183" t="s">
+        <v>463</v>
+      </c>
+      <c r="J183" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B184" t="s">
+        <v>423</v>
+      </c>
+      <c r="C184" t="s">
+        <v>448</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="E184" t="s">
+        <v>168</v>
+      </c>
+      <c r="F184" t="s">
+        <v>452</v>
+      </c>
+      <c r="G184" t="s">
+        <v>456</v>
+      </c>
+      <c r="H184" t="s">
+        <v>429</v>
+      </c>
+      <c r="I184" t="s">
+        <v>462</v>
+      </c>
+      <c r="J184" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="185" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B185" t="s">
+        <v>425</v>
+      </c>
+      <c r="C185" t="s">
+        <v>448</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="E185" t="s">
+        <v>168</v>
+      </c>
+      <c r="F185" t="s">
+        <v>452</v>
+      </c>
+      <c r="G185" t="s">
+        <v>456</v>
+      </c>
+      <c r="H185" t="s">
+        <v>431</v>
+      </c>
+      <c r="I185" t="s">
+        <v>462</v>
+      </c>
+      <c r="J185" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="186" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B186" t="s">
+        <v>427</v>
+      </c>
+      <c r="C186" t="s">
+        <v>448</v>
+      </c>
+      <c r="D186" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="E186" t="s">
+        <v>168</v>
+      </c>
+      <c r="F186" t="s">
+        <v>452</v>
+      </c>
+      <c r="G186" t="s">
+        <v>456</v>
+      </c>
+      <c r="H186" t="s">
+        <v>433</v>
+      </c>
+      <c r="I186" t="s">
+        <v>463</v>
+      </c>
+      <c r="J186" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="187" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B187" t="s">
+        <v>350</v>
+      </c>
+      <c r="C187" t="s">
+        <v>215</v>
+      </c>
+      <c r="D187" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E187" t="s">
+        <v>168</v>
+      </c>
+      <c r="F187" t="s">
+        <v>453</v>
+      </c>
+      <c r="G187" t="s">
+        <v>456</v>
+      </c>
+      <c r="H187" t="s">
+        <v>346</v>
+      </c>
+      <c r="I187" t="s">
+        <v>460</v>
+      </c>
+      <c r="J187" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="188" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B188" t="s">
+        <v>351</v>
+      </c>
+      <c r="C188" t="s">
+        <v>215</v>
+      </c>
+      <c r="D188" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E188" t="s">
+        <v>168</v>
+      </c>
+      <c r="F188" t="s">
+        <v>453</v>
+      </c>
+      <c r="G188" t="s">
+        <v>456</v>
+      </c>
+      <c r="H188" t="s">
+        <v>347</v>
+      </c>
+      <c r="I188" t="s">
+        <v>460</v>
+      </c>
+      <c r="J188" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="189" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B189" t="s">
+        <v>352</v>
+      </c>
+      <c r="C189" t="s">
+        <v>215</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E189" t="s">
+        <v>168</v>
+      </c>
+      <c r="F189" t="s">
+        <v>453</v>
+      </c>
+      <c r="G189" t="s">
+        <v>456</v>
+      </c>
+      <c r="H189" t="s">
+        <v>348</v>
+      </c>
+      <c r="I189" t="s">
+        <v>460</v>
+      </c>
+      <c r="J189" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="190" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B190" t="s">
+        <v>353</v>
+      </c>
+      <c r="C190" t="s">
+        <v>215</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E190" t="s">
+        <v>168</v>
+      </c>
+      <c r="F190" t="s">
+        <v>453</v>
+      </c>
+      <c r="G190" t="s">
+        <v>456</v>
+      </c>
+      <c r="H190" t="s">
+        <v>349</v>
+      </c>
+      <c r="I190" t="s">
+        <v>460</v>
+      </c>
+      <c r="J190" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="191" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B191" t="s">
+        <v>299</v>
+      </c>
+      <c r="C191" t="s">
+        <v>413</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E191" t="s">
+        <v>169</v>
+      </c>
+      <c r="F191" t="s">
+        <v>453</v>
+      </c>
+      <c r="G191" t="s">
+        <v>456</v>
+      </c>
+      <c r="H191" t="s">
+        <v>282</v>
+      </c>
+      <c r="I191" t="s">
+        <v>464</v>
+      </c>
+      <c r="J191" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="192" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B192" t="s">
+        <v>305</v>
+      </c>
+      <c r="C192" t="s">
+        <v>413</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E192" t="s">
+        <v>169</v>
+      </c>
+      <c r="F192" t="s">
+        <v>453</v>
+      </c>
+      <c r="G192" t="s">
+        <v>456</v>
+      </c>
+      <c r="H192" t="s">
+        <v>288</v>
+      </c>
+      <c r="I192" t="s">
+        <v>464</v>
+      </c>
+      <c r="J192" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B193" t="s">
+        <v>297</v>
+      </c>
+      <c r="C193" t="s">
+        <v>413</v>
+      </c>
+      <c r="D193" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E193" t="s">
+        <v>169</v>
+      </c>
+      <c r="F193" t="s">
+        <v>453</v>
+      </c>
+      <c r="G193" t="s">
+        <v>456</v>
+      </c>
+      <c r="H193" t="s">
+        <v>280</v>
+      </c>
+      <c r="I193" t="s">
+        <v>464</v>
+      </c>
+      <c r="J193" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B194" t="s">
+        <v>301</v>
+      </c>
+      <c r="C194" t="s">
+        <v>413</v>
+      </c>
+      <c r="D194" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E194" t="s">
+        <v>169</v>
+      </c>
+      <c r="F194" t="s">
+        <v>453</v>
+      </c>
+      <c r="G194" t="s">
+        <v>456</v>
+      </c>
+      <c r="H194" t="s">
+        <v>284</v>
+      </c>
+      <c r="I194" t="s">
+        <v>464</v>
+      </c>
+      <c r="J194" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B195" t="s">
+        <v>291</v>
+      </c>
+      <c r="C195" t="s">
+        <v>413</v>
+      </c>
+      <c r="D195" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E195" t="s">
+        <v>169</v>
+      </c>
+      <c r="F195" t="s">
+        <v>453</v>
+      </c>
+      <c r="G195" t="s">
+        <v>456</v>
+      </c>
+      <c r="H195" t="s">
+        <v>274</v>
+      </c>
+      <c r="I195" t="s">
+        <v>464</v>
+      </c>
+      <c r="J195" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B196" t="s">
+        <v>303</v>
+      </c>
+      <c r="C196" t="s">
+        <v>413</v>
+      </c>
+      <c r="D196" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E196" t="s">
+        <v>169</v>
+      </c>
+      <c r="F196" t="s">
+        <v>453</v>
+      </c>
+      <c r="G196" t="s">
+        <v>456</v>
+      </c>
+      <c r="H196" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="I196" t="s">
+        <v>464</v>
+      </c>
+      <c r="J196" t="s">
+        <v>392</v>
+      </c>
+      <c r="K196" s="5"/>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B197" t="s">
+        <v>293</v>
+      </c>
+      <c r="C197" t="s">
+        <v>413</v>
+      </c>
+      <c r="D197" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E197" t="s">
+        <v>169</v>
+      </c>
+      <c r="F197" t="s">
+        <v>453</v>
+      </c>
+      <c r="G197" t="s">
+        <v>456</v>
+      </c>
+      <c r="H197" t="s">
+        <v>276</v>
+      </c>
+      <c r="I197" t="s">
+        <v>464</v>
+      </c>
+      <c r="J197" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B198" t="s">
+        <v>295</v>
+      </c>
+      <c r="C198" t="s">
+        <v>413</v>
+      </c>
+      <c r="D198" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E198" t="s">
+        <v>169</v>
+      </c>
+      <c r="F198" t="s">
+        <v>453</v>
+      </c>
+      <c r="G198" t="s">
+        <v>456</v>
+      </c>
+      <c r="H198" t="s">
+        <v>278</v>
+      </c>
+      <c r="I198" t="s">
+        <v>464</v>
+      </c>
+      <c r="J198" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B199" t="s">
+        <v>298</v>
+      </c>
+      <c r="C199" t="s">
+        <v>413</v>
+      </c>
+      <c r="D199" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E199" t="s">
+        <v>169</v>
+      </c>
+      <c r="F199" t="s">
+        <v>453</v>
+      </c>
+      <c r="G199" t="s">
+        <v>456</v>
+      </c>
+      <c r="H199" t="s">
+        <v>281</v>
+      </c>
+      <c r="I199" t="s">
+        <v>464</v>
+      </c>
+      <c r="J199" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B200" t="s">
+        <v>300</v>
+      </c>
+      <c r="C200" t="s">
+        <v>413</v>
+      </c>
+      <c r="D200" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E200" t="s">
+        <v>169</v>
+      </c>
+      <c r="F200" t="s">
+        <v>453</v>
+      </c>
+      <c r="G200" t="s">
+        <v>456</v>
+      </c>
+      <c r="H200" t="s">
+        <v>283</v>
+      </c>
+      <c r="I200" t="s">
+        <v>464</v>
+      </c>
+      <c r="J200" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B201" t="s">
+        <v>289</v>
+      </c>
+      <c r="C201" t="s">
+        <v>413</v>
+      </c>
+      <c r="D201" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E201" t="s">
+        <v>169</v>
+      </c>
+      <c r="F201" t="s">
+        <v>453</v>
+      </c>
+      <c r="G201" t="s">
+        <v>456</v>
+      </c>
+      <c r="H201" t="s">
+        <v>272</v>
+      </c>
+      <c r="I201" t="s">
+        <v>464</v>
+      </c>
+      <c r="J201" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B202" t="s">
+        <v>290</v>
+      </c>
+      <c r="C202" t="s">
+        <v>413</v>
+      </c>
+      <c r="D202" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E202" t="s">
+        <v>169</v>
+      </c>
+      <c r="F202" t="s">
+        <v>453</v>
+      </c>
+      <c r="G202" t="s">
+        <v>456</v>
+      </c>
+      <c r="H202" t="s">
+        <v>273</v>
+      </c>
+      <c r="I202" t="s">
+        <v>464</v>
+      </c>
+      <c r="J202" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B203" t="s">
+        <v>302</v>
+      </c>
+      <c r="C203" t="s">
+        <v>413</v>
+      </c>
+      <c r="D203" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E203" t="s">
+        <v>169</v>
+      </c>
+      <c r="F203" t="s">
+        <v>453</v>
+      </c>
+      <c r="G203" t="s">
+        <v>456</v>
+      </c>
+      <c r="H203" t="s">
+        <v>285</v>
+      </c>
+      <c r="I203" t="s">
+        <v>464</v>
+      </c>
+      <c r="J203" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B204" t="s">
+        <v>292</v>
+      </c>
+      <c r="C204" t="s">
+        <v>413</v>
+      </c>
+      <c r="D204" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E204" t="s">
+        <v>169</v>
+      </c>
+      <c r="F204" t="s">
+        <v>453</v>
+      </c>
+      <c r="G204" t="s">
+        <v>456</v>
+      </c>
+      <c r="H204" t="s">
+        <v>275</v>
+      </c>
+      <c r="I204" t="s">
+        <v>464</v>
+      </c>
+      <c r="J204" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B205" t="s">
+        <v>294</v>
+      </c>
+      <c r="C205" t="s">
+        <v>413</v>
+      </c>
+      <c r="D205" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E205" t="s">
+        <v>169</v>
+      </c>
+      <c r="F205" t="s">
+        <v>453</v>
+      </c>
+      <c r="G205" t="s">
+        <v>456</v>
+      </c>
+      <c r="H205" t="s">
+        <v>277</v>
+      </c>
+      <c r="I205" t="s">
+        <v>464</v>
+      </c>
+      <c r="J205" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B206" t="s">
+        <v>296</v>
+      </c>
+      <c r="C206" t="s">
+        <v>413</v>
+      </c>
+      <c r="D206" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E206" t="s">
+        <v>169</v>
+      </c>
+      <c r="F206" t="s">
+        <v>453</v>
+      </c>
+      <c r="G206" t="s">
+        <v>456</v>
+      </c>
+      <c r="H206" t="s">
+        <v>279</v>
+      </c>
+      <c r="I206" t="s">
+        <v>464</v>
+      </c>
+      <c r="J206" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B207" t="s">
+        <v>304</v>
+      </c>
+      <c r="C207" t="s">
+        <v>413</v>
+      </c>
+      <c r="D207" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E207" t="s">
+        <v>169</v>
+      </c>
+      <c r="F207" t="s">
+        <v>453</v>
+      </c>
+      <c r="G207" t="s">
+        <v>456</v>
+      </c>
+      <c r="H207" t="s">
+        <v>287</v>
+      </c>
+      <c r="I207" t="s">
+        <v>464</v>
+      </c>
+      <c r="J207" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>55</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D208" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E208" t="s">
+        <v>168</v>
+      </c>
+      <c r="F208" t="s">
+        <v>453</v>
+      </c>
+      <c r="G208" t="s">
+        <v>456</v>
+      </c>
+      <c r="H208" t="s">
+        <v>166</v>
+      </c>
+      <c r="I208" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="J208" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>56</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D209" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E209" t="s">
+        <v>168</v>
+      </c>
+      <c r="F209" t="s">
+        <v>453</v>
+      </c>
+      <c r="G209" t="s">
+        <v>456</v>
+      </c>
+      <c r="H209" t="s">
+        <v>166</v>
+      </c>
+      <c r="I209" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="J209" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B210" s="3"/>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A216" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I227">
-    <sortCondition ref="B1:B227"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J216">
+    <sortCondition ref="B1:B216"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="D1:D166 D212:D1048576 D208:D209">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"NSC"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C91914E-3409-184C-AC43-CBCE957AC7EF}">
-  <dimension ref="A1:J56"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G58" sqref="G58"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F2" t="s">
-        <v>460</v>
-      </c>
-      <c r="G2" t="s">
-        <v>466</v>
-      </c>
-      <c r="H2" t="s">
-        <v>346</v>
-      </c>
-      <c r="I2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>351</v>
-      </c>
-      <c r="C3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F3" t="s">
-        <v>460</v>
-      </c>
-      <c r="G3" t="s">
-        <v>466</v>
-      </c>
-      <c r="H3" t="s">
-        <v>347</v>
-      </c>
-      <c r="I3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>352</v>
-      </c>
-      <c r="C4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F4" t="s">
-        <v>460</v>
-      </c>
-      <c r="G4" t="s">
-        <v>466</v>
-      </c>
-      <c r="H4" t="s">
-        <v>348</v>
-      </c>
-      <c r="I4" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>353</v>
-      </c>
-      <c r="C5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F5" t="s">
-        <v>460</v>
-      </c>
-      <c r="G5" t="s">
-        <v>466</v>
-      </c>
-      <c r="H5" t="s">
-        <v>349</v>
-      </c>
-      <c r="I5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>422</v>
-      </c>
-      <c r="C8" t="s">
-        <v>448</v>
-      </c>
-      <c r="D8" t="s">
-        <v>447</v>
-      </c>
-      <c r="E8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F8" t="s">
-        <v>459</v>
-      </c>
-      <c r="G8" t="s">
-        <v>466</v>
-      </c>
-      <c r="H8" t="s">
-        <v>428</v>
-      </c>
-      <c r="I8" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>423</v>
-      </c>
-      <c r="C9" t="s">
-        <v>448</v>
-      </c>
-      <c r="D9" t="s">
-        <v>447</v>
-      </c>
-      <c r="E9" t="s">
-        <v>168</v>
-      </c>
-      <c r="F9" t="s">
-        <v>459</v>
-      </c>
-      <c r="G9" t="s">
-        <v>466</v>
-      </c>
-      <c r="H9" t="s">
-        <v>429</v>
-      </c>
-      <c r="I9" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>424</v>
-      </c>
-      <c r="C10" t="s">
-        <v>448</v>
-      </c>
-      <c r="D10" t="s">
-        <v>447</v>
-      </c>
-      <c r="E10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F10" t="s">
-        <v>459</v>
-      </c>
-      <c r="G10" t="s">
-        <v>466</v>
-      </c>
-      <c r="H10" t="s">
-        <v>430</v>
-      </c>
-      <c r="I10" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>425</v>
-      </c>
-      <c r="C11" t="s">
-        <v>448</v>
-      </c>
-      <c r="D11" t="s">
-        <v>447</v>
-      </c>
-      <c r="E11" t="s">
-        <v>168</v>
-      </c>
-      <c r="F11" t="s">
-        <v>459</v>
-      </c>
-      <c r="G11" t="s">
-        <v>466</v>
-      </c>
-      <c r="H11" t="s">
-        <v>431</v>
-      </c>
-      <c r="I11" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>426</v>
-      </c>
-      <c r="C12" t="s">
-        <v>448</v>
-      </c>
-      <c r="D12" t="s">
-        <v>447</v>
-      </c>
-      <c r="E12" t="s">
-        <v>168</v>
-      </c>
-      <c r="F12" t="s">
-        <v>459</v>
-      </c>
-      <c r="G12" t="s">
-        <v>466</v>
-      </c>
-      <c r="H12" t="s">
-        <v>432</v>
-      </c>
-      <c r="I12" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>427</v>
-      </c>
-      <c r="C13" t="s">
-        <v>448</v>
-      </c>
-      <c r="D13" t="s">
-        <v>447</v>
-      </c>
-      <c r="E13" t="s">
-        <v>168</v>
-      </c>
-      <c r="F13" t="s">
-        <v>459</v>
-      </c>
-      <c r="G13" t="s">
-        <v>466</v>
-      </c>
-      <c r="H13" t="s">
-        <v>433</v>
-      </c>
-      <c r="I13" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>435</v>
-      </c>
-      <c r="C14" t="s">
-        <v>448</v>
-      </c>
-      <c r="D14" t="s">
-        <v>447</v>
-      </c>
-      <c r="E14" t="s">
-        <v>168</v>
-      </c>
-      <c r="F14" t="s">
-        <v>459</v>
-      </c>
-      <c r="G14" t="s">
-        <v>466</v>
-      </c>
-      <c r="H14" t="s">
-        <v>441</v>
-      </c>
-      <c r="I14" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>436</v>
-      </c>
-      <c r="C15" t="s">
-        <v>448</v>
-      </c>
-      <c r="D15" t="s">
-        <v>447</v>
-      </c>
-      <c r="E15" t="s">
-        <v>168</v>
-      </c>
-      <c r="F15" t="s">
-        <v>459</v>
-      </c>
-      <c r="G15" t="s">
-        <v>466</v>
-      </c>
-      <c r="H15" t="s">
-        <v>442</v>
-      </c>
-      <c r="I15" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>437</v>
-      </c>
-      <c r="C16" t="s">
-        <v>448</v>
-      </c>
-      <c r="D16" t="s">
-        <v>447</v>
-      </c>
-      <c r="E16" t="s">
-        <v>168</v>
-      </c>
-      <c r="F16" t="s">
-        <v>459</v>
-      </c>
-      <c r="G16" t="s">
-        <v>466</v>
-      </c>
-      <c r="H16" t="s">
-        <v>443</v>
-      </c>
-      <c r="I16" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>438</v>
-      </c>
-      <c r="C17" t="s">
-        <v>448</v>
-      </c>
-      <c r="D17" t="s">
-        <v>447</v>
-      </c>
-      <c r="E17" t="s">
-        <v>168</v>
-      </c>
-      <c r="F17" t="s">
-        <v>459</v>
-      </c>
-      <c r="G17" t="s">
-        <v>466</v>
-      </c>
-      <c r="H17" t="s">
-        <v>444</v>
-      </c>
-      <c r="I17" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>439</v>
-      </c>
-      <c r="C18" t="s">
-        <v>448</v>
-      </c>
-      <c r="D18" t="s">
-        <v>447</v>
-      </c>
-      <c r="E18" t="s">
-        <v>168</v>
-      </c>
-      <c r="F18" t="s">
-        <v>459</v>
-      </c>
-      <c r="G18" t="s">
-        <v>466</v>
-      </c>
-      <c r="H18" t="s">
-        <v>445</v>
-      </c>
-      <c r="I18" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>440</v>
-      </c>
-      <c r="C19" t="s">
-        <v>448</v>
-      </c>
-      <c r="D19" t="s">
-        <v>447</v>
-      </c>
-      <c r="E19" t="s">
-        <v>168</v>
-      </c>
-      <c r="F19" t="s">
-        <v>459</v>
-      </c>
-      <c r="G19" t="s">
-        <v>466</v>
-      </c>
-      <c r="H19" t="s">
-        <v>446</v>
-      </c>
-      <c r="I19" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="6" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="6" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>289</v>
-      </c>
-      <c r="C24" t="s">
-        <v>413</v>
-      </c>
-      <c r="D24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" t="s">
-        <v>169</v>
-      </c>
-      <c r="F24" t="s">
-        <v>460</v>
-      </c>
-      <c r="G24" t="s">
-        <v>466</v>
-      </c>
-      <c r="H24" t="s">
-        <v>272</v>
-      </c>
-      <c r="I24" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>290</v>
-      </c>
-      <c r="C25" t="s">
-        <v>413</v>
-      </c>
-      <c r="D25" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" t="s">
-        <v>169</v>
-      </c>
-      <c r="F25" t="s">
-        <v>460</v>
-      </c>
-      <c r="G25" t="s">
-        <v>466</v>
-      </c>
-      <c r="H25" t="s">
-        <v>273</v>
-      </c>
-      <c r="I25" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>291</v>
-      </c>
-      <c r="C26" t="s">
-        <v>413</v>
-      </c>
-      <c r="D26" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" t="s">
-        <v>169</v>
-      </c>
-      <c r="F26" t="s">
-        <v>460</v>
-      </c>
-      <c r="G26" t="s">
-        <v>466</v>
-      </c>
-      <c r="H26" t="s">
-        <v>274</v>
-      </c>
-      <c r="I26" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>292</v>
-      </c>
-      <c r="C27" t="s">
-        <v>413</v>
-      </c>
-      <c r="D27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E27" t="s">
-        <v>169</v>
-      </c>
-      <c r="F27" t="s">
-        <v>460</v>
-      </c>
-      <c r="G27" t="s">
-        <v>466</v>
-      </c>
-      <c r="H27" t="s">
-        <v>275</v>
-      </c>
-      <c r="I27" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>293</v>
-      </c>
-      <c r="C28" t="s">
-        <v>413</v>
-      </c>
-      <c r="D28" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" t="s">
-        <v>169</v>
-      </c>
-      <c r="F28" t="s">
-        <v>460</v>
-      </c>
-      <c r="G28" t="s">
-        <v>466</v>
-      </c>
-      <c r="H28" t="s">
-        <v>276</v>
-      </c>
-      <c r="I28" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>294</v>
-      </c>
-      <c r="C29" t="s">
-        <v>413</v>
-      </c>
-      <c r="D29" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" t="s">
-        <v>169</v>
-      </c>
-      <c r="F29" t="s">
-        <v>460</v>
-      </c>
-      <c r="G29" t="s">
-        <v>466</v>
-      </c>
-      <c r="H29" t="s">
-        <v>277</v>
-      </c>
-      <c r="I29" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>295</v>
-      </c>
-      <c r="C30" t="s">
-        <v>413</v>
-      </c>
-      <c r="D30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E30" t="s">
-        <v>169</v>
-      </c>
-      <c r="F30" t="s">
-        <v>460</v>
-      </c>
-      <c r="G30" t="s">
-        <v>466</v>
-      </c>
-      <c r="H30" t="s">
-        <v>278</v>
-      </c>
-      <c r="I30" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>296</v>
-      </c>
-      <c r="C31" t="s">
-        <v>413</v>
-      </c>
-      <c r="D31" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31" t="s">
-        <v>169</v>
-      </c>
-      <c r="F31" t="s">
-        <v>460</v>
-      </c>
-      <c r="G31" t="s">
-        <v>466</v>
-      </c>
-      <c r="H31" t="s">
-        <v>279</v>
-      </c>
-      <c r="I31" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>297</v>
-      </c>
-      <c r="C32" t="s">
-        <v>413</v>
-      </c>
-      <c r="D32" t="s">
-        <v>102</v>
-      </c>
-      <c r="E32" t="s">
-        <v>169</v>
-      </c>
-      <c r="F32" t="s">
-        <v>460</v>
-      </c>
-      <c r="G32" t="s">
-        <v>466</v>
-      </c>
-      <c r="H32" t="s">
-        <v>280</v>
-      </c>
-      <c r="I32" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>298</v>
-      </c>
-      <c r="C33" t="s">
-        <v>413</v>
-      </c>
-      <c r="D33" t="s">
-        <v>102</v>
-      </c>
-      <c r="E33" t="s">
-        <v>169</v>
-      </c>
-      <c r="F33" t="s">
-        <v>460</v>
-      </c>
-      <c r="G33" t="s">
-        <v>466</v>
-      </c>
-      <c r="H33" t="s">
-        <v>281</v>
-      </c>
-      <c r="I33" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>299</v>
-      </c>
-      <c r="C34" t="s">
-        <v>413</v>
-      </c>
-      <c r="D34" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" t="s">
-        <v>169</v>
-      </c>
-      <c r="F34" t="s">
-        <v>460</v>
-      </c>
-      <c r="G34" t="s">
-        <v>466</v>
-      </c>
-      <c r="H34" t="s">
-        <v>282</v>
-      </c>
-      <c r="I34" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>300</v>
-      </c>
-      <c r="C35" t="s">
-        <v>413</v>
-      </c>
-      <c r="D35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E35" t="s">
-        <v>169</v>
-      </c>
-      <c r="F35" t="s">
-        <v>460</v>
-      </c>
-      <c r="G35" t="s">
-        <v>466</v>
-      </c>
-      <c r="H35" t="s">
-        <v>283</v>
-      </c>
-      <c r="I35" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>301</v>
-      </c>
-      <c r="C36" t="s">
-        <v>413</v>
-      </c>
-      <c r="D36" t="s">
-        <v>102</v>
-      </c>
-      <c r="E36" t="s">
-        <v>169</v>
-      </c>
-      <c r="F36" t="s">
-        <v>460</v>
-      </c>
-      <c r="G36" t="s">
-        <v>466</v>
-      </c>
-      <c r="H36" t="s">
-        <v>284</v>
-      </c>
-      <c r="I36" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>302</v>
-      </c>
-      <c r="C37" t="s">
-        <v>413</v>
-      </c>
-      <c r="D37" t="s">
-        <v>102</v>
-      </c>
-      <c r="E37" t="s">
-        <v>169</v>
-      </c>
-      <c r="F37" t="s">
-        <v>460</v>
-      </c>
-      <c r="G37" t="s">
-        <v>466</v>
-      </c>
-      <c r="H37" t="s">
-        <v>285</v>
-      </c>
-      <c r="I37" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>303</v>
-      </c>
-      <c r="C38" t="s">
-        <v>413</v>
-      </c>
-      <c r="D38" t="s">
-        <v>102</v>
-      </c>
-      <c r="E38" t="s">
-        <v>169</v>
-      </c>
-      <c r="F38" t="s">
-        <v>460</v>
-      </c>
-      <c r="G38" t="s">
-        <v>466</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="I38" t="s">
-        <v>392</v>
-      </c>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>304</v>
-      </c>
-      <c r="C39" t="s">
-        <v>413</v>
-      </c>
-      <c r="D39" t="s">
-        <v>102</v>
-      </c>
-      <c r="E39" t="s">
-        <v>169</v>
-      </c>
-      <c r="F39" t="s">
-        <v>460</v>
-      </c>
-      <c r="G39" t="s">
-        <v>466</v>
-      </c>
-      <c r="H39" t="s">
-        <v>287</v>
-      </c>
-      <c r="I39" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>305</v>
-      </c>
-      <c r="C40" t="s">
-        <v>413</v>
-      </c>
-      <c r="D40" t="s">
-        <v>102</v>
-      </c>
-      <c r="E40" t="s">
-        <v>169</v>
-      </c>
-      <c r="F40" t="s">
-        <v>460</v>
-      </c>
-      <c r="G40" t="s">
-        <v>466</v>
-      </c>
-      <c r="H40" t="s">
-        <v>288</v>
-      </c>
-      <c r="I40" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>337</v>
-      </c>
-      <c r="C43" t="s">
-        <v>405</v>
-      </c>
-      <c r="D43" t="s">
-        <v>102</v>
-      </c>
-      <c r="E43" t="s">
-        <v>168</v>
-      </c>
-      <c r="F43" t="s">
-        <v>460</v>
-      </c>
-      <c r="G43" t="s">
-        <v>466</v>
-      </c>
-      <c r="H43" t="s">
-        <v>453</v>
-      </c>
-      <c r="I43" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>338</v>
-      </c>
-      <c r="C44" t="s">
-        <v>405</v>
-      </c>
-      <c r="D44" t="s">
-        <v>102</v>
-      </c>
-      <c r="E44" t="s">
-        <v>168</v>
-      </c>
-      <c r="F44" t="s">
-        <v>460</v>
-      </c>
-      <c r="G44" t="s">
-        <v>466</v>
-      </c>
-      <c r="H44" t="s">
-        <v>453</v>
-      </c>
-      <c r="I44" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>339</v>
-      </c>
-      <c r="C45" t="s">
-        <v>405</v>
-      </c>
-      <c r="D45" t="s">
-        <v>102</v>
-      </c>
-      <c r="E45" t="s">
-        <v>168</v>
-      </c>
-      <c r="F45" t="s">
-        <v>460</v>
-      </c>
-      <c r="G45" t="s">
-        <v>466</v>
-      </c>
-      <c r="H45" t="s">
-        <v>453</v>
-      </c>
-      <c r="I45" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>340</v>
-      </c>
-      <c r="C46" t="s">
-        <v>405</v>
-      </c>
-      <c r="D46" t="s">
-        <v>102</v>
-      </c>
-      <c r="E46" t="s">
-        <v>168</v>
-      </c>
-      <c r="F46" t="s">
-        <v>460</v>
-      </c>
-      <c r="G46" t="s">
-        <v>466</v>
-      </c>
-      <c r="H46" t="s">
-        <v>453</v>
-      </c>
-      <c r="I46" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>341</v>
-      </c>
-      <c r="C47" t="s">
-        <v>405</v>
-      </c>
-      <c r="D47" t="s">
-        <v>102</v>
-      </c>
-      <c r="E47" t="s">
-        <v>168</v>
-      </c>
-      <c r="F47" t="s">
-        <v>460</v>
-      </c>
-      <c r="G47" t="s">
-        <v>466</v>
-      </c>
-      <c r="H47" t="s">
-        <v>454</v>
-      </c>
-      <c r="I47" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>342</v>
-      </c>
-      <c r="C48" t="s">
-        <v>405</v>
-      </c>
-      <c r="D48" t="s">
-        <v>102</v>
-      </c>
-      <c r="E48" t="s">
-        <v>168</v>
-      </c>
-      <c r="F48" t="s">
-        <v>460</v>
-      </c>
-      <c r="G48" t="s">
-        <v>466</v>
-      </c>
-      <c r="H48" t="s">
-        <v>454</v>
-      </c>
-      <c r="I48" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>343</v>
-      </c>
-      <c r="C49" t="s">
-        <v>405</v>
-      </c>
-      <c r="D49" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" t="s">
-        <v>168</v>
-      </c>
-      <c r="F49" t="s">
-        <v>460</v>
-      </c>
-      <c r="G49" t="s">
-        <v>466</v>
-      </c>
-      <c r="H49" t="s">
-        <v>454</v>
-      </c>
-      <c r="I49" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>344</v>
-      </c>
-      <c r="C50" t="s">
-        <v>405</v>
-      </c>
-      <c r="D50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E50" t="s">
-        <v>168</v>
-      </c>
-      <c r="F50" t="s">
-        <v>460</v>
-      </c>
-      <c r="G50" t="s">
-        <v>466</v>
-      </c>
-      <c r="H50" t="s">
-        <v>454</v>
-      </c>
-      <c r="I50" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
-      <c r="B51" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D53" t="s">
-        <v>102</v>
-      </c>
-      <c r="E53" t="s">
-        <v>168</v>
-      </c>
-      <c r="F53" t="s">
-        <v>460</v>
-      </c>
-      <c r="G53" t="s">
-        <v>466</v>
-      </c>
-      <c r="H53" t="s">
-        <v>166</v>
-      </c>
-      <c r="I53" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="C54" s="4"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D55" t="s">
-        <v>102</v>
-      </c>
-      <c r="E55" t="s">
-        <v>168</v>
-      </c>
-      <c r="F55" t="s">
-        <v>460</v>
-      </c>
-      <c r="G55" t="s">
-        <v>466</v>
-      </c>
-      <c r="H55" t="s">
-        <v>166</v>
-      </c>
-      <c r="I55" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B56" s="3" t="s">
-        <v>456</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="D53:D55">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"NSC"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/ref.xlsx
+++ b/data/ref.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/Repositories/LCAdata/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E93A53-4D33-1B4C-9063-991C749F6A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480DBCE9-109F-1B41-9F76-41175BF349B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39260" yWindow="4340" windowWidth="28800" windowHeight="15980" xr2:uid="{4F28B243-04AE-1E4D-B411-E86C9FDA2FDF}"/>
+    <workbookView xWindow="39260" yWindow="680" windowWidth="28800" windowHeight="15980" xr2:uid="{4F28B243-04AE-1E4D-B411-E86C9FDA2FDF}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="509">
   <si>
     <t>old file name</t>
   </si>
@@ -215,9 +215,6 @@
     <t>file 56 .csv</t>
   </si>
   <si>
-    <t>file 57 .csv</t>
-  </si>
-  <si>
     <t>file 58 .csv</t>
   </si>
   <si>
@@ -516,9 +513,6 @@
   </si>
   <si>
     <t>male.num.csv</t>
-  </si>
-  <si>
-    <t>male.num.red.csv</t>
   </si>
   <si>
     <t>ovule.num.csv</t>
@@ -2109,9 +2103,6 @@
     <t>bristle size</t>
   </si>
   <si>
-    <t>snout to vent length</t>
-  </si>
-  <si>
     <t>fitness at high density of food</t>
   </si>
   <si>
@@ -2181,9 +2172,6 @@
     <t>difference in days between silking and pollen shedding</t>
   </si>
   <si>
-    <t>eggs laid</t>
-  </si>
-  <si>
     <t>flight time</t>
   </si>
   <si>
@@ -2194,6 +2182,54 @@
   </si>
   <si>
     <t>proportion viable pollen</t>
+  </si>
+  <si>
+    <t>orbit diameter</t>
+  </si>
+  <si>
+    <t>finger 1 length</t>
+  </si>
+  <si>
+    <t>finger 3 length</t>
+  </si>
+  <si>
+    <t>parotid gland length</t>
+  </si>
+  <si>
+    <t>typanum diameter</t>
+  </si>
+  <si>
+    <t>head width</t>
+  </si>
+  <si>
+    <t>head length</t>
+  </si>
+  <si>
+    <t>snout-vent length</t>
+  </si>
+  <si>
+    <t>eye-nostril distance</t>
+  </si>
+  <si>
+    <t>foot length</t>
+  </si>
+  <si>
+    <t>growth rate littoral env vs open env</t>
+  </si>
+  <si>
+    <t>% of eggs laid on mushrooms relative to tomatoes</t>
+  </si>
+  <si>
+    <t>number of females</t>
+  </si>
+  <si>
+    <t>number of days from seeding to pollen shedding</t>
+  </si>
+  <si>
+    <t>number of offspring</t>
+  </si>
+  <si>
+    <t>tibia length</t>
   </si>
 </sst>
 </file>
@@ -2280,7 +2316,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2598,11 +2664,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1137BAE9-F081-9948-9F37-D6A451EE45DA}">
-  <dimension ref="A1:W216"/>
+  <dimension ref="A1:W215"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2626,28 +2692,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>3</v>
@@ -2655,297 +2721,297 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G8" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H8" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" t="s">
+        <v>373</v>
+      </c>
+      <c r="D11" t="s">
+        <v>441</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11" t="s">
+        <v>423</v>
+      </c>
+      <c r="H11" t="s">
+        <v>428</v>
+      </c>
+      <c r="I11" t="s">
         <v>260</v>
       </c>
-      <c r="C11" t="s">
-        <v>375</v>
-      </c>
-      <c r="D11" t="s">
-        <v>443</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F11" t="s">
-        <v>168</v>
-      </c>
-      <c r="G11" t="s">
-        <v>425</v>
-      </c>
-      <c r="H11" t="s">
-        <v>430</v>
-      </c>
-      <c r="I11" t="s">
-        <v>262</v>
-      </c>
       <c r="K11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12" t="s">
+        <v>373</v>
+      </c>
+      <c r="D12" t="s">
+        <v>441</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" t="s">
+        <v>423</v>
+      </c>
+      <c r="H12" t="s">
+        <v>428</v>
+      </c>
+      <c r="I12" t="s">
         <v>261</v>
       </c>
-      <c r="C12" t="s">
-        <v>375</v>
-      </c>
-      <c r="D12" t="s">
-        <v>443</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F12" t="s">
-        <v>168</v>
-      </c>
-      <c r="G12" t="s">
-        <v>425</v>
-      </c>
-      <c r="H12" t="s">
-        <v>430</v>
-      </c>
-      <c r="I12" t="s">
-        <v>263</v>
-      </c>
       <c r="K12" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -2953,26 +3019,28 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>507</v>
+      </c>
       <c r="E13" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G13" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H13" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -2980,26 +3048,28 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>507</v>
+      </c>
       <c r="E14" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H14" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -3007,26 +3077,28 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D15" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>507</v>
+      </c>
       <c r="E15" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G15" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H15" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -3034,162 +3106,164 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D16" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>507</v>
+      </c>
       <c r="E16" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G16" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H16" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F17" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" t="s">
+        <v>423</v>
+      </c>
+      <c r="H17" t="s">
+        <v>428</v>
+      </c>
+      <c r="K17" t="s">
         <v>84</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F17" t="s">
-        <v>168</v>
-      </c>
-      <c r="G17" t="s">
-        <v>425</v>
-      </c>
-      <c r="H17" t="s">
-        <v>430</v>
-      </c>
-      <c r="K17" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C18" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D18" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G18" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H18" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K18" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
+        <v>389</v>
+      </c>
+      <c r="C19" t="s">
+        <v>373</v>
+      </c>
+      <c r="D19" t="s">
+        <v>447</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F19" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" t="s">
+        <v>423</v>
+      </c>
+      <c r="H19" t="s">
+        <v>428</v>
+      </c>
+      <c r="I19" t="s">
         <v>391</v>
       </c>
-      <c r="C19" t="s">
-        <v>375</v>
-      </c>
-      <c r="D19" t="s">
-        <v>449</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F19" t="s">
-        <v>167</v>
-      </c>
-      <c r="G19" t="s">
-        <v>425</v>
-      </c>
-      <c r="H19" t="s">
-        <v>430</v>
-      </c>
-      <c r="I19" t="s">
-        <v>393</v>
-      </c>
       <c r="K19" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C20" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G20" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H20" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K20" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G21" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -3197,26 +3271,28 @@
         <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D22" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>507</v>
+      </c>
       <c r="E22" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G22" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H22" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -3224,26 +3300,28 @@
         <v>9</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D23" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>507</v>
+      </c>
       <c r="E23" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G23" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H23" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -3251,244 +3329,248 @@
         <v>10</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D24" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>507</v>
+      </c>
       <c r="E24" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G24" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H24" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="C25" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D25" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>507</v>
+      </c>
       <c r="E25" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G25" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H25" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G26" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H26" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K26" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C27" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D27" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G27" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H27" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I27" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K27" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C28" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D28" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G28" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H28" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I28" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K28" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C29" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D29" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F29" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G29" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H29" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K29" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C30" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D30" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F30" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G30" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H30" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I30" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K30" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G31" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H31" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K31" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C32" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F32" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G32" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H32" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K32" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -3496,162 +3578,164 @@
         <v>57</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D33" s="3"/>
+        <v>193</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>505</v>
+      </c>
       <c r="E33" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F33" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G33" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H33" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F34" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G34" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H34" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K34" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C35" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D35" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F35" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G35" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H35" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I35" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K35" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C36" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D36" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F36" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G36" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H36" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K36" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D37" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F37" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G37" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H37" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C38" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D38" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F38" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G38" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H38" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I38" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K38" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -3659,28 +3743,28 @@
         <v>40</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F39" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G39" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H39" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -3688,28 +3772,28 @@
         <v>42</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F40" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G40" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -3717,28 +3801,28 @@
         <v>41</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G41" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H41" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -3746,28 +3830,28 @@
         <v>43</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F42" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G42" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H42" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -3775,54 +3859,54 @@
         <v>44</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F43" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G43" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H43" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C44" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D44" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F44" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G44" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H44" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K44" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -3830,28 +3914,28 @@
         <v>30</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G45" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H45" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -3859,28 +3943,28 @@
         <v>31</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F46" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G46" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H46" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -3888,28 +3972,28 @@
         <v>32</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F47" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G47" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H47" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -3917,28 +4001,28 @@
         <v>33</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F48" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G48" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H48" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -3946,219 +4030,219 @@
         <v>34</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F49" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G49" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H49" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C50" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F50" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G50" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H50" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I50" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K50" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C51" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F51" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G51" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H51" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K51" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C52" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D52" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F52" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G52" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H52" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C53" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G53" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H53" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K53" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C54" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F54" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G54" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H54" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K54" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C55" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F55" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G55" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H55" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I55" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K55" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C56" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F56" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G56" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H56" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I56" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K56" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -4166,26 +4250,28 @@
         <v>18</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D57" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>507</v>
+      </c>
       <c r="E57" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F57" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G57" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H57" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
@@ -4193,26 +4279,28 @@
         <v>19</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D58" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>507</v>
+      </c>
       <c r="E58" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F58" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G58" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H58" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -4220,26 +4308,28 @@
         <v>20</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D59" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>507</v>
+      </c>
       <c r="E59" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F59" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G59" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H59" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
@@ -4247,26 +4337,28 @@
         <v>21</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D60" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>507</v>
+      </c>
       <c r="E60" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G60" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H60" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
@@ -4274,26 +4366,28 @@
         <v>22</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D61" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>507</v>
+      </c>
       <c r="E61" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F61" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G61" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H61" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
@@ -4301,26 +4395,28 @@
         <v>23</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D62" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>507</v>
+      </c>
       <c r="E62" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F62" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G62" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H62" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
@@ -4328,26 +4424,28 @@
         <v>24</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D63" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>507</v>
+      </c>
       <c r="E63" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F63" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G63" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H63" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
@@ -4355,26 +4453,28 @@
         <v>25</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D64" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>507</v>
+      </c>
       <c r="E64" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G64" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H64" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
@@ -4382,84 +4482,86 @@
         <v>26</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D65" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>507</v>
+      </c>
       <c r="E65" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F65" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G65" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H65" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C66" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D66" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F66" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G66" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H66" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I66" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K66" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C67" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D67" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F67" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G67" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H67" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K67" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
@@ -4467,28 +4569,28 @@
         <v>35</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F68" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G68" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H68" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
@@ -4496,28 +4598,28 @@
         <v>37</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F69" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G69" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H69" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K69" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -4525,28 +4627,28 @@
         <v>36</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F70" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G70" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H70" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
@@ -4554,28 +4656,28 @@
         <v>38</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F71" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G71" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H71" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K71" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
@@ -4583,28 +4685,28 @@
         <v>39</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F72" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G72" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H72" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K72" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
@@ -4612,26 +4714,28 @@
         <v>27</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D73" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>507</v>
+      </c>
       <c r="E73" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F73" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G73" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H73" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K73" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
@@ -4639,26 +4743,28 @@
         <v>28</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D74" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>507</v>
+      </c>
       <c r="E74" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F74" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G74" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H74" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K74" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
@@ -4666,26 +4772,28 @@
         <v>29</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D75" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>507</v>
+      </c>
       <c r="E75" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F75" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G75" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H75" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K75" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
@@ -4693,552 +4801,564 @@
         <v>58</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F76" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G76" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H76" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K76" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>59</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D77" s="3"/>
+      <c r="B77" t="s">
+        <v>356</v>
+      </c>
+      <c r="C77" t="s">
+        <v>405</v>
+      </c>
+      <c r="D77" t="s">
+        <v>461</v>
+      </c>
       <c r="E77" s="7" t="s">
-        <v>102</v>
+        <v>418</v>
       </c>
       <c r="F77" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G77" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H77" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K77" t="s">
-        <v>100</v>
+        <v>363</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>358</v>
+        <v>219</v>
       </c>
       <c r="C78" t="s">
-        <v>407</v>
+        <v>373</v>
       </c>
       <c r="D78" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F78" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G78" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H78" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K78" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
-        <v>221</v>
-      </c>
-      <c r="C79" t="s">
-        <v>375</v>
-      </c>
-      <c r="D79" t="s">
-        <v>464</v>
+      <c r="A79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>507</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>420</v>
+        <v>101</v>
       </c>
       <c r="F79" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G79" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H79" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K79" t="s">
-        <v>359</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>112</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D80" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>507</v>
+      </c>
       <c r="E80" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F80" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G80" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H80" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>12</v>
-      </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" t="s">
+        <v>351</v>
+      </c>
+      <c r="C81" t="s">
+        <v>405</v>
+      </c>
+      <c r="D81" t="s">
+        <v>451</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F81" t="s">
+        <v>166</v>
+      </c>
+      <c r="G81" t="s">
+        <v>423</v>
+      </c>
+      <c r="H81" t="s">
+        <v>428</v>
+      </c>
+      <c r="I81" t="s">
+        <v>215</v>
+      </c>
+      <c r="K81" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D81" s="4"/>
-      <c r="E81" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F81" t="s">
-        <v>167</v>
-      </c>
-      <c r="G81" t="s">
-        <v>426</v>
-      </c>
-      <c r="H81" t="s">
-        <v>430</v>
-      </c>
-      <c r="K81" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
-        <v>353</v>
-      </c>
-      <c r="C82" t="s">
-        <v>407</v>
-      </c>
-      <c r="D82" t="s">
-        <v>453</v>
+      <c r="C82" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>507</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>420</v>
+        <v>101</v>
       </c>
       <c r="F82" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G82" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H82" t="s">
-        <v>430</v>
-      </c>
-      <c r="I82" t="s">
-        <v>217</v>
+        <v>428</v>
       </c>
       <c r="K82" t="s">
-        <v>365</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D83" s="4"/>
+        <v>159</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>491</v>
+      </c>
       <c r="E83" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F83" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G83" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H83" t="s">
-        <v>430</v>
+        <v>428</v>
+      </c>
+      <c r="I83" t="s">
+        <v>162</v>
       </c>
       <c r="K83" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>60</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>495</v>
+      <c r="B84" t="s">
+        <v>245</v>
+      </c>
+      <c r="C84" t="s">
+        <v>373</v>
+      </c>
+      <c r="D84" t="s">
+        <v>440</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>102</v>
+        <v>418</v>
       </c>
       <c r="F84" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G84" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H84" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I84" t="s">
-        <v>164</v>
+        <v>231</v>
       </c>
       <c r="K84" t="s">
-        <v>100</v>
+        <v>366</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C85" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D85" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G85" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H85" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I85" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K85" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C86" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D86" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G86" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H86" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I86" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K86" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C87" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D87" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G87" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H87" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I87" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K87" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C88" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D88" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F88" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G88" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H88" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I88" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K88" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C89" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D89" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F89" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G89" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H89" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I89" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K89" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>249</v>
+        <v>355</v>
       </c>
       <c r="C90" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D90" t="s">
-        <v>442</v>
+        <v>347</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F90" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G90" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H90" t="s">
-        <v>430</v>
-      </c>
-      <c r="I90" t="s">
-        <v>235</v>
+        <v>428</v>
       </c>
       <c r="K90" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="C91" t="s">
-        <v>407</v>
+        <v>376</v>
       </c>
       <c r="D91" t="s">
-        <v>349</v>
+        <v>208</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>420</v>
+        <v>101</v>
       </c>
       <c r="F91" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G91" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H91" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K91" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="C92" t="s">
-        <v>378</v>
+        <v>200</v>
       </c>
       <c r="D92" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F92" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G92" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H92" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K92" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B93" t="s">
-        <v>382</v>
-      </c>
-      <c r="C93" t="s">
-        <v>202</v>
-      </c>
-      <c r="D93" t="s">
-        <v>226</v>
+      <c r="A93" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>507</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F93" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G93" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H93" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K93" t="s">
-        <v>366</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D94" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>507</v>
+      </c>
       <c r="E94" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F94" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G94" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H94" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D95" s="4"/>
+        <v>145</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>458</v>
+      </c>
       <c r="E95" s="7" t="s">
-        <v>102</v>
+        <v>418</v>
       </c>
       <c r="F95" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G95" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H95" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K95" t="s">
         <v>97</v>
@@ -5246,963 +5366,975 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F96" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G96" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H96" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>147</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F97" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G97" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H97" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>148</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F98" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G98" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H98" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>149</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F99" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G99" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H99" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F100" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G100" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H100" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K100" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>151</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F101" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G101" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H101" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K101" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>152</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F102" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G102" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H102" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K102" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>153</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F103" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G103" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H103" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K103" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C104" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F104" t="s">
+        <v>166</v>
+      </c>
+      <c r="G104" t="s">
+        <v>423</v>
+      </c>
+      <c r="H104" t="s">
+        <v>428</v>
+      </c>
+      <c r="K104" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>379</v>
+      </c>
+      <c r="C105" t="s">
+        <v>200</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F105" t="s">
+        <v>166</v>
+      </c>
+      <c r="G105" t="s">
+        <v>424</v>
+      </c>
+      <c r="H105" t="s">
+        <v>427</v>
+      </c>
+      <c r="K105" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>16</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F106" t="s">
+        <v>165</v>
+      </c>
+      <c r="G106" t="s">
+        <v>424</v>
+      </c>
+      <c r="H106" t="s">
+        <v>428</v>
+      </c>
+      <c r="K106" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F107" t="s">
+        <v>165</v>
+      </c>
+      <c r="G107" t="s">
+        <v>423</v>
+      </c>
+      <c r="H107" t="s">
+        <v>427</v>
+      </c>
+      <c r="K107" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>61</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D104" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="E104" s="7" t="s">
+      <c r="D108" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F108" t="s">
+        <v>165</v>
+      </c>
+      <c r="G108" t="s">
+        <v>423</v>
+      </c>
+      <c r="H108" t="s">
+        <v>428</v>
+      </c>
+      <c r="I108" t="s">
+        <v>163</v>
+      </c>
+      <c r="K108" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>310</v>
+      </c>
+      <c r="C109" t="s">
         <v>420</v>
       </c>
-      <c r="F104" t="s">
-        <v>168</v>
-      </c>
-      <c r="G104" t="s">
-        <v>425</v>
-      </c>
-      <c r="H104" t="s">
-        <v>430</v>
-      </c>
-      <c r="K104" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>54</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F105" t="s">
-        <v>168</v>
-      </c>
-      <c r="G105" t="s">
-        <v>425</v>
-      </c>
-      <c r="H105" t="s">
-        <v>430</v>
-      </c>
-      <c r="K105" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B106" t="s">
-        <v>381</v>
-      </c>
-      <c r="C106" t="s">
-        <v>202</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F106" t="s">
-        <v>168</v>
-      </c>
-      <c r="G106" t="s">
-        <v>426</v>
-      </c>
-      <c r="H106" t="s">
-        <v>429</v>
-      </c>
-      <c r="K106" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>16</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D107" s="4"/>
-      <c r="E107" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F107" t="s">
-        <v>167</v>
-      </c>
-      <c r="G107" t="s">
-        <v>426</v>
-      </c>
-      <c r="H107" t="s">
-        <v>430</v>
-      </c>
-      <c r="K107" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B108" t="s">
-        <v>92</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D108" s="2"/>
-      <c r="E108" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F108" t="s">
-        <v>167</v>
-      </c>
-      <c r="G108" t="s">
-        <v>425</v>
-      </c>
-      <c r="H108" t="s">
-        <v>429</v>
-      </c>
-      <c r="K108" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>62</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>496</v>
+      <c r="D109" t="s">
+        <v>487</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F109" t="s">
-        <v>167</v>
+        <v>418</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="G109" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H109" t="s">
-        <v>430</v>
-      </c>
-      <c r="I109" t="s">
-        <v>165</v>
+        <v>428</v>
       </c>
       <c r="K109" t="s">
-        <v>100</v>
+        <v>368</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>312</v>
+        <v>254</v>
       </c>
       <c r="C110" t="s">
-        <v>422</v>
+        <v>373</v>
       </c>
       <c r="D110" t="s">
-        <v>490</v>
+        <v>440</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
+      </c>
+      <c r="F110" t="s">
+        <v>166</v>
       </c>
       <c r="G110" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H110" t="s">
-        <v>430</v>
+        <v>428</v>
+      </c>
+      <c r="I110" t="s">
+        <v>241</v>
       </c>
       <c r="K110" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C111" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D111" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F111" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G111" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H111" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I111" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K111" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C112" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D112" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F112" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G112" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H112" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I112" t="s">
         <v>242</v>
       </c>
       <c r="K112" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>255</v>
+        <v>369</v>
       </c>
       <c r="C113" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D113" t="s">
-        <v>442</v>
+        <v>486</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>420</v>
+        <v>101</v>
       </c>
       <c r="F113" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G113" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H113" t="s">
-        <v>430</v>
-      </c>
-      <c r="I113" t="s">
-        <v>244</v>
+        <v>428</v>
       </c>
       <c r="K113" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="C114" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D114" t="s">
-        <v>489</v>
+        <v>440</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>102</v>
+        <v>418</v>
       </c>
       <c r="F114" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G114" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H114" t="s">
-        <v>430</v>
+        <v>428</v>
+      </c>
+      <c r="I114" t="s">
+        <v>392</v>
       </c>
       <c r="K114" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>392</v>
+        <v>92</v>
       </c>
       <c r="C115" t="s">
-        <v>375</v>
+        <v>197</v>
       </c>
       <c r="D115" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F115" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G115" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H115" t="s">
-        <v>430</v>
-      </c>
-      <c r="I115" t="s">
-        <v>394</v>
+        <v>427</v>
       </c>
       <c r="K115" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>93</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F116" t="s">
+        <v>165</v>
+      </c>
+      <c r="G116" t="s">
+        <v>423</v>
+      </c>
+      <c r="H116" t="s">
+        <v>427</v>
+      </c>
+      <c r="K116" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F117" t="s">
+        <v>165</v>
+      </c>
+      <c r="G117" t="s">
+        <v>424</v>
+      </c>
+      <c r="H117" t="s">
+        <v>428</v>
+      </c>
+      <c r="K117" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>382</v>
+      </c>
+      <c r="C118" t="s">
+        <v>376</v>
+      </c>
+      <c r="D118" t="s">
+        <v>465</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F118" t="s">
+        <v>166</v>
+      </c>
+      <c r="G118" t="s">
+        <v>424</v>
+      </c>
+      <c r="H118" t="s">
+        <v>427</v>
+      </c>
+      <c r="K118" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>94</v>
+      </c>
+      <c r="C119" t="s">
         <v>199</v>
       </c>
-      <c r="D116" t="s">
-        <v>471</v>
-      </c>
-      <c r="E116" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F116" t="s">
-        <v>167</v>
-      </c>
-      <c r="G116" t="s">
-        <v>425</v>
-      </c>
-      <c r="H116" t="s">
-        <v>429</v>
-      </c>
-      <c r="K116" t="s">
+      <c r="D119" t="s">
+        <v>484</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F119" t="s">
+        <v>166</v>
+      </c>
+      <c r="G119" t="s">
+        <v>424</v>
+      </c>
+      <c r="H119" t="s">
+        <v>427</v>
+      </c>
+      <c r="K119" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>308</v>
+      </c>
+      <c r="C120" t="s">
+        <v>374</v>
+      </c>
+      <c r="D120" t="s">
+        <v>294</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F120" t="s">
+        <v>165</v>
+      </c>
+      <c r="G120" t="s">
+        <v>424</v>
+      </c>
+      <c r="H120" t="s">
+        <v>427</v>
+      </c>
+      <c r="K120" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>304</v>
+      </c>
+      <c r="C121" t="s">
+        <v>374</v>
+      </c>
+      <c r="D121" t="s">
+        <v>290</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F121" t="s">
+        <v>165</v>
+      </c>
+      <c r="G121" t="s">
+        <v>424</v>
+      </c>
+      <c r="H121" t="s">
+        <v>427</v>
+      </c>
+      <c r="K121" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>302</v>
+      </c>
+      <c r="C122" t="s">
+        <v>374</v>
+      </c>
+      <c r="D122" t="s">
+        <v>288</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F122" t="s">
+        <v>165</v>
+      </c>
+      <c r="G122" t="s">
+        <v>424</v>
+      </c>
+      <c r="H122" t="s">
+        <v>427</v>
+      </c>
+      <c r="K122" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>306</v>
+      </c>
+      <c r="C123" t="s">
+        <v>374</v>
+      </c>
+      <c r="D123" t="s">
+        <v>292</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F123" t="s">
+        <v>166</v>
+      </c>
+      <c r="G123" t="s">
+        <v>424</v>
+      </c>
+      <c r="H123" t="s">
+        <v>427</v>
+      </c>
+      <c r="K123" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>305</v>
+      </c>
+      <c r="C124" t="s">
+        <v>374</v>
+      </c>
+      <c r="D124" t="s">
+        <v>291</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F124" t="s">
+        <v>165</v>
+      </c>
+      <c r="G124" t="s">
+        <v>424</v>
+      </c>
+      <c r="H124" t="s">
+        <v>427</v>
+      </c>
+      <c r="K124" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>303</v>
+      </c>
+      <c r="C125" t="s">
+        <v>374</v>
+      </c>
+      <c r="D125" t="s">
+        <v>289</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F125" t="s">
+        <v>165</v>
+      </c>
+      <c r="G125" t="s">
+        <v>424</v>
+      </c>
+      <c r="H125" t="s">
+        <v>427</v>
+      </c>
+      <c r="K125" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>307</v>
+      </c>
+      <c r="C126" t="s">
+        <v>374</v>
+      </c>
+      <c r="D126" t="s">
+        <v>293</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F126" t="s">
+        <v>166</v>
+      </c>
+      <c r="G126" t="s">
+        <v>424</v>
+      </c>
+      <c r="H126" t="s">
+        <v>427</v>
+      </c>
+      <c r="K126" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>350</v>
+      </c>
+      <c r="C127" t="s">
+        <v>405</v>
+      </c>
+      <c r="D127" t="s">
+        <v>464</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F127" t="s">
+        <v>166</v>
+      </c>
+      <c r="G127" t="s">
+        <v>423</v>
+      </c>
+      <c r="H127" t="s">
+        <v>428</v>
+      </c>
+      <c r="I127" t="s">
+        <v>214</v>
+      </c>
+      <c r="K127" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>95</v>
+      </c>
+      <c r="C128" t="s">
+        <v>200</v>
+      </c>
+      <c r="D128" t="s">
+        <v>503</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F128" t="s">
+        <v>165</v>
+      </c>
+      <c r="G128" t="s">
+        <v>424</v>
+      </c>
+      <c r="H128" t="s">
+        <v>427</v>
+      </c>
+      <c r="K128" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B117" t="s">
-        <v>94</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="E117" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F117" t="s">
-        <v>167</v>
-      </c>
-      <c r="G117" t="s">
-        <v>425</v>
-      </c>
-      <c r="H117" t="s">
-        <v>429</v>
-      </c>
-      <c r="K117" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>17</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D118" s="4"/>
-      <c r="E118" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F118" t="s">
-        <v>167</v>
-      </c>
-      <c r="G118" t="s">
-        <v>426</v>
-      </c>
-      <c r="H118" t="s">
-        <v>430</v>
-      </c>
-      <c r="K118" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B119" t="s">
-        <v>384</v>
-      </c>
-      <c r="C119" t="s">
-        <v>378</v>
-      </c>
-      <c r="D119" t="s">
-        <v>467</v>
-      </c>
-      <c r="E119" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F119" t="s">
-        <v>168</v>
-      </c>
-      <c r="G119" t="s">
-        <v>426</v>
-      </c>
-      <c r="H119" t="s">
-        <v>429</v>
-      </c>
-      <c r="K119" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B120" t="s">
-        <v>95</v>
-      </c>
-      <c r="C120" t="s">
-        <v>201</v>
-      </c>
-      <c r="D120" t="s">
-        <v>487</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F120" t="s">
-        <v>168</v>
-      </c>
-      <c r="G120" t="s">
-        <v>426</v>
-      </c>
-      <c r="H120" t="s">
-        <v>429</v>
-      </c>
-      <c r="K120" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B121" t="s">
-        <v>310</v>
-      </c>
-      <c r="C121" t="s">
-        <v>376</v>
-      </c>
-      <c r="D121" t="s">
-        <v>296</v>
-      </c>
-      <c r="E121" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F121" t="s">
-        <v>167</v>
-      </c>
-      <c r="G121" t="s">
-        <v>426</v>
-      </c>
-      <c r="H121" t="s">
-        <v>429</v>
-      </c>
-      <c r="K121" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B122" t="s">
-        <v>306</v>
-      </c>
-      <c r="C122" t="s">
-        <v>376</v>
-      </c>
-      <c r="D122" t="s">
-        <v>292</v>
-      </c>
-      <c r="E122" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F122" t="s">
-        <v>167</v>
-      </c>
-      <c r="G122" t="s">
-        <v>426</v>
-      </c>
-      <c r="H122" t="s">
-        <v>429</v>
-      </c>
-      <c r="K122" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B123" t="s">
-        <v>304</v>
-      </c>
-      <c r="C123" t="s">
-        <v>376</v>
-      </c>
-      <c r="D123" t="s">
-        <v>290</v>
-      </c>
-      <c r="E123" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F123" t="s">
-        <v>167</v>
-      </c>
-      <c r="G123" t="s">
-        <v>426</v>
-      </c>
-      <c r="H123" t="s">
-        <v>429</v>
-      </c>
-      <c r="K123" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B124" t="s">
-        <v>308</v>
-      </c>
-      <c r="C124" t="s">
-        <v>376</v>
-      </c>
-      <c r="D124" t="s">
-        <v>294</v>
-      </c>
-      <c r="E124" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F124" t="s">
-        <v>168</v>
-      </c>
-      <c r="G124" t="s">
-        <v>426</v>
-      </c>
-      <c r="H124" t="s">
-        <v>429</v>
-      </c>
-      <c r="K124" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B125" t="s">
-        <v>307</v>
-      </c>
-      <c r="C125" t="s">
-        <v>376</v>
-      </c>
-      <c r="D125" t="s">
-        <v>293</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F125" t="s">
-        <v>167</v>
-      </c>
-      <c r="G125" t="s">
-        <v>426</v>
-      </c>
-      <c r="H125" t="s">
-        <v>429</v>
-      </c>
-      <c r="K125" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B126" t="s">
-        <v>305</v>
-      </c>
-      <c r="C126" t="s">
-        <v>376</v>
-      </c>
-      <c r="D126" t="s">
-        <v>291</v>
-      </c>
-      <c r="E126" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F126" t="s">
-        <v>167</v>
-      </c>
-      <c r="G126" t="s">
-        <v>426</v>
-      </c>
-      <c r="H126" t="s">
-        <v>429</v>
-      </c>
-      <c r="K126" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B127" t="s">
-        <v>309</v>
-      </c>
-      <c r="C127" t="s">
-        <v>376</v>
-      </c>
-      <c r="D127" t="s">
-        <v>295</v>
-      </c>
-      <c r="E127" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F127" t="s">
-        <v>168</v>
-      </c>
-      <c r="G127" t="s">
-        <v>426</v>
-      </c>
-      <c r="H127" t="s">
-        <v>429</v>
-      </c>
-      <c r="K127" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B128" t="s">
-        <v>352</v>
-      </c>
-      <c r="C128" t="s">
-        <v>407</v>
-      </c>
-      <c r="D128" t="s">
-        <v>466</v>
-      </c>
-      <c r="E128" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F128" t="s">
-        <v>168</v>
-      </c>
-      <c r="G128" t="s">
-        <v>425</v>
-      </c>
-      <c r="H128" t="s">
-        <v>430</v>
-      </c>
-      <c r="I128" t="s">
-        <v>216</v>
-      </c>
-      <c r="K128" t="s">
-        <v>365</v>
+      <c r="W128" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>96</v>
+        <v>372</v>
       </c>
       <c r="C129" t="s">
-        <v>202</v>
+        <v>376</v>
+      </c>
+      <c r="D129" t="s">
+        <v>209</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F129" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G129" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H129" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K129" t="s">
-        <v>208</v>
+        <v>375</v>
       </c>
       <c r="W129" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="130" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B130" t="s">
-        <v>374</v>
-      </c>
-      <c r="C130" t="s">
-        <v>378</v>
-      </c>
-      <c r="D130" t="s">
-        <v>211</v>
+      <c r="A130" t="s">
+        <v>65</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>501</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>102</v>
+        <v>418</v>
       </c>
       <c r="F130" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G130" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H130" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K130" t="s">
-        <v>377</v>
-      </c>
-      <c r="W130" t="s">
-        <v>230</v>
+        <v>100</v>
       </c>
     </row>
     <row r="131" spans="1:23" x14ac:dyDescent="0.2">
@@ -6210,26 +6342,28 @@
         <v>66</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D131" s="3"/>
+        <v>198</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>494</v>
+      </c>
       <c r="E131" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F131" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G131" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H131" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K131" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="132" spans="1:23" x14ac:dyDescent="0.2">
@@ -6237,271 +6371,289 @@
         <v>67</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D132" s="3"/>
+        <v>198</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>495</v>
+      </c>
       <c r="E132" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F132" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G132" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H132" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K132" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D133" s="3"/>
+        <v>198</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>502</v>
+      </c>
       <c r="E133" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F133" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G133" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H133" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K133" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D134" s="3"/>
+        <v>198</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>499</v>
+      </c>
       <c r="E134" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F134" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G134" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H134" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K134" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D135" s="3"/>
+        <v>198</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>498</v>
+      </c>
       <c r="E135" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F135" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G135" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H135" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K135" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D136" s="3"/>
+        <v>198</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="E136" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F136" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G136" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H136" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K136" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D137" s="3"/>
+        <v>198</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>496</v>
+      </c>
       <c r="E137" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F137" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G137" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H137" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K137" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="138" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D138" s="3"/>
+        <v>198</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>500</v>
+      </c>
       <c r="E138" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F138" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G138" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H138" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K138" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>468</v>
+        <v>508</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F139" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G139" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H139" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K139" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="140" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D140" s="3"/>
+        <v>198</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>497</v>
+      </c>
       <c r="E140" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F140" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G140" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H140" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K140" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="141" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D141" s="3"/>
+        <v>198</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>501</v>
+      </c>
       <c r="E141" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F141" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G141" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H141" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K141" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="142" spans="1:23" x14ac:dyDescent="0.2">
@@ -6509,26 +6661,28 @@
         <v>77</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D142" s="3"/>
+        <v>198</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>494</v>
+      </c>
       <c r="E142" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F142" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G142" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H142" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K142" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.2">
@@ -6536,188 +6690,202 @@
         <v>78</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D143" s="3"/>
+        <v>198</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>495</v>
+      </c>
       <c r="E143" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F143" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G143" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H143" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K143" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D144" s="3"/>
+        <v>198</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>502</v>
+      </c>
       <c r="E144" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F144" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G144" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H144" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K144" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D145" s="3"/>
+        <v>198</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>499</v>
+      </c>
       <c r="E145" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F145" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G145" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H145" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K145" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D146" s="3"/>
+        <v>198</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>498</v>
+      </c>
       <c r="E146" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F146" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G146" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H146" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K146" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D147" s="3"/>
+        <v>198</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>493</v>
+      </c>
       <c r="E147" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F147" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G147" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H147" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K147" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D148" s="3"/>
+        <v>198</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>496</v>
+      </c>
       <c r="E148" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F148" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G148" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H148" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D149" s="3"/>
+        <v>198</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>500</v>
+      </c>
       <c r="E149" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F149" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G149" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H149" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K149" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
@@ -6725,584 +6893,591 @@
         <v>73</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>468</v>
+        <v>508</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F150" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G150" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H150" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K150" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D151" s="3"/>
+        <v>198</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>497</v>
+      </c>
       <c r="E151" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F151" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G151" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H151" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K151" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>82</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D152" s="3"/>
+      <c r="B152" t="s">
+        <v>333</v>
+      </c>
+      <c r="C152" t="s">
+        <v>373</v>
+      </c>
+      <c r="D152" t="s">
+        <v>440</v>
+      </c>
       <c r="E152" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F152" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G152" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H152" t="s">
-        <v>430</v>
+        <v>428</v>
+      </c>
+      <c r="I152" t="s">
+        <v>231</v>
       </c>
       <c r="K152" t="s">
-        <v>101</v>
+        <v>381</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C153" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D153" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F153" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G153" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H153" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I153" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K153" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C154" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D154" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F154" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G154" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H154" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I154" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K154" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C155" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D155" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F155" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G155" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H155" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I155" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K155" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C156" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D156" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F156" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G156" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H156" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I156" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K156" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C157" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D157" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F157" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G157" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H157" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I157" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="K157" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C158" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D158" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F158" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G158" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H158" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I158" t="s">
-        <v>242</v>
+        <v>328</v>
       </c>
       <c r="K158" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C159" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D159" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F159" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G159" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H159" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I159" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K159" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C160" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D160" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F160" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G160" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H160" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I160" t="s">
-        <v>331</v>
+        <v>235</v>
       </c>
       <c r="K160" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="161" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C161" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D161" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F161" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G161" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H161" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I161" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K161" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="162" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C162" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D162" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F162" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G162" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H162" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I162" t="s">
-        <v>238</v>
+        <v>330</v>
       </c>
       <c r="K162" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="163" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C163" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D163" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F163" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G163" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H163" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I163" t="s">
-        <v>332</v>
+        <v>237</v>
       </c>
       <c r="K163" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="164" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C164" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D164" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F164" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G164" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H164" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I164" t="s">
-        <v>239</v>
+        <v>331</v>
       </c>
       <c r="K164" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="165" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C165" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D165" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F165" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G165" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H165" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I165" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K165" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="166" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="C166" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D166" t="s">
-        <v>442</v>
+        <v>466</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>420</v>
+        <v>101</v>
       </c>
       <c r="F166" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G166" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H166" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I166" t="s">
-        <v>334</v>
+        <v>422</v>
+      </c>
+      <c r="J166" t="s">
+        <v>436</v>
       </c>
       <c r="K166" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="167" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C167" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D167" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F167" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G167" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H167" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I167" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="J167" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K167" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="168" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C168" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D168" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F168" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G168" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H168" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I168" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J168" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K168" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="169" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C169" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D169" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E169" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F169" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G169" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H169" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I169" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="J169" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K169" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="170" spans="2:11" x14ac:dyDescent="0.2">
@@ -7310,159 +7485,159 @@
         <v>316</v>
       </c>
       <c r="C170" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D170" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F170" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G170" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H170" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I170" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J170" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K170" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="171" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C171" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D171" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F171" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G171" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H171" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I171" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="J171" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K171" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="172" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C172" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D172" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F172" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G172" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H172" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I172" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J172" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K172" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="173" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C173" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D173" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F173" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G173" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H173" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I173" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J173" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K173" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="174" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
-        <v>317</v>
+        <v>406</v>
       </c>
       <c r="C174" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="D174" t="s">
         <v>469</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>102</v>
+        <v>418</v>
       </c>
       <c r="F174" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G174" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H174" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I174" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="J174" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="K174" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
     </row>
     <row r="175" spans="2:11" x14ac:dyDescent="0.2">
@@ -7470,31 +7645,31 @@
         <v>408</v>
       </c>
       <c r="C175" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D175" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F175" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G175" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H175" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I175" t="s">
         <v>414</v>
       </c>
       <c r="J175" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="K175" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="176" spans="2:11" x14ac:dyDescent="0.2">
@@ -7502,63 +7677,63 @@
         <v>410</v>
       </c>
       <c r="C176" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D176" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F176" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G176" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H176" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I176" t="s">
         <v>416</v>
       </c>
       <c r="J176" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="K176" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="177" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="C177" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D177" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F177" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G177" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H177" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I177" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="J177" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="K177" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="178" spans="2:11" x14ac:dyDescent="0.2">
@@ -7566,31 +7741,31 @@
         <v>395</v>
       </c>
       <c r="C178" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D178" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F178" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G178" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H178" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I178" t="s">
         <v>401</v>
       </c>
       <c r="J178" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="K178" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="179" spans="2:11" x14ac:dyDescent="0.2">
@@ -7598,63 +7773,63 @@
         <v>397</v>
       </c>
       <c r="C179" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D179" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F179" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G179" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H179" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I179" t="s">
         <v>403</v>
       </c>
       <c r="J179" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="K179" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="180" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="C180" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D180" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F180" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G180" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H180" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I180" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="J180" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K180" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="181" spans="2:11" x14ac:dyDescent="0.2">
@@ -7662,31 +7837,31 @@
         <v>409</v>
       </c>
       <c r="C181" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D181" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F181" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G181" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H181" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I181" t="s">
         <v>415</v>
       </c>
       <c r="J181" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="K181" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="182" spans="2:11" x14ac:dyDescent="0.2">
@@ -7694,63 +7869,63 @@
         <v>411</v>
       </c>
       <c r="C182" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D182" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E182" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F182" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G182" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H182" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I182" t="s">
         <v>417</v>
       </c>
       <c r="J182" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K182" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="183" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="C183" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D183" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E183" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F183" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G183" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H183" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I183" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="J183" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="K183" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="184" spans="2:11" x14ac:dyDescent="0.2">
@@ -7758,31 +7933,31 @@
         <v>396</v>
       </c>
       <c r="C184" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D184" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E184" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F184" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G184" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H184" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I184" t="s">
         <v>402</v>
       </c>
       <c r="J184" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="K184" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="185" spans="2:11" x14ac:dyDescent="0.2">
@@ -7790,448 +7965,448 @@
         <v>398</v>
       </c>
       <c r="C185" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D185" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E185" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F185" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G185" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H185" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I185" t="s">
         <v>404</v>
       </c>
       <c r="J185" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K185" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="186" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
-        <v>400</v>
+        <v>324</v>
       </c>
       <c r="C186" t="s">
-        <v>421</v>
+        <v>210</v>
       </c>
       <c r="D186" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E186" s="7" t="s">
-        <v>420</v>
+        <v>101</v>
       </c>
       <c r="F186" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G186" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H186" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I186" t="s">
-        <v>406</v>
+        <v>320</v>
       </c>
       <c r="J186" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="K186" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="187" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C187" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D187" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F187" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G187" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H187" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I187" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J187" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="K187" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="188" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C188" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D188" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F188" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G188" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H188" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I188" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J188" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="K188" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="189" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C189" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D189" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E189" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F189" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G189" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H189" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I189" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J189" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="K189" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="190" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
-        <v>329</v>
+        <v>274</v>
       </c>
       <c r="C190" t="s">
-        <v>212</v>
+        <v>385</v>
       </c>
       <c r="D190" t="s">
+        <v>471</v>
+      </c>
+      <c r="E190" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F190" t="s">
+        <v>166</v>
+      </c>
+      <c r="G190" t="s">
+        <v>424</v>
+      </c>
+      <c r="H190" t="s">
+        <v>427</v>
+      </c>
+      <c r="I190" t="s">
         <v>473</v>
       </c>
-      <c r="E190" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F190" t="s">
-        <v>167</v>
-      </c>
-      <c r="G190" t="s">
-        <v>426</v>
-      </c>
-      <c r="H190" t="s">
-        <v>429</v>
-      </c>
-      <c r="I190" t="s">
-        <v>325</v>
-      </c>
       <c r="J190" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K190" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="191" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C191" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D191" t="s">
+        <v>471</v>
+      </c>
+      <c r="E191" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F191" t="s">
+        <v>166</v>
+      </c>
+      <c r="G191" t="s">
+        <v>424</v>
+      </c>
+      <c r="H191" t="s">
+        <v>427</v>
+      </c>
+      <c r="I191" t="s">
         <v>474</v>
       </c>
-      <c r="E191" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F191" t="s">
-        <v>168</v>
-      </c>
-      <c r="G191" t="s">
-        <v>426</v>
-      </c>
-      <c r="H191" t="s">
-        <v>429</v>
-      </c>
-      <c r="I191" t="s">
-        <v>476</v>
-      </c>
       <c r="J191" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K191" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="192" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C192" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D192" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F192" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G192" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H192" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I192" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J192" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K192" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C193" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D193" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E193" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F193" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G193" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H193" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I193" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="J193" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K193" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="C194" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D194" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E194" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F194" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G194" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H194" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I194" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="J194" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K194" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C195" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D195" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F195" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G195" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H195" t="s">
-        <v>429</v>
-      </c>
-      <c r="I195" t="s">
-        <v>480</v>
+        <v>427</v>
+      </c>
+      <c r="I195" s="5" t="s">
+        <v>478</v>
       </c>
       <c r="J195" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K195" t="s">
-        <v>367</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="L195" s="5"/>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="C196" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D196" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F196" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G196" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H196" t="s">
-        <v>429</v>
-      </c>
-      <c r="I196" s="5" t="s">
-        <v>481</v>
+        <v>427</v>
+      </c>
+      <c r="I196" t="s">
+        <v>479</v>
       </c>
       <c r="J196" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K196" t="s">
-        <v>367</v>
-      </c>
-      <c r="L196" s="5"/>
+        <v>365</v>
+      </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>270</v>
       </c>
       <c r="C197" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D197" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E197" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F197" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G197" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H197" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I197" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="J197" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K197" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C198" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D198" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E198" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F198" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G198" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H198" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I198" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="J198" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K198" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
@@ -8239,159 +8414,159 @@
         <v>275</v>
       </c>
       <c r="C199" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D199" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E199" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F199" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G199" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H199" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I199" t="s">
         <v>476</v>
       </c>
       <c r="J199" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K199" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="C200" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D200" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E200" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F200" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G200" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H200" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I200" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="J200" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K200" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C201" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D201" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E201" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F201" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G201" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H201" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I201" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="J201" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K201" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C202" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D202" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E202" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F202" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G202" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H202" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I202" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="J202" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K202" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="C203" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D203" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E203" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F203" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G203" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H203" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I203" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="J203" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K203" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.2">
@@ -8399,31 +8574,31 @@
         <v>269</v>
       </c>
       <c r="C204" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D204" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E204" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F204" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G204" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H204" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I204" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="J204" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K204" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
@@ -8431,177 +8606,140 @@
         <v>271</v>
       </c>
       <c r="C205" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D205" t="s">
+        <v>472</v>
+      </c>
+      <c r="E205" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F205" t="s">
+        <v>166</v>
+      </c>
+      <c r="G205" t="s">
+        <v>424</v>
+      </c>
+      <c r="H205" t="s">
+        <v>427</v>
+      </c>
+      <c r="I205" t="s">
         <v>475</v>
       </c>
-      <c r="E205" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F205" t="s">
-        <v>168</v>
-      </c>
-      <c r="G205" t="s">
-        <v>426</v>
-      </c>
-      <c r="H205" t="s">
-        <v>429</v>
-      </c>
-      <c r="I205" t="s">
-        <v>483</v>
-      </c>
       <c r="J205" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K205" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C206" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D206" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E206" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F206" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G206" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H206" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I206" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="J206" t="s">
+        <v>435</v>
+      </c>
+      <c r="K206" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>55</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="E207" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F207" t="s">
+        <v>165</v>
+      </c>
+      <c r="G207" t="s">
+        <v>424</v>
+      </c>
+      <c r="H207" t="s">
+        <v>427</v>
+      </c>
+      <c r="J207" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="K206" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B207" t="s">
-        <v>281</v>
-      </c>
-      <c r="C207" t="s">
-        <v>387</v>
-      </c>
-      <c r="D207" t="s">
-        <v>475</v>
-      </c>
-      <c r="E207" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F207" t="s">
-        <v>168</v>
-      </c>
-      <c r="G207" t="s">
-        <v>426</v>
-      </c>
-      <c r="H207" t="s">
-        <v>429</v>
-      </c>
-      <c r="I207" t="s">
-        <v>477</v>
-      </c>
-      <c r="J207" t="s">
-        <v>437</v>
-      </c>
       <c r="K207" t="s">
-        <v>367</v>
+        <v>98</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>156</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E208" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F208" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G208" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H208" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="J208" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K208" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>56</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C209" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D209" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="E209" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F209" t="s">
-        <v>167</v>
-      </c>
-      <c r="G209" t="s">
-        <v>426</v>
-      </c>
-      <c r="H209" t="s">
-        <v>429</v>
-      </c>
-      <c r="J209" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="K209" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B210" s="3"/>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A216" s="1"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B209" s="3"/>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K216">
-    <sortCondition ref="B1:B216"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K215">
+    <sortCondition ref="B1:B215"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="E1:E166 E212:E1048576 E208:E209">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>"NSC"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/data/ref.xlsx
+++ b/data/ref.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/Repositories/LCAdata/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480DBCE9-109F-1B41-9F76-41175BF349B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C91B31-89B1-A74E-A05E-56DB4699DB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39260" yWindow="680" windowWidth="28800" windowHeight="15980" xr2:uid="{4F28B243-04AE-1E4D-B411-E86C9FDA2FDF}"/>
+    <workbookView xWindow="21000" yWindow="560" windowWidth="17120" windowHeight="15880" activeTab="1" xr2:uid="{4F28B243-04AE-1E4D-B411-E86C9FDA2FDF}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="newdata" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2864" uniqueCount="704">
   <si>
     <t>old file name</t>
   </si>
@@ -2231,12 +2232,884 @@
   <si>
     <t>tibia length</t>
   </si>
+  <si>
+    <t>podlen1.csv</t>
+  </si>
+  <si>
+    <t>podlen2.csv</t>
+  </si>
+  <si>
+    <t>podlen3.csv</t>
+  </si>
+  <si>
+    <t>podnum1.csv</t>
+  </si>
+  <si>
+    <t>podnum2.csv</t>
+  </si>
+  <si>
+    <t>podnum3.csv</t>
+  </si>
+  <si>
+    <t>seednum1.csv</t>
+  </si>
+  <si>
+    <t>seednum2.csv</t>
+  </si>
+  <si>
+    <t>seednum3.csv</t>
+  </si>
+  <si>
+    <t>seedwt1.csv</t>
+  </si>
+  <si>
+    <t>seedwt2.csv</t>
+  </si>
+  <si>
+    <t>seedwt3.csv</t>
+  </si>
+  <si>
+    <t>peduncnum1.csv</t>
+  </si>
+  <si>
+    <t>peduncnum2.csv</t>
+  </si>
+  <si>
+    <t>peduncnum3.csv</t>
+  </si>
+  <si>
+    <t>grainyield1.csv</t>
+  </si>
+  <si>
+    <t>grainyield2.csv</t>
+  </si>
+  <si>
+    <t>grainyield3.csv</t>
+  </si>
+  <si>
+    <t>Vigna unguiculata</t>
+  </si>
+  <si>
+    <t>pod length</t>
+  </si>
+  <si>
+    <t>number of pods/plant</t>
+  </si>
+  <si>
+    <t>number of seeds/pod</t>
+  </si>
+  <si>
+    <t>100-seed weight</t>
+  </si>
+  <si>
+    <t>number of peduncles/plant</t>
+  </si>
+  <si>
+    <t>grain yield</t>
+  </si>
+  <si>
+    <r>
+      <t>Ugurum N. I., Uzo, J. O. (1991) Studies of gene action for some yield attributes in hybridized vegetable and grain cowpeas (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vigna unguiculata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (L.) Walp.) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Biol. Zent.bl 110, 231-237</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>flower.init.csv</t>
+  </si>
+  <si>
+    <t>maturity.days.csv</t>
+  </si>
+  <si>
+    <t>second.branches.csv</t>
+  </si>
+  <si>
+    <t>siliqu.csv</t>
+  </si>
+  <si>
+    <t>thous.seedwt.csv</t>
+  </si>
+  <si>
+    <t>calyx.csv</t>
+  </si>
+  <si>
+    <t>corolla.csv</t>
+  </si>
+  <si>
+    <t>flower.num.csv</t>
+  </si>
+  <si>
+    <t>flowerD.csv</t>
+  </si>
+  <si>
+    <t>flowerH.csv</t>
+  </si>
+  <si>
+    <t>flowerstem.num.csv</t>
+  </si>
+  <si>
+    <t>flowerW.csv</t>
+  </si>
+  <si>
+    <t>height.plant.csv</t>
+  </si>
+  <si>
+    <t>leaf.area.csv</t>
+  </si>
+  <si>
+    <t>leafL.csv</t>
+  </si>
+  <si>
+    <t>leafW.csv</t>
+  </si>
+  <si>
+    <t>lobeL.csv</t>
+  </si>
+  <si>
+    <t>lobeW.csv</t>
+  </si>
+  <si>
+    <t>ovary.csv</t>
+  </si>
+  <si>
+    <t>pedicel.csv</t>
+  </si>
+  <si>
+    <t>petiole.csv</t>
+  </si>
+  <si>
+    <t>pistil.csv</t>
+  </si>
+  <si>
+    <t>selfability.csv</t>
+  </si>
+  <si>
+    <t>size.plant.csv</t>
+  </si>
+  <si>
+    <t>spot.num.csv</t>
+  </si>
+  <si>
+    <t>stamenL.csv</t>
+  </si>
+  <si>
+    <t>style.csv</t>
+  </si>
+  <si>
+    <t>weight.plant.csv</t>
+  </si>
+  <si>
+    <t>flower height</t>
+  </si>
+  <si>
+    <t>number of flowering stems</t>
+  </si>
+  <si>
+    <t>flower width</t>
+  </si>
+  <si>
+    <t>flower length</t>
+  </si>
+  <si>
+    <t>plant height</t>
+  </si>
+  <si>
+    <t>leaf area</t>
+  </si>
+  <si>
+    <t>leaf length</t>
+  </si>
+  <si>
+    <t>leaf width</t>
+  </si>
+  <si>
+    <t>pedicel length</t>
+  </si>
+  <si>
+    <t>plant size</t>
+  </si>
+  <si>
+    <t>dry weight</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Macnair, M. R., Cumbes, Q. J. (1989) The genetic architecture of interspecific variation in Mimulus. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Genetics. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>122, 211-222</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>1000- seed weight</t>
+  </si>
+  <si>
+    <t>Mimulus cuprilphilus, Mimulus guttatus</t>
+  </si>
+  <si>
+    <t>tiller.num.csv</t>
+  </si>
+  <si>
+    <t>grain.yield.csv</t>
+  </si>
+  <si>
+    <t>grains.num.csv</t>
+  </si>
+  <si>
+    <t>harvest.index.csv</t>
+  </si>
+  <si>
+    <t>thous.grainwt.csv</t>
+  </si>
+  <si>
+    <t>photo.ft3.csv</t>
+  </si>
+  <si>
+    <t>photo.ft2.csv</t>
+  </si>
+  <si>
+    <t>photo.ft1.csv</t>
+  </si>
+  <si>
+    <t>photo.gain1.csv</t>
+  </si>
+  <si>
+    <t>photo.gain2.csv</t>
+  </si>
+  <si>
+    <t>photo.gain3.csv</t>
+  </si>
+  <si>
+    <t>flower.init1.csv</t>
+  </si>
+  <si>
+    <t>flower.init2.csv</t>
+  </si>
+  <si>
+    <t>flower.init3.csv</t>
+  </si>
+  <si>
+    <t>mature.days1.csv</t>
+  </si>
+  <si>
+    <t>mature.days2.csv</t>
+  </si>
+  <si>
+    <t>mature.days3.csv</t>
+  </si>
+  <si>
+    <t>flower.7x8.csv</t>
+  </si>
+  <si>
+    <t>flower.30x7.csv</t>
+  </si>
+  <si>
+    <t>flower.30x8.csv</t>
+  </si>
+  <si>
+    <t>flower.30x19.csv</t>
+  </si>
+  <si>
+    <t>harvest.7x8.csv</t>
+  </si>
+  <si>
+    <t>harvest.30x7.csv</t>
+  </si>
+  <si>
+    <t>harvest.30x8.csv</t>
+  </si>
+  <si>
+    <t>harvest.30x19.csv</t>
+  </si>
+  <si>
+    <t>podlen.7x8.csv</t>
+  </si>
+  <si>
+    <t>podlen.30x7.csv</t>
+  </si>
+  <si>
+    <t>podlen.30x8.csv</t>
+  </si>
+  <si>
+    <t>podlen.30x19.csv</t>
+  </si>
+  <si>
+    <t>podsplant.7x8.csv</t>
+  </si>
+  <si>
+    <t>podsplant.30x7.csv</t>
+  </si>
+  <si>
+    <t>podsplant.30x8.csv</t>
+  </si>
+  <si>
+    <t>podsplant.30x19.csv</t>
+  </si>
+  <si>
+    <t>podwt.7x8.csv</t>
+  </si>
+  <si>
+    <t>podwt.30x7.csv</t>
+  </si>
+  <si>
+    <t>podwt.30x8.csv</t>
+  </si>
+  <si>
+    <t>podwt.30x19.csv</t>
+  </si>
+  <si>
+    <t>podyield.7x8.csv</t>
+  </si>
+  <si>
+    <t>podyield.30x7.csv</t>
+  </si>
+  <si>
+    <t>podyield.30x8.csv</t>
+  </si>
+  <si>
+    <t>podyield.30x19.csv</t>
+  </si>
+  <si>
+    <t>seeds.7x8.csv</t>
+  </si>
+  <si>
+    <t>seeds.30x7.csv</t>
+  </si>
+  <si>
+    <t>seeds.30x8.csv</t>
+  </si>
+  <si>
+    <t>seeds.30x19.csv</t>
+  </si>
+  <si>
+    <t>seedwt.7x8.csv</t>
+  </si>
+  <si>
+    <t>seedwt.30x7.csv</t>
+  </si>
+  <si>
+    <t>seedwt.30x8.csv</t>
+  </si>
+  <si>
+    <t>seedwt.30x19.csv</t>
+  </si>
+  <si>
+    <t>bread wheat</t>
+  </si>
+  <si>
+    <t>number of tillers per plant</t>
+  </si>
+  <si>
+    <t>grain yield per plant</t>
+  </si>
+  <si>
+    <t>number of grains per spike</t>
+  </si>
+  <si>
+    <t>harvest index</t>
+  </si>
+  <si>
+    <t>1000-grain weight</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Singh, G., Bhullar, G. S., Gill, K. S. (1986) Genetic control of grain yield and its related traits in bread wheat. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Theor Appl Genet. 72, 536-540.</t>
+    </r>
+  </si>
+  <si>
+    <t>Aeschynomene americana</t>
+  </si>
+  <si>
+    <t>photoperiod response to flowering date at Ft. Pierce</t>
+  </si>
+  <si>
+    <t>photoperiod response to flowering date at Gainesville</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Deren, C. W., Quesenberry, K. H. (1989) Inheritance of photoperiod-induced flowering in three photoperiodic lines of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Aeschynomene americana</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Theor Appl Genet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 78, 825-830.</t>
+    </r>
+  </si>
+  <si>
+    <t>Brassica junces</t>
+  </si>
+  <si>
+    <t>days to flower initiation</t>
+  </si>
+  <si>
+    <t>days to maturity</t>
+  </si>
+  <si>
+    <r>
+      <t>Sachan, J. N., Singh B. (1987) Generation mean analyses for flowering and maturity in Indian mustard (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Brassica junces </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(L.) Czern &amp; Coss). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Theor Appl Genet.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 73, 571-574.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rahman, M. A., Saad, M. S. (2000) Estimation of additive, dominance and digenic epistatic interaction effects for certain yield characters in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Vigna sesquipedalis </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Fruw. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Euphytica. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>114, 61-66.</t>
+    </r>
+  </si>
+  <si>
+    <t>days to flower</t>
+  </si>
+  <si>
+    <t>days to harvest</t>
+  </si>
+  <si>
+    <t>pods per plant</t>
+  </si>
+  <si>
+    <t>pod weight</t>
+  </si>
+  <si>
+    <t>pod yield per plant</t>
+  </si>
+  <si>
+    <t>seeds per pod</t>
+  </si>
+  <si>
+    <t>100 seed weight</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Vigna sesquipedalis</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Blows, M. W., Sokolowski, M. B. (1995) The expression of additive and nonadditive genetic variation. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Genetics.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 140, 1149-1159.</t>
+    </r>
+  </si>
+  <si>
+    <t>develop.low1.csv</t>
+  </si>
+  <si>
+    <t>develop.low2.csv</t>
+  </si>
+  <si>
+    <t>develop.low3.csv</t>
+  </si>
+  <si>
+    <t>develop.low4.csv</t>
+  </si>
+  <si>
+    <t>develop.high1.csv</t>
+  </si>
+  <si>
+    <t>develop.high2.csv</t>
+  </si>
+  <si>
+    <t>develop.high3.csv</t>
+  </si>
+  <si>
+    <t>develop.high4.csv</t>
+  </si>
+  <si>
+    <t>develop.high5.csv</t>
+  </si>
+  <si>
+    <t>develop.acid1.csv</t>
+  </si>
+  <si>
+    <t>develop.acid2.csv</t>
+  </si>
+  <si>
+    <t>develop.acid3.csv</t>
+  </si>
+  <si>
+    <t>develop.acid4.csv</t>
+  </si>
+  <si>
+    <t>develop.acid5.csv</t>
+  </si>
+  <si>
+    <t>viability.low1.csv</t>
+  </si>
+  <si>
+    <t>viability.low2.csv</t>
+  </si>
+  <si>
+    <t>viability.low3.csv</t>
+  </si>
+  <si>
+    <t>viability.low4.csv</t>
+  </si>
+  <si>
+    <t>viability.low5.csv</t>
+  </si>
+  <si>
+    <t>viability.high1.csv</t>
+  </si>
+  <si>
+    <t>viability.high2.csv</t>
+  </si>
+  <si>
+    <t>viability.high3.csv</t>
+  </si>
+  <si>
+    <t>viability.high4.csv</t>
+  </si>
+  <si>
+    <t>viability.high5.csv</t>
+  </si>
+  <si>
+    <t>viability.acid1.csv</t>
+  </si>
+  <si>
+    <t>viability.acid2.csv</t>
+  </si>
+  <si>
+    <t>viability.acid3.csv</t>
+  </si>
+  <si>
+    <t>viability.acid4.csv</t>
+  </si>
+  <si>
+    <t>viability.acid5.csv</t>
+  </si>
+  <si>
+    <t>development time with low food</t>
+  </si>
+  <si>
+    <t>development time with high food</t>
+  </si>
+  <si>
+    <t>development time with high food/propionic acid</t>
+  </si>
+  <si>
+    <t>viability with low food</t>
+  </si>
+  <si>
+    <t>viability with high food</t>
+  </si>
+  <si>
+    <t>viability with high food/propionic acid</t>
+  </si>
+  <si>
+    <t>Drosophila rnelanogaster</t>
+  </si>
+  <si>
+    <r>
+      <t>Sachan, J. N., Singh, B. (1986) Linked epistasis for six quantitative traits in Indian mustard (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Brassica juncea) (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">L.) Czern &amp; Coss). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Theor Appl Genet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 71, 644-647.</t>
+    </r>
+  </si>
+  <si>
+    <t>Brassica juncea</t>
+  </si>
+  <si>
+    <t>number of siliquae per plant</t>
+  </si>
+  <si>
+    <t>number of secondary branches per plant</t>
+  </si>
+  <si>
+    <t>calyx length</t>
+  </si>
+  <si>
+    <t>pistil length</t>
+  </si>
+  <si>
+    <t>ovary length</t>
+  </si>
+  <si>
+    <t>style length</t>
+  </si>
+  <si>
+    <t>corolla length</t>
+  </si>
+  <si>
+    <t>lower corolla lobe width</t>
+  </si>
+  <si>
+    <t>lower corolla lobe length</t>
+  </si>
+  <si>
+    <t>mean stamen length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distance from stigma to anthers </t>
+  </si>
+  <si>
+    <t>number of red spots on the corolla</t>
+  </si>
+  <si>
+    <t>petiole length</t>
+  </si>
+  <si>
+    <t>? "investigated in an intervarietla cross of bread wheat involving two highly competitive varietyies"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2281,13 +3154,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2302,59 +3192,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2666,9 +3519,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1137BAE9-F081-9948-9F37-D6A451EE45DA}">
   <dimension ref="A1:W215"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+    <sheetView zoomScale="106" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2677,7 +3530,6 @@
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
     <col min="3" max="3" width="30.33203125" customWidth="1"/>
     <col min="4" max="4" width="26.1640625" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="7"/>
     <col min="7" max="7" width="14.33203125" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
     <col min="9" max="10" width="28.33203125" customWidth="1"/>
@@ -2697,7 +3549,7 @@
       <c r="D1" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -2729,7 +3581,7 @@
       <c r="D2" t="s">
         <v>440</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" t="s">
         <v>418</v>
       </c>
       <c r="F2" t="s">
@@ -2758,7 +3610,7 @@
       <c r="D3" t="s">
         <v>287</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" t="s">
         <v>101</v>
       </c>
       <c r="F3" t="s">
@@ -2784,7 +3636,7 @@
       <c r="D4" t="s">
         <v>283</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" t="s">
         <v>101</v>
       </c>
       <c r="F4" t="s">
@@ -2810,7 +3662,7 @@
       <c r="D5" t="s">
         <v>281</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" t="s">
         <v>101</v>
       </c>
       <c r="F5" t="s">
@@ -2836,7 +3688,7 @@
       <c r="D6" t="s">
         <v>285</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" t="s">
         <v>101</v>
       </c>
       <c r="F6" t="s">
@@ -2862,7 +3714,7 @@
       <c r="D7" t="s">
         <v>284</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" t="s">
         <v>101</v>
       </c>
       <c r="F7" t="s">
@@ -2888,7 +3740,7 @@
       <c r="D8" t="s">
         <v>282</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" t="s">
         <v>101</v>
       </c>
       <c r="F8" t="s">
@@ -2914,7 +3766,7 @@
       <c r="D9" t="s">
         <v>286</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" t="s">
         <v>101</v>
       </c>
       <c r="F9" t="s">
@@ -2940,7 +3792,7 @@
       <c r="D10" t="s">
         <v>442</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" t="s">
         <v>418</v>
       </c>
       <c r="F10" t="s">
@@ -2966,7 +3818,7 @@
       <c r="D11" t="s">
         <v>441</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" t="s">
         <v>418</v>
       </c>
       <c r="F11" t="s">
@@ -2995,7 +3847,7 @@
       <c r="D12" t="s">
         <v>441</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" t="s">
         <v>418</v>
       </c>
       <c r="F12" t="s">
@@ -3027,7 +3879,7 @@
       <c r="D13" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" t="s">
         <v>101</v>
       </c>
       <c r="F13" t="s">
@@ -3056,7 +3908,7 @@
       <c r="D14" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" t="s">
         <v>101</v>
       </c>
       <c r="F14" t="s">
@@ -3085,7 +3937,7 @@
       <c r="D15" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" t="s">
         <v>101</v>
       </c>
       <c r="F15" t="s">
@@ -3114,7 +3966,7 @@
       <c r="D16" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" t="s">
         <v>101</v>
       </c>
       <c r="F16" t="s">
@@ -3140,7 +3992,7 @@
       <c r="D17" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" t="s">
         <v>418</v>
       </c>
       <c r="F17" t="s">
@@ -3166,7 +4018,7 @@
       <c r="D18" t="s">
         <v>440</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" t="s">
         <v>418</v>
       </c>
       <c r="F18" t="s">
@@ -3195,7 +4047,7 @@
       <c r="D19" t="s">
         <v>447</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" t="s">
         <v>418</v>
       </c>
       <c r="F19" t="s">
@@ -3224,7 +4076,7 @@
       <c r="D20" t="s">
         <v>211</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" t="s">
         <v>418</v>
       </c>
       <c r="F20" t="s">
@@ -3250,7 +4102,7 @@
       <c r="D21" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" t="s">
         <v>418</v>
       </c>
       <c r="F21" t="s">
@@ -3279,7 +4131,7 @@
       <c r="D22" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" t="s">
         <v>101</v>
       </c>
       <c r="F22" t="s">
@@ -3308,7 +4160,7 @@
       <c r="D23" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" t="s">
         <v>101</v>
       </c>
       <c r="F23" t="s">
@@ -3337,7 +4189,7 @@
       <c r="D24" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" t="s">
         <v>101</v>
       </c>
       <c r="F24" t="s">
@@ -3366,7 +4218,7 @@
       <c r="D25" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" t="s">
         <v>101</v>
       </c>
       <c r="F25" t="s">
@@ -3389,10 +4241,10 @@
       <c r="C26" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" t="s">
         <v>488</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" t="s">
         <v>418</v>
       </c>
       <c r="F26" t="s">
@@ -3418,7 +4270,7 @@
       <c r="D27" t="s">
         <v>448</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" t="s">
         <v>418</v>
       </c>
       <c r="F27" t="s">
@@ -3447,7 +4299,7 @@
       <c r="D28" t="s">
         <v>440</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" t="s">
         <v>418</v>
       </c>
       <c r="F28" t="s">
@@ -3476,7 +4328,7 @@
       <c r="D29" t="s">
         <v>207</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" t="s">
         <v>101</v>
       </c>
       <c r="F29" t="s">
@@ -3502,7 +4354,7 @@
       <c r="D30" t="s">
         <v>449</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" t="s">
         <v>418</v>
       </c>
       <c r="F30" t="s">
@@ -3528,10 +4380,10 @@
       <c r="C31" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" t="s">
         <v>504</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" t="s">
         <v>101</v>
       </c>
       <c r="F31" t="s">
@@ -3554,10 +4406,10 @@
       <c r="C32" t="s">
         <v>376</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" t="s">
         <v>384</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" t="s">
         <v>101</v>
       </c>
       <c r="F32" t="s">
@@ -3586,7 +4438,7 @@
       <c r="D33" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" t="s">
         <v>101</v>
       </c>
       <c r="F33" t="s">
@@ -3609,10 +4461,10 @@
       <c r="C34" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" t="s">
         <v>489</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" t="s">
         <v>101</v>
       </c>
       <c r="F34" t="s">
@@ -3638,7 +4490,7 @@
       <c r="D35" t="s">
         <v>463</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" t="s">
         <v>418</v>
       </c>
       <c r="F35" t="s">
@@ -3667,7 +4519,7 @@
       <c r="D36" t="s">
         <v>213</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" t="s">
         <v>418</v>
       </c>
       <c r="F36" t="s">
@@ -3693,7 +4545,7 @@
       <c r="D37" t="s">
         <v>445</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" t="s">
         <v>418</v>
       </c>
       <c r="F37" t="s">
@@ -3719,7 +4571,7 @@
       <c r="D38" t="s">
         <v>452</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" t="s">
         <v>418</v>
       </c>
       <c r="F38" t="s">
@@ -3751,7 +4603,7 @@
       <c r="D39" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" t="s">
         <v>418</v>
       </c>
       <c r="F39" t="s">
@@ -3780,7 +4632,7 @@
       <c r="D40" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" t="s">
         <v>418</v>
       </c>
       <c r="F40" t="s">
@@ -3809,7 +4661,7 @@
       <c r="D41" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" t="s">
         <v>418</v>
       </c>
       <c r="F41" t="s">
@@ -3838,7 +4690,7 @@
       <c r="D42" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" t="s">
         <v>418</v>
       </c>
       <c r="F42" t="s">
@@ -3867,7 +4719,7 @@
       <c r="D43" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" t="s">
         <v>418</v>
       </c>
       <c r="F43" t="s">
@@ -3893,7 +4745,7 @@
       <c r="D44" t="s">
         <v>217</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" t="s">
         <v>418</v>
       </c>
       <c r="F44" t="s">
@@ -3922,7 +4774,7 @@
       <c r="D45" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" t="s">
         <v>418</v>
       </c>
       <c r="F45" t="s">
@@ -3951,7 +4803,7 @@
       <c r="D46" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" t="s">
         <v>418</v>
       </c>
       <c r="F46" t="s">
@@ -3980,7 +4832,7 @@
       <c r="D47" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" t="s">
         <v>418</v>
       </c>
       <c r="F47" t="s">
@@ -4009,7 +4861,7 @@
       <c r="D48" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" t="s">
         <v>418</v>
       </c>
       <c r="F48" t="s">
@@ -4038,7 +4890,7 @@
       <c r="D49" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" t="s">
         <v>418</v>
       </c>
       <c r="F49" t="s">
@@ -4064,7 +4916,7 @@
       <c r="D50" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" t="s">
         <v>418</v>
       </c>
       <c r="F50" t="s">
@@ -4093,7 +4945,7 @@
       <c r="D51" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" t="s">
         <v>418</v>
       </c>
       <c r="F51" t="s">
@@ -4119,7 +4971,7 @@
       <c r="D52" t="s">
         <v>446</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" t="s">
         <v>418</v>
       </c>
       <c r="F52" t="s">
@@ -4145,7 +4997,7 @@
       <c r="D53" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" t="s">
         <v>101</v>
       </c>
       <c r="F53" t="s">
@@ -4171,7 +5023,7 @@
       <c r="D54" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" t="s">
         <v>101</v>
       </c>
       <c r="F54" t="s">
@@ -4197,7 +5049,7 @@
       <c r="D55" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" t="s">
         <v>101</v>
       </c>
       <c r="F55" t="s">
@@ -4226,7 +5078,7 @@
       <c r="D56" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" t="s">
         <v>418</v>
       </c>
       <c r="F56" t="s">
@@ -4258,7 +5110,7 @@
       <c r="D57" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" t="s">
         <v>101</v>
       </c>
       <c r="F57" t="s">
@@ -4287,7 +5139,7 @@
       <c r="D58" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" t="s">
         <v>101</v>
       </c>
       <c r="F58" t="s">
@@ -4316,7 +5168,7 @@
       <c r="D59" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" t="s">
         <v>101</v>
       </c>
       <c r="F59" t="s">
@@ -4345,7 +5197,7 @@
       <c r="D60" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" t="s">
         <v>101</v>
       </c>
       <c r="F60" t="s">
@@ -4374,7 +5226,7 @@
       <c r="D61" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" t="s">
         <v>101</v>
       </c>
       <c r="F61" t="s">
@@ -4403,7 +5255,7 @@
       <c r="D62" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" t="s">
         <v>101</v>
       </c>
       <c r="F62" t="s">
@@ -4432,7 +5284,7 @@
       <c r="D63" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" t="s">
         <v>101</v>
       </c>
       <c r="F63" t="s">
@@ -4461,7 +5313,7 @@
       <c r="D64" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" t="s">
         <v>101</v>
       </c>
       <c r="F64" t="s">
@@ -4490,7 +5342,7 @@
       <c r="D65" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" t="s">
         <v>101</v>
       </c>
       <c r="F65" t="s">
@@ -4516,7 +5368,7 @@
       <c r="D66" t="s">
         <v>440</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" t="s">
         <v>418</v>
       </c>
       <c r="F66" t="s">
@@ -4545,7 +5397,7 @@
       <c r="D67" t="s">
         <v>440</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E67" t="s">
         <v>418</v>
       </c>
       <c r="F67" t="s">
@@ -4577,7 +5429,7 @@
       <c r="D68" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" t="s">
         <v>418</v>
       </c>
       <c r="F68" t="s">
@@ -4606,7 +5458,7 @@
       <c r="D69" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" t="s">
         <v>418</v>
       </c>
       <c r="F69" t="s">
@@ -4635,7 +5487,7 @@
       <c r="D70" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" t="s">
         <v>418</v>
       </c>
       <c r="F70" t="s">
@@ -4664,7 +5516,7 @@
       <c r="D71" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E71" t="s">
         <v>418</v>
       </c>
       <c r="F71" t="s">
@@ -4693,7 +5545,7 @@
       <c r="D72" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" t="s">
         <v>418</v>
       </c>
       <c r="F72" t="s">
@@ -4722,7 +5574,7 @@
       <c r="D73" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" t="s">
         <v>101</v>
       </c>
       <c r="F73" t="s">
@@ -4751,7 +5603,7 @@
       <c r="D74" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" t="s">
         <v>101</v>
       </c>
       <c r="F74" t="s">
@@ -4780,7 +5632,7 @@
       <c r="D75" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E75" t="s">
         <v>101</v>
       </c>
       <c r="F75" t="s">
@@ -4809,7 +5661,7 @@
       <c r="D76" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E76" t="s">
         <v>101</v>
       </c>
       <c r="F76" t="s">
@@ -4835,7 +5687,7 @@
       <c r="D77" t="s">
         <v>461</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="E77" t="s">
         <v>418</v>
       </c>
       <c r="F77" t="s">
@@ -4861,7 +5713,7 @@
       <c r="D78" t="s">
         <v>462</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E78" t="s">
         <v>418</v>
       </c>
       <c r="F78" t="s">
@@ -4890,7 +5742,7 @@
       <c r="D79" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E79" t="s">
         <v>101</v>
       </c>
       <c r="F79" t="s">
@@ -4919,7 +5771,7 @@
       <c r="D80" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="E80" t="s">
         <v>101</v>
       </c>
       <c r="F80" t="s">
@@ -4945,7 +5797,7 @@
       <c r="D81" t="s">
         <v>451</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="E81" t="s">
         <v>418</v>
       </c>
       <c r="F81" t="s">
@@ -4977,7 +5829,7 @@
       <c r="D82" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E82" t="s">
         <v>101</v>
       </c>
       <c r="F82" t="s">
@@ -5006,7 +5858,7 @@
       <c r="D83" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="E83" t="s">
         <v>101</v>
       </c>
       <c r="F83" t="s">
@@ -5035,7 +5887,7 @@
       <c r="D84" t="s">
         <v>440</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E84" t="s">
         <v>418</v>
       </c>
       <c r="F84" t="s">
@@ -5064,7 +5916,7 @@
       <c r="D85" t="s">
         <v>440</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="E85" t="s">
         <v>418</v>
       </c>
       <c r="F85" t="s">
@@ -5093,7 +5945,7 @@
       <c r="D86" t="s">
         <v>440</v>
       </c>
-      <c r="E86" s="7" t="s">
+      <c r="E86" t="s">
         <v>418</v>
       </c>
       <c r="F86" t="s">
@@ -5122,7 +5974,7 @@
       <c r="D87" t="s">
         <v>440</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="E87" t="s">
         <v>418</v>
       </c>
       <c r="F87" t="s">
@@ -5151,7 +6003,7 @@
       <c r="D88" t="s">
         <v>440</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E88" t="s">
         <v>418</v>
       </c>
       <c r="F88" t="s">
@@ -5180,7 +6032,7 @@
       <c r="D89" t="s">
         <v>440</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="E89" t="s">
         <v>418</v>
       </c>
       <c r="F89" t="s">
@@ -5209,7 +6061,7 @@
       <c r="D90" t="s">
         <v>347</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="E90" t="s">
         <v>418</v>
       </c>
       <c r="F90" t="s">
@@ -5235,7 +6087,7 @@
       <c r="D91" t="s">
         <v>208</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E91" t="s">
         <v>101</v>
       </c>
       <c r="F91" t="s">
@@ -5261,7 +6113,7 @@
       <c r="D92" t="s">
         <v>224</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="E92" t="s">
         <v>101</v>
       </c>
       <c r="F92" t="s">
@@ -5290,7 +6142,7 @@
       <c r="D93" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E93" t="s">
         <v>101</v>
       </c>
       <c r="F93" t="s">
@@ -5319,7 +6171,7 @@
       <c r="D94" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="E94" s="7" t="s">
+      <c r="E94" t="s">
         <v>101</v>
       </c>
       <c r="F94" t="s">
@@ -5348,7 +6200,7 @@
       <c r="D95" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="E95" t="s">
         <v>418</v>
       </c>
       <c r="F95" t="s">
@@ -5377,7 +6229,7 @@
       <c r="D96" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="E96" t="s">
         <v>418</v>
       </c>
       <c r="F96" t="s">
@@ -5406,7 +6258,7 @@
       <c r="D97" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="E97" t="s">
         <v>418</v>
       </c>
       <c r="F97" t="s">
@@ -5435,7 +6287,7 @@
       <c r="D98" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="E98" t="s">
         <v>418</v>
       </c>
       <c r="F98" t="s">
@@ -5464,7 +6316,7 @@
       <c r="D99" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="E99" t="s">
         <v>418</v>
       </c>
       <c r="F99" t="s">
@@ -5493,7 +6345,7 @@
       <c r="D100" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="E100" t="s">
         <v>418</v>
       </c>
       <c r="F100" t="s">
@@ -5522,7 +6374,7 @@
       <c r="D101" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="E101" t="s">
         <v>418</v>
       </c>
       <c r="F101" t="s">
@@ -5551,7 +6403,7 @@
       <c r="D102" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="E102" t="s">
         <v>418</v>
       </c>
       <c r="F102" t="s">
@@ -5580,7 +6432,7 @@
       <c r="D103" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="E103" t="s">
         <v>418</v>
       </c>
       <c r="F103" t="s">
@@ -5609,7 +6461,7 @@
       <c r="D104" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="E104" s="7" t="s">
+      <c r="E104" t="s">
         <v>418</v>
       </c>
       <c r="F104" t="s">
@@ -5635,7 +6487,7 @@
       <c r="D105" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="E105" t="s">
         <v>101</v>
       </c>
       <c r="F105" t="s">
@@ -5664,7 +6516,7 @@
       <c r="D106" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="E106" s="7" t="s">
+      <c r="E106" t="s">
         <v>101</v>
       </c>
       <c r="F106" t="s">
@@ -5687,10 +6539,10 @@
       <c r="C107" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D107" s="8" t="s">
+      <c r="D107" t="s">
         <v>506</v>
       </c>
-      <c r="E107" s="7" t="s">
+      <c r="E107" t="s">
         <v>418</v>
       </c>
       <c r="F107" t="s">
@@ -5719,7 +6571,7 @@
       <c r="D108" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="E108" s="7" t="s">
+      <c r="E108" t="s">
         <v>101</v>
       </c>
       <c r="F108" t="s">
@@ -5748,10 +6600,10 @@
       <c r="D109" t="s">
         <v>487</v>
       </c>
-      <c r="E109" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="F109" s="7" t="s">
+      <c r="E109" t="s">
+        <v>418</v>
+      </c>
+      <c r="F109" t="s">
         <v>165</v>
       </c>
       <c r="G109" t="s">
@@ -5774,7 +6626,7 @@
       <c r="D110" t="s">
         <v>440</v>
       </c>
-      <c r="E110" s="7" t="s">
+      <c r="E110" t="s">
         <v>418</v>
       </c>
       <c r="F110" t="s">
@@ -5803,7 +6655,7 @@
       <c r="D111" t="s">
         <v>440</v>
       </c>
-      <c r="E111" s="7" t="s">
+      <c r="E111" t="s">
         <v>418</v>
       </c>
       <c r="F111" t="s">
@@ -5832,7 +6684,7 @@
       <c r="D112" t="s">
         <v>440</v>
       </c>
-      <c r="E112" s="7" t="s">
+      <c r="E112" t="s">
         <v>418</v>
       </c>
       <c r="F112" t="s">
@@ -5861,7 +6713,7 @@
       <c r="D113" t="s">
         <v>486</v>
       </c>
-      <c r="E113" s="7" t="s">
+      <c r="E113" t="s">
         <v>101</v>
       </c>
       <c r="F113" t="s">
@@ -5887,7 +6739,7 @@
       <c r="D114" t="s">
         <v>440</v>
       </c>
-      <c r="E114" s="7" t="s">
+      <c r="E114" t="s">
         <v>418</v>
       </c>
       <c r="F114" t="s">
@@ -5916,7 +6768,7 @@
       <c r="D115" t="s">
         <v>468</v>
       </c>
-      <c r="E115" s="7" t="s">
+      <c r="E115" t="s">
         <v>418</v>
       </c>
       <c r="F115" t="s">
@@ -5939,10 +6791,10 @@
       <c r="C116" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="D116" t="s">
         <v>485</v>
       </c>
-      <c r="E116" s="7" t="s">
+      <c r="E116" t="s">
         <v>418</v>
       </c>
       <c r="F116" t="s">
@@ -5971,7 +6823,7 @@
       <c r="D117" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="E117" s="7" t="s">
+      <c r="E117" t="s">
         <v>101</v>
       </c>
       <c r="F117" t="s">
@@ -5997,7 +6849,7 @@
       <c r="D118" t="s">
         <v>465</v>
       </c>
-      <c r="E118" s="7" t="s">
+      <c r="E118" t="s">
         <v>101</v>
       </c>
       <c r="F118" t="s">
@@ -6023,7 +6875,7 @@
       <c r="D119" t="s">
         <v>484</v>
       </c>
-      <c r="E119" s="7" t="s">
+      <c r="E119" t="s">
         <v>101</v>
       </c>
       <c r="F119" t="s">
@@ -6049,7 +6901,7 @@
       <c r="D120" t="s">
         <v>294</v>
       </c>
-      <c r="E120" s="7" t="s">
+      <c r="E120" t="s">
         <v>101</v>
       </c>
       <c r="F120" t="s">
@@ -6075,7 +6927,7 @@
       <c r="D121" t="s">
         <v>290</v>
       </c>
-      <c r="E121" s="7" t="s">
+      <c r="E121" t="s">
         <v>101</v>
       </c>
       <c r="F121" t="s">
@@ -6101,7 +6953,7 @@
       <c r="D122" t="s">
         <v>288</v>
       </c>
-      <c r="E122" s="7" t="s">
+      <c r="E122" t="s">
         <v>101</v>
       </c>
       <c r="F122" t="s">
@@ -6127,7 +6979,7 @@
       <c r="D123" t="s">
         <v>292</v>
       </c>
-      <c r="E123" s="7" t="s">
+      <c r="E123" t="s">
         <v>101</v>
       </c>
       <c r="F123" t="s">
@@ -6153,7 +7005,7 @@
       <c r="D124" t="s">
         <v>291</v>
       </c>
-      <c r="E124" s="7" t="s">
+      <c r="E124" t="s">
         <v>101</v>
       </c>
       <c r="F124" t="s">
@@ -6179,7 +7031,7 @@
       <c r="D125" t="s">
         <v>289</v>
       </c>
-      <c r="E125" s="7" t="s">
+      <c r="E125" t="s">
         <v>101</v>
       </c>
       <c r="F125" t="s">
@@ -6205,7 +7057,7 @@
       <c r="D126" t="s">
         <v>293</v>
       </c>
-      <c r="E126" s="7" t="s">
+      <c r="E126" t="s">
         <v>101</v>
       </c>
       <c r="F126" t="s">
@@ -6231,7 +7083,7 @@
       <c r="D127" t="s">
         <v>464</v>
       </c>
-      <c r="E127" s="7" t="s">
+      <c r="E127" t="s">
         <v>418</v>
       </c>
       <c r="F127" t="s">
@@ -6260,7 +7112,7 @@
       <c r="D128" t="s">
         <v>503</v>
       </c>
-      <c r="E128" s="7" t="s">
+      <c r="E128" t="s">
         <v>101</v>
       </c>
       <c r="F128" t="s">
@@ -6289,7 +7141,7 @@
       <c r="D129" t="s">
         <v>209</v>
       </c>
-      <c r="E129" s="7" t="s">
+      <c r="E129" t="s">
         <v>101</v>
       </c>
       <c r="F129" t="s">
@@ -6321,7 +7173,7 @@
       <c r="D130" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="E130" s="7" t="s">
+      <c r="E130" t="s">
         <v>418</v>
       </c>
       <c r="F130" t="s">
@@ -6350,7 +7202,7 @@
       <c r="D131" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="E131" s="7" t="s">
+      <c r="E131" t="s">
         <v>418</v>
       </c>
       <c r="F131" t="s">
@@ -6379,7 +7231,7 @@
       <c r="D132" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="E132" s="7" t="s">
+      <c r="E132" t="s">
         <v>418</v>
       </c>
       <c r="F132" t="s">
@@ -6408,7 +7260,7 @@
       <c r="D133" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E133" s="7" t="s">
+      <c r="E133" t="s">
         <v>418</v>
       </c>
       <c r="F133" t="s">
@@ -6437,7 +7289,7 @@
       <c r="D134" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="E134" s="7" t="s">
+      <c r="E134" t="s">
         <v>418</v>
       </c>
       <c r="F134" t="s">
@@ -6466,7 +7318,7 @@
       <c r="D135" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="E135" s="7" t="s">
+      <c r="E135" t="s">
         <v>418</v>
       </c>
       <c r="F135" t="s">
@@ -6495,7 +7347,7 @@
       <c r="D136" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="E136" s="7" t="s">
+      <c r="E136" t="s">
         <v>418</v>
       </c>
       <c r="F136" t="s">
@@ -6524,7 +7376,7 @@
       <c r="D137" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="E137" s="7" t="s">
+      <c r="E137" t="s">
         <v>418</v>
       </c>
       <c r="F137" t="s">
@@ -6553,7 +7405,7 @@
       <c r="D138" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="E138" s="7" t="s">
+      <c r="E138" t="s">
         <v>418</v>
       </c>
       <c r="F138" t="s">
@@ -6582,7 +7434,7 @@
       <c r="D139" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="E139" s="7" t="s">
+      <c r="E139" t="s">
         <v>418</v>
       </c>
       <c r="F139" t="s">
@@ -6611,7 +7463,7 @@
       <c r="D140" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="E140" s="7" t="s">
+      <c r="E140" t="s">
         <v>418</v>
       </c>
       <c r="F140" t="s">
@@ -6640,7 +7492,7 @@
       <c r="D141" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="E141" s="7" t="s">
+      <c r="E141" t="s">
         <v>418</v>
       </c>
       <c r="F141" t="s">
@@ -6669,7 +7521,7 @@
       <c r="D142" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="E142" s="7" t="s">
+      <c r="E142" t="s">
         <v>418</v>
       </c>
       <c r="F142" t="s">
@@ -6698,7 +7550,7 @@
       <c r="D143" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="E143" s="7" t="s">
+      <c r="E143" t="s">
         <v>418</v>
       </c>
       <c r="F143" t="s">
@@ -6727,7 +7579,7 @@
       <c r="D144" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="E144" s="7" t="s">
+      <c r="E144" t="s">
         <v>418</v>
       </c>
       <c r="F144" t="s">
@@ -6756,7 +7608,7 @@
       <c r="D145" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="E145" s="7" t="s">
+      <c r="E145" t="s">
         <v>418</v>
       </c>
       <c r="F145" t="s">
@@ -6785,7 +7637,7 @@
       <c r="D146" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="E146" s="7" t="s">
+      <c r="E146" t="s">
         <v>418</v>
       </c>
       <c r="F146" t="s">
@@ -6814,7 +7666,7 @@
       <c r="D147" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="E147" s="7" t="s">
+      <c r="E147" t="s">
         <v>418</v>
       </c>
       <c r="F147" t="s">
@@ -6843,7 +7695,7 @@
       <c r="D148" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="E148" s="7" t="s">
+      <c r="E148" t="s">
         <v>418</v>
       </c>
       <c r="F148" t="s">
@@ -6872,7 +7724,7 @@
       <c r="D149" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="E149" s="7" t="s">
+      <c r="E149" t="s">
         <v>418</v>
       </c>
       <c r="F149" t="s">
@@ -6901,7 +7753,7 @@
       <c r="D150" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="E150" s="7" t="s">
+      <c r="E150" t="s">
         <v>418</v>
       </c>
       <c r="F150" t="s">
@@ -6930,7 +7782,7 @@
       <c r="D151" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="E151" s="7" t="s">
+      <c r="E151" t="s">
         <v>418</v>
       </c>
       <c r="F151" t="s">
@@ -6956,7 +7808,7 @@
       <c r="D152" t="s">
         <v>440</v>
       </c>
-      <c r="E152" s="7" t="s">
+      <c r="E152" t="s">
         <v>418</v>
       </c>
       <c r="F152" t="s">
@@ -6985,7 +7837,7 @@
       <c r="D153" t="s">
         <v>440</v>
       </c>
-      <c r="E153" s="7" t="s">
+      <c r="E153" t="s">
         <v>418</v>
       </c>
       <c r="F153" t="s">
@@ -7014,7 +7866,7 @@
       <c r="D154" t="s">
         <v>440</v>
       </c>
-      <c r="E154" s="7" t="s">
+      <c r="E154" t="s">
         <v>418</v>
       </c>
       <c r="F154" t="s">
@@ -7043,7 +7895,7 @@
       <c r="D155" t="s">
         <v>440</v>
       </c>
-      <c r="E155" s="7" t="s">
+      <c r="E155" t="s">
         <v>418</v>
       </c>
       <c r="F155" t="s">
@@ -7072,7 +7924,7 @@
       <c r="D156" t="s">
         <v>440</v>
       </c>
-      <c r="E156" s="7" t="s">
+      <c r="E156" t="s">
         <v>418</v>
       </c>
       <c r="F156" t="s">
@@ -7101,7 +7953,7 @@
       <c r="D157" t="s">
         <v>440</v>
       </c>
-      <c r="E157" s="7" t="s">
+      <c r="E157" t="s">
         <v>418</v>
       </c>
       <c r="F157" t="s">
@@ -7130,7 +7982,7 @@
       <c r="D158" t="s">
         <v>440</v>
       </c>
-      <c r="E158" s="7" t="s">
+      <c r="E158" t="s">
         <v>418</v>
       </c>
       <c r="F158" t="s">
@@ -7159,7 +8011,7 @@
       <c r="D159" t="s">
         <v>440</v>
       </c>
-      <c r="E159" s="7" t="s">
+      <c r="E159" t="s">
         <v>418</v>
       </c>
       <c r="F159" t="s">
@@ -7188,7 +8040,7 @@
       <c r="D160" t="s">
         <v>440</v>
       </c>
-      <c r="E160" s="7" t="s">
+      <c r="E160" t="s">
         <v>418</v>
       </c>
       <c r="F160" t="s">
@@ -7217,7 +8069,7 @@
       <c r="D161" t="s">
         <v>440</v>
       </c>
-      <c r="E161" s="7" t="s">
+      <c r="E161" t="s">
         <v>418</v>
       </c>
       <c r="F161" t="s">
@@ -7246,7 +8098,7 @@
       <c r="D162" t="s">
         <v>440</v>
       </c>
-      <c r="E162" s="7" t="s">
+      <c r="E162" t="s">
         <v>418</v>
       </c>
       <c r="F162" t="s">
@@ -7275,7 +8127,7 @@
       <c r="D163" t="s">
         <v>440</v>
       </c>
-      <c r="E163" s="7" t="s">
+      <c r="E163" t="s">
         <v>418</v>
       </c>
       <c r="F163" t="s">
@@ -7304,7 +8156,7 @@
       <c r="D164" t="s">
         <v>440</v>
       </c>
-      <c r="E164" s="7" t="s">
+      <c r="E164" t="s">
         <v>418</v>
       </c>
       <c r="F164" t="s">
@@ -7333,7 +8185,7 @@
       <c r="D165" t="s">
         <v>440</v>
       </c>
-      <c r="E165" s="7" t="s">
+      <c r="E165" t="s">
         <v>418</v>
       </c>
       <c r="F165" t="s">
@@ -7362,7 +8214,7 @@
       <c r="D166" t="s">
         <v>466</v>
       </c>
-      <c r="E166" s="7" t="s">
+      <c r="E166" t="s">
         <v>101</v>
       </c>
       <c r="F166" t="s">
@@ -7394,7 +8246,7 @@
       <c r="D167" t="s">
         <v>467</v>
       </c>
-      <c r="E167" s="7" t="s">
+      <c r="E167" t="s">
         <v>101</v>
       </c>
       <c r="F167" t="s">
@@ -7426,7 +8278,7 @@
       <c r="D168" t="s">
         <v>466</v>
       </c>
-      <c r="E168" s="7" t="s">
+      <c r="E168" t="s">
         <v>101</v>
       </c>
       <c r="F168" t="s">
@@ -7458,7 +8310,7 @@
       <c r="D169" t="s">
         <v>467</v>
       </c>
-      <c r="E169" s="7" t="s">
+      <c r="E169" t="s">
         <v>101</v>
       </c>
       <c r="F169" t="s">
@@ -7490,7 +8342,7 @@
       <c r="D170" t="s">
         <v>466</v>
       </c>
-      <c r="E170" s="7" t="s">
+      <c r="E170" t="s">
         <v>101</v>
       </c>
       <c r="F170" t="s">
@@ -7522,7 +8374,7 @@
       <c r="D171" t="s">
         <v>467</v>
       </c>
-      <c r="E171" s="7" t="s">
+      <c r="E171" t="s">
         <v>101</v>
       </c>
       <c r="F171" t="s">
@@ -7554,7 +8406,7 @@
       <c r="D172" t="s">
         <v>467</v>
       </c>
-      <c r="E172" s="7" t="s">
+      <c r="E172" t="s">
         <v>101</v>
       </c>
       <c r="F172" t="s">
@@ -7586,7 +8438,7 @@
       <c r="D173" t="s">
         <v>466</v>
       </c>
-      <c r="E173" s="7" t="s">
+      <c r="E173" t="s">
         <v>101</v>
       </c>
       <c r="F173" t="s">
@@ -7618,7 +8470,7 @@
       <c r="D174" t="s">
         <v>469</v>
       </c>
-      <c r="E174" s="7" t="s">
+      <c r="E174" t="s">
         <v>418</v>
       </c>
       <c r="F174" t="s">
@@ -7650,7 +8502,7 @@
       <c r="D175" t="s">
         <v>469</v>
       </c>
-      <c r="E175" s="7" t="s">
+      <c r="E175" t="s">
         <v>418</v>
       </c>
       <c r="F175" t="s">
@@ -7682,7 +8534,7 @@
       <c r="D176" t="s">
         <v>469</v>
       </c>
-      <c r="E176" s="7" t="s">
+      <c r="E176" t="s">
         <v>418</v>
       </c>
       <c r="F176" t="s">
@@ -7714,7 +8566,7 @@
       <c r="D177" t="s">
         <v>468</v>
       </c>
-      <c r="E177" s="7" t="s">
+      <c r="E177" t="s">
         <v>418</v>
       </c>
       <c r="F177" t="s">
@@ -7746,7 +8598,7 @@
       <c r="D178" t="s">
         <v>468</v>
       </c>
-      <c r="E178" s="7" t="s">
+      <c r="E178" t="s">
         <v>418</v>
       </c>
       <c r="F178" t="s">
@@ -7778,7 +8630,7 @@
       <c r="D179" t="s">
         <v>468</v>
       </c>
-      <c r="E179" s="7" t="s">
+      <c r="E179" t="s">
         <v>418</v>
       </c>
       <c r="F179" t="s">
@@ -7810,7 +8662,7 @@
       <c r="D180" t="s">
         <v>469</v>
       </c>
-      <c r="E180" s="7" t="s">
+      <c r="E180" t="s">
         <v>418</v>
       </c>
       <c r="F180" t="s">
@@ -7842,7 +8694,7 @@
       <c r="D181" t="s">
         <v>469</v>
       </c>
-      <c r="E181" s="7" t="s">
+      <c r="E181" t="s">
         <v>418</v>
       </c>
       <c r="F181" t="s">
@@ -7874,7 +8726,7 @@
       <c r="D182" t="s">
         <v>469</v>
       </c>
-      <c r="E182" s="7" t="s">
+      <c r="E182" t="s">
         <v>418</v>
       </c>
       <c r="F182" t="s">
@@ -7906,7 +8758,7 @@
       <c r="D183" t="s">
         <v>468</v>
       </c>
-      <c r="E183" s="7" t="s">
+      <c r="E183" t="s">
         <v>418</v>
       </c>
       <c r="F183" t="s">
@@ -7938,7 +8790,7 @@
       <c r="D184" t="s">
         <v>468</v>
       </c>
-      <c r="E184" s="7" t="s">
+      <c r="E184" t="s">
         <v>418</v>
       </c>
       <c r="F184" t="s">
@@ -7970,7 +8822,7 @@
       <c r="D185" t="s">
         <v>468</v>
       </c>
-      <c r="E185" s="7" t="s">
+      <c r="E185" t="s">
         <v>418</v>
       </c>
       <c r="F185" t="s">
@@ -8002,7 +8854,7 @@
       <c r="D186" t="s">
         <v>470</v>
       </c>
-      <c r="E186" s="7" t="s">
+      <c r="E186" t="s">
         <v>101</v>
       </c>
       <c r="F186" t="s">
@@ -8034,7 +8886,7 @@
       <c r="D187" t="s">
         <v>470</v>
       </c>
-      <c r="E187" s="7" t="s">
+      <c r="E187" t="s">
         <v>101</v>
       </c>
       <c r="F187" t="s">
@@ -8066,7 +8918,7 @@
       <c r="D188" t="s">
         <v>470</v>
       </c>
-      <c r="E188" s="7" t="s">
+      <c r="E188" t="s">
         <v>101</v>
       </c>
       <c r="F188" t="s">
@@ -8098,7 +8950,7 @@
       <c r="D189" t="s">
         <v>470</v>
       </c>
-      <c r="E189" s="7" t="s">
+      <c r="E189" t="s">
         <v>101</v>
       </c>
       <c r="F189" t="s">
@@ -8130,7 +8982,7 @@
       <c r="D190" t="s">
         <v>471</v>
       </c>
-      <c r="E190" s="7" t="s">
+      <c r="E190" t="s">
         <v>101</v>
       </c>
       <c r="F190" t="s">
@@ -8162,7 +9014,7 @@
       <c r="D191" t="s">
         <v>471</v>
       </c>
-      <c r="E191" s="7" t="s">
+      <c r="E191" t="s">
         <v>101</v>
       </c>
       <c r="F191" t="s">
@@ -8194,7 +9046,7 @@
       <c r="D192" t="s">
         <v>471</v>
       </c>
-      <c r="E192" s="7" t="s">
+      <c r="E192" t="s">
         <v>101</v>
       </c>
       <c r="F192" t="s">
@@ -8226,7 +9078,7 @@
       <c r="D193" t="s">
         <v>471</v>
       </c>
-      <c r="E193" s="7" t="s">
+      <c r="E193" t="s">
         <v>101</v>
       </c>
       <c r="F193" t="s">
@@ -8258,7 +9110,7 @@
       <c r="D194" t="s">
         <v>471</v>
       </c>
-      <c r="E194" s="7" t="s">
+      <c r="E194" t="s">
         <v>101</v>
       </c>
       <c r="F194" t="s">
@@ -8290,7 +9142,7 @@
       <c r="D195" t="s">
         <v>471</v>
       </c>
-      <c r="E195" s="7" t="s">
+      <c r="E195" t="s">
         <v>101</v>
       </c>
       <c r="F195" t="s">
@@ -8323,7 +9175,7 @@
       <c r="D196" t="s">
         <v>471</v>
       </c>
-      <c r="E196" s="7" t="s">
+      <c r="E196" t="s">
         <v>101</v>
       </c>
       <c r="F196" t="s">
@@ -8355,7 +9207,7 @@
       <c r="D197" t="s">
         <v>471</v>
       </c>
-      <c r="E197" s="7" t="s">
+      <c r="E197" t="s">
         <v>101</v>
       </c>
       <c r="F197" t="s">
@@ -8387,7 +9239,7 @@
       <c r="D198" t="s">
         <v>472</v>
       </c>
-      <c r="E198" s="7" t="s">
+      <c r="E198" t="s">
         <v>101</v>
       </c>
       <c r="F198" t="s">
@@ -8419,7 +9271,7 @@
       <c r="D199" t="s">
         <v>472</v>
       </c>
-      <c r="E199" s="7" t="s">
+      <c r="E199" t="s">
         <v>101</v>
       </c>
       <c r="F199" t="s">
@@ -8451,7 +9303,7 @@
       <c r="D200" t="s">
         <v>472</v>
       </c>
-      <c r="E200" s="7" t="s">
+      <c r="E200" t="s">
         <v>101</v>
       </c>
       <c r="F200" t="s">
@@ -8483,7 +9335,7 @@
       <c r="D201" t="s">
         <v>472</v>
       </c>
-      <c r="E201" s="7" t="s">
+      <c r="E201" t="s">
         <v>101</v>
       </c>
       <c r="F201" t="s">
@@ -8515,7 +9367,7 @@
       <c r="D202" t="s">
         <v>472</v>
       </c>
-      <c r="E202" s="7" t="s">
+      <c r="E202" t="s">
         <v>101</v>
       </c>
       <c r="F202" t="s">
@@ -8547,7 +9399,7 @@
       <c r="D203" t="s">
         <v>472</v>
       </c>
-      <c r="E203" s="7" t="s">
+      <c r="E203" t="s">
         <v>101</v>
       </c>
       <c r="F203" t="s">
@@ -8579,7 +9431,7 @@
       <c r="D204" t="s">
         <v>472</v>
       </c>
-      <c r="E204" s="7" t="s">
+      <c r="E204" t="s">
         <v>101</v>
       </c>
       <c r="F204" t="s">
@@ -8611,7 +9463,7 @@
       <c r="D205" t="s">
         <v>472</v>
       </c>
-      <c r="E205" s="7" t="s">
+      <c r="E205" t="s">
         <v>101</v>
       </c>
       <c r="F205" t="s">
@@ -8643,7 +9495,7 @@
       <c r="D206" t="s">
         <v>472</v>
       </c>
-      <c r="E206" s="7" t="s">
+      <c r="E206" t="s">
         <v>101</v>
       </c>
       <c r="F206" t="s">
@@ -8678,7 +9530,7 @@
       <c r="D207" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="E207" s="7" t="s">
+      <c r="E207" t="s">
         <v>101</v>
       </c>
       <c r="F207" t="s">
@@ -8710,7 +9562,7 @@
       <c r="D208" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="E208" s="7" t="s">
+      <c r="E208" t="s">
         <v>101</v>
       </c>
       <c r="F208" t="s">
@@ -8743,4 +9595,3259 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1AC297A-A885-7C40-9A4E-22B5A2A054BE}">
+  <dimension ref="A1:K132"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="9"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D2" t="s">
+        <v>528</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" t="s">
+        <v>423</v>
+      </c>
+      <c r="H2" t="s">
+        <v>427</v>
+      </c>
+      <c r="K2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D3" t="s">
+        <v>528</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" t="s">
+        <v>423</v>
+      </c>
+      <c r="H3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>511</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" t="s">
+        <v>423</v>
+      </c>
+      <c r="H4" t="s">
+        <v>427</v>
+      </c>
+      <c r="K4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>512</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D5" t="s">
+        <v>529</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G5" t="s">
+        <v>423</v>
+      </c>
+      <c r="H5" t="s">
+        <v>427</v>
+      </c>
+      <c r="K5" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D6" t="s">
+        <v>529</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G6" t="s">
+        <v>423</v>
+      </c>
+      <c r="H6" t="s">
+        <v>427</v>
+      </c>
+      <c r="K6" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>514</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D7" t="s">
+        <v>529</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" t="s">
+        <v>423</v>
+      </c>
+      <c r="H7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K7" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D8" t="s">
+        <v>530</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G8" t="s">
+        <v>423</v>
+      </c>
+      <c r="H8" t="s">
+        <v>427</v>
+      </c>
+      <c r="K8" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>516</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D9" t="s">
+        <v>530</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" t="s">
+        <v>423</v>
+      </c>
+      <c r="H9" t="s">
+        <v>427</v>
+      </c>
+      <c r="K9" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>517</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D10" t="s">
+        <v>530</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" t="s">
+        <v>423</v>
+      </c>
+      <c r="H10" t="s">
+        <v>427</v>
+      </c>
+      <c r="K10" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>518</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D11" t="s">
+        <v>531</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F11" t="s">
+        <v>165</v>
+      </c>
+      <c r="G11" t="s">
+        <v>423</v>
+      </c>
+      <c r="H11" t="s">
+        <v>427</v>
+      </c>
+      <c r="K11" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>519</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D12" t="s">
+        <v>531</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F12" t="s">
+        <v>165</v>
+      </c>
+      <c r="G12" t="s">
+        <v>423</v>
+      </c>
+      <c r="H12" t="s">
+        <v>427</v>
+      </c>
+      <c r="K12" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>520</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D13" t="s">
+        <v>531</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F13" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" t="s">
+        <v>423</v>
+      </c>
+      <c r="H13" t="s">
+        <v>427</v>
+      </c>
+      <c r="K13" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>521</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D14" t="s">
+        <v>532</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F14" t="s">
+        <v>165</v>
+      </c>
+      <c r="G14" t="s">
+        <v>423</v>
+      </c>
+      <c r="H14" t="s">
+        <v>427</v>
+      </c>
+      <c r="K14" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>522</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D15" t="s">
+        <v>532</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F15" t="s">
+        <v>165</v>
+      </c>
+      <c r="G15" t="s">
+        <v>423</v>
+      </c>
+      <c r="H15" t="s">
+        <v>427</v>
+      </c>
+      <c r="K15" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>523</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D16" t="s">
+        <v>532</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F16" t="s">
+        <v>165</v>
+      </c>
+      <c r="G16" t="s">
+        <v>423</v>
+      </c>
+      <c r="H16" t="s">
+        <v>427</v>
+      </c>
+      <c r="K16" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>524</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D17" t="s">
+        <v>533</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" t="s">
+        <v>423</v>
+      </c>
+      <c r="H17" t="s">
+        <v>427</v>
+      </c>
+      <c r="K17" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>525</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D18" t="s">
+        <v>533</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F18" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" t="s">
+        <v>423</v>
+      </c>
+      <c r="H18" t="s">
+        <v>427</v>
+      </c>
+      <c r="K18" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>526</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D19" t="s">
+        <v>533</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F19" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" t="s">
+        <v>423</v>
+      </c>
+      <c r="H19" t="s">
+        <v>427</v>
+      </c>
+      <c r="K19" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>535</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="D21" t="s">
+        <v>638</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F21" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" t="s">
+        <v>423</v>
+      </c>
+      <c r="H21" t="s">
+        <v>427</v>
+      </c>
+      <c r="K21" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>536</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="D22" t="s">
+        <v>639</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F22" t="s">
+        <v>165</v>
+      </c>
+      <c r="G22" t="s">
+        <v>423</v>
+      </c>
+      <c r="H22" t="s">
+        <v>427</v>
+      </c>
+      <c r="K22" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>537</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="D23" t="s">
+        <v>691</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F23" t="s">
+        <v>166</v>
+      </c>
+      <c r="G23" t="s">
+        <v>423</v>
+      </c>
+      <c r="H23" t="s">
+        <v>427</v>
+      </c>
+      <c r="K23" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>538</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="D24" t="s">
+        <v>690</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F24" t="s">
+        <v>165</v>
+      </c>
+      <c r="G24" t="s">
+        <v>423</v>
+      </c>
+      <c r="H24" t="s">
+        <v>427</v>
+      </c>
+      <c r="K24" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>539</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="D25" t="s">
+        <v>575</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F25" t="s">
+        <v>165</v>
+      </c>
+      <c r="G25" t="s">
+        <v>423</v>
+      </c>
+      <c r="H25" t="s">
+        <v>427</v>
+      </c>
+      <c r="K25" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>540</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D27" t="s">
+        <v>692</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" t="s">
+        <v>423</v>
+      </c>
+      <c r="H27" t="s">
+        <v>428</v>
+      </c>
+      <c r="K27" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>541</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D28" t="s">
+        <v>696</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" t="s">
+        <v>423</v>
+      </c>
+      <c r="H28" t="s">
+        <v>428</v>
+      </c>
+      <c r="K28" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>542</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D29" t="s">
+        <v>463</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" t="s">
+        <v>423</v>
+      </c>
+      <c r="H29" t="s">
+        <v>428</v>
+      </c>
+      <c r="K29" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>543</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D30" t="s">
+        <v>566</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" t="s">
+        <v>423</v>
+      </c>
+      <c r="H30" t="s">
+        <v>428</v>
+      </c>
+      <c r="K30" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>544</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D31" t="s">
+        <v>563</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" t="s">
+        <v>423</v>
+      </c>
+      <c r="H31" t="s">
+        <v>428</v>
+      </c>
+      <c r="K31" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>545</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D32" t="s">
+        <v>564</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" t="s">
+        <v>423</v>
+      </c>
+      <c r="H32" t="s">
+        <v>428</v>
+      </c>
+      <c r="K32" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>546</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D33" t="s">
+        <v>565</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" t="s">
+        <v>423</v>
+      </c>
+      <c r="H33" t="s">
+        <v>428</v>
+      </c>
+      <c r="K33" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>547</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D34" t="s">
+        <v>567</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F34" t="s">
+        <v>166</v>
+      </c>
+      <c r="G34" t="s">
+        <v>423</v>
+      </c>
+      <c r="H34" t="s">
+        <v>428</v>
+      </c>
+      <c r="K34" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>548</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D35" t="s">
+        <v>568</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F35" t="s">
+        <v>166</v>
+      </c>
+      <c r="G35" t="s">
+        <v>423</v>
+      </c>
+      <c r="H35" t="s">
+        <v>428</v>
+      </c>
+      <c r="K35" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>549</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D36" t="s">
+        <v>569</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F36" t="s">
+        <v>166</v>
+      </c>
+      <c r="G36" t="s">
+        <v>423</v>
+      </c>
+      <c r="H36" t="s">
+        <v>428</v>
+      </c>
+      <c r="K36" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>550</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D37" t="s">
+        <v>570</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F37" t="s">
+        <v>166</v>
+      </c>
+      <c r="G37" t="s">
+        <v>423</v>
+      </c>
+      <c r="H37" t="s">
+        <v>428</v>
+      </c>
+      <c r="K37" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>551</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D38" t="s">
+        <v>698</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" t="s">
+        <v>423</v>
+      </c>
+      <c r="H38" t="s">
+        <v>428</v>
+      </c>
+      <c r="K38" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>552</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D39" t="s">
+        <v>697</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" t="s">
+        <v>423</v>
+      </c>
+      <c r="H39" t="s">
+        <v>428</v>
+      </c>
+      <c r="K39" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>553</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D40" t="s">
+        <v>694</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F40" t="s">
+        <v>165</v>
+      </c>
+      <c r="G40" t="s">
+        <v>423</v>
+      </c>
+      <c r="H40" t="s">
+        <v>428</v>
+      </c>
+      <c r="K40" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>554</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D41" t="s">
+        <v>571</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F41" t="s">
+        <v>166</v>
+      </c>
+      <c r="G41" t="s">
+        <v>423</v>
+      </c>
+      <c r="H41" t="s">
+        <v>428</v>
+      </c>
+      <c r="K41" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>555</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D42" t="s">
+        <v>702</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F42" t="s">
+        <v>166</v>
+      </c>
+      <c r="G42" t="s">
+        <v>423</v>
+      </c>
+      <c r="H42" t="s">
+        <v>428</v>
+      </c>
+      <c r="K42" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>556</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D43" t="s">
+        <v>693</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="G43" t="s">
+        <v>423</v>
+      </c>
+      <c r="H43" t="s">
+        <v>428</v>
+      </c>
+      <c r="K43" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>557</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D44" t="s">
+        <v>700</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F44" t="s">
+        <v>165</v>
+      </c>
+      <c r="G44" t="s">
+        <v>423</v>
+      </c>
+      <c r="H44" t="s">
+        <v>428</v>
+      </c>
+      <c r="K44" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>558</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D45" t="s">
+        <v>572</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F45" t="s">
+        <v>166</v>
+      </c>
+      <c r="G45" t="s">
+        <v>423</v>
+      </c>
+      <c r="H45" t="s">
+        <v>428</v>
+      </c>
+      <c r="K45" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>559</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D46" t="s">
+        <v>701</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F46" t="s">
+        <v>166</v>
+      </c>
+      <c r="G46" t="s">
+        <v>423</v>
+      </c>
+      <c r="H46" t="s">
+        <v>428</v>
+      </c>
+      <c r="K46" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>560</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D47" t="s">
+        <v>699</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F47" t="s">
+        <v>165</v>
+      </c>
+      <c r="G47" t="s">
+        <v>423</v>
+      </c>
+      <c r="H47" t="s">
+        <v>428</v>
+      </c>
+      <c r="K47" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>561</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D48" t="s">
+        <v>695</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F48" t="s">
+        <v>165</v>
+      </c>
+      <c r="G48" t="s">
+        <v>423</v>
+      </c>
+      <c r="H48" t="s">
+        <v>428</v>
+      </c>
+      <c r="K48" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>562</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D49" t="s">
+        <v>573</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F49" t="s">
+        <v>166</v>
+      </c>
+      <c r="G49" t="s">
+        <v>423</v>
+      </c>
+      <c r="H49" t="s">
+        <v>428</v>
+      </c>
+      <c r="K49" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>577</v>
+      </c>
+      <c r="C51" t="s">
+        <v>626</v>
+      </c>
+      <c r="D51" t="s">
+        <v>627</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F51" s="6"/>
+      <c r="G51" t="s">
+        <v>423</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="K51" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>578</v>
+      </c>
+      <c r="C52" t="s">
+        <v>626</v>
+      </c>
+      <c r="D52" t="s">
+        <v>628</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F52" s="6"/>
+      <c r="G52" t="s">
+        <v>423</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="K52" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>579</v>
+      </c>
+      <c r="C53" t="s">
+        <v>626</v>
+      </c>
+      <c r="D53" t="s">
+        <v>629</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F53" s="6"/>
+      <c r="G53" t="s">
+        <v>423</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="K53" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>580</v>
+      </c>
+      <c r="C54" t="s">
+        <v>626</v>
+      </c>
+      <c r="D54" t="s">
+        <v>630</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F54" s="6"/>
+      <c r="G54" t="s">
+        <v>423</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="K54" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>581</v>
+      </c>
+      <c r="C55" t="s">
+        <v>626</v>
+      </c>
+      <c r="D55" t="s">
+        <v>631</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F55" s="6"/>
+      <c r="G55" t="s">
+        <v>423</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="K55" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>584</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="D57" t="s">
+        <v>634</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G57" t="s">
+        <v>423</v>
+      </c>
+      <c r="H57" t="s">
+        <v>427</v>
+      </c>
+      <c r="K57" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>583</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="D58" t="s">
+        <v>634</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G58" t="s">
+        <v>423</v>
+      </c>
+      <c r="H58" t="s">
+        <v>427</v>
+      </c>
+      <c r="K58" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>582</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="D59" t="s">
+        <v>634</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G59" t="s">
+        <v>423</v>
+      </c>
+      <c r="H59" t="s">
+        <v>427</v>
+      </c>
+      <c r="K59" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>585</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="D60" t="s">
+        <v>635</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G60" t="s">
+        <v>423</v>
+      </c>
+      <c r="H60" t="s">
+        <v>427</v>
+      </c>
+      <c r="K60" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>586</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="D61" t="s">
+        <v>635</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G61" t="s">
+        <v>423</v>
+      </c>
+      <c r="H61" t="s">
+        <v>427</v>
+      </c>
+      <c r="K61" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>587</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="D62" t="s">
+        <v>635</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G62" t="s">
+        <v>423</v>
+      </c>
+      <c r="H62" t="s">
+        <v>427</v>
+      </c>
+      <c r="K62" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>588</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="D64" t="s">
+        <v>638</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F64" t="s">
+        <v>165</v>
+      </c>
+      <c r="G64" t="s">
+        <v>423</v>
+      </c>
+      <c r="H64" t="s">
+        <v>427</v>
+      </c>
+      <c r="K64" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>589</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="D65" t="s">
+        <v>638</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F65" t="s">
+        <v>165</v>
+      </c>
+      <c r="G65" t="s">
+        <v>423</v>
+      </c>
+      <c r="H65" t="s">
+        <v>427</v>
+      </c>
+      <c r="K65" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>590</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="D66" t="s">
+        <v>638</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F66" t="s">
+        <v>165</v>
+      </c>
+      <c r="G66" t="s">
+        <v>423</v>
+      </c>
+      <c r="H66" t="s">
+        <v>427</v>
+      </c>
+      <c r="K66" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>591</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="D67" t="s">
+        <v>639</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F67" t="s">
+        <v>165</v>
+      </c>
+      <c r="G67" t="s">
+        <v>423</v>
+      </c>
+      <c r="H67" t="s">
+        <v>427</v>
+      </c>
+      <c r="K67" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>592</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="D68" t="s">
+        <v>639</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F68" t="s">
+        <v>165</v>
+      </c>
+      <c r="G68" t="s">
+        <v>423</v>
+      </c>
+      <c r="H68" t="s">
+        <v>427</v>
+      </c>
+      <c r="K68" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>593</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="D69" t="s">
+        <v>639</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F69" t="s">
+        <v>165</v>
+      </c>
+      <c r="G69" t="s">
+        <v>423</v>
+      </c>
+      <c r="H69" t="s">
+        <v>427</v>
+      </c>
+      <c r="K69" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>594</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D71" t="s">
+        <v>642</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G71" t="s">
+        <v>423</v>
+      </c>
+      <c r="H71" t="s">
+        <v>427</v>
+      </c>
+      <c r="K71" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>595</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D72" t="s">
+        <v>642</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G72" t="s">
+        <v>423</v>
+      </c>
+      <c r="H72" t="s">
+        <v>427</v>
+      </c>
+      <c r="K72" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>596</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D73" t="s">
+        <v>642</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G73" t="s">
+        <v>423</v>
+      </c>
+      <c r="H73" t="s">
+        <v>427</v>
+      </c>
+      <c r="K73" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>597</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D74" t="s">
+        <v>642</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G74" t="s">
+        <v>423</v>
+      </c>
+      <c r="H74" t="s">
+        <v>427</v>
+      </c>
+      <c r="K74" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>598</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D75" t="s">
+        <v>643</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G75" t="s">
+        <v>423</v>
+      </c>
+      <c r="H75" t="s">
+        <v>427</v>
+      </c>
+      <c r="K75" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>599</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D76" t="s">
+        <v>643</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G76" t="s">
+        <v>423</v>
+      </c>
+      <c r="H76" t="s">
+        <v>427</v>
+      </c>
+      <c r="K76" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>600</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D77" t="s">
+        <v>643</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G77" t="s">
+        <v>423</v>
+      </c>
+      <c r="H77" t="s">
+        <v>427</v>
+      </c>
+      <c r="K77" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>601</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D78" t="s">
+        <v>643</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G78" t="s">
+        <v>423</v>
+      </c>
+      <c r="H78" t="s">
+        <v>427</v>
+      </c>
+      <c r="K78" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>602</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D79" t="s">
+        <v>528</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G79" t="s">
+        <v>423</v>
+      </c>
+      <c r="H79" t="s">
+        <v>427</v>
+      </c>
+      <c r="K79" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>603</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D80" t="s">
+        <v>528</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G80" t="s">
+        <v>423</v>
+      </c>
+      <c r="H80" t="s">
+        <v>427</v>
+      </c>
+      <c r="K80" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>604</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D81" t="s">
+        <v>528</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G81" t="s">
+        <v>423</v>
+      </c>
+      <c r="H81" t="s">
+        <v>427</v>
+      </c>
+      <c r="K81" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>605</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D82" t="s">
+        <v>528</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G82" t="s">
+        <v>423</v>
+      </c>
+      <c r="H82" t="s">
+        <v>427</v>
+      </c>
+      <c r="K82" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>606</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D83" t="s">
+        <v>644</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G83" t="s">
+        <v>423</v>
+      </c>
+      <c r="H83" t="s">
+        <v>427</v>
+      </c>
+      <c r="K83" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>607</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D84" t="s">
+        <v>644</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G84" t="s">
+        <v>423</v>
+      </c>
+      <c r="H84" t="s">
+        <v>427</v>
+      </c>
+      <c r="K84" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>608</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D85" t="s">
+        <v>644</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G85" t="s">
+        <v>423</v>
+      </c>
+      <c r="H85" t="s">
+        <v>427</v>
+      </c>
+      <c r="K85" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>609</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D86" t="s">
+        <v>644</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G86" t="s">
+        <v>423</v>
+      </c>
+      <c r="H86" t="s">
+        <v>427</v>
+      </c>
+      <c r="K86" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>610</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D87" t="s">
+        <v>645</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G87" t="s">
+        <v>423</v>
+      </c>
+      <c r="H87" t="s">
+        <v>427</v>
+      </c>
+      <c r="K87" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>611</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D88" t="s">
+        <v>645</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G88" t="s">
+        <v>423</v>
+      </c>
+      <c r="H88" t="s">
+        <v>427</v>
+      </c>
+      <c r="K88" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>612</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D89" t="s">
+        <v>645</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G89" t="s">
+        <v>423</v>
+      </c>
+      <c r="H89" t="s">
+        <v>427</v>
+      </c>
+      <c r="K89" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>613</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D90" t="s">
+        <v>645</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G90" t="s">
+        <v>423</v>
+      </c>
+      <c r="H90" t="s">
+        <v>427</v>
+      </c>
+      <c r="K90" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>614</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D91" t="s">
+        <v>646</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G91" t="s">
+        <v>423</v>
+      </c>
+      <c r="H91" t="s">
+        <v>427</v>
+      </c>
+      <c r="K91" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>615</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D92" t="s">
+        <v>646</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G92" t="s">
+        <v>423</v>
+      </c>
+      <c r="H92" t="s">
+        <v>427</v>
+      </c>
+      <c r="K92" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>616</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D93" t="s">
+        <v>646</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G93" t="s">
+        <v>423</v>
+      </c>
+      <c r="H93" t="s">
+        <v>427</v>
+      </c>
+      <c r="K93" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>617</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D94" t="s">
+        <v>646</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G94" t="s">
+        <v>423</v>
+      </c>
+      <c r="H94" t="s">
+        <v>427</v>
+      </c>
+      <c r="K94" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>618</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D95" t="s">
+        <v>647</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G95" t="s">
+        <v>423</v>
+      </c>
+      <c r="H95" t="s">
+        <v>427</v>
+      </c>
+      <c r="K95" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>619</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D96" t="s">
+        <v>647</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G96" t="s">
+        <v>423</v>
+      </c>
+      <c r="H96" t="s">
+        <v>427</v>
+      </c>
+      <c r="K96" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>620</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D97" t="s">
+        <v>647</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G97" t="s">
+        <v>423</v>
+      </c>
+      <c r="H97" t="s">
+        <v>427</v>
+      </c>
+      <c r="K97" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>621</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D98" t="s">
+        <v>647</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G98" t="s">
+        <v>423</v>
+      </c>
+      <c r="H98" t="s">
+        <v>427</v>
+      </c>
+      <c r="K98" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>622</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D99" t="s">
+        <v>648</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G99" t="s">
+        <v>423</v>
+      </c>
+      <c r="H99" t="s">
+        <v>427</v>
+      </c>
+      <c r="K99" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>623</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D100" t="s">
+        <v>648</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G100" t="s">
+        <v>423</v>
+      </c>
+      <c r="H100" t="s">
+        <v>427</v>
+      </c>
+      <c r="K100" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>624</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D101" t="s">
+        <v>648</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G101" t="s">
+        <v>423</v>
+      </c>
+      <c r="H101" t="s">
+        <v>427</v>
+      </c>
+      <c r="K101" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>625</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D102" t="s">
+        <v>648</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G102" t="s">
+        <v>423</v>
+      </c>
+      <c r="H102" t="s">
+        <v>427</v>
+      </c>
+      <c r="K102" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>652</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="D104" t="s">
+        <v>681</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F104" t="s">
+        <v>165</v>
+      </c>
+      <c r="G104" t="s">
+        <v>424</v>
+      </c>
+      <c r="H104" t="s">
+        <v>427</v>
+      </c>
+      <c r="K104" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>653</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="D105" t="s">
+        <v>681</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F105" t="s">
+        <v>165</v>
+      </c>
+      <c r="G105" t="s">
+        <v>424</v>
+      </c>
+      <c r="H105" t="s">
+        <v>427</v>
+      </c>
+      <c r="K105" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>654</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="D106" t="s">
+        <v>681</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F106" t="s">
+        <v>165</v>
+      </c>
+      <c r="G106" t="s">
+        <v>424</v>
+      </c>
+      <c r="H106" t="s">
+        <v>427</v>
+      </c>
+      <c r="K106" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>655</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="D107" t="s">
+        <v>681</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F107" t="s">
+        <v>165</v>
+      </c>
+      <c r="G107" t="s">
+        <v>424</v>
+      </c>
+      <c r="H107" t="s">
+        <v>427</v>
+      </c>
+      <c r="K107" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>656</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="D108" t="s">
+        <v>682</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F108" t="s">
+        <v>165</v>
+      </c>
+      <c r="G108" t="s">
+        <v>424</v>
+      </c>
+      <c r="H108" t="s">
+        <v>427</v>
+      </c>
+      <c r="K108" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>657</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="D109" t="s">
+        <v>682</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F109" t="s">
+        <v>165</v>
+      </c>
+      <c r="G109" t="s">
+        <v>424</v>
+      </c>
+      <c r="H109" t="s">
+        <v>427</v>
+      </c>
+      <c r="K109" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>658</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="D110" t="s">
+        <v>682</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F110" t="s">
+        <v>165</v>
+      </c>
+      <c r="G110" t="s">
+        <v>424</v>
+      </c>
+      <c r="H110" t="s">
+        <v>427</v>
+      </c>
+      <c r="K110" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>659</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="D111" t="s">
+        <v>682</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F111" t="s">
+        <v>165</v>
+      </c>
+      <c r="G111" t="s">
+        <v>424</v>
+      </c>
+      <c r="H111" t="s">
+        <v>427</v>
+      </c>
+      <c r="K111" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>660</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="D112" t="s">
+        <v>682</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F112" t="s">
+        <v>165</v>
+      </c>
+      <c r="G112" t="s">
+        <v>424</v>
+      </c>
+      <c r="H112" t="s">
+        <v>427</v>
+      </c>
+      <c r="K112" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>661</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="D113" t="s">
+        <v>683</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F113" t="s">
+        <v>165</v>
+      </c>
+      <c r="G113" t="s">
+        <v>424</v>
+      </c>
+      <c r="H113" t="s">
+        <v>427</v>
+      </c>
+      <c r="K113" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>662</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="D114" t="s">
+        <v>683</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F114" t="s">
+        <v>165</v>
+      </c>
+      <c r="G114" t="s">
+        <v>424</v>
+      </c>
+      <c r="H114" t="s">
+        <v>427</v>
+      </c>
+      <c r="K114" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>663</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="D115" t="s">
+        <v>683</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F115" t="s">
+        <v>165</v>
+      </c>
+      <c r="G115" t="s">
+        <v>424</v>
+      </c>
+      <c r="H115" t="s">
+        <v>427</v>
+      </c>
+      <c r="K115" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>664</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="D116" t="s">
+        <v>683</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F116" t="s">
+        <v>165</v>
+      </c>
+      <c r="G116" t="s">
+        <v>424</v>
+      </c>
+      <c r="H116" t="s">
+        <v>427</v>
+      </c>
+      <c r="K116" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>665</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="D117" t="s">
+        <v>683</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F117" t="s">
+        <v>165</v>
+      </c>
+      <c r="G117" t="s">
+        <v>424</v>
+      </c>
+      <c r="H117" t="s">
+        <v>427</v>
+      </c>
+      <c r="K117" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>666</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="D118" t="s">
+        <v>684</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F118" t="s">
+        <v>165</v>
+      </c>
+      <c r="G118" t="s">
+        <v>424</v>
+      </c>
+      <c r="H118" t="s">
+        <v>427</v>
+      </c>
+      <c r="K118" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>667</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="D119" t="s">
+        <v>684</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F119" t="s">
+        <v>165</v>
+      </c>
+      <c r="G119" t="s">
+        <v>424</v>
+      </c>
+      <c r="H119" t="s">
+        <v>427</v>
+      </c>
+      <c r="K119" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>668</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="D120" t="s">
+        <v>684</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F120" t="s">
+        <v>165</v>
+      </c>
+      <c r="G120" t="s">
+        <v>424</v>
+      </c>
+      <c r="H120" t="s">
+        <v>427</v>
+      </c>
+      <c r="K120" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>669</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="D121" t="s">
+        <v>684</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F121" t="s">
+        <v>165</v>
+      </c>
+      <c r="G121" t="s">
+        <v>424</v>
+      </c>
+      <c r="H121" t="s">
+        <v>427</v>
+      </c>
+      <c r="K121" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>670</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="D122" t="s">
+        <v>684</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F122" t="s">
+        <v>165</v>
+      </c>
+      <c r="G122" t="s">
+        <v>424</v>
+      </c>
+      <c r="H122" t="s">
+        <v>427</v>
+      </c>
+      <c r="K122" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>671</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="D123" t="s">
+        <v>685</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F123" t="s">
+        <v>165</v>
+      </c>
+      <c r="G123" t="s">
+        <v>424</v>
+      </c>
+      <c r="H123" t="s">
+        <v>427</v>
+      </c>
+      <c r="K123" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>672</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="D124" t="s">
+        <v>685</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F124" t="s">
+        <v>165</v>
+      </c>
+      <c r="G124" t="s">
+        <v>424</v>
+      </c>
+      <c r="H124" t="s">
+        <v>427</v>
+      </c>
+      <c r="K124" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>673</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="D125" t="s">
+        <v>685</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F125" t="s">
+        <v>165</v>
+      </c>
+      <c r="G125" t="s">
+        <v>424</v>
+      </c>
+      <c r="H125" t="s">
+        <v>427</v>
+      </c>
+      <c r="K125" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>674</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="D126" t="s">
+        <v>685</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F126" t="s">
+        <v>165</v>
+      </c>
+      <c r="G126" t="s">
+        <v>424</v>
+      </c>
+      <c r="H126" t="s">
+        <v>427</v>
+      </c>
+      <c r="K126" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>675</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="D127" t="s">
+        <v>685</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F127" t="s">
+        <v>165</v>
+      </c>
+      <c r="G127" t="s">
+        <v>424</v>
+      </c>
+      <c r="H127" t="s">
+        <v>427</v>
+      </c>
+      <c r="K127" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>676</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="D128" t="s">
+        <v>686</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F128" t="s">
+        <v>165</v>
+      </c>
+      <c r="G128" t="s">
+        <v>424</v>
+      </c>
+      <c r="H128" t="s">
+        <v>427</v>
+      </c>
+      <c r="K128" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>677</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="D129" t="s">
+        <v>686</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F129" t="s">
+        <v>165</v>
+      </c>
+      <c r="G129" t="s">
+        <v>424</v>
+      </c>
+      <c r="H129" t="s">
+        <v>427</v>
+      </c>
+      <c r="K129" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>678</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="D130" t="s">
+        <v>686</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F130" t="s">
+        <v>165</v>
+      </c>
+      <c r="G130" t="s">
+        <v>424</v>
+      </c>
+      <c r="H130" t="s">
+        <v>427</v>
+      </c>
+      <c r="K130" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>679</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="D131" t="s">
+        <v>686</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F131" t="s">
+        <v>165</v>
+      </c>
+      <c r="G131" t="s">
+        <v>424</v>
+      </c>
+      <c r="H131" t="s">
+        <v>427</v>
+      </c>
+      <c r="K131" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
+        <v>680</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="D132" t="s">
+        <v>686</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F132" t="s">
+        <v>165</v>
+      </c>
+      <c r="G132" t="s">
+        <v>424</v>
+      </c>
+      <c r="H132" t="s">
+        <v>427</v>
+      </c>
+      <c r="K132" t="s">
+        <v>651</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/ref.xlsx
+++ b/data/ref.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/Repositories/LCAdata/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C91B31-89B1-A74E-A05E-56DB4699DB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66059E71-7F6D-0648-9D5B-5328DCC678B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21000" yWindow="560" windowWidth="17120" windowHeight="15880" activeTab="1" xr2:uid="{4F28B243-04AE-1E4D-B411-E86C9FDA2FDF}"/>
+    <workbookView xWindow="39180" yWindow="1180" windowWidth="17120" windowHeight="15880" activeTab="1" xr2:uid="{4F28B243-04AE-1E4D-B411-E86C9FDA2FDF}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2864" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3233" uniqueCount="737">
   <si>
     <t>old file name</t>
   </si>
@@ -3103,6 +3103,545 @@
   </si>
   <si>
     <t>? "investigated in an intervarietla cross of bread wheat involving two highly competitive varietyies"</t>
+  </si>
+  <si>
+    <t>SE provided?</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE provided? Y or N. If N, same se used for all cohorts. </t>
+  </si>
+  <si>
+    <t>one se provided for each phenotype, used for all cohorts</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gall, G.A.E. (1975) Genetics of reproduction in domesticated rainbow trout. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Journal of Animal Science</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 40(1), 19-28.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chai, C.K. (1955) Analysis of quantitative inheritance of body size in mice. II. Gene action and segregation. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Genetics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Delaney, D.E., Lower, R.L. (1987) Generation means analysis of plant characters in crosses between two determinate cucumber crosses between two determinate cucumber lines and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Cucumis sativus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">var. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hardwickii</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">J. Amer. Soc. Hort. Sci. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>112(4), 707-711.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ghaderi, A. (1979) Analysis of generation means for yield in six crosses of cucumber. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">J. Amer. Soc. Hort. Sci. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">104(4), 567-572. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ito, G.M., Brewbaker, J.L. (1991) Genetic analysis of pericar thickness in progenies of eight corn hybrids. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">J. Amer. Soc. Hort. Sci. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">116(6), 1072-1077. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Lapinski, M., Parzyszek, B. (1982) Nonallelic interaction in inheritance of some quantitative traits in interlinear hybrids of rye (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Secale cereale L..) Genetica polonica. 23(1-2), 31-40. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Merrit, R.G. (1988) Inheritance of culm number in two uniculm x multiculm wheat crosses. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Euphytica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 38, 105-111</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mgonja, M.A., Ladeinde, T.A.O., Aken'Ova, M.E. (1994) Genetic analysis of mesocotyl length and its relationship with other agronomic characters in rice (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Oryza sativa </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">L.). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Euphytica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 72, 189-195.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Motto, M., Soressi, G.P., Salamini, F. (1978) Seed size inheritance in a cross between wild and cultivated common beans (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Phaseolus vulgaris </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">L.). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Genetica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. 49(1), 31-36. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pinchbeck, B.R., et al. (1980) Genetic studies of symbiotic nitrogen fixation in spanish clover. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Can. J. Plant Sci</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. 60, 509-518. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sandhu, J.S., Anand, S.C. (1974) Inheritance of grain yield in wheat. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Indian J. agric. Sci. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">44(7), 444-446. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Singh, S.P., Singh, H.N. (1979) Genetics of seed number per pod and its inheritence in pea. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Indian J. agric. Sci. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>49(6), 401-403.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Starmer, W.T., et al. (1998) Reproductive characterostics of the flower breeding </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Drosophila hibisci </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">bock (Drosophilidae) in easter Australia: genetic and environmental determinants of ovariole number. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Evolution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. 52(3), 806-815. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wei, R., Bitgood, J.J., Dentine, M.R. Inheritance of tinted eggshell colors in white-shell stocks. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Poltry Science</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 71, 406-418.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wilkins, H. (1971). Genetic interpretation of repressive evolutionary processes: studies of hybrid eyes of two astynax cave populations (characindae, pisces). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Evolution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. 25(3), 530-544. </t>
+    </r>
+  </si>
+  <si>
+    <t>rainbow trout</t>
+  </si>
+  <si>
+    <t>mice</t>
+  </si>
+  <si>
+    <t>cucumber</t>
+  </si>
+  <si>
+    <t>corn</t>
+  </si>
+  <si>
+    <t>rye (Secale cereale L..)</t>
+  </si>
+  <si>
+    <t>wheat</t>
+  </si>
+  <si>
+    <t>rice (Oryza sativa L.)</t>
+  </si>
+  <si>
+    <t>beans (Phaseolus vulgaris L.)</t>
+  </si>
+  <si>
+    <t>spanish clover</t>
+  </si>
+  <si>
+    <t>pea</t>
+  </si>
+  <si>
+    <t>Drosophila hibisci</t>
+  </si>
+  <si>
+    <t>poltry</t>
+  </si>
+  <si>
+    <t>Astyanax</t>
   </si>
 </sst>
 </file>
@@ -3201,8 +3740,8 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3517,11 +4056,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1137BAE9-F081-9948-9F37-D6A451EE45DA}">
-  <dimension ref="A1:W215"/>
+  <dimension ref="A1:X215"/>
   <sheetViews>
-    <sheetView zoomScale="106" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K77" sqref="K77"/>
+    <sheetView topLeftCell="G1" zoomScale="106" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J210" sqref="J210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3531,12 +4070,12 @@
     <col min="3" max="3" width="30.33203125" customWidth="1"/>
     <col min="4" max="4" width="26.1640625" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="10" width="28.33203125" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" customWidth="1"/>
+    <col min="8" max="9" width="24" customWidth="1"/>
+    <col min="10" max="11" width="28.33203125" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3562,16 +4101,19 @@
         <v>426</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>257</v>
       </c>
@@ -3594,13 +4136,16 @@
         <v>428</v>
       </c>
       <c r="I2" t="s">
+        <v>705</v>
+      </c>
+      <c r="J2" t="s">
         <v>243</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>301</v>
       </c>
@@ -3622,11 +4167,14 @@
       <c r="H3" t="s">
         <v>427</v>
       </c>
-      <c r="K3" t="s">
+      <c r="I3" t="s">
+        <v>705</v>
+      </c>
+      <c r="L3" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>297</v>
       </c>
@@ -3648,11 +4196,14 @@
       <c r="H4" t="s">
         <v>427</v>
       </c>
-      <c r="K4" t="s">
+      <c r="I4" t="s">
+        <v>705</v>
+      </c>
+      <c r="L4" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>295</v>
       </c>
@@ -3674,11 +4225,14 @@
       <c r="H5" t="s">
         <v>427</v>
       </c>
-      <c r="K5" t="s">
+      <c r="I5" t="s">
+        <v>705</v>
+      </c>
+      <c r="L5" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>299</v>
       </c>
@@ -3700,11 +4254,14 @@
       <c r="H6" t="s">
         <v>427</v>
       </c>
-      <c r="K6" t="s">
+      <c r="I6" t="s">
+        <v>705</v>
+      </c>
+      <c r="L6" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>298</v>
       </c>
@@ -3726,11 +4283,14 @@
       <c r="H7" t="s">
         <v>427</v>
       </c>
-      <c r="K7" t="s">
+      <c r="I7" t="s">
+        <v>705</v>
+      </c>
+      <c r="L7" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>296</v>
       </c>
@@ -3752,11 +4312,14 @@
       <c r="H8" t="s">
         <v>427</v>
       </c>
-      <c r="K8" t="s">
+      <c r="I8" t="s">
+        <v>705</v>
+      </c>
+      <c r="L8" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>300</v>
       </c>
@@ -3778,11 +4341,14 @@
       <c r="H9" t="s">
         <v>427</v>
       </c>
-      <c r="K9" t="s">
+      <c r="I9" t="s">
+        <v>705</v>
+      </c>
+      <c r="L9" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>220</v>
       </c>
@@ -3804,11 +4370,14 @@
       <c r="H10" t="s">
         <v>428</v>
       </c>
-      <c r="K10" t="s">
+      <c r="I10" t="s">
+        <v>705</v>
+      </c>
+      <c r="L10" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>258</v>
       </c>
@@ -3831,13 +4400,16 @@
         <v>428</v>
       </c>
       <c r="I11" t="s">
+        <v>705</v>
+      </c>
+      <c r="J11" t="s">
         <v>260</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>259</v>
       </c>
@@ -3860,13 +4432,16 @@
         <v>428</v>
       </c>
       <c r="I12" t="s">
+        <v>705</v>
+      </c>
+      <c r="J12" t="s">
         <v>261</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -3891,11 +4466,14 @@
       <c r="H13" t="s">
         <v>427</v>
       </c>
-      <c r="K13" t="s">
+      <c r="I13" t="s">
+        <v>705</v>
+      </c>
+      <c r="L13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -3920,11 +4498,14 @@
       <c r="H14" t="s">
         <v>427</v>
       </c>
-      <c r="K14" t="s">
+      <c r="I14" t="s">
+        <v>705</v>
+      </c>
+      <c r="L14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -3949,11 +4530,14 @@
       <c r="H15" t="s">
         <v>427</v>
       </c>
-      <c r="K15" t="s">
+      <c r="I15" t="s">
+        <v>705</v>
+      </c>
+      <c r="L15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -3978,11 +4562,14 @@
       <c r="H16" t="s">
         <v>427</v>
       </c>
-      <c r="K16" t="s">
+      <c r="I16" t="s">
+        <v>705</v>
+      </c>
+      <c r="L16" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>83</v>
       </c>
@@ -4004,11 +4591,14 @@
       <c r="H17" t="s">
         <v>428</v>
       </c>
-      <c r="K17" t="s">
+      <c r="I17" t="s">
+        <v>705</v>
+      </c>
+      <c r="L17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>251</v>
       </c>
@@ -4031,13 +4621,16 @@
         <v>428</v>
       </c>
       <c r="I18" t="s">
+        <v>705</v>
+      </c>
+      <c r="J18" t="s">
         <v>237</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>389</v>
       </c>
@@ -4060,13 +4653,16 @@
         <v>428</v>
       </c>
       <c r="I19" t="s">
+        <v>705</v>
+      </c>
+      <c r="J19" t="s">
         <v>391</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>386</v>
       </c>
@@ -4088,11 +4684,14 @@
       <c r="H20" t="s">
         <v>428</v>
       </c>
-      <c r="K20" t="s">
+      <c r="I20" t="s">
+        <v>705</v>
+      </c>
+      <c r="L20" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>85</v>
       </c>
@@ -4114,11 +4713,14 @@
       <c r="H21" t="s">
         <v>428</v>
       </c>
-      <c r="K21" t="s">
+      <c r="I21" t="s">
+        <v>705</v>
+      </c>
+      <c r="L21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -4143,11 +4745,14 @@
       <c r="H22" t="s">
         <v>429</v>
       </c>
-      <c r="K22" t="s">
+      <c r="I22" t="s">
+        <v>705</v>
+      </c>
+      <c r="L22" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -4172,11 +4777,14 @@
       <c r="H23" t="s">
         <v>429</v>
       </c>
-      <c r="K23" t="s">
+      <c r="I23" t="s">
+        <v>705</v>
+      </c>
+      <c r="L23" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -4201,11 +4809,14 @@
       <c r="H24" t="s">
         <v>429</v>
       </c>
-      <c r="K24" t="s">
+      <c r="I24" t="s">
+        <v>705</v>
+      </c>
+      <c r="L24" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -4230,11 +4841,14 @@
       <c r="H25" t="s">
         <v>429</v>
       </c>
-      <c r="K25" t="s">
+      <c r="I25" t="s">
+        <v>705</v>
+      </c>
+      <c r="L25" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>86</v>
       </c>
@@ -4256,11 +4870,14 @@
       <c r="H26" t="s">
         <v>429</v>
       </c>
-      <c r="K26" t="s">
+      <c r="I26" t="s">
+        <v>705</v>
+      </c>
+      <c r="L26" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>388</v>
       </c>
@@ -4283,13 +4900,16 @@
         <v>428</v>
       </c>
       <c r="I27" t="s">
+        <v>705</v>
+      </c>
+      <c r="J27" t="s">
         <v>391</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>244</v>
       </c>
@@ -4312,13 +4932,16 @@
         <v>428</v>
       </c>
       <c r="I28" t="s">
+        <v>705</v>
+      </c>
+      <c r="J28" t="s">
         <v>230</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>370</v>
       </c>
@@ -4340,11 +4963,14 @@
       <c r="H29" t="s">
         <v>428</v>
       </c>
-      <c r="K29" t="s">
+      <c r="I29" t="s">
+        <v>705</v>
+      </c>
+      <c r="L29" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>263</v>
       </c>
@@ -4367,13 +4993,16 @@
         <v>428</v>
       </c>
       <c r="I30" t="s">
+        <v>705</v>
+      </c>
+      <c r="J30" t="s">
         <v>450</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>87</v>
       </c>
@@ -4395,11 +5024,14 @@
       <c r="H31" t="s">
         <v>427</v>
       </c>
-      <c r="K31" t="s">
+      <c r="I31" t="s">
+        <v>705</v>
+      </c>
+      <c r="L31" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>319</v>
       </c>
@@ -4421,11 +5053,14 @@
       <c r="H32" t="s">
         <v>427</v>
       </c>
-      <c r="K32" t="s">
+      <c r="I32" t="s">
+        <v>705</v>
+      </c>
+      <c r="L32" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -4450,11 +5085,14 @@
       <c r="H33" t="s">
         <v>428</v>
       </c>
-      <c r="K33" t="s">
+      <c r="I33" t="s">
+        <v>705</v>
+      </c>
+      <c r="L33" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>88</v>
       </c>
@@ -4476,11 +5114,14 @@
       <c r="H34" t="s">
         <v>427</v>
       </c>
-      <c r="K34" t="s">
+      <c r="I34" t="s">
+        <v>705</v>
+      </c>
+      <c r="L34" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>352</v>
       </c>
@@ -4503,13 +5144,16 @@
         <v>428</v>
       </c>
       <c r="I35" t="s">
+        <v>705</v>
+      </c>
+      <c r="J35" t="s">
         <v>216</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>349</v>
       </c>
@@ -4531,11 +5175,14 @@
       <c r="H36" t="s">
         <v>428</v>
       </c>
-      <c r="K36" t="s">
+      <c r="I36" t="s">
+        <v>705</v>
+      </c>
+      <c r="L36" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>89</v>
       </c>
@@ -4557,11 +5204,14 @@
       <c r="H37" t="s">
         <v>428</v>
       </c>
-      <c r="K37" t="s">
+      <c r="I37" t="s">
+        <v>705</v>
+      </c>
+      <c r="L37" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>354</v>
       </c>
@@ -4584,13 +5234,16 @@
         <v>428</v>
       </c>
       <c r="I38" t="s">
+        <v>705</v>
+      </c>
+      <c r="J38" t="s">
         <v>218</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -4615,11 +5268,14 @@
       <c r="H39" t="s">
         <v>428</v>
       </c>
-      <c r="K39" t="s">
+      <c r="I39" t="s">
+        <v>705</v>
+      </c>
+      <c r="L39" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -4644,11 +5300,14 @@
       <c r="H40" t="s">
         <v>428</v>
       </c>
-      <c r="K40" t="s">
+      <c r="I40" t="s">
+        <v>705</v>
+      </c>
+      <c r="L40" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -4673,11 +5332,14 @@
       <c r="H41" t="s">
         <v>428</v>
       </c>
-      <c r="K41" t="s">
+      <c r="I41" t="s">
+        <v>705</v>
+      </c>
+      <c r="L41" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -4702,11 +5364,14 @@
       <c r="H42" t="s">
         <v>428</v>
       </c>
-      <c r="K42" t="s">
+      <c r="I42" t="s">
+        <v>705</v>
+      </c>
+      <c r="L42" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -4731,11 +5396,14 @@
       <c r="H43" t="s">
         <v>428</v>
       </c>
-      <c r="K43" t="s">
+      <c r="I43" t="s">
+        <v>705</v>
+      </c>
+      <c r="L43" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>353</v>
       </c>
@@ -4757,11 +5425,14 @@
       <c r="H44" t="s">
         <v>428</v>
       </c>
-      <c r="K44" t="s">
+      <c r="I44" t="s">
+        <v>705</v>
+      </c>
+      <c r="L44" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -4786,11 +5457,14 @@
       <c r="H45" t="s">
         <v>428</v>
       </c>
-      <c r="K45" t="s">
+      <c r="I45" t="s">
+        <v>705</v>
+      </c>
+      <c r="L45" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -4815,11 +5489,14 @@
       <c r="H46" t="s">
         <v>428</v>
       </c>
-      <c r="K46" t="s">
+      <c r="I46" t="s">
+        <v>705</v>
+      </c>
+      <c r="L46" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -4844,11 +5521,14 @@
       <c r="H47" t="s">
         <v>428</v>
       </c>
-      <c r="K47" t="s">
+      <c r="I47" t="s">
+        <v>705</v>
+      </c>
+      <c r="L47" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -4873,11 +5553,14 @@
       <c r="H48" t="s">
         <v>428</v>
       </c>
-      <c r="K48" t="s">
+      <c r="I48" t="s">
+        <v>705</v>
+      </c>
+      <c r="L48" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -4902,11 +5585,14 @@
       <c r="H49" t="s">
         <v>428</v>
       </c>
-      <c r="K49" t="s">
+      <c r="I49" t="s">
+        <v>705</v>
+      </c>
+      <c r="L49" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>309</v>
       </c>
@@ -4929,13 +5615,16 @@
         <v>428</v>
       </c>
       <c r="I50" t="s">
+        <v>705</v>
+      </c>
+      <c r="J50" t="s">
         <v>450</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>387</v>
       </c>
@@ -4957,11 +5646,14 @@
       <c r="H51" t="s">
         <v>428</v>
       </c>
-      <c r="K51" t="s">
+      <c r="I51" t="s">
+        <v>705</v>
+      </c>
+      <c r="L51" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>90</v>
       </c>
@@ -4983,11 +5675,14 @@
       <c r="H52" t="s">
         <v>428</v>
       </c>
-      <c r="K52" t="s">
+      <c r="I52" t="s">
+        <v>705</v>
+      </c>
+      <c r="L52" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>227</v>
       </c>
@@ -5009,11 +5704,14 @@
       <c r="H53" t="s">
         <v>427</v>
       </c>
-      <c r="K53" t="s">
+      <c r="I53" t="s">
+        <v>705</v>
+      </c>
+      <c r="L53" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>226</v>
       </c>
@@ -5035,11 +5733,14 @@
       <c r="H54" t="s">
         <v>427</v>
       </c>
-      <c r="K54" t="s">
+      <c r="I54" t="s">
+        <v>705</v>
+      </c>
+      <c r="L54" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>262</v>
       </c>
@@ -5062,13 +5763,16 @@
         <v>427</v>
       </c>
       <c r="I55" t="s">
+        <v>705</v>
+      </c>
+      <c r="J55" t="s">
         <v>225</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>348</v>
       </c>
@@ -5091,13 +5795,16 @@
         <v>428</v>
       </c>
       <c r="I56" t="s">
+        <v>705</v>
+      </c>
+      <c r="J56" t="s">
         <v>212</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -5122,11 +5829,14 @@
       <c r="H57" t="s">
         <v>427</v>
       </c>
-      <c r="K57" t="s">
+      <c r="I57" t="s">
+        <v>705</v>
+      </c>
+      <c r="L57" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -5151,11 +5861,14 @@
       <c r="H58" t="s">
         <v>427</v>
       </c>
-      <c r="K58" t="s">
+      <c r="I58" t="s">
+        <v>705</v>
+      </c>
+      <c r="L58" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>20</v>
       </c>
@@ -5180,11 +5893,14 @@
       <c r="H59" t="s">
         <v>427</v>
       </c>
-      <c r="K59" t="s">
+      <c r="I59" t="s">
+        <v>705</v>
+      </c>
+      <c r="L59" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -5209,11 +5925,14 @@
       <c r="H60" t="s">
         <v>427</v>
       </c>
-      <c r="K60" t="s">
+      <c r="I60" t="s">
+        <v>705</v>
+      </c>
+      <c r="L60" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>22</v>
       </c>
@@ -5238,11 +5957,14 @@
       <c r="H61" t="s">
         <v>427</v>
       </c>
-      <c r="K61" t="s">
+      <c r="I61" t="s">
+        <v>705</v>
+      </c>
+      <c r="L61" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>23</v>
       </c>
@@ -5267,11 +5989,14 @@
       <c r="H62" t="s">
         <v>427</v>
       </c>
-      <c r="K62" t="s">
+      <c r="I62" t="s">
+        <v>705</v>
+      </c>
+      <c r="L62" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -5296,11 +6021,14 @@
       <c r="H63" t="s">
         <v>427</v>
       </c>
-      <c r="K63" t="s">
+      <c r="I63" t="s">
+        <v>705</v>
+      </c>
+      <c r="L63" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>25</v>
       </c>
@@ -5325,11 +6053,14 @@
       <c r="H64" t="s">
         <v>427</v>
       </c>
-      <c r="K64" t="s">
+      <c r="I64" t="s">
+        <v>705</v>
+      </c>
+      <c r="L64" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>26</v>
       </c>
@@ -5354,11 +6085,14 @@
       <c r="H65" t="s">
         <v>427</v>
       </c>
-      <c r="K65" t="s">
+      <c r="I65" t="s">
+        <v>705</v>
+      </c>
+      <c r="L65" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>256</v>
       </c>
@@ -5381,13 +6115,16 @@
         <v>428</v>
       </c>
       <c r="I66" t="s">
+        <v>705</v>
+      </c>
+      <c r="J66" t="s">
         <v>239</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>252</v>
       </c>
@@ -5410,13 +6147,16 @@
         <v>428</v>
       </c>
       <c r="I67" t="s">
+        <v>705</v>
+      </c>
+      <c r="J67" t="s">
         <v>238</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>35</v>
       </c>
@@ -5441,11 +6181,14 @@
       <c r="H68" t="s">
         <v>428</v>
       </c>
-      <c r="K68" t="s">
+      <c r="I68" t="s">
+        <v>705</v>
+      </c>
+      <c r="L68" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>37</v>
       </c>
@@ -5470,11 +6213,14 @@
       <c r="H69" t="s">
         <v>428</v>
       </c>
-      <c r="K69" t="s">
+      <c r="I69" t="s">
+        <v>705</v>
+      </c>
+      <c r="L69" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>36</v>
       </c>
@@ -5499,11 +6245,14 @@
       <c r="H70" t="s">
         <v>428</v>
       </c>
-      <c r="K70" t="s">
+      <c r="I70" t="s">
+        <v>705</v>
+      </c>
+      <c r="L70" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -5528,11 +6277,14 @@
       <c r="H71" t="s">
         <v>428</v>
       </c>
-      <c r="K71" t="s">
+      <c r="I71" t="s">
+        <v>705</v>
+      </c>
+      <c r="L71" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>39</v>
       </c>
@@ -5557,11 +6309,14 @@
       <c r="H72" t="s">
         <v>428</v>
       </c>
-      <c r="K72" t="s">
+      <c r="I72" t="s">
+        <v>705</v>
+      </c>
+      <c r="L72" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>27</v>
       </c>
@@ -5586,11 +6341,14 @@
       <c r="H73" t="s">
         <v>428</v>
       </c>
-      <c r="K73" t="s">
+      <c r="I73" t="s">
+        <v>705</v>
+      </c>
+      <c r="L73" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>28</v>
       </c>
@@ -5615,11 +6373,14 @@
       <c r="H74" t="s">
         <v>428</v>
       </c>
-      <c r="K74" t="s">
+      <c r="I74" t="s">
+        <v>705</v>
+      </c>
+      <c r="L74" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>29</v>
       </c>
@@ -5644,11 +6405,14 @@
       <c r="H75" t="s">
         <v>428</v>
       </c>
-      <c r="K75" t="s">
+      <c r="I75" t="s">
+        <v>705</v>
+      </c>
+      <c r="L75" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>58</v>
       </c>
@@ -5673,11 +6437,14 @@
       <c r="H76" t="s">
         <v>428</v>
       </c>
-      <c r="K76" t="s">
+      <c r="I76" t="s">
+        <v>705</v>
+      </c>
+      <c r="L76" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>356</v>
       </c>
@@ -5699,11 +6466,14 @@
       <c r="H77" t="s">
         <v>428</v>
       </c>
-      <c r="K77" t="s">
+      <c r="I77" t="s">
+        <v>705</v>
+      </c>
+      <c r="L77" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>219</v>
       </c>
@@ -5725,11 +6495,14 @@
       <c r="H78" t="s">
         <v>428</v>
       </c>
-      <c r="K78" t="s">
+      <c r="I78" t="s">
+        <v>705</v>
+      </c>
+      <c r="L78" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -5754,11 +6527,14 @@
       <c r="H79" t="s">
         <v>428</v>
       </c>
-      <c r="K79" t="s">
+      <c r="I79" t="s">
+        <v>705</v>
+      </c>
+      <c r="L79" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -5783,11 +6559,14 @@
       <c r="H80" t="s">
         <v>428</v>
       </c>
-      <c r="K80" t="s">
+      <c r="I80" t="s">
+        <v>705</v>
+      </c>
+      <c r="L80" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>351</v>
       </c>
@@ -5810,13 +6589,16 @@
         <v>428</v>
       </c>
       <c r="I81" t="s">
+        <v>705</v>
+      </c>
+      <c r="J81" t="s">
         <v>215</v>
       </c>
-      <c r="K81" t="s">
+      <c r="L81" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -5841,11 +6623,14 @@
       <c r="H82" t="s">
         <v>428</v>
       </c>
-      <c r="K82" t="s">
+      <c r="I82" t="s">
+        <v>705</v>
+      </c>
+      <c r="L82" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>59</v>
       </c>
@@ -5871,13 +6656,16 @@
         <v>428</v>
       </c>
       <c r="I83" t="s">
+        <v>705</v>
+      </c>
+      <c r="J83" t="s">
         <v>162</v>
       </c>
-      <c r="K83" t="s">
+      <c r="L83" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>245</v>
       </c>
@@ -5900,13 +6688,16 @@
         <v>428</v>
       </c>
       <c r="I84" t="s">
+        <v>705</v>
+      </c>
+      <c r="J84" t="s">
         <v>231</v>
       </c>
-      <c r="K84" t="s">
+      <c r="L84" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>246</v>
       </c>
@@ -5929,13 +6720,16 @@
         <v>428</v>
       </c>
       <c r="I85" t="s">
+        <v>705</v>
+      </c>
+      <c r="J85" t="s">
         <v>232</v>
       </c>
-      <c r="K85" t="s">
+      <c r="L85" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>250</v>
       </c>
@@ -5958,13 +6752,16 @@
         <v>428</v>
       </c>
       <c r="I86" t="s">
+        <v>705</v>
+      </c>
+      <c r="J86" t="s">
         <v>236</v>
       </c>
-      <c r="K86" t="s">
+      <c r="L86" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>249</v>
       </c>
@@ -5987,13 +6784,16 @@
         <v>428</v>
       </c>
       <c r="I87" t="s">
+        <v>705</v>
+      </c>
+      <c r="J87" t="s">
         <v>235</v>
       </c>
-      <c r="K87" t="s">
+      <c r="L87" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>248</v>
       </c>
@@ -6016,13 +6816,16 @@
         <v>428</v>
       </c>
       <c r="I88" t="s">
+        <v>705</v>
+      </c>
+      <c r="J88" t="s">
         <v>234</v>
       </c>
-      <c r="K88" t="s">
+      <c r="L88" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>247</v>
       </c>
@@ -6045,13 +6848,16 @@
         <v>428</v>
       </c>
       <c r="I89" t="s">
+        <v>705</v>
+      </c>
+      <c r="J89" t="s">
         <v>233</v>
       </c>
-      <c r="K89" t="s">
+      <c r="L89" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>355</v>
       </c>
@@ -6073,11 +6879,14 @@
       <c r="H90" t="s">
         <v>428</v>
       </c>
-      <c r="K90" t="s">
+      <c r="I90" t="s">
+        <v>705</v>
+      </c>
+      <c r="L90" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>371</v>
       </c>
@@ -6099,11 +6908,14 @@
       <c r="H91" t="s">
         <v>428</v>
       </c>
-      <c r="K91" t="s">
+      <c r="I91" t="s">
+        <v>705</v>
+      </c>
+      <c r="L91" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>380</v>
       </c>
@@ -6125,11 +6937,14 @@
       <c r="H92" t="s">
         <v>427</v>
       </c>
-      <c r="K92" t="s">
+      <c r="I92" t="s">
+        <v>705</v>
+      </c>
+      <c r="L92" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>14</v>
       </c>
@@ -6154,11 +6969,14 @@
       <c r="H93" t="s">
         <v>428</v>
       </c>
-      <c r="K93" t="s">
+      <c r="I93" t="s">
+        <v>705</v>
+      </c>
+      <c r="L93" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>15</v>
       </c>
@@ -6183,11 +7001,14 @@
       <c r="H94" t="s">
         <v>428</v>
       </c>
-      <c r="K94" t="s">
+      <c r="I94" t="s">
+        <v>705</v>
+      </c>
+      <c r="L94" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>45</v>
       </c>
@@ -6212,11 +7033,14 @@
       <c r="H95" t="s">
         <v>428</v>
       </c>
-      <c r="K95" t="s">
+      <c r="I95" t="s">
+        <v>705</v>
+      </c>
+      <c r="L95" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>46</v>
       </c>
@@ -6241,11 +7065,14 @@
       <c r="H96" t="s">
         <v>428</v>
       </c>
-      <c r="K96" t="s">
+      <c r="I96" t="s">
+        <v>705</v>
+      </c>
+      <c r="L96" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>47</v>
       </c>
@@ -6270,11 +7097,14 @@
       <c r="H97" t="s">
         <v>428</v>
       </c>
-      <c r="K97" t="s">
+      <c r="I97" t="s">
+        <v>705</v>
+      </c>
+      <c r="L97" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>48</v>
       </c>
@@ -6299,11 +7129,14 @@
       <c r="H98" t="s">
         <v>428</v>
       </c>
-      <c r="K98" t="s">
+      <c r="I98" t="s">
+        <v>705</v>
+      </c>
+      <c r="L98" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>49</v>
       </c>
@@ -6328,11 +7161,14 @@
       <c r="H99" t="s">
         <v>428</v>
       </c>
-      <c r="K99" t="s">
+      <c r="I99" t="s">
+        <v>705</v>
+      </c>
+      <c r="L99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>50</v>
       </c>
@@ -6357,11 +7193,14 @@
       <c r="H100" t="s">
         <v>428</v>
       </c>
-      <c r="K100" t="s">
+      <c r="I100" t="s">
+        <v>705</v>
+      </c>
+      <c r="L100" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>51</v>
       </c>
@@ -6386,11 +7225,14 @@
       <c r="H101" t="s">
         <v>428</v>
       </c>
-      <c r="K101" t="s">
+      <c r="I101" t="s">
+        <v>705</v>
+      </c>
+      <c r="L101" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>52</v>
       </c>
@@ -6415,11 +7257,14 @@
       <c r="H102" t="s">
         <v>428</v>
       </c>
-      <c r="K102" t="s">
+      <c r="I102" t="s">
+        <v>705</v>
+      </c>
+      <c r="L102" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>53</v>
       </c>
@@ -6444,11 +7289,14 @@
       <c r="H103" t="s">
         <v>428</v>
       </c>
-      <c r="K103" t="s">
+      <c r="I103" t="s">
+        <v>705</v>
+      </c>
+      <c r="L103" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>54</v>
       </c>
@@ -6473,11 +7321,14 @@
       <c r="H104" t="s">
         <v>428</v>
       </c>
-      <c r="K104" t="s">
+      <c r="I104" t="s">
+        <v>705</v>
+      </c>
+      <c r="L104" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>379</v>
       </c>
@@ -6499,11 +7350,14 @@
       <c r="H105" t="s">
         <v>427</v>
       </c>
-      <c r="K105" t="s">
+      <c r="I105" t="s">
+        <v>705</v>
+      </c>
+      <c r="L105" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>16</v>
       </c>
@@ -6528,11 +7382,14 @@
       <c r="H106" t="s">
         <v>428</v>
       </c>
-      <c r="K106" t="s">
+      <c r="I106" t="s">
+        <v>705</v>
+      </c>
+      <c r="L106" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>91</v>
       </c>
@@ -6554,11 +7411,14 @@
       <c r="H107" t="s">
         <v>427</v>
       </c>
-      <c r="K107" t="s">
+      <c r="I107" t="s">
+        <v>705</v>
+      </c>
+      <c r="L107" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>61</v>
       </c>
@@ -6584,13 +7444,16 @@
         <v>428</v>
       </c>
       <c r="I108" t="s">
+        <v>705</v>
+      </c>
+      <c r="J108" t="s">
         <v>163</v>
       </c>
-      <c r="K108" t="s">
+      <c r="L108" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>310</v>
       </c>
@@ -6612,11 +7475,14 @@
       <c r="H109" t="s">
         <v>428</v>
       </c>
-      <c r="K109" t="s">
+      <c r="I109" t="s">
+        <v>705</v>
+      </c>
+      <c r="L109" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>254</v>
       </c>
@@ -6639,13 +7505,16 @@
         <v>428</v>
       </c>
       <c r="I110" t="s">
+        <v>705</v>
+      </c>
+      <c r="J110" t="s">
         <v>241</v>
       </c>
-      <c r="K110" t="s">
+      <c r="L110" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>255</v>
       </c>
@@ -6668,13 +7537,16 @@
         <v>428</v>
       </c>
       <c r="I111" t="s">
+        <v>705</v>
+      </c>
+      <c r="J111" t="s">
         <v>240</v>
       </c>
-      <c r="K111" t="s">
+      <c r="L111" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>253</v>
       </c>
@@ -6697,13 +7569,16 @@
         <v>428</v>
       </c>
       <c r="I112" t="s">
+        <v>705</v>
+      </c>
+      <c r="J112" t="s">
         <v>242</v>
       </c>
-      <c r="K112" t="s">
+      <c r="L112" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>369</v>
       </c>
@@ -6725,11 +7600,14 @@
       <c r="H113" t="s">
         <v>428</v>
       </c>
-      <c r="K113" t="s">
+      <c r="I113" t="s">
+        <v>705</v>
+      </c>
+      <c r="L113" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>390</v>
       </c>
@@ -6752,13 +7630,16 @@
         <v>428</v>
       </c>
       <c r="I114" t="s">
+        <v>705</v>
+      </c>
+      <c r="J114" t="s">
         <v>392</v>
       </c>
-      <c r="K114" t="s">
+      <c r="L114" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>92</v>
       </c>
@@ -6780,11 +7661,14 @@
       <c r="H115" t="s">
         <v>427</v>
       </c>
-      <c r="K115" t="s">
+      <c r="I115" t="s">
+        <v>705</v>
+      </c>
+      <c r="L115" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>93</v>
       </c>
@@ -6806,11 +7690,14 @@
       <c r="H116" t="s">
         <v>427</v>
       </c>
-      <c r="K116" t="s">
+      <c r="I116" t="s">
+        <v>705</v>
+      </c>
+      <c r="L116" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>17</v>
       </c>
@@ -6835,11 +7722,14 @@
       <c r="H117" t="s">
         <v>428</v>
       </c>
-      <c r="K117" t="s">
+      <c r="I117" t="s">
+        <v>705</v>
+      </c>
+      <c r="L117" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>382</v>
       </c>
@@ -6861,11 +7751,14 @@
       <c r="H118" t="s">
         <v>427</v>
       </c>
-      <c r="K118" t="s">
+      <c r="I118" t="s">
+        <v>705</v>
+      </c>
+      <c r="L118" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>94</v>
       </c>
@@ -6887,11 +7780,14 @@
       <c r="H119" t="s">
         <v>427</v>
       </c>
-      <c r="K119" t="s">
+      <c r="I119" t="s">
+        <v>705</v>
+      </c>
+      <c r="L119" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>308</v>
       </c>
@@ -6913,11 +7809,14 @@
       <c r="H120" t="s">
         <v>427</v>
       </c>
-      <c r="K120" t="s">
+      <c r="I120" t="s">
+        <v>705</v>
+      </c>
+      <c r="L120" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>304</v>
       </c>
@@ -6939,11 +7838,14 @@
       <c r="H121" t="s">
         <v>427</v>
       </c>
-      <c r="K121" t="s">
+      <c r="I121" t="s">
+        <v>705</v>
+      </c>
+      <c r="L121" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>302</v>
       </c>
@@ -6965,11 +7867,14 @@
       <c r="H122" t="s">
         <v>427</v>
       </c>
-      <c r="K122" t="s">
+      <c r="I122" t="s">
+        <v>705</v>
+      </c>
+      <c r="L122" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>306</v>
       </c>
@@ -6991,11 +7896,14 @@
       <c r="H123" t="s">
         <v>427</v>
       </c>
-      <c r="K123" t="s">
+      <c r="I123" t="s">
+        <v>705</v>
+      </c>
+      <c r="L123" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>305</v>
       </c>
@@ -7017,11 +7925,14 @@
       <c r="H124" t="s">
         <v>427</v>
       </c>
-      <c r="K124" t="s">
+      <c r="I124" t="s">
+        <v>705</v>
+      </c>
+      <c r="L124" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>303</v>
       </c>
@@ -7043,11 +7954,14 @@
       <c r="H125" t="s">
         <v>427</v>
       </c>
-      <c r="K125" t="s">
+      <c r="I125" t="s">
+        <v>705</v>
+      </c>
+      <c r="L125" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>307</v>
       </c>
@@ -7069,11 +7983,14 @@
       <c r="H126" t="s">
         <v>427</v>
       </c>
-      <c r="K126" t="s">
+      <c r="I126" t="s">
+        <v>705</v>
+      </c>
+      <c r="L126" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>350</v>
       </c>
@@ -7096,13 +8013,16 @@
         <v>428</v>
       </c>
       <c r="I127" t="s">
+        <v>705</v>
+      </c>
+      <c r="J127" t="s">
         <v>214</v>
       </c>
-      <c r="K127" t="s">
+      <c r="L127" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>95</v>
       </c>
@@ -7124,14 +8044,17 @@
       <c r="H128" t="s">
         <v>427</v>
       </c>
-      <c r="K128" t="s">
+      <c r="I128" t="s">
+        <v>705</v>
+      </c>
+      <c r="L128" t="s">
         <v>206</v>
       </c>
-      <c r="W128" t="s">
+      <c r="X128" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>372</v>
       </c>
@@ -7153,14 +8076,17 @@
       <c r="H129" t="s">
         <v>428</v>
       </c>
-      <c r="K129" t="s">
+      <c r="I129" t="s">
+        <v>705</v>
+      </c>
+      <c r="L129" t="s">
         <v>375</v>
       </c>
-      <c r="W129" t="s">
+      <c r="X129" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>65</v>
       </c>
@@ -7185,11 +8111,14 @@
       <c r="H130" t="s">
         <v>428</v>
       </c>
-      <c r="K130" t="s">
+      <c r="I130" t="s">
+        <v>705</v>
+      </c>
+      <c r="L130" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>66</v>
       </c>
@@ -7214,11 +8143,14 @@
       <c r="H131" t="s">
         <v>428</v>
       </c>
-      <c r="K131" t="s">
+      <c r="I131" t="s">
+        <v>705</v>
+      </c>
+      <c r="L131" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>67</v>
       </c>
@@ -7243,11 +8175,14 @@
       <c r="H132" t="s">
         <v>428</v>
       </c>
-      <c r="K132" t="s">
+      <c r="I132" t="s">
+        <v>705</v>
+      </c>
+      <c r="L132" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>63</v>
       </c>
@@ -7272,11 +8207,14 @@
       <c r="H133" t="s">
         <v>428</v>
       </c>
-      <c r="K133" t="s">
+      <c r="I133" t="s">
+        <v>705</v>
+      </c>
+      <c r="L133" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>69</v>
       </c>
@@ -7301,11 +8239,14 @@
       <c r="H134" t="s">
         <v>428</v>
       </c>
-      <c r="K134" t="s">
+      <c r="I134" t="s">
+        <v>705</v>
+      </c>
+      <c r="L134" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>64</v>
       </c>
@@ -7330,11 +8271,14 @@
       <c r="H135" t="s">
         <v>428</v>
       </c>
-      <c r="K135" t="s">
+      <c r="I135" t="s">
+        <v>705</v>
+      </c>
+      <c r="L135" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>71</v>
       </c>
@@ -7359,11 +8303,14 @@
       <c r="H136" t="s">
         <v>428</v>
       </c>
-      <c r="K136" t="s">
+      <c r="I136" t="s">
+        <v>705</v>
+      </c>
+      <c r="L136" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>68</v>
       </c>
@@ -7388,11 +8335,14 @@
       <c r="H137" t="s">
         <v>428</v>
       </c>
-      <c r="K137" t="s">
+      <c r="I137" t="s">
+        <v>705</v>
+      </c>
+      <c r="L137" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>60</v>
       </c>
@@ -7417,11 +8367,14 @@
       <c r="H138" t="s">
         <v>428</v>
       </c>
-      <c r="K138" t="s">
+      <c r="I138" t="s">
+        <v>705</v>
+      </c>
+      <c r="L138" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>62</v>
       </c>
@@ -7446,11 +8399,14 @@
       <c r="H139" t="s">
         <v>428</v>
       </c>
-      <c r="K139" t="s">
+      <c r="I139" t="s">
+        <v>705</v>
+      </c>
+      <c r="L139" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>70</v>
       </c>
@@ -7475,11 +8431,14 @@
       <c r="H140" t="s">
         <v>428</v>
       </c>
-      <c r="K140" t="s">
+      <c r="I140" t="s">
+        <v>705</v>
+      </c>
+      <c r="L140" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>76</v>
       </c>
@@ -7504,11 +8463,14 @@
       <c r="H141" t="s">
         <v>428</v>
       </c>
-      <c r="K141" t="s">
+      <c r="I141" t="s">
+        <v>705</v>
+      </c>
+      <c r="L141" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>77</v>
       </c>
@@ -7533,11 +8495,14 @@
       <c r="H142" t="s">
         <v>428</v>
       </c>
-      <c r="K142" t="s">
+      <c r="I142" t="s">
+        <v>705</v>
+      </c>
+      <c r="L142" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>78</v>
       </c>
@@ -7562,11 +8527,14 @@
       <c r="H143" t="s">
         <v>428</v>
       </c>
-      <c r="K143" t="s">
+      <c r="I143" t="s">
+        <v>705</v>
+      </c>
+      <c r="L143" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>74</v>
       </c>
@@ -7591,11 +8559,14 @@
       <c r="H144" t="s">
         <v>428</v>
       </c>
-      <c r="K144" t="s">
+      <c r="I144" t="s">
+        <v>705</v>
+      </c>
+      <c r="L144" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>80</v>
       </c>
@@ -7620,11 +8591,14 @@
       <c r="H145" t="s">
         <v>428</v>
       </c>
-      <c r="K145" t="s">
+      <c r="I145" t="s">
+        <v>705</v>
+      </c>
+      <c r="L145" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>75</v>
       </c>
@@ -7649,11 +8623,14 @@
       <c r="H146" t="s">
         <v>428</v>
       </c>
-      <c r="K146" t="s">
+      <c r="I146" t="s">
+        <v>705</v>
+      </c>
+      <c r="L146" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>82</v>
       </c>
@@ -7678,11 +8655,14 @@
       <c r="H147" t="s">
         <v>428</v>
       </c>
-      <c r="K147" t="s">
+      <c r="I147" t="s">
+        <v>705</v>
+      </c>
+      <c r="L147" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>79</v>
       </c>
@@ -7707,11 +8687,14 @@
       <c r="H148" t="s">
         <v>428</v>
       </c>
-      <c r="K148" t="s">
+      <c r="I148" t="s">
+        <v>705</v>
+      </c>
+      <c r="L148" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>72</v>
       </c>
@@ -7736,11 +8719,14 @@
       <c r="H149" t="s">
         <v>428</v>
       </c>
-      <c r="K149" t="s">
+      <c r="I149" t="s">
+        <v>705</v>
+      </c>
+      <c r="L149" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>73</v>
       </c>
@@ -7765,11 +8751,14 @@
       <c r="H150" t="s">
         <v>428</v>
       </c>
-      <c r="K150" t="s">
+      <c r="I150" t="s">
+        <v>705</v>
+      </c>
+      <c r="L150" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>81</v>
       </c>
@@ -7794,11 +8783,14 @@
       <c r="H151" t="s">
         <v>428</v>
       </c>
-      <c r="K151" t="s">
+      <c r="I151" t="s">
+        <v>705</v>
+      </c>
+      <c r="L151" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>333</v>
       </c>
@@ -7821,13 +8813,16 @@
         <v>428</v>
       </c>
       <c r="I152" t="s">
+        <v>705</v>
+      </c>
+      <c r="J152" t="s">
         <v>231</v>
       </c>
-      <c r="K152" t="s">
+      <c r="L152" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>334</v>
       </c>
@@ -7850,13 +8845,16 @@
         <v>428</v>
       </c>
       <c r="I153" t="s">
+        <v>705</v>
+      </c>
+      <c r="J153" t="s">
         <v>232</v>
       </c>
-      <c r="K153" t="s">
+      <c r="L153" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>335</v>
       </c>
@@ -7879,13 +8877,16 @@
         <v>428</v>
       </c>
       <c r="I154" t="s">
+        <v>705</v>
+      </c>
+      <c r="J154" t="s">
         <v>233</v>
       </c>
-      <c r="K154" t="s">
+      <c r="L154" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>336</v>
       </c>
@@ -7908,13 +8909,16 @@
         <v>428</v>
       </c>
       <c r="I155" t="s">
+        <v>705</v>
+      </c>
+      <c r="J155" t="s">
         <v>234</v>
       </c>
-      <c r="K155" t="s">
+      <c r="L155" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>337</v>
       </c>
@@ -7937,13 +8941,16 @@
         <v>428</v>
       </c>
       <c r="I156" t="s">
+        <v>705</v>
+      </c>
+      <c r="J156" t="s">
         <v>230</v>
       </c>
-      <c r="K156" t="s">
+      <c r="L156" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>338</v>
       </c>
@@ -7966,13 +8973,16 @@
         <v>428</v>
       </c>
       <c r="I157" t="s">
+        <v>705</v>
+      </c>
+      <c r="J157" t="s">
         <v>240</v>
       </c>
-      <c r="K157" t="s">
+      <c r="L157" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>339</v>
       </c>
@@ -7995,13 +9005,16 @@
         <v>428</v>
       </c>
       <c r="I158" t="s">
+        <v>705</v>
+      </c>
+      <c r="J158" t="s">
         <v>328</v>
       </c>
-      <c r="K158" t="s">
+      <c r="L158" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>340</v>
       </c>
@@ -8024,13 +9037,16 @@
         <v>428</v>
       </c>
       <c r="I159" t="s">
+        <v>705</v>
+      </c>
+      <c r="J159" t="s">
         <v>329</v>
       </c>
-      <c r="K159" t="s">
+      <c r="L159" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>341</v>
       </c>
@@ -8053,13 +9069,16 @@
         <v>428</v>
       </c>
       <c r="I160" t="s">
+        <v>705</v>
+      </c>
+      <c r="J160" t="s">
         <v>235</v>
       </c>
-      <c r="K160" t="s">
+      <c r="L160" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="161" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>342</v>
       </c>
@@ -8082,13 +9101,16 @@
         <v>428</v>
       </c>
       <c r="I161" t="s">
+        <v>705</v>
+      </c>
+      <c r="J161" t="s">
         <v>236</v>
       </c>
-      <c r="K161" t="s">
+      <c r="L161" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="162" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>343</v>
       </c>
@@ -8111,13 +9133,16 @@
         <v>428</v>
       </c>
       <c r="I162" t="s">
+        <v>705</v>
+      </c>
+      <c r="J162" t="s">
         <v>330</v>
       </c>
-      <c r="K162" t="s">
+      <c r="L162" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="163" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>344</v>
       </c>
@@ -8140,13 +9165,16 @@
         <v>428</v>
       </c>
       <c r="I163" t="s">
+        <v>705</v>
+      </c>
+      <c r="J163" t="s">
         <v>237</v>
       </c>
-      <c r="K163" t="s">
+      <c r="L163" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="164" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>345</v>
       </c>
@@ -8169,13 +9197,16 @@
         <v>428</v>
       </c>
       <c r="I164" t="s">
+        <v>705</v>
+      </c>
+      <c r="J164" t="s">
         <v>331</v>
       </c>
-      <c r="K164" t="s">
+      <c r="L164" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="165" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>346</v>
       </c>
@@ -8198,13 +9229,16 @@
         <v>428</v>
       </c>
       <c r="I165" t="s">
+        <v>705</v>
+      </c>
+      <c r="J165" t="s">
         <v>332</v>
       </c>
-      <c r="K165" t="s">
+      <c r="L165" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="166" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>317</v>
       </c>
@@ -8227,16 +9261,19 @@
         <v>427</v>
       </c>
       <c r="I166" t="s">
+        <v>705</v>
+      </c>
+      <c r="J166" t="s">
         <v>422</v>
       </c>
-      <c r="J166" t="s">
+      <c r="K166" t="s">
         <v>436</v>
       </c>
-      <c r="K166" t="s">
+      <c r="L166" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="167" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>313</v>
       </c>
@@ -8259,16 +9296,19 @@
         <v>427</v>
       </c>
       <c r="I167" t="s">
+        <v>705</v>
+      </c>
+      <c r="J167" t="s">
         <v>421</v>
       </c>
-      <c r="J167" t="s">
+      <c r="K167" t="s">
         <v>436</v>
       </c>
-      <c r="K167" t="s">
+      <c r="L167" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="168" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>318</v>
       </c>
@@ -8291,16 +9331,19 @@
         <v>427</v>
       </c>
       <c r="I168" t="s">
+        <v>705</v>
+      </c>
+      <c r="J168" t="s">
         <v>422</v>
       </c>
-      <c r="J168" t="s">
+      <c r="K168" t="s">
         <v>436</v>
       </c>
-      <c r="K168" t="s">
+      <c r="L168" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="169" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>314</v>
       </c>
@@ -8323,16 +9366,19 @@
         <v>427</v>
       </c>
       <c r="I169" t="s">
+        <v>705</v>
+      </c>
+      <c r="J169" t="s">
         <v>421</v>
       </c>
-      <c r="J169" t="s">
+      <c r="K169" t="s">
         <v>436</v>
       </c>
-      <c r="K169" t="s">
+      <c r="L169" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="170" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>316</v>
       </c>
@@ -8355,16 +9401,19 @@
         <v>427</v>
       </c>
       <c r="I170" t="s">
+        <v>705</v>
+      </c>
+      <c r="J170" t="s">
         <v>422</v>
       </c>
-      <c r="J170" t="s">
+      <c r="K170" t="s">
         <v>436</v>
       </c>
-      <c r="K170" t="s">
+      <c r="L170" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="171" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>312</v>
       </c>
@@ -8387,16 +9436,19 @@
         <v>427</v>
       </c>
       <c r="I171" t="s">
+        <v>705</v>
+      </c>
+      <c r="J171" t="s">
         <v>421</v>
       </c>
-      <c r="J171" t="s">
+      <c r="K171" t="s">
         <v>436</v>
       </c>
-      <c r="K171" t="s">
+      <c r="L171" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="172" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>311</v>
       </c>
@@ -8419,16 +9471,19 @@
         <v>427</v>
       </c>
       <c r="I172" t="s">
+        <v>705</v>
+      </c>
+      <c r="J172" t="s">
         <v>421</v>
       </c>
-      <c r="J172" t="s">
+      <c r="K172" t="s">
         <v>436</v>
       </c>
-      <c r="K172" t="s">
+      <c r="L172" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="173" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>315</v>
       </c>
@@ -8451,16 +9506,19 @@
         <v>427</v>
       </c>
       <c r="I173" t="s">
+        <v>705</v>
+      </c>
+      <c r="J173" t="s">
         <v>422</v>
       </c>
-      <c r="J173" t="s">
+      <c r="K173" t="s">
         <v>436</v>
       </c>
-      <c r="K173" t="s">
+      <c r="L173" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="174" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>406</v>
       </c>
@@ -8483,16 +9541,19 @@
         <v>427</v>
       </c>
       <c r="I174" t="s">
+        <v>705</v>
+      </c>
+      <c r="J174" t="s">
         <v>412</v>
       </c>
-      <c r="J174" t="s">
+      <c r="K174" t="s">
         <v>432</v>
       </c>
-      <c r="K174" t="s">
+      <c r="L174" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="175" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>408</v>
       </c>
@@ -8515,16 +9576,19 @@
         <v>427</v>
       </c>
       <c r="I175" t="s">
+        <v>705</v>
+      </c>
+      <c r="J175" t="s">
         <v>414</v>
       </c>
-      <c r="J175" t="s">
+      <c r="K175" t="s">
         <v>432</v>
       </c>
-      <c r="K175" t="s">
+      <c r="L175" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="176" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>410</v>
       </c>
@@ -8547,16 +9611,19 @@
         <v>427</v>
       </c>
       <c r="I176" t="s">
+        <v>705</v>
+      </c>
+      <c r="J176" t="s">
         <v>416</v>
       </c>
-      <c r="J176" t="s">
+      <c r="K176" t="s">
         <v>432</v>
       </c>
-      <c r="K176" t="s">
+      <c r="L176" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="177" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>393</v>
       </c>
@@ -8579,16 +9646,19 @@
         <v>427</v>
       </c>
       <c r="I177" t="s">
+        <v>705</v>
+      </c>
+      <c r="J177" t="s">
         <v>399</v>
       </c>
-      <c r="J177" t="s">
+      <c r="K177" t="s">
         <v>432</v>
       </c>
-      <c r="K177" t="s">
+      <c r="L177" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="178" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>395</v>
       </c>
@@ -8611,16 +9681,19 @@
         <v>427</v>
       </c>
       <c r="I178" t="s">
+        <v>705</v>
+      </c>
+      <c r="J178" t="s">
         <v>401</v>
       </c>
-      <c r="J178" t="s">
+      <c r="K178" t="s">
         <v>432</v>
       </c>
-      <c r="K178" t="s">
+      <c r="L178" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="179" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
         <v>397</v>
       </c>
@@ -8643,16 +9716,19 @@
         <v>427</v>
       </c>
       <c r="I179" t="s">
+        <v>705</v>
+      </c>
+      <c r="J179" t="s">
         <v>403</v>
       </c>
-      <c r="J179" t="s">
+      <c r="K179" t="s">
         <v>432</v>
       </c>
-      <c r="K179" t="s">
+      <c r="L179" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="180" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>407</v>
       </c>
@@ -8675,16 +9751,19 @@
         <v>427</v>
       </c>
       <c r="I180" t="s">
+        <v>705</v>
+      </c>
+      <c r="J180" t="s">
         <v>413</v>
       </c>
-      <c r="J180" t="s">
+      <c r="K180" t="s">
         <v>433</v>
       </c>
-      <c r="K180" t="s">
+      <c r="L180" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="181" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>409</v>
       </c>
@@ -8707,16 +9786,19 @@
         <v>427</v>
       </c>
       <c r="I181" t="s">
+        <v>705</v>
+      </c>
+      <c r="J181" t="s">
         <v>415</v>
       </c>
-      <c r="J181" t="s">
+      <c r="K181" t="s">
         <v>433</v>
       </c>
-      <c r="K181" t="s">
+      <c r="L181" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="182" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>411</v>
       </c>
@@ -8739,16 +9821,19 @@
         <v>427</v>
       </c>
       <c r="I182" t="s">
+        <v>705</v>
+      </c>
+      <c r="J182" t="s">
         <v>417</v>
       </c>
-      <c r="J182" t="s">
+      <c r="K182" t="s">
         <v>434</v>
       </c>
-      <c r="K182" t="s">
+      <c r="L182" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="183" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
         <v>394</v>
       </c>
@@ -8771,16 +9856,19 @@
         <v>427</v>
       </c>
       <c r="I183" t="s">
+        <v>705</v>
+      </c>
+      <c r="J183" t="s">
         <v>400</v>
       </c>
-      <c r="J183" t="s">
+      <c r="K183" t="s">
         <v>433</v>
       </c>
-      <c r="K183" t="s">
+      <c r="L183" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="184" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>396</v>
       </c>
@@ -8803,16 +9891,19 @@
         <v>427</v>
       </c>
       <c r="I184" t="s">
+        <v>705</v>
+      </c>
+      <c r="J184" t="s">
         <v>402</v>
       </c>
-      <c r="J184" t="s">
+      <c r="K184" t="s">
         <v>433</v>
       </c>
-      <c r="K184" t="s">
+      <c r="L184" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="185" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>398</v>
       </c>
@@ -8835,16 +9926,19 @@
         <v>427</v>
       </c>
       <c r="I185" t="s">
+        <v>705</v>
+      </c>
+      <c r="J185" t="s">
         <v>404</v>
       </c>
-      <c r="J185" t="s">
+      <c r="K185" t="s">
         <v>434</v>
       </c>
-      <c r="K185" t="s">
+      <c r="L185" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="186" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>324</v>
       </c>
@@ -8867,16 +9961,19 @@
         <v>427</v>
       </c>
       <c r="I186" t="s">
+        <v>705</v>
+      </c>
+      <c r="J186" t="s">
         <v>320</v>
       </c>
-      <c r="J186" t="s">
+      <c r="K186" t="s">
         <v>431</v>
       </c>
-      <c r="K186" t="s">
+      <c r="L186" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="187" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>325</v>
       </c>
@@ -8899,16 +9996,19 @@
         <v>427</v>
       </c>
       <c r="I187" t="s">
+        <v>705</v>
+      </c>
+      <c r="J187" t="s">
         <v>321</v>
       </c>
-      <c r="J187" t="s">
+      <c r="K187" t="s">
         <v>431</v>
       </c>
-      <c r="K187" t="s">
+      <c r="L187" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="188" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
         <v>326</v>
       </c>
@@ -8931,16 +10031,19 @@
         <v>427</v>
       </c>
       <c r="I188" t="s">
+        <v>705</v>
+      </c>
+      <c r="J188" t="s">
         <v>322</v>
       </c>
-      <c r="J188" t="s">
+      <c r="K188" t="s">
         <v>431</v>
       </c>
-      <c r="K188" t="s">
+      <c r="L188" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="189" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
         <v>327</v>
       </c>
@@ -8963,16 +10066,19 @@
         <v>427</v>
       </c>
       <c r="I189" t="s">
+        <v>705</v>
+      </c>
+      <c r="J189" t="s">
         <v>323</v>
       </c>
-      <c r="J189" t="s">
+      <c r="K189" t="s">
         <v>431</v>
       </c>
-      <c r="K189" t="s">
+      <c r="L189" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="190" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>274</v>
       </c>
@@ -8995,16 +10101,19 @@
         <v>427</v>
       </c>
       <c r="I190" t="s">
+        <v>705</v>
+      </c>
+      <c r="J190" t="s">
         <v>473</v>
       </c>
-      <c r="J190" t="s">
+      <c r="K190" t="s">
         <v>435</v>
       </c>
-      <c r="K190" t="s">
+      <c r="L190" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="191" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
         <v>280</v>
       </c>
@@ -9027,16 +10136,19 @@
         <v>427</v>
       </c>
       <c r="I191" t="s">
+        <v>705</v>
+      </c>
+      <c r="J191" t="s">
         <v>474</v>
       </c>
-      <c r="J191" t="s">
+      <c r="K191" t="s">
         <v>435</v>
       </c>
-      <c r="K191" t="s">
+      <c r="L191" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="192" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
         <v>272</v>
       </c>
@@ -9059,16 +10171,19 @@
         <v>427</v>
       </c>
       <c r="I192" t="s">
+        <v>705</v>
+      </c>
+      <c r="J192" t="s">
         <v>475</v>
       </c>
-      <c r="J192" t="s">
+      <c r="K192" t="s">
         <v>435</v>
       </c>
-      <c r="K192" t="s">
+      <c r="L192" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>276</v>
       </c>
@@ -9091,16 +10206,19 @@
         <v>427</v>
       </c>
       <c r="I193" t="s">
+        <v>705</v>
+      </c>
+      <c r="J193" t="s">
         <v>476</v>
       </c>
-      <c r="J193" t="s">
+      <c r="K193" t="s">
         <v>435</v>
       </c>
-      <c r="K193" t="s">
+      <c r="L193" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>266</v>
       </c>
@@ -9123,16 +10241,19 @@
         <v>427</v>
       </c>
       <c r="I194" t="s">
+        <v>705</v>
+      </c>
+      <c r="J194" t="s">
         <v>477</v>
       </c>
-      <c r="J194" t="s">
+      <c r="K194" t="s">
         <v>435</v>
       </c>
-      <c r="K194" t="s">
+      <c r="L194" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>278</v>
       </c>
@@ -9154,18 +10275,21 @@
       <c r="H195" t="s">
         <v>427</v>
       </c>
-      <c r="I195" s="5" t="s">
+      <c r="I195" t="s">
+        <v>705</v>
+      </c>
+      <c r="J195" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="J195" t="s">
+      <c r="K195" t="s">
         <v>435</v>
       </c>
-      <c r="K195" t="s">
+      <c r="L195" t="s">
         <v>365</v>
       </c>
-      <c r="L195" s="5"/>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M195" s="5"/>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>268</v>
       </c>
@@ -9188,16 +10312,19 @@
         <v>427</v>
       </c>
       <c r="I196" t="s">
+        <v>705</v>
+      </c>
+      <c r="J196" t="s">
         <v>479</v>
       </c>
-      <c r="J196" t="s">
+      <c r="K196" t="s">
         <v>435</v>
       </c>
-      <c r="K196" t="s">
+      <c r="L196" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>270</v>
       </c>
@@ -9220,16 +10347,19 @@
         <v>427</v>
       </c>
       <c r="I197" t="s">
+        <v>705</v>
+      </c>
+      <c r="J197" t="s">
         <v>480</v>
       </c>
-      <c r="J197" t="s">
+      <c r="K197" t="s">
         <v>435</v>
       </c>
-      <c r="K197" t="s">
+      <c r="L197" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>273</v>
       </c>
@@ -9252,16 +10382,19 @@
         <v>427</v>
       </c>
       <c r="I198" t="s">
+        <v>705</v>
+      </c>
+      <c r="J198" t="s">
         <v>473</v>
       </c>
-      <c r="J198" t="s">
+      <c r="K198" t="s">
         <v>435</v>
       </c>
-      <c r="K198" t="s">
+      <c r="L198" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>275</v>
       </c>
@@ -9284,16 +10417,19 @@
         <v>427</v>
       </c>
       <c r="I199" t="s">
+        <v>705</v>
+      </c>
+      <c r="J199" t="s">
         <v>476</v>
       </c>
-      <c r="J199" t="s">
+      <c r="K199" t="s">
         <v>435</v>
       </c>
-      <c r="K199" t="s">
+      <c r="L199" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>264</v>
       </c>
@@ -9316,16 +10452,19 @@
         <v>427</v>
       </c>
       <c r="I200" t="s">
+        <v>705</v>
+      </c>
+      <c r="J200" t="s">
         <v>481</v>
       </c>
-      <c r="J200" t="s">
+      <c r="K200" t="s">
         <v>435</v>
       </c>
-      <c r="K200" t="s">
+      <c r="L200" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>265</v>
       </c>
@@ -9348,16 +10487,19 @@
         <v>427</v>
       </c>
       <c r="I201" t="s">
+        <v>705</v>
+      </c>
+      <c r="J201" t="s">
         <v>477</v>
       </c>
-      <c r="J201" t="s">
+      <c r="K201" t="s">
         <v>435</v>
       </c>
-      <c r="K201" t="s">
+      <c r="L201" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>277</v>
       </c>
@@ -9380,16 +10522,19 @@
         <v>427</v>
       </c>
       <c r="I202" t="s">
+        <v>705</v>
+      </c>
+      <c r="J202" t="s">
         <v>478</v>
       </c>
-      <c r="J202" t="s">
+      <c r="K202" t="s">
         <v>435</v>
       </c>
-      <c r="K202" t="s">
+      <c r="L202" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
         <v>267</v>
       </c>
@@ -9412,16 +10557,19 @@
         <v>427</v>
       </c>
       <c r="I203" t="s">
+        <v>705</v>
+      </c>
+      <c r="J203" t="s">
         <v>479</v>
       </c>
-      <c r="J203" t="s">
+      <c r="K203" t="s">
         <v>435</v>
       </c>
-      <c r="K203" t="s">
+      <c r="L203" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
         <v>269</v>
       </c>
@@ -9444,16 +10592,19 @@
         <v>427</v>
       </c>
       <c r="I204" t="s">
+        <v>705</v>
+      </c>
+      <c r="J204" t="s">
         <v>480</v>
       </c>
-      <c r="J204" t="s">
+      <c r="K204" t="s">
         <v>435</v>
       </c>
-      <c r="K204" t="s">
+      <c r="L204" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
         <v>271</v>
       </c>
@@ -9476,16 +10627,19 @@
         <v>427</v>
       </c>
       <c r="I205" t="s">
+        <v>705</v>
+      </c>
+      <c r="J205" t="s">
         <v>475</v>
       </c>
-      <c r="J205" t="s">
+      <c r="K205" t="s">
         <v>435</v>
       </c>
-      <c r="K205" t="s">
+      <c r="L205" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
         <v>279</v>
       </c>
@@ -9508,16 +10662,19 @@
         <v>427</v>
       </c>
       <c r="I206" t="s">
+        <v>705</v>
+      </c>
+      <c r="J206" t="s">
         <v>474</v>
       </c>
-      <c r="J206" t="s">
+      <c r="K206" t="s">
         <v>435</v>
       </c>
-      <c r="K206" t="s">
+      <c r="L206" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>55</v>
       </c>
@@ -9542,14 +10699,17 @@
       <c r="H207" t="s">
         <v>427</v>
       </c>
-      <c r="J207" s="3" t="s">
+      <c r="I207" t="s">
+        <v>705</v>
+      </c>
+      <c r="K207" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="K207" t="s">
+      <c r="L207" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>56</v>
       </c>
@@ -9574,10 +10734,13 @@
       <c r="H208" t="s">
         <v>427</v>
       </c>
-      <c r="J208" s="3" t="s">
+      <c r="I208" t="s">
+        <v>705</v>
+      </c>
+      <c r="K208" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="K208" t="s">
+      <c r="L208" t="s">
         <v>98</v>
       </c>
     </row>
@@ -9588,7 +10751,7 @@
       <c r="A215" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K215">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L215">
     <sortCondition ref="B1:B215"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -9599,10 +10762,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1AC297A-A885-7C40-9A4E-22B5A2A054BE}">
-  <dimension ref="A1:K132"/>
+  <dimension ref="A1:L167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="75" workbookViewId="0">
+      <selection activeCell="D163" sqref="D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9611,13 +10774,12 @@
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="9"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" customWidth="1"/>
-    <col min="10" max="10" width="17.5" customWidth="1"/>
+    <col min="8" max="9" width="23.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9630,7 +10792,7 @@
       <c r="D1" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -9643,16 +10805,19 @@
         <v>426</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>509</v>
       </c>
@@ -9662,7 +10827,7 @@
       <c r="D2" t="s">
         <v>528</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F2" t="s">
@@ -9674,11 +10839,14 @@
       <c r="H2" t="s">
         <v>427</v>
       </c>
-      <c r="K2" t="s">
+      <c r="I2" t="s">
+        <v>706</v>
+      </c>
+      <c r="L2" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>510</v>
       </c>
@@ -9688,7 +10856,7 @@
       <c r="D3" t="s">
         <v>528</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F3" t="s">
@@ -9700,11 +10868,14 @@
       <c r="H3" t="s">
         <v>427</v>
       </c>
-      <c r="K3" t="s">
+      <c r="I3" t="s">
+        <v>706</v>
+      </c>
+      <c r="L3" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>511</v>
       </c>
@@ -9714,7 +10885,7 @@
       <c r="D4" t="s">
         <v>528</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F4" t="s">
@@ -9726,11 +10897,14 @@
       <c r="H4" t="s">
         <v>427</v>
       </c>
-      <c r="K4" t="s">
+      <c r="I4" t="s">
+        <v>706</v>
+      </c>
+      <c r="L4" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>512</v>
       </c>
@@ -9740,7 +10914,7 @@
       <c r="D5" t="s">
         <v>529</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F5" t="s">
@@ -9752,11 +10926,14 @@
       <c r="H5" t="s">
         <v>427</v>
       </c>
-      <c r="K5" t="s">
+      <c r="I5" t="s">
+        <v>706</v>
+      </c>
+      <c r="L5" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>513</v>
       </c>
@@ -9766,7 +10943,7 @@
       <c r="D6" t="s">
         <v>529</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F6" t="s">
@@ -9778,11 +10955,14 @@
       <c r="H6" t="s">
         <v>427</v>
       </c>
-      <c r="K6" t="s">
+      <c r="I6" t="s">
+        <v>706</v>
+      </c>
+      <c r="L6" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>514</v>
       </c>
@@ -9792,7 +10972,7 @@
       <c r="D7" t="s">
         <v>529</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F7" t="s">
@@ -9804,11 +10984,14 @@
       <c r="H7" t="s">
         <v>427</v>
       </c>
-      <c r="K7" t="s">
+      <c r="I7" t="s">
+        <v>706</v>
+      </c>
+      <c r="L7" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>515</v>
       </c>
@@ -9818,7 +11001,7 @@
       <c r="D8" t="s">
         <v>530</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F8" t="s">
@@ -9830,11 +11013,14 @@
       <c r="H8" t="s">
         <v>427</v>
       </c>
-      <c r="K8" t="s">
+      <c r="I8" t="s">
+        <v>706</v>
+      </c>
+      <c r="L8" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>516</v>
       </c>
@@ -9844,7 +11030,7 @@
       <c r="D9" t="s">
         <v>530</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F9" t="s">
@@ -9856,11 +11042,14 @@
       <c r="H9" t="s">
         <v>427</v>
       </c>
-      <c r="K9" t="s">
+      <c r="I9" t="s">
+        <v>706</v>
+      </c>
+      <c r="L9" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>517</v>
       </c>
@@ -9870,7 +11059,7 @@
       <c r="D10" t="s">
         <v>530</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F10" t="s">
@@ -9882,11 +11071,14 @@
       <c r="H10" t="s">
         <v>427</v>
       </c>
-      <c r="K10" t="s">
+      <c r="I10" t="s">
+        <v>706</v>
+      </c>
+      <c r="L10" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>518</v>
       </c>
@@ -9896,7 +11088,7 @@
       <c r="D11" t="s">
         <v>531</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F11" t="s">
@@ -9908,11 +11100,14 @@
       <c r="H11" t="s">
         <v>427</v>
       </c>
-      <c r="K11" t="s">
+      <c r="I11" t="s">
+        <v>706</v>
+      </c>
+      <c r="L11" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>519</v>
       </c>
@@ -9922,7 +11117,7 @@
       <c r="D12" t="s">
         <v>531</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F12" t="s">
@@ -9934,11 +11129,14 @@
       <c r="H12" t="s">
         <v>427</v>
       </c>
-      <c r="K12" t="s">
+      <c r="I12" t="s">
+        <v>706</v>
+      </c>
+      <c r="L12" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>520</v>
       </c>
@@ -9948,7 +11146,7 @@
       <c r="D13" t="s">
         <v>531</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F13" t="s">
@@ -9960,11 +11158,14 @@
       <c r="H13" t="s">
         <v>427</v>
       </c>
-      <c r="K13" t="s">
+      <c r="I13" t="s">
+        <v>706</v>
+      </c>
+      <c r="L13" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>521</v>
       </c>
@@ -9974,7 +11175,7 @@
       <c r="D14" t="s">
         <v>532</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F14" t="s">
@@ -9986,11 +11187,14 @@
       <c r="H14" t="s">
         <v>427</v>
       </c>
-      <c r="K14" t="s">
+      <c r="I14" t="s">
+        <v>706</v>
+      </c>
+      <c r="L14" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>522</v>
       </c>
@@ -10000,7 +11204,7 @@
       <c r="D15" t="s">
         <v>532</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F15" t="s">
@@ -10012,11 +11216,14 @@
       <c r="H15" t="s">
         <v>427</v>
       </c>
-      <c r="K15" t="s">
+      <c r="I15" t="s">
+        <v>706</v>
+      </c>
+      <c r="L15" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>523</v>
       </c>
@@ -10026,7 +11233,7 @@
       <c r="D16" t="s">
         <v>532</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F16" t="s">
@@ -10038,11 +11245,14 @@
       <c r="H16" t="s">
         <v>427</v>
       </c>
-      <c r="K16" t="s">
+      <c r="I16" t="s">
+        <v>706</v>
+      </c>
+      <c r="L16" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>524</v>
       </c>
@@ -10052,7 +11262,7 @@
       <c r="D17" t="s">
         <v>533</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F17" t="s">
@@ -10064,11 +11274,14 @@
       <c r="H17" t="s">
         <v>427</v>
       </c>
-      <c r="K17" t="s">
+      <c r="I17" t="s">
+        <v>706</v>
+      </c>
+      <c r="L17" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>525</v>
       </c>
@@ -10078,7 +11291,7 @@
       <c r="D18" t="s">
         <v>533</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F18" t="s">
@@ -10090,11 +11303,14 @@
       <c r="H18" t="s">
         <v>427</v>
       </c>
-      <c r="K18" t="s">
+      <c r="I18" t="s">
+        <v>706</v>
+      </c>
+      <c r="L18" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>526</v>
       </c>
@@ -10104,7 +11320,7 @@
       <c r="D19" t="s">
         <v>533</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F19" t="s">
@@ -10116,11 +11332,17 @@
       <c r="H19" t="s">
         <v>427</v>
       </c>
-      <c r="K19" t="s">
+      <c r="I19" t="s">
+        <v>706</v>
+      </c>
+      <c r="L19" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>535</v>
       </c>
@@ -10130,7 +11352,7 @@
       <c r="D21" t="s">
         <v>638</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F21" t="s">
@@ -10142,11 +11364,15 @@
       <c r="H21" t="s">
         <v>427</v>
       </c>
-      <c r="K21" t="s">
+      <c r="I21" s="7"/>
+      <c r="J21" t="s">
+        <v>708</v>
+      </c>
+      <c r="L21" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>536</v>
       </c>
@@ -10156,7 +11382,7 @@
       <c r="D22" t="s">
         <v>639</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F22" t="s">
@@ -10168,11 +11394,12 @@
       <c r="H22" t="s">
         <v>427</v>
       </c>
-      <c r="K22" t="s">
+      <c r="I22" s="7"/>
+      <c r="L22" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>537</v>
       </c>
@@ -10182,7 +11409,7 @@
       <c r="D23" t="s">
         <v>691</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F23" t="s">
@@ -10194,11 +11421,12 @@
       <c r="H23" t="s">
         <v>427</v>
       </c>
-      <c r="K23" t="s">
+      <c r="I23" s="7"/>
+      <c r="L23" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>538</v>
       </c>
@@ -10208,7 +11436,7 @@
       <c r="D24" t="s">
         <v>690</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F24" t="s">
@@ -10220,11 +11448,12 @@
       <c r="H24" t="s">
         <v>427</v>
       </c>
-      <c r="K24" t="s">
+      <c r="I24" s="7"/>
+      <c r="L24" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>539</v>
       </c>
@@ -10234,7 +11463,7 @@
       <c r="D25" t="s">
         <v>575</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F25" t="s">
@@ -10246,11 +11475,15 @@
       <c r="H25" t="s">
         <v>427</v>
       </c>
-      <c r="K25" t="s">
+      <c r="I25" s="7"/>
+      <c r="L25" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>540</v>
       </c>
@@ -10260,7 +11493,7 @@
       <c r="D27" t="s">
         <v>692</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F27" s="7"/>
@@ -10270,11 +11503,14 @@
       <c r="H27" t="s">
         <v>428</v>
       </c>
-      <c r="K27" t="s">
+      <c r="I27" t="s">
+        <v>705</v>
+      </c>
+      <c r="L27" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>541</v>
       </c>
@@ -10284,7 +11520,7 @@
       <c r="D28" t="s">
         <v>696</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F28" s="7"/>
@@ -10294,11 +11530,14 @@
       <c r="H28" t="s">
         <v>428</v>
       </c>
-      <c r="K28" t="s">
+      <c r="I28" t="s">
+        <v>705</v>
+      </c>
+      <c r="L28" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>542</v>
       </c>
@@ -10308,7 +11547,7 @@
       <c r="D29" t="s">
         <v>463</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F29" s="7"/>
@@ -10318,11 +11557,14 @@
       <c r="H29" t="s">
         <v>428</v>
       </c>
-      <c r="K29" t="s">
+      <c r="I29" t="s">
+        <v>705</v>
+      </c>
+      <c r="L29" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>543</v>
       </c>
@@ -10332,7 +11574,7 @@
       <c r="D30" t="s">
         <v>566</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F30" s="7"/>
@@ -10342,11 +11584,14 @@
       <c r="H30" t="s">
         <v>428</v>
       </c>
-      <c r="K30" t="s">
+      <c r="I30" t="s">
+        <v>705</v>
+      </c>
+      <c r="L30" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>544</v>
       </c>
@@ -10356,7 +11601,7 @@
       <c r="D31" t="s">
         <v>563</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F31" s="7"/>
@@ -10366,11 +11611,14 @@
       <c r="H31" t="s">
         <v>428</v>
       </c>
-      <c r="K31" t="s">
+      <c r="I31" t="s">
+        <v>705</v>
+      </c>
+      <c r="L31" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>545</v>
       </c>
@@ -10380,7 +11628,7 @@
       <c r="D32" t="s">
         <v>564</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F32" s="7"/>
@@ -10390,11 +11638,14 @@
       <c r="H32" t="s">
         <v>428</v>
       </c>
-      <c r="K32" t="s">
+      <c r="I32" t="s">
+        <v>705</v>
+      </c>
+      <c r="L32" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>546</v>
       </c>
@@ -10404,7 +11655,7 @@
       <c r="D33" t="s">
         <v>565</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F33" s="7"/>
@@ -10414,11 +11665,14 @@
       <c r="H33" t="s">
         <v>428</v>
       </c>
-      <c r="K33" t="s">
+      <c r="I33" t="s">
+        <v>705</v>
+      </c>
+      <c r="L33" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>547</v>
       </c>
@@ -10428,7 +11682,7 @@
       <c r="D34" t="s">
         <v>567</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F34" t="s">
@@ -10440,11 +11694,14 @@
       <c r="H34" t="s">
         <v>428</v>
       </c>
-      <c r="K34" t="s">
+      <c r="I34" t="s">
+        <v>705</v>
+      </c>
+      <c r="L34" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>548</v>
       </c>
@@ -10454,7 +11711,7 @@
       <c r="D35" t="s">
         <v>568</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F35" t="s">
@@ -10466,11 +11723,14 @@
       <c r="H35" t="s">
         <v>428</v>
       </c>
-      <c r="K35" t="s">
+      <c r="I35" t="s">
+        <v>705</v>
+      </c>
+      <c r="L35" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>549</v>
       </c>
@@ -10480,7 +11740,7 @@
       <c r="D36" t="s">
         <v>569</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F36" t="s">
@@ -10492,11 +11752,14 @@
       <c r="H36" t="s">
         <v>428</v>
       </c>
-      <c r="K36" t="s">
+      <c r="I36" t="s">
+        <v>705</v>
+      </c>
+      <c r="L36" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>550</v>
       </c>
@@ -10506,7 +11769,7 @@
       <c r="D37" t="s">
         <v>570</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F37" t="s">
@@ -10518,11 +11781,14 @@
       <c r="H37" t="s">
         <v>428</v>
       </c>
-      <c r="K37" t="s">
+      <c r="I37" t="s">
+        <v>705</v>
+      </c>
+      <c r="L37" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>551</v>
       </c>
@@ -10532,7 +11798,7 @@
       <c r="D38" t="s">
         <v>698</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F38" s="7"/>
@@ -10542,11 +11808,14 @@
       <c r="H38" t="s">
         <v>428</v>
       </c>
-      <c r="K38" t="s">
+      <c r="I38" t="s">
+        <v>705</v>
+      </c>
+      <c r="L38" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>552</v>
       </c>
@@ -10556,7 +11825,7 @@
       <c r="D39" t="s">
         <v>697</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F39" s="7"/>
@@ -10566,11 +11835,14 @@
       <c r="H39" t="s">
         <v>428</v>
       </c>
-      <c r="K39" t="s">
+      <c r="I39" t="s">
+        <v>705</v>
+      </c>
+      <c r="L39" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>553</v>
       </c>
@@ -10580,7 +11852,7 @@
       <c r="D40" t="s">
         <v>694</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F40" t="s">
@@ -10592,11 +11864,14 @@
       <c r="H40" t="s">
         <v>428</v>
       </c>
-      <c r="K40" t="s">
+      <c r="I40" t="s">
+        <v>705</v>
+      </c>
+      <c r="L40" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>554</v>
       </c>
@@ -10606,7 +11881,7 @@
       <c r="D41" t="s">
         <v>571</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F41" t="s">
@@ -10618,11 +11893,14 @@
       <c r="H41" t="s">
         <v>428</v>
       </c>
-      <c r="K41" t="s">
+      <c r="I41" t="s">
+        <v>705</v>
+      </c>
+      <c r="L41" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>555</v>
       </c>
@@ -10632,7 +11910,7 @@
       <c r="D42" t="s">
         <v>702</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F42" t="s">
@@ -10644,11 +11922,14 @@
       <c r="H42" t="s">
         <v>428</v>
       </c>
-      <c r="K42" t="s">
+      <c r="I42" t="s">
+        <v>705</v>
+      </c>
+      <c r="L42" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>556</v>
       </c>
@@ -10658,7 +11939,7 @@
       <c r="D43" t="s">
         <v>693</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F43" s="7"/>
@@ -10668,11 +11949,14 @@
       <c r="H43" t="s">
         <v>428</v>
       </c>
-      <c r="K43" t="s">
+      <c r="I43" t="s">
+        <v>705</v>
+      </c>
+      <c r="L43" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>557</v>
       </c>
@@ -10682,7 +11966,7 @@
       <c r="D44" t="s">
         <v>700</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F44" t="s">
@@ -10694,11 +11978,14 @@
       <c r="H44" t="s">
         <v>428</v>
       </c>
-      <c r="K44" t="s">
+      <c r="I44" t="s">
+        <v>705</v>
+      </c>
+      <c r="L44" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>558</v>
       </c>
@@ -10708,7 +11995,7 @@
       <c r="D45" t="s">
         <v>572</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F45" t="s">
@@ -10720,11 +12007,14 @@
       <c r="H45" t="s">
         <v>428</v>
       </c>
-      <c r="K45" t="s">
+      <c r="I45" t="s">
+        <v>705</v>
+      </c>
+      <c r="L45" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>559</v>
       </c>
@@ -10734,7 +12024,7 @@
       <c r="D46" t="s">
         <v>701</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F46" t="s">
@@ -10746,11 +12036,14 @@
       <c r="H46" t="s">
         <v>428</v>
       </c>
-      <c r="K46" t="s">
+      <c r="I46" t="s">
+        <v>705</v>
+      </c>
+      <c r="L46" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>560</v>
       </c>
@@ -10760,7 +12053,7 @@
       <c r="D47" t="s">
         <v>699</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F47" t="s">
@@ -10772,11 +12065,14 @@
       <c r="H47" t="s">
         <v>428</v>
       </c>
-      <c r="K47" t="s">
+      <c r="I47" t="s">
+        <v>705</v>
+      </c>
+      <c r="L47" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>561</v>
       </c>
@@ -10786,7 +12082,7 @@
       <c r="D48" t="s">
         <v>695</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F48" t="s">
@@ -10798,11 +12094,14 @@
       <c r="H48" t="s">
         <v>428</v>
       </c>
-      <c r="K48" t="s">
+      <c r="I48" t="s">
+        <v>705</v>
+      </c>
+      <c r="L48" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>562</v>
       </c>
@@ -10812,7 +12111,7 @@
       <c r="D49" t="s">
         <v>573</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F49" t="s">
@@ -10824,11 +12123,17 @@
       <c r="H49" t="s">
         <v>428</v>
       </c>
-      <c r="K49" t="s">
+      <c r="I49" t="s">
+        <v>705</v>
+      </c>
+      <c r="L49" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>577</v>
       </c>
@@ -10838,7 +12143,7 @@
       <c r="D51" t="s">
         <v>627</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F51" s="6"/>
@@ -10848,11 +12153,14 @@
       <c r="H51" s="6" t="s">
         <v>703</v>
       </c>
-      <c r="K51" t="s">
+      <c r="I51" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="L51" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>578</v>
       </c>
@@ -10862,7 +12170,7 @@
       <c r="D52" t="s">
         <v>628</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F52" s="6"/>
@@ -10872,11 +12180,14 @@
       <c r="H52" s="6" t="s">
         <v>649</v>
       </c>
-      <c r="K52" t="s">
+      <c r="I52" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="L52" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>579</v>
       </c>
@@ -10886,7 +12197,7 @@
       <c r="D53" t="s">
         <v>629</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F53" s="6"/>
@@ -10896,11 +12207,14 @@
       <c r="H53" s="6" t="s">
         <v>649</v>
       </c>
-      <c r="K53" t="s">
+      <c r="I53" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="L53" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>580</v>
       </c>
@@ -10910,7 +12224,7 @@
       <c r="D54" t="s">
         <v>630</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F54" s="6"/>
@@ -10920,11 +12234,14 @@
       <c r="H54" s="6" t="s">
         <v>649</v>
       </c>
-      <c r="K54" t="s">
+      <c r="I54" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="L54" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>581</v>
       </c>
@@ -10934,7 +12251,7 @@
       <c r="D55" t="s">
         <v>631</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F55" s="6"/>
@@ -10944,11 +12261,17 @@
       <c r="H55" s="6" t="s">
         <v>649</v>
       </c>
-      <c r="K55" t="s">
+      <c r="I55" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="L55" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E56" s="8"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>584</v>
       </c>
@@ -10958,7 +12281,7 @@
       <c r="D57" t="s">
         <v>634</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F57" s="6" t="s">
@@ -10970,11 +12293,14 @@
       <c r="H57" t="s">
         <v>427</v>
       </c>
-      <c r="K57" t="s">
+      <c r="I57" t="s">
+        <v>705</v>
+      </c>
+      <c r="L57" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>583</v>
       </c>
@@ -10984,7 +12310,7 @@
       <c r="D58" t="s">
         <v>634</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F58" s="6" t="s">
@@ -10996,11 +12322,14 @@
       <c r="H58" t="s">
         <v>427</v>
       </c>
-      <c r="K58" t="s">
+      <c r="I58" t="s">
+        <v>705</v>
+      </c>
+      <c r="L58" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>582</v>
       </c>
@@ -11010,7 +12339,7 @@
       <c r="D59" t="s">
         <v>634</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F59" s="6" t="s">
@@ -11022,11 +12351,14 @@
       <c r="H59" t="s">
         <v>427</v>
       </c>
-      <c r="K59" t="s">
+      <c r="I59" t="s">
+        <v>705</v>
+      </c>
+      <c r="L59" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>585</v>
       </c>
@@ -11036,7 +12368,7 @@
       <c r="D60" t="s">
         <v>635</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F60" s="6" t="s">
@@ -11048,11 +12380,14 @@
       <c r="H60" t="s">
         <v>427</v>
       </c>
-      <c r="K60" t="s">
+      <c r="I60" t="s">
+        <v>705</v>
+      </c>
+      <c r="L60" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>586</v>
       </c>
@@ -11062,7 +12397,7 @@
       <c r="D61" t="s">
         <v>635</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E61" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F61" s="6" t="s">
@@ -11074,11 +12409,14 @@
       <c r="H61" t="s">
         <v>427</v>
       </c>
-      <c r="K61" t="s">
+      <c r="I61" t="s">
+        <v>705</v>
+      </c>
+      <c r="L61" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>587</v>
       </c>
@@ -11088,7 +12426,7 @@
       <c r="D62" t="s">
         <v>635</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F62" s="6" t="s">
@@ -11100,11 +12438,17 @@
       <c r="H62" t="s">
         <v>427</v>
       </c>
-      <c r="K62" t="s">
+      <c r="I62" t="s">
+        <v>705</v>
+      </c>
+      <c r="L62" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E63" s="8"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>588</v>
       </c>
@@ -11114,7 +12458,7 @@
       <c r="D64" t="s">
         <v>638</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E64" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F64" t="s">
@@ -11126,11 +12470,15 @@
       <c r="H64" t="s">
         <v>427</v>
       </c>
-      <c r="K64" t="s">
+      <c r="I64" s="7"/>
+      <c r="J64" t="s">
+        <v>708</v>
+      </c>
+      <c r="L64" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>589</v>
       </c>
@@ -11140,7 +12488,7 @@
       <c r="D65" t="s">
         <v>638</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E65" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F65" t="s">
@@ -11152,11 +12500,12 @@
       <c r="H65" t="s">
         <v>427</v>
       </c>
-      <c r="K65" t="s">
+      <c r="I65" s="7"/>
+      <c r="L65" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>590</v>
       </c>
@@ -11166,7 +12515,7 @@
       <c r="D66" t="s">
         <v>638</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E66" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F66" t="s">
@@ -11178,11 +12527,12 @@
       <c r="H66" t="s">
         <v>427</v>
       </c>
-      <c r="K66" t="s">
+      <c r="I66" s="7"/>
+      <c r="L66" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>591</v>
       </c>
@@ -11192,7 +12542,7 @@
       <c r="D67" t="s">
         <v>639</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E67" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F67" t="s">
@@ -11204,11 +12554,12 @@
       <c r="H67" t="s">
         <v>427</v>
       </c>
-      <c r="K67" t="s">
+      <c r="I67" s="7"/>
+      <c r="L67" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>592</v>
       </c>
@@ -11218,7 +12569,7 @@
       <c r="D68" t="s">
         <v>639</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="E68" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F68" t="s">
@@ -11230,11 +12581,12 @@
       <c r="H68" t="s">
         <v>427</v>
       </c>
-      <c r="K68" t="s">
+      <c r="I68" s="7"/>
+      <c r="L68" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>593</v>
       </c>
@@ -11244,7 +12596,7 @@
       <c r="D69" t="s">
         <v>639</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="E69" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F69" t="s">
@@ -11256,11 +12608,15 @@
       <c r="H69" t="s">
         <v>427</v>
       </c>
-      <c r="K69" t="s">
+      <c r="I69" s="7"/>
+      <c r="L69" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E70" s="8"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>594</v>
       </c>
@@ -11270,7 +12626,7 @@
       <c r="D71" t="s">
         <v>642</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E71" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F71" s="7" t="s">
@@ -11282,11 +12638,14 @@
       <c r="H71" t="s">
         <v>427</v>
       </c>
-      <c r="K71" t="s">
+      <c r="I71" t="s">
+        <v>706</v>
+      </c>
+      <c r="L71" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>595</v>
       </c>
@@ -11296,7 +12655,7 @@
       <c r="D72" t="s">
         <v>642</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E72" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F72" s="7" t="s">
@@ -11308,11 +12667,14 @@
       <c r="H72" t="s">
         <v>427</v>
       </c>
-      <c r="K72" t="s">
+      <c r="I72" t="s">
+        <v>706</v>
+      </c>
+      <c r="L72" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>596</v>
       </c>
@@ -11322,7 +12684,7 @@
       <c r="D73" t="s">
         <v>642</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="E73" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F73" s="7" t="s">
@@ -11334,11 +12696,14 @@
       <c r="H73" t="s">
         <v>427</v>
       </c>
-      <c r="K73" t="s">
+      <c r="I73" t="s">
+        <v>706</v>
+      </c>
+      <c r="L73" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>597</v>
       </c>
@@ -11348,7 +12713,7 @@
       <c r="D74" t="s">
         <v>642</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="E74" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F74" s="7" t="s">
@@ -11360,11 +12725,14 @@
       <c r="H74" t="s">
         <v>427</v>
       </c>
-      <c r="K74" t="s">
+      <c r="I74" t="s">
+        <v>706</v>
+      </c>
+      <c r="L74" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>598</v>
       </c>
@@ -11374,7 +12742,7 @@
       <c r="D75" t="s">
         <v>643</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E75" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F75" s="7" t="s">
@@ -11386,11 +12754,14 @@
       <c r="H75" t="s">
         <v>427</v>
       </c>
-      <c r="K75" t="s">
+      <c r="I75" t="s">
+        <v>706</v>
+      </c>
+      <c r="L75" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>599</v>
       </c>
@@ -11400,7 +12771,7 @@
       <c r="D76" t="s">
         <v>643</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="E76" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F76" s="7" t="s">
@@ -11412,11 +12783,14 @@
       <c r="H76" t="s">
         <v>427</v>
       </c>
-      <c r="K76" t="s">
+      <c r="I76" t="s">
+        <v>706</v>
+      </c>
+      <c r="L76" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>600</v>
       </c>
@@ -11426,7 +12800,7 @@
       <c r="D77" t="s">
         <v>643</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="E77" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F77" s="7" t="s">
@@ -11438,11 +12812,14 @@
       <c r="H77" t="s">
         <v>427</v>
       </c>
-      <c r="K77" t="s">
+      <c r="I77" t="s">
+        <v>706</v>
+      </c>
+      <c r="L77" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>601</v>
       </c>
@@ -11452,7 +12829,7 @@
       <c r="D78" t="s">
         <v>643</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="E78" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F78" s="7" t="s">
@@ -11464,11 +12841,14 @@
       <c r="H78" t="s">
         <v>427</v>
       </c>
-      <c r="K78" t="s">
+      <c r="I78" t="s">
+        <v>706</v>
+      </c>
+      <c r="L78" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>602</v>
       </c>
@@ -11478,7 +12858,7 @@
       <c r="D79" t="s">
         <v>528</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="E79" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F79" s="7" t="s">
@@ -11490,11 +12870,14 @@
       <c r="H79" t="s">
         <v>427</v>
       </c>
-      <c r="K79" t="s">
+      <c r="I79" t="s">
+        <v>706</v>
+      </c>
+      <c r="L79" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>603</v>
       </c>
@@ -11504,7 +12887,7 @@
       <c r="D80" t="s">
         <v>528</v>
       </c>
-      <c r="E80" s="6" t="s">
+      <c r="E80" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F80" s="7" t="s">
@@ -11516,11 +12899,14 @@
       <c r="H80" t="s">
         <v>427</v>
       </c>
-      <c r="K80" t="s">
+      <c r="I80" t="s">
+        <v>706</v>
+      </c>
+      <c r="L80" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>604</v>
       </c>
@@ -11530,7 +12916,7 @@
       <c r="D81" t="s">
         <v>528</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="E81" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F81" s="7" t="s">
@@ -11542,11 +12928,14 @@
       <c r="H81" t="s">
         <v>427</v>
       </c>
-      <c r="K81" t="s">
+      <c r="I81" t="s">
+        <v>706</v>
+      </c>
+      <c r="L81" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>605</v>
       </c>
@@ -11556,7 +12945,7 @@
       <c r="D82" t="s">
         <v>528</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="E82" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F82" s="7" t="s">
@@ -11568,11 +12957,14 @@
       <c r="H82" t="s">
         <v>427</v>
       </c>
-      <c r="K82" t="s">
+      <c r="I82" t="s">
+        <v>706</v>
+      </c>
+      <c r="L82" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>606</v>
       </c>
@@ -11582,7 +12974,7 @@
       <c r="D83" t="s">
         <v>644</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="E83" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F83" s="7" t="s">
@@ -11594,11 +12986,14 @@
       <c r="H83" t="s">
         <v>427</v>
       </c>
-      <c r="K83" t="s">
+      <c r="I83" t="s">
+        <v>706</v>
+      </c>
+      <c r="L83" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>607</v>
       </c>
@@ -11608,7 +13003,7 @@
       <c r="D84" t="s">
         <v>644</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="E84" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F84" s="7" t="s">
@@ -11620,11 +13015,14 @@
       <c r="H84" t="s">
         <v>427</v>
       </c>
-      <c r="K84" t="s">
+      <c r="I84" t="s">
+        <v>706</v>
+      </c>
+      <c r="L84" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>608</v>
       </c>
@@ -11634,7 +13032,7 @@
       <c r="D85" t="s">
         <v>644</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="E85" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F85" s="7" t="s">
@@ -11646,11 +13044,14 @@
       <c r="H85" t="s">
         <v>427</v>
       </c>
-      <c r="K85" t="s">
+      <c r="I85" t="s">
+        <v>706</v>
+      </c>
+      <c r="L85" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>609</v>
       </c>
@@ -11660,7 +13061,7 @@
       <c r="D86" t="s">
         <v>644</v>
       </c>
-      <c r="E86" s="6" t="s">
+      <c r="E86" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F86" s="7" t="s">
@@ -11672,11 +13073,14 @@
       <c r="H86" t="s">
         <v>427</v>
       </c>
-      <c r="K86" t="s">
+      <c r="I86" t="s">
+        <v>706</v>
+      </c>
+      <c r="L86" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>610</v>
       </c>
@@ -11686,7 +13090,7 @@
       <c r="D87" t="s">
         <v>645</v>
       </c>
-      <c r="E87" s="6" t="s">
+      <c r="E87" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F87" s="7" t="s">
@@ -11698,11 +13102,14 @@
       <c r="H87" t="s">
         <v>427</v>
       </c>
-      <c r="K87" t="s">
+      <c r="I87" t="s">
+        <v>706</v>
+      </c>
+      <c r="L87" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>611</v>
       </c>
@@ -11712,7 +13119,7 @@
       <c r="D88" t="s">
         <v>645</v>
       </c>
-      <c r="E88" s="6" t="s">
+      <c r="E88" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F88" s="7" t="s">
@@ -11724,11 +13131,14 @@
       <c r="H88" t="s">
         <v>427</v>
       </c>
-      <c r="K88" t="s">
+      <c r="I88" t="s">
+        <v>706</v>
+      </c>
+      <c r="L88" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>612</v>
       </c>
@@ -11738,7 +13148,7 @@
       <c r="D89" t="s">
         <v>645</v>
       </c>
-      <c r="E89" s="6" t="s">
+      <c r="E89" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F89" s="7" t="s">
@@ -11750,11 +13160,14 @@
       <c r="H89" t="s">
         <v>427</v>
       </c>
-      <c r="K89" t="s">
+      <c r="I89" t="s">
+        <v>706</v>
+      </c>
+      <c r="L89" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>613</v>
       </c>
@@ -11764,7 +13177,7 @@
       <c r="D90" t="s">
         <v>645</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="E90" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F90" s="7" t="s">
@@ -11776,11 +13189,14 @@
       <c r="H90" t="s">
         <v>427</v>
       </c>
-      <c r="K90" t="s">
+      <c r="I90" t="s">
+        <v>706</v>
+      </c>
+      <c r="L90" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>614</v>
       </c>
@@ -11790,7 +13206,7 @@
       <c r="D91" t="s">
         <v>646</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="E91" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F91" s="7" t="s">
@@ -11802,11 +13218,14 @@
       <c r="H91" t="s">
         <v>427</v>
       </c>
-      <c r="K91" t="s">
+      <c r="I91" t="s">
+        <v>706</v>
+      </c>
+      <c r="L91" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>615</v>
       </c>
@@ -11816,7 +13235,7 @@
       <c r="D92" t="s">
         <v>646</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="E92" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F92" s="7" t="s">
@@ -11828,11 +13247,14 @@
       <c r="H92" t="s">
         <v>427</v>
       </c>
-      <c r="K92" t="s">
+      <c r="I92" t="s">
+        <v>706</v>
+      </c>
+      <c r="L92" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>616</v>
       </c>
@@ -11842,7 +13264,7 @@
       <c r="D93" t="s">
         <v>646</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="E93" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F93" s="7" t="s">
@@ -11854,11 +13276,14 @@
       <c r="H93" t="s">
         <v>427</v>
       </c>
-      <c r="K93" t="s">
+      <c r="I93" t="s">
+        <v>706</v>
+      </c>
+      <c r="L93" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>617</v>
       </c>
@@ -11868,7 +13293,7 @@
       <c r="D94" t="s">
         <v>646</v>
       </c>
-      <c r="E94" s="6" t="s">
+      <c r="E94" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F94" s="7" t="s">
@@ -11880,11 +13305,14 @@
       <c r="H94" t="s">
         <v>427</v>
       </c>
-      <c r="K94" t="s">
+      <c r="I94" t="s">
+        <v>706</v>
+      </c>
+      <c r="L94" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>618</v>
       </c>
@@ -11894,7 +13322,7 @@
       <c r="D95" t="s">
         <v>647</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="E95" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F95" s="7" t="s">
@@ -11906,11 +13334,14 @@
       <c r="H95" t="s">
         <v>427</v>
       </c>
-      <c r="K95" t="s">
+      <c r="I95" t="s">
+        <v>706</v>
+      </c>
+      <c r="L95" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>619</v>
       </c>
@@ -11920,7 +13351,7 @@
       <c r="D96" t="s">
         <v>647</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="E96" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F96" s="7" t="s">
@@ -11932,11 +13363,14 @@
       <c r="H96" t="s">
         <v>427</v>
       </c>
-      <c r="K96" t="s">
+      <c r="I96" t="s">
+        <v>706</v>
+      </c>
+      <c r="L96" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>620</v>
       </c>
@@ -11946,7 +13380,7 @@
       <c r="D97" t="s">
         <v>647</v>
       </c>
-      <c r="E97" s="6" t="s">
+      <c r="E97" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F97" s="7" t="s">
@@ -11958,11 +13392,14 @@
       <c r="H97" t="s">
         <v>427</v>
       </c>
-      <c r="K97" t="s">
+      <c r="I97" t="s">
+        <v>706</v>
+      </c>
+      <c r="L97" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>621</v>
       </c>
@@ -11972,7 +13409,7 @@
       <c r="D98" t="s">
         <v>647</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="E98" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F98" s="7" t="s">
@@ -11984,11 +13421,14 @@
       <c r="H98" t="s">
         <v>427</v>
       </c>
-      <c r="K98" t="s">
+      <c r="I98" t="s">
+        <v>706</v>
+      </c>
+      <c r="L98" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>622</v>
       </c>
@@ -11998,7 +13438,7 @@
       <c r="D99" t="s">
         <v>648</v>
       </c>
-      <c r="E99" s="6" t="s">
+      <c r="E99" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F99" s="7" t="s">
@@ -12010,11 +13450,14 @@
       <c r="H99" t="s">
         <v>427</v>
       </c>
-      <c r="K99" t="s">
+      <c r="I99" t="s">
+        <v>706</v>
+      </c>
+      <c r="L99" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>623</v>
       </c>
@@ -12024,7 +13467,7 @@
       <c r="D100" t="s">
         <v>648</v>
       </c>
-      <c r="E100" s="6" t="s">
+      <c r="E100" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F100" s="7" t="s">
@@ -12036,11 +13479,14 @@
       <c r="H100" t="s">
         <v>427</v>
       </c>
-      <c r="K100" t="s">
+      <c r="I100" t="s">
+        <v>706</v>
+      </c>
+      <c r="L100" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>624</v>
       </c>
@@ -12050,7 +13496,7 @@
       <c r="D101" t="s">
         <v>648</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="E101" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F101" s="7" t="s">
@@ -12062,11 +13508,14 @@
       <c r="H101" t="s">
         <v>427</v>
       </c>
-      <c r="K101" t="s">
+      <c r="I101" t="s">
+        <v>706</v>
+      </c>
+      <c r="L101" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>625</v>
       </c>
@@ -12076,7 +13525,7 @@
       <c r="D102" t="s">
         <v>648</v>
       </c>
-      <c r="E102" s="6" t="s">
+      <c r="E102" s="8" t="s">
         <v>418</v>
       </c>
       <c r="F102" s="7" t="s">
@@ -12088,11 +13537,14 @@
       <c r="H102" t="s">
         <v>427</v>
       </c>
-      <c r="K102" t="s">
+      <c r="I102" t="s">
+        <v>706</v>
+      </c>
+      <c r="L102" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>652</v>
       </c>
@@ -12102,7 +13554,7 @@
       <c r="D104" t="s">
         <v>681</v>
       </c>
-      <c r="E104" s="9" t="s">
+      <c r="E104" t="s">
         <v>101</v>
       </c>
       <c r="F104" t="s">
@@ -12114,11 +13566,14 @@
       <c r="H104" t="s">
         <v>427</v>
       </c>
-      <c r="K104" t="s">
+      <c r="I104" t="s">
+        <v>705</v>
+      </c>
+      <c r="L104" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>653</v>
       </c>
@@ -12128,7 +13583,7 @@
       <c r="D105" t="s">
         <v>681</v>
       </c>
-      <c r="E105" s="9" t="s">
+      <c r="E105" t="s">
         <v>101</v>
       </c>
       <c r="F105" t="s">
@@ -12140,11 +13595,14 @@
       <c r="H105" t="s">
         <v>427</v>
       </c>
-      <c r="K105" t="s">
+      <c r="I105" t="s">
+        <v>705</v>
+      </c>
+      <c r="L105" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>654</v>
       </c>
@@ -12154,7 +13612,7 @@
       <c r="D106" t="s">
         <v>681</v>
       </c>
-      <c r="E106" s="9" t="s">
+      <c r="E106" t="s">
         <v>101</v>
       </c>
       <c r="F106" t="s">
@@ -12166,11 +13624,14 @@
       <c r="H106" t="s">
         <v>427</v>
       </c>
-      <c r="K106" t="s">
+      <c r="I106" t="s">
+        <v>705</v>
+      </c>
+      <c r="L106" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>655</v>
       </c>
@@ -12180,7 +13641,7 @@
       <c r="D107" t="s">
         <v>681</v>
       </c>
-      <c r="E107" s="9" t="s">
+      <c r="E107" t="s">
         <v>101</v>
       </c>
       <c r="F107" t="s">
@@ -12192,11 +13653,14 @@
       <c r="H107" t="s">
         <v>427</v>
       </c>
-      <c r="K107" t="s">
+      <c r="I107" t="s">
+        <v>705</v>
+      </c>
+      <c r="L107" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>656</v>
       </c>
@@ -12206,7 +13670,7 @@
       <c r="D108" t="s">
         <v>682</v>
       </c>
-      <c r="E108" s="9" t="s">
+      <c r="E108" t="s">
         <v>101</v>
       </c>
       <c r="F108" t="s">
@@ -12218,11 +13682,14 @@
       <c r="H108" t="s">
         <v>427</v>
       </c>
-      <c r="K108" t="s">
+      <c r="I108" t="s">
+        <v>705</v>
+      </c>
+      <c r="L108" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>657</v>
       </c>
@@ -12232,7 +13699,7 @@
       <c r="D109" t="s">
         <v>682</v>
       </c>
-      <c r="E109" s="9" t="s">
+      <c r="E109" t="s">
         <v>101</v>
       </c>
       <c r="F109" t="s">
@@ -12244,11 +13711,14 @@
       <c r="H109" t="s">
         <v>427</v>
       </c>
-      <c r="K109" t="s">
+      <c r="I109" t="s">
+        <v>705</v>
+      </c>
+      <c r="L109" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>658</v>
       </c>
@@ -12258,7 +13728,7 @@
       <c r="D110" t="s">
         <v>682</v>
       </c>
-      <c r="E110" s="9" t="s">
+      <c r="E110" t="s">
         <v>101</v>
       </c>
       <c r="F110" t="s">
@@ -12270,11 +13740,14 @@
       <c r="H110" t="s">
         <v>427</v>
       </c>
-      <c r="K110" t="s">
+      <c r="I110" t="s">
+        <v>705</v>
+      </c>
+      <c r="L110" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>659</v>
       </c>
@@ -12284,7 +13757,7 @@
       <c r="D111" t="s">
         <v>682</v>
       </c>
-      <c r="E111" s="9" t="s">
+      <c r="E111" t="s">
         <v>101</v>
       </c>
       <c r="F111" t="s">
@@ -12296,11 +13769,14 @@
       <c r="H111" t="s">
         <v>427</v>
       </c>
-      <c r="K111" t="s">
+      <c r="I111" t="s">
+        <v>705</v>
+      </c>
+      <c r="L111" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>660</v>
       </c>
@@ -12310,7 +13786,7 @@
       <c r="D112" t="s">
         <v>682</v>
       </c>
-      <c r="E112" s="9" t="s">
+      <c r="E112" t="s">
         <v>101</v>
       </c>
       <c r="F112" t="s">
@@ -12322,11 +13798,14 @@
       <c r="H112" t="s">
         <v>427</v>
       </c>
-      <c r="K112" t="s">
+      <c r="I112" t="s">
+        <v>705</v>
+      </c>
+      <c r="L112" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>661</v>
       </c>
@@ -12336,7 +13815,7 @@
       <c r="D113" t="s">
         <v>683</v>
       </c>
-      <c r="E113" s="9" t="s">
+      <c r="E113" t="s">
         <v>101</v>
       </c>
       <c r="F113" t="s">
@@ -12348,11 +13827,14 @@
       <c r="H113" t="s">
         <v>427</v>
       </c>
-      <c r="K113" t="s">
+      <c r="I113" t="s">
+        <v>705</v>
+      </c>
+      <c r="L113" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>662</v>
       </c>
@@ -12362,7 +13844,7 @@
       <c r="D114" t="s">
         <v>683</v>
       </c>
-      <c r="E114" s="9" t="s">
+      <c r="E114" t="s">
         <v>101</v>
       </c>
       <c r="F114" t="s">
@@ -12374,11 +13856,14 @@
       <c r="H114" t="s">
         <v>427</v>
       </c>
-      <c r="K114" t="s">
+      <c r="I114" t="s">
+        <v>705</v>
+      </c>
+      <c r="L114" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>663</v>
       </c>
@@ -12388,7 +13873,7 @@
       <c r="D115" t="s">
         <v>683</v>
       </c>
-      <c r="E115" s="9" t="s">
+      <c r="E115" t="s">
         <v>101</v>
       </c>
       <c r="F115" t="s">
@@ -12400,11 +13885,14 @@
       <c r="H115" t="s">
         <v>427</v>
       </c>
-      <c r="K115" t="s">
+      <c r="I115" t="s">
+        <v>705</v>
+      </c>
+      <c r="L115" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>664</v>
       </c>
@@ -12414,7 +13902,7 @@
       <c r="D116" t="s">
         <v>683</v>
       </c>
-      <c r="E116" s="9" t="s">
+      <c r="E116" t="s">
         <v>101</v>
       </c>
       <c r="F116" t="s">
@@ -12426,11 +13914,14 @@
       <c r="H116" t="s">
         <v>427</v>
       </c>
-      <c r="K116" t="s">
+      <c r="I116" t="s">
+        <v>705</v>
+      </c>
+      <c r="L116" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>665</v>
       </c>
@@ -12440,7 +13931,7 @@
       <c r="D117" t="s">
         <v>683</v>
       </c>
-      <c r="E117" s="9" t="s">
+      <c r="E117" t="s">
         <v>101</v>
       </c>
       <c r="F117" t="s">
@@ -12452,11 +13943,14 @@
       <c r="H117" t="s">
         <v>427</v>
       </c>
-      <c r="K117" t="s">
+      <c r="I117" t="s">
+        <v>705</v>
+      </c>
+      <c r="L117" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>666</v>
       </c>
@@ -12466,7 +13960,7 @@
       <c r="D118" t="s">
         <v>684</v>
       </c>
-      <c r="E118" s="9" t="s">
+      <c r="E118" t="s">
         <v>101</v>
       </c>
       <c r="F118" t="s">
@@ -12478,11 +13972,14 @@
       <c r="H118" t="s">
         <v>427</v>
       </c>
-      <c r="K118" t="s">
+      <c r="I118" t="s">
+        <v>705</v>
+      </c>
+      <c r="L118" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>667</v>
       </c>
@@ -12492,7 +13989,7 @@
       <c r="D119" t="s">
         <v>684</v>
       </c>
-      <c r="E119" s="9" t="s">
+      <c r="E119" t="s">
         <v>101</v>
       </c>
       <c r="F119" t="s">
@@ -12504,11 +14001,14 @@
       <c r="H119" t="s">
         <v>427</v>
       </c>
-      <c r="K119" t="s">
+      <c r="I119" t="s">
+        <v>705</v>
+      </c>
+      <c r="L119" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>668</v>
       </c>
@@ -12518,7 +14018,7 @@
       <c r="D120" t="s">
         <v>684</v>
       </c>
-      <c r="E120" s="9" t="s">
+      <c r="E120" t="s">
         <v>101</v>
       </c>
       <c r="F120" t="s">
@@ -12530,11 +14030,14 @@
       <c r="H120" t="s">
         <v>427</v>
       </c>
-      <c r="K120" t="s">
+      <c r="I120" t="s">
+        <v>705</v>
+      </c>
+      <c r="L120" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>669</v>
       </c>
@@ -12544,7 +14047,7 @@
       <c r="D121" t="s">
         <v>684</v>
       </c>
-      <c r="E121" s="9" t="s">
+      <c r="E121" t="s">
         <v>101</v>
       </c>
       <c r="F121" t="s">
@@ -12556,11 +14059,14 @@
       <c r="H121" t="s">
         <v>427</v>
       </c>
-      <c r="K121" t="s">
+      <c r="I121" t="s">
+        <v>705</v>
+      </c>
+      <c r="L121" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>670</v>
       </c>
@@ -12570,7 +14076,7 @@
       <c r="D122" t="s">
         <v>684</v>
       </c>
-      <c r="E122" s="9" t="s">
+      <c r="E122" t="s">
         <v>101</v>
       </c>
       <c r="F122" t="s">
@@ -12582,11 +14088,14 @@
       <c r="H122" t="s">
         <v>427</v>
       </c>
-      <c r="K122" t="s">
+      <c r="I122" t="s">
+        <v>705</v>
+      </c>
+      <c r="L122" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>671</v>
       </c>
@@ -12596,7 +14105,7 @@
       <c r="D123" t="s">
         <v>685</v>
       </c>
-      <c r="E123" s="9" t="s">
+      <c r="E123" t="s">
         <v>101</v>
       </c>
       <c r="F123" t="s">
@@ -12608,11 +14117,14 @@
       <c r="H123" t="s">
         <v>427</v>
       </c>
-      <c r="K123" t="s">
+      <c r="I123" t="s">
+        <v>705</v>
+      </c>
+      <c r="L123" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>672</v>
       </c>
@@ -12622,7 +14134,7 @@
       <c r="D124" t="s">
         <v>685</v>
       </c>
-      <c r="E124" s="9" t="s">
+      <c r="E124" t="s">
         <v>101</v>
       </c>
       <c r="F124" t="s">
@@ -12634,11 +14146,14 @@
       <c r="H124" t="s">
         <v>427</v>
       </c>
-      <c r="K124" t="s">
+      <c r="I124" t="s">
+        <v>705</v>
+      </c>
+      <c r="L124" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>673</v>
       </c>
@@ -12648,7 +14163,7 @@
       <c r="D125" t="s">
         <v>685</v>
       </c>
-      <c r="E125" s="9" t="s">
+      <c r="E125" t="s">
         <v>101</v>
       </c>
       <c r="F125" t="s">
@@ -12660,11 +14175,14 @@
       <c r="H125" t="s">
         <v>427</v>
       </c>
-      <c r="K125" t="s">
+      <c r="I125" t="s">
+        <v>705</v>
+      </c>
+      <c r="L125" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>674</v>
       </c>
@@ -12674,7 +14192,7 @@
       <c r="D126" t="s">
         <v>685</v>
       </c>
-      <c r="E126" s="9" t="s">
+      <c r="E126" t="s">
         <v>101</v>
       </c>
       <c r="F126" t="s">
@@ -12686,11 +14204,14 @@
       <c r="H126" t="s">
         <v>427</v>
       </c>
-      <c r="K126" t="s">
+      <c r="I126" t="s">
+        <v>705</v>
+      </c>
+      <c r="L126" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>675</v>
       </c>
@@ -12700,7 +14221,7 @@
       <c r="D127" t="s">
         <v>685</v>
       </c>
-      <c r="E127" s="9" t="s">
+      <c r="E127" t="s">
         <v>101</v>
       </c>
       <c r="F127" t="s">
@@ -12712,11 +14233,14 @@
       <c r="H127" t="s">
         <v>427</v>
       </c>
-      <c r="K127" t="s">
+      <c r="I127" t="s">
+        <v>705</v>
+      </c>
+      <c r="L127" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>676</v>
       </c>
@@ -12726,7 +14250,7 @@
       <c r="D128" t="s">
         <v>686</v>
       </c>
-      <c r="E128" s="9" t="s">
+      <c r="E128" t="s">
         <v>101</v>
       </c>
       <c r="F128" t="s">
@@ -12738,11 +14262,14 @@
       <c r="H128" t="s">
         <v>427</v>
       </c>
-      <c r="K128" t="s">
+      <c r="I128" t="s">
+        <v>705</v>
+      </c>
+      <c r="L128" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>677</v>
       </c>
@@ -12752,7 +14279,7 @@
       <c r="D129" t="s">
         <v>686</v>
       </c>
-      <c r="E129" s="9" t="s">
+      <c r="E129" t="s">
         <v>101</v>
       </c>
       <c r="F129" t="s">
@@ -12764,11 +14291,14 @@
       <c r="H129" t="s">
         <v>427</v>
       </c>
-      <c r="K129" t="s">
+      <c r="I129" t="s">
+        <v>705</v>
+      </c>
+      <c r="L129" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>678</v>
       </c>
@@ -12778,7 +14308,7 @@
       <c r="D130" t="s">
         <v>686</v>
       </c>
-      <c r="E130" s="9" t="s">
+      <c r="E130" t="s">
         <v>101</v>
       </c>
       <c r="F130" t="s">
@@ -12790,11 +14320,14 @@
       <c r="H130" t="s">
         <v>427</v>
       </c>
-      <c r="K130" t="s">
+      <c r="I130" t="s">
+        <v>705</v>
+      </c>
+      <c r="L130" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>679</v>
       </c>
@@ -12804,7 +14337,7 @@
       <c r="D131" t="s">
         <v>686</v>
       </c>
-      <c r="E131" s="9" t="s">
+      <c r="E131" t="s">
         <v>101</v>
       </c>
       <c r="F131" t="s">
@@ -12816,11 +14349,14 @@
       <c r="H131" t="s">
         <v>427</v>
       </c>
-      <c r="K131" t="s">
+      <c r="I131" t="s">
+        <v>705</v>
+      </c>
+      <c r="L131" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>680</v>
       </c>
@@ -12830,7 +14366,7 @@
       <c r="D132" t="s">
         <v>686</v>
       </c>
-      <c r="E132" s="9" t="s">
+      <c r="E132" t="s">
         <v>101</v>
       </c>
       <c r="F132" t="s">
@@ -12842,9 +14378,234 @@
       <c r="H132" t="s">
         <v>427</v>
       </c>
-      <c r="K132" t="s">
+      <c r="I132" t="s">
+        <v>705</v>
+      </c>
+      <c r="L132" t="s">
         <v>651</v>
       </c>
+    </row>
+    <row r="134" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C134" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="G134" t="s">
+        <v>424</v>
+      </c>
+      <c r="L134" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="135" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C135" s="9"/>
+    </row>
+    <row r="136" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C136" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="G136" t="s">
+        <v>424</v>
+      </c>
+      <c r="L136" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="137" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C137" s="9"/>
+    </row>
+    <row r="138" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C138" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="G138" t="s">
+        <v>423</v>
+      </c>
+      <c r="L138" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="139" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C139" s="9"/>
+    </row>
+    <row r="140" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C140" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="G140" t="s">
+        <v>423</v>
+      </c>
+      <c r="L140" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="141" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C141" s="9"/>
+    </row>
+    <row r="142" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C142" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="G142" t="s">
+        <v>423</v>
+      </c>
+      <c r="L142" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="143" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C143" s="9"/>
+    </row>
+    <row r="144" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C144" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="G144" t="s">
+        <v>423</v>
+      </c>
+      <c r="L144" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="145" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C145" s="9"/>
+    </row>
+    <row r="146" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C146" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="G146" t="s">
+        <v>423</v>
+      </c>
+      <c r="L146" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="147" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C147" s="9"/>
+    </row>
+    <row r="148" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C148" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="G148" t="s">
+        <v>423</v>
+      </c>
+      <c r="L148" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="149" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C149" s="9"/>
+    </row>
+    <row r="150" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C150" s="9" t="s">
+        <v>731</v>
+      </c>
+      <c r="G150" t="s">
+        <v>423</v>
+      </c>
+      <c r="L150" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="151" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C151" s="9"/>
+    </row>
+    <row r="152" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C152" s="9" t="s">
+        <v>732</v>
+      </c>
+      <c r="G152" t="s">
+        <v>423</v>
+      </c>
+      <c r="L152" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="153" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C153" s="9"/>
+    </row>
+    <row r="154" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C154" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="G154" t="s">
+        <v>423</v>
+      </c>
+      <c r="L154" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="155" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C155" s="9"/>
+    </row>
+    <row r="156" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C156" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="G156" t="s">
+        <v>423</v>
+      </c>
+      <c r="L156" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="157" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C157" s="9"/>
+    </row>
+    <row r="158" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C158" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="G158" t="s">
+        <v>424</v>
+      </c>
+      <c r="L158" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="159" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C159" s="9"/>
+    </row>
+    <row r="160" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C160" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="G160" t="s">
+        <v>424</v>
+      </c>
+      <c r="L160" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="161" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C161" s="9"/>
+    </row>
+    <row r="162" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C162" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="G162" t="s">
+        <v>424</v>
+      </c>
+      <c r="L162" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="163" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C163" s="9"/>
+    </row>
+    <row r="164" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C164" s="9"/>
+    </row>
+    <row r="165" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C165" s="9"/>
+    </row>
+    <row r="166" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C166" s="9"/>
+    </row>
+    <row r="167" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C167" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/data/ref.xlsx
+++ b/data/ref.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/Repositories/LCAdata/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66059E71-7F6D-0648-9D5B-5328DCC678B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54649D89-38D1-1F4B-BC0D-7386A155EDF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39180" yWindow="1180" windowWidth="17120" windowHeight="15880" activeTab="1" xr2:uid="{4F28B243-04AE-1E4D-B411-E86C9FDA2FDF}"/>
+    <workbookView xWindow="39260" yWindow="500" windowWidth="26660" windowHeight="17620" activeTab="1" xr2:uid="{4F28B243-04AE-1E4D-B411-E86C9FDA2FDF}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3233" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4344" uniqueCount="920">
   <si>
     <t>old file name</t>
   </si>
@@ -3620,15 +3620,9 @@
     <t>rye (Secale cereale L..)</t>
   </si>
   <si>
-    <t>wheat</t>
-  </si>
-  <si>
     <t>rice (Oryza sativa L.)</t>
   </si>
   <si>
-    <t>beans (Phaseolus vulgaris L.)</t>
-  </si>
-  <si>
     <t>spanish clover</t>
   </si>
   <si>
@@ -3638,17 +3632,754 @@
     <t>Drosophila hibisci</t>
   </si>
   <si>
-    <t>poltry</t>
-  </si>
-  <si>
-    <t>Astyanax</t>
+    <t>space.internode.len.csv</t>
+  </si>
+  <si>
+    <t>space.lateral.num.csv</t>
+  </si>
+  <si>
+    <t>space.node.num.csv</t>
+  </si>
+  <si>
+    <t>space.stem.len.csv</t>
+  </si>
+  <si>
+    <t>space.fruit.num.csv</t>
+  </si>
+  <si>
+    <t>NCSU.node.num.csv</t>
+  </si>
+  <si>
+    <t>NCSU.lateral.num.csv</t>
+  </si>
+  <si>
+    <t>NCSU.internode.len.csv</t>
+  </si>
+  <si>
+    <t>NCSU.stem.len.csv</t>
+  </si>
+  <si>
+    <t>NCSU.fruit.num.csv</t>
+  </si>
+  <si>
+    <t>number of nodes</t>
+  </si>
+  <si>
+    <t>average internode length (cm)</t>
+  </si>
+  <si>
+    <t>number of primary laterals</t>
+  </si>
+  <si>
+    <t>main stem length (cm)</t>
+  </si>
+  <si>
+    <t>number of fruits per plant</t>
+  </si>
+  <si>
+    <t>bodyweight69.csv</t>
+  </si>
+  <si>
+    <t>bodyweight71.csv</t>
+  </si>
+  <si>
+    <t>eggbody69.csv</t>
+  </si>
+  <si>
+    <t>eggbody71.csv</t>
+  </si>
+  <si>
+    <t>eggnum69.csv</t>
+  </si>
+  <si>
+    <t>eggnum71.csv</t>
+  </si>
+  <si>
+    <t>eggsize69.csv</t>
+  </si>
+  <si>
+    <t>eggsize71.csv</t>
+  </si>
+  <si>
+    <t>eggvol69.csv</t>
+  </si>
+  <si>
+    <t>eggvol71.csv</t>
+  </si>
+  <si>
+    <t>body weight</t>
+  </si>
+  <si>
+    <t>number of eggs per unit body weight</t>
+  </si>
+  <si>
+    <t>egg number</t>
+  </si>
+  <si>
+    <t>egg size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">egg volume </t>
+  </si>
+  <si>
+    <t>fruitplot1.csv</t>
+  </si>
+  <si>
+    <t>fruitplot2.csv</t>
+  </si>
+  <si>
+    <t>fruitplot3.csv</t>
+  </si>
+  <si>
+    <t>fruitplot4.csv</t>
+  </si>
+  <si>
+    <t>fruitplot5.csv</t>
+  </si>
+  <si>
+    <t>fruitplot6.csv</t>
+  </si>
+  <si>
+    <t>fruitnum1.csv</t>
+  </si>
+  <si>
+    <t>fruitnum2.csv</t>
+  </si>
+  <si>
+    <t>fruitnum3.csv</t>
+  </si>
+  <si>
+    <t>fruitnum4.csv</t>
+  </si>
+  <si>
+    <t>fruitnum5.csv</t>
+  </si>
+  <si>
+    <t>fruitnum6.csv</t>
+  </si>
+  <si>
+    <t>fruitwt1.csv</t>
+  </si>
+  <si>
+    <t>fruitwt2.csv</t>
+  </si>
+  <si>
+    <t>fruitwt3.csv</t>
+  </si>
+  <si>
+    <t>fruitwt4.csv</t>
+  </si>
+  <si>
+    <t>fruitwt5.csv</t>
+  </si>
+  <si>
+    <t>fruitwt6.csv</t>
+  </si>
+  <si>
+    <t>fruitindex1.csv</t>
+  </si>
+  <si>
+    <t>fruitindex2.csv</t>
+  </si>
+  <si>
+    <t>fruitindex3.csv</t>
+  </si>
+  <si>
+    <t>fruitindex4.csv</t>
+  </si>
+  <si>
+    <t>fruitindex5.csv</t>
+  </si>
+  <si>
+    <t>fruitindex6.csv</t>
+  </si>
+  <si>
+    <t>fruit weight per plot (kg)</t>
+  </si>
+  <si>
+    <t>fruit number per plot</t>
+  </si>
+  <si>
+    <t>average fruit weight (g)</t>
+  </si>
+  <si>
+    <t>fruit bearing index</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Al-Falluji, R.A., Trinklein, D.H., Lambeth, V.N. (1982) Inheritance of pericarp firmness in tomato by generation mean analysis. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HortScience</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 17(5), 763-764.</t>
+    </r>
+  </si>
+  <si>
+    <t>pericarp firmness</t>
+  </si>
+  <si>
+    <r>
+      <t>tomato (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Lycopersicon esculentum </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mill.)</t>
+    </r>
+  </si>
+  <si>
+    <t>pericarp.firm.csv</t>
+  </si>
+  <si>
+    <t>bodyweight60.fem.csv</t>
+  </si>
+  <si>
+    <t>bodyweight60.male.csv</t>
+  </si>
+  <si>
+    <t>60 day bodyweight in females</t>
+  </si>
+  <si>
+    <t>60 day bodyweight in males</t>
+  </si>
+  <si>
+    <t>parental sex unknown</t>
+  </si>
+  <si>
+    <t>peri.677a.b37.csv</t>
+  </si>
+  <si>
+    <t>peri.677a.b68.csv</t>
+  </si>
+  <si>
+    <t>peri.677a.h55.csv</t>
+  </si>
+  <si>
+    <t>peri.677a.hi26.csv</t>
+  </si>
+  <si>
+    <t>peri.AA8.b37.csv</t>
+  </si>
+  <si>
+    <t>peri.AA8.b68.csv</t>
+  </si>
+  <si>
+    <t>peri.AA8.h55.csv</t>
+  </si>
+  <si>
+    <t>peri.AA8.hi26.csv</t>
+  </si>
+  <si>
+    <t>Zea mays</t>
+  </si>
+  <si>
+    <t>coleolen1.csv</t>
+  </si>
+  <si>
+    <t>coleolen2.csv</t>
+  </si>
+  <si>
+    <t>coleolen3.csv</t>
+  </si>
+  <si>
+    <t>coleolen4.csv</t>
+  </si>
+  <si>
+    <t>coleolen5.csv</t>
+  </si>
+  <si>
+    <t>seedht1.csv</t>
+  </si>
+  <si>
+    <t>seedht2.csv</t>
+  </si>
+  <si>
+    <t>seedht3.csv</t>
+  </si>
+  <si>
+    <t>seedht4.csv</t>
+  </si>
+  <si>
+    <t>seedht5.csv</t>
+  </si>
+  <si>
+    <t>plantht1.csv</t>
+  </si>
+  <si>
+    <t>plantht2.csv</t>
+  </si>
+  <si>
+    <t>plantht3.csv</t>
+  </si>
+  <si>
+    <t>plantht4.csv</t>
+  </si>
+  <si>
+    <t>plantht5.csv</t>
+  </si>
+  <si>
+    <t>spikelen1.csv</t>
+  </si>
+  <si>
+    <t>spikelen2.csv</t>
+  </si>
+  <si>
+    <t>spikelen3.csv</t>
+  </si>
+  <si>
+    <t>spikelen4.csv</t>
+  </si>
+  <si>
+    <t>spikelen5.csv</t>
+  </si>
+  <si>
+    <t>yieldspike1.csv</t>
+  </si>
+  <si>
+    <t>yieldspike2.csv</t>
+  </si>
+  <si>
+    <t>yieldspike3.csv</t>
+  </si>
+  <si>
+    <t>yieldspike4.csv</t>
+  </si>
+  <si>
+    <t>yieldspike5.csv</t>
+  </si>
+  <si>
+    <t>coleoptile length (mm)</t>
+  </si>
+  <si>
+    <t>seedling height (mm)</t>
+  </si>
+  <si>
+    <t>plant height (cm)</t>
+  </si>
+  <si>
+    <t>spike length (cm)</t>
+  </si>
+  <si>
+    <t>yield per spike (g)</t>
+  </si>
+  <si>
+    <t>spike.culms1.csv</t>
+  </si>
+  <si>
+    <t>spike.culms2.csv</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Merrit, R.G. (1988) Inheritance of culm number in two uniculm x multiculm wheat crosses. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Euphytica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 38, 105-112</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>wheat (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Triticum aestivum </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L.)</t>
+    </r>
+  </si>
+  <si>
+    <t>number of spike bearing culms</t>
+  </si>
+  <si>
+    <t>mesolen1/csv</t>
+  </si>
+  <si>
+    <t>mesolen2.csv</t>
+  </si>
+  <si>
+    <t>mesolen3.csv</t>
+  </si>
+  <si>
+    <t>mesocotyl length</t>
+  </si>
+  <si>
+    <t>seed.length.csv</t>
+  </si>
+  <si>
+    <t>seed.width.csv</t>
+  </si>
+  <si>
+    <t>seed.height.csv</t>
+  </si>
+  <si>
+    <t>seed.weight.csv</t>
+  </si>
+  <si>
+    <r>
+      <t>beans (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Phaseolus vulgaris</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L.)</t>
+    </r>
+  </si>
+  <si>
+    <t>seed length (mm)</t>
+  </si>
+  <si>
+    <t>seed width (mm)</t>
+  </si>
+  <si>
+    <t>seed height (mm)</t>
+  </si>
+  <si>
+    <t>seed weight (mg)</t>
+  </si>
+  <si>
+    <t>cot.area.csv</t>
+  </si>
+  <si>
+    <t>juv.leafwd.csv</t>
+  </si>
+  <si>
+    <t>acetyl.red.csv</t>
+  </si>
+  <si>
+    <t>shootwt.fresh.csv</t>
+  </si>
+  <si>
+    <t>rootwt.csv</t>
+  </si>
+  <si>
+    <t>shootwt.dry.csv</t>
+  </si>
+  <si>
+    <t>nitrogenfix.csv</t>
+  </si>
+  <si>
+    <t>cotyledon area (mm2)</t>
+  </si>
+  <si>
+    <t>juvenile leaf width (mm)</t>
+  </si>
+  <si>
+    <t>acetylene reduced (nmoles/h)</t>
+  </si>
+  <si>
+    <t>shoot fresh weight (mg)</t>
+  </si>
+  <si>
+    <t>root fresh weight (g)</t>
+  </si>
+  <si>
+    <t>shoot dry weight (mg)</t>
+  </si>
+  <si>
+    <t>nitrogen fixation component</t>
+  </si>
+  <si>
+    <t>yield.normal.csv</t>
+  </si>
+  <si>
+    <t>yield.late.csv</t>
+  </si>
+  <si>
+    <t>grain yield (g/plant) for normal sowing</t>
+  </si>
+  <si>
+    <t>grain yield (g/plant) for late sowing</t>
+  </si>
+  <si>
+    <t>seed.sylvia.csv</t>
+  </si>
+  <si>
+    <t>seed.mf.csv</t>
+  </si>
+  <si>
+    <t>seed number per pod, sylviaxsp16</t>
+  </si>
+  <si>
+    <t>seed number per pod, 6207xmf</t>
+  </si>
+  <si>
+    <t>cmat.starmer.csv</t>
+  </si>
+  <si>
+    <t>thorax.len25.csv</t>
+  </si>
+  <si>
+    <t>ova25.csv</t>
+  </si>
+  <si>
+    <t>thorax.len21.csv</t>
+  </si>
+  <si>
+    <t>thorax.len18.csv</t>
+  </si>
+  <si>
+    <t>ova21.csv</t>
+  </si>
+  <si>
+    <t>ova18.csv</t>
+  </si>
+  <si>
+    <t>thorax length</t>
+  </si>
+  <si>
+    <t>ovariole number</t>
+  </si>
+  <si>
+    <t>shell.color.csv</t>
+  </si>
+  <si>
+    <t>chickens</t>
+  </si>
+  <si>
+    <t>eggshell color</t>
+  </si>
+  <si>
+    <t>ZW</t>
+  </si>
+  <si>
+    <t>eyesize.csv</t>
+  </si>
+  <si>
+    <t>eye-ball size</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">cavefish </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Astyanax)</t>
+    </r>
+  </si>
+  <si>
+    <t>baghat-1984</t>
+  </si>
+  <si>
+    <t>stevens-1976</t>
+  </si>
+  <si>
+    <t>plant.height1.csv</t>
+  </si>
+  <si>
+    <t>plant.height2.csv</t>
+  </si>
+  <si>
+    <t>plant.height3.csv</t>
+  </si>
+  <si>
+    <t>plant.height4.csv</t>
+  </si>
+  <si>
+    <t>internode.num1.csv</t>
+  </si>
+  <si>
+    <t>internode.num2.csv</t>
+  </si>
+  <si>
+    <t>internode.num3.csv</t>
+  </si>
+  <si>
+    <t>internode.num4.csv</t>
+  </si>
+  <si>
+    <t>stemwt2.csv</t>
+  </si>
+  <si>
+    <t>stemwt1.csv</t>
+  </si>
+  <si>
+    <t>stemwt3.csv</t>
+  </si>
+  <si>
+    <t>stemwt4.csv</t>
+  </si>
+  <si>
+    <t>leafwt1.csv</t>
+  </si>
+  <si>
+    <t>leafwt2.csv</t>
+  </si>
+  <si>
+    <t>leafwt3.csv</t>
+  </si>
+  <si>
+    <t>leafwt4.csv</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jimsonweed (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Datura stramonium </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L.)</t>
+    </r>
+  </si>
+  <si>
+    <t>internode number</t>
+  </si>
+  <si>
+    <t>stem weight (g)</t>
+  </si>
+  <si>
+    <t>leaf weight (g)</t>
+  </si>
+  <si>
+    <t>viscosity.csv</t>
+  </si>
+  <si>
+    <t>tomato (Lycopersicon esculentum)</t>
+  </si>
+  <si>
+    <t>gross viscosity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3731,17 +4462,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10754,7 +11486,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L215">
     <sortCondition ref="B1:B215"/>
   </sortState>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -10762,10 +11494,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1AC297A-A885-7C40-9A4E-22B5A2A054BE}">
-  <dimension ref="A1:L167"/>
+  <dimension ref="A1:L275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="75" workbookViewId="0">
-      <selection activeCell="D163" sqref="D163"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="108" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J143" sqref="J143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10776,6 +11509,7 @@
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
     <col min="8" max="9" width="23.6640625" customWidth="1"/>
+    <col min="10" max="10" width="24.1640625" customWidth="1"/>
     <col min="11" max="11" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14386,229 +15120,3769 @@
       </c>
     </row>
     <row r="134" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
+        <v>748</v>
+      </c>
       <c r="C134" s="9" t="s">
         <v>724</v>
       </c>
+      <c r="D134" t="s">
+        <v>758</v>
+      </c>
+      <c r="F134" t="s">
+        <v>166</v>
+      </c>
       <c r="G134" t="s">
         <v>424</v>
       </c>
+      <c r="I134" t="s">
+        <v>705</v>
+      </c>
       <c r="L134" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="135" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C135" s="9"/>
+      <c r="B135" t="s">
+        <v>749</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="D135" t="s">
+        <v>758</v>
+      </c>
+      <c r="F135" t="s">
+        <v>166</v>
+      </c>
+      <c r="G135" t="s">
+        <v>424</v>
+      </c>
+      <c r="I135" t="s">
+        <v>705</v>
+      </c>
+      <c r="L135" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="136" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
+        <v>750</v>
+      </c>
       <c r="C136" s="9" t="s">
-        <v>725</v>
+        <v>724</v>
+      </c>
+      <c r="D136" t="s">
+        <v>759</v>
+      </c>
+      <c r="F136" t="s">
+        <v>165</v>
       </c>
       <c r="G136" t="s">
         <v>424</v>
       </c>
+      <c r="I136" t="s">
+        <v>705</v>
+      </c>
       <c r="L136" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="137" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
+        <v>751</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="D137" t="s">
+        <v>759</v>
+      </c>
+      <c r="F137" t="s">
+        <v>165</v>
+      </c>
+      <c r="G137" t="s">
+        <v>424</v>
+      </c>
+      <c r="I137" t="s">
+        <v>705</v>
+      </c>
+      <c r="L137" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="138" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
+        <v>752</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="D138" t="s">
+        <v>760</v>
+      </c>
+      <c r="F138" t="s">
+        <v>165</v>
+      </c>
+      <c r="G138" t="s">
+        <v>424</v>
+      </c>
+      <c r="I138" t="s">
+        <v>705</v>
+      </c>
+      <c r="L138" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="139" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
+        <v>753</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="D139" t="s">
+        <v>760</v>
+      </c>
+      <c r="F139" t="s">
+        <v>165</v>
+      </c>
+      <c r="G139" t="s">
+        <v>424</v>
+      </c>
+      <c r="I139" t="s">
+        <v>705</v>
+      </c>
+      <c r="L139" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="140" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
+        <v>754</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="D140" t="s">
+        <v>761</v>
+      </c>
+      <c r="F140" t="s">
+        <v>165</v>
+      </c>
+      <c r="G140" t="s">
+        <v>424</v>
+      </c>
+      <c r="I140" t="s">
+        <v>705</v>
+      </c>
+      <c r="L140" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="141" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
+        <v>755</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="D141" t="s">
+        <v>761</v>
+      </c>
+      <c r="F141" t="s">
+        <v>165</v>
+      </c>
+      <c r="G141" t="s">
+        <v>424</v>
+      </c>
+      <c r="I141" t="s">
+        <v>705</v>
+      </c>
+      <c r="L141" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="142" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
+        <v>756</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="D142" t="s">
+        <v>762</v>
+      </c>
+      <c r="F142" t="s">
+        <v>165</v>
+      </c>
+      <c r="G142" t="s">
+        <v>424</v>
+      </c>
+      <c r="I142" t="s">
+        <v>705</v>
+      </c>
+      <c r="L142" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="143" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
+        <v>757</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="D143" t="s">
+        <v>762</v>
+      </c>
+      <c r="F143" t="s">
+        <v>165</v>
+      </c>
+      <c r="G143" t="s">
+        <v>424</v>
+      </c>
+      <c r="I143" t="s">
+        <v>705</v>
+      </c>
+      <c r="L143" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="144" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C144" s="9"/>
+    </row>
+    <row r="145" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
+        <v>794</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="D145" t="s">
+        <v>792</v>
+      </c>
+      <c r="E145" t="s">
+        <v>418</v>
+      </c>
+      <c r="F145" t="s">
+        <v>166</v>
+      </c>
+      <c r="G145" t="s">
+        <v>423</v>
+      </c>
+      <c r="I145" t="s">
+        <v>705</v>
+      </c>
+      <c r="J145" t="s">
+        <v>799</v>
+      </c>
+      <c r="L145" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="146" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C146" s="9"/>
+    </row>
+    <row r="147" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B147" t="s">
+        <v>795</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="D147" t="s">
+        <v>797</v>
+      </c>
+      <c r="E147" t="s">
+        <v>101</v>
+      </c>
+      <c r="F147" t="s">
+        <v>166</v>
+      </c>
+      <c r="G147" t="s">
+        <v>424</v>
+      </c>
+      <c r="I147" t="s">
+        <v>705</v>
+      </c>
+      <c r="J147" t="s">
+        <v>799</v>
+      </c>
+      <c r="L147" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="137" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C137" s="9"/>
-    </row>
-    <row r="138" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C138" s="9" t="s">
+    <row r="148" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B148" t="s">
+        <v>796</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="D148" t="s">
+        <v>798</v>
+      </c>
+      <c r="E148" t="s">
+        <v>101</v>
+      </c>
+      <c r="F148" t="s">
+        <v>166</v>
+      </c>
+      <c r="G148" t="s">
+        <v>424</v>
+      </c>
+      <c r="I148" t="s">
+        <v>705</v>
+      </c>
+      <c r="J148" t="s">
+        <v>799</v>
+      </c>
+      <c r="L148" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="149" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C149" s="9"/>
+    </row>
+    <row r="150" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B150" t="s">
+        <v>733</v>
+      </c>
+      <c r="C150" s="9" t="s">
         <v>726</v>
       </c>
-      <c r="G138" t="s">
-        <v>423</v>
-      </c>
-      <c r="L138" t="s">
+      <c r="D150" t="s">
+        <v>744</v>
+      </c>
+      <c r="E150" t="s">
+        <v>418</v>
+      </c>
+      <c r="F150" t="s">
+        <v>166</v>
+      </c>
+      <c r="G150" t="s">
+        <v>423</v>
+      </c>
+      <c r="I150" t="s">
+        <v>706</v>
+      </c>
+      <c r="J150" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="L150" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="139" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C139" s="9"/>
-    </row>
-    <row r="140" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C140" s="9" t="s">
+    <row r="151" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B151" t="s">
+        <v>734</v>
+      </c>
+      <c r="C151" s="9" t="s">
         <v>726</v>
       </c>
-      <c r="G140" t="s">
-        <v>423</v>
-      </c>
-      <c r="L140" t="s">
+      <c r="D151" t="s">
+        <v>745</v>
+      </c>
+      <c r="E151" t="s">
+        <v>418</v>
+      </c>
+      <c r="F151" t="s">
+        <v>166</v>
+      </c>
+      <c r="G151" t="s">
+        <v>423</v>
+      </c>
+      <c r="I151" t="s">
+        <v>706</v>
+      </c>
+      <c r="J151" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="L151" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="152" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B152" t="s">
+        <v>735</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="D152" t="s">
+        <v>743</v>
+      </c>
+      <c r="E152" t="s">
+        <v>418</v>
+      </c>
+      <c r="F152" t="s">
+        <v>166</v>
+      </c>
+      <c r="G152" t="s">
+        <v>423</v>
+      </c>
+      <c r="I152" t="s">
+        <v>706</v>
+      </c>
+      <c r="J152" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="L152" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="153" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B153" t="s">
+        <v>736</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="D153" t="s">
+        <v>746</v>
+      </c>
+      <c r="E153" t="s">
+        <v>418</v>
+      </c>
+      <c r="F153" t="s">
+        <v>166</v>
+      </c>
+      <c r="G153" t="s">
+        <v>423</v>
+      </c>
+      <c r="I153" t="s">
+        <v>706</v>
+      </c>
+      <c r="J153" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="L153" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="154" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B154" t="s">
+        <v>737</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="D154" t="s">
+        <v>747</v>
+      </c>
+      <c r="E154" t="s">
+        <v>418</v>
+      </c>
+      <c r="F154" t="s">
+        <v>165</v>
+      </c>
+      <c r="G154" t="s">
+        <v>423</v>
+      </c>
+      <c r="I154" t="s">
+        <v>706</v>
+      </c>
+      <c r="J154" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="L154" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="155" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B155" t="s">
+        <v>738</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="D155" t="s">
+        <v>743</v>
+      </c>
+      <c r="E155" t="s">
+        <v>418</v>
+      </c>
+      <c r="F155" t="s">
+        <v>166</v>
+      </c>
+      <c r="G155" t="s">
+        <v>423</v>
+      </c>
+      <c r="I155" t="s">
+        <v>706</v>
+      </c>
+      <c r="J155" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="L155" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="156" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B156" t="s">
+        <v>739</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="D156" t="s">
+        <v>745</v>
+      </c>
+      <c r="E156" t="s">
+        <v>418</v>
+      </c>
+      <c r="F156" t="s">
+        <v>166</v>
+      </c>
+      <c r="G156" t="s">
+        <v>423</v>
+      </c>
+      <c r="I156" t="s">
+        <v>706</v>
+      </c>
+      <c r="J156" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="L156" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="157" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B157" t="s">
+        <v>740</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="D157" t="s">
+        <v>744</v>
+      </c>
+      <c r="E157" t="s">
+        <v>418</v>
+      </c>
+      <c r="F157" t="s">
+        <v>166</v>
+      </c>
+      <c r="G157" t="s">
+        <v>423</v>
+      </c>
+      <c r="I157" t="s">
+        <v>706</v>
+      </c>
+      <c r="J157" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="L157" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="158" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B158" t="s">
+        <v>741</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="D158" t="s">
+        <v>746</v>
+      </c>
+      <c r="E158" t="s">
+        <v>418</v>
+      </c>
+      <c r="F158" t="s">
+        <v>166</v>
+      </c>
+      <c r="G158" t="s">
+        <v>423</v>
+      </c>
+      <c r="I158" t="s">
+        <v>706</v>
+      </c>
+      <c r="J158" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="L158" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="159" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B159" t="s">
+        <v>742</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="D159" t="s">
+        <v>747</v>
+      </c>
+      <c r="E159" t="s">
+        <v>418</v>
+      </c>
+      <c r="F159" t="s">
+        <v>165</v>
+      </c>
+      <c r="G159" t="s">
+        <v>423</v>
+      </c>
+      <c r="I159" t="s">
+        <v>706</v>
+      </c>
+      <c r="J159" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="L159" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="160" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C160" s="9"/>
+    </row>
+    <row r="161" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B161" t="s">
+        <v>763</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="D161" t="s">
+        <v>787</v>
+      </c>
+      <c r="E161" t="s">
+        <v>418</v>
+      </c>
+      <c r="F161" t="s">
+        <v>165</v>
+      </c>
+      <c r="G161" t="s">
+        <v>423</v>
+      </c>
+      <c r="H161" t="s">
+        <v>427</v>
+      </c>
+      <c r="I161" t="s">
+        <v>706</v>
+      </c>
+      <c r="L161" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="141" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C141" s="9"/>
-    </row>
-    <row r="142" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C142" s="9" t="s">
+    <row r="162" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B162" t="s">
+        <v>764</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="D162" t="s">
+        <v>787</v>
+      </c>
+      <c r="E162" t="s">
+        <v>418</v>
+      </c>
+      <c r="F162" t="s">
+        <v>165</v>
+      </c>
+      <c r="G162" t="s">
+        <v>423</v>
+      </c>
+      <c r="H162" t="s">
+        <v>427</v>
+      </c>
+      <c r="I162" t="s">
+        <v>706</v>
+      </c>
+      <c r="L162" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="163" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B163" t="s">
+        <v>765</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="D163" t="s">
+        <v>787</v>
+      </c>
+      <c r="E163" t="s">
+        <v>418</v>
+      </c>
+      <c r="F163" t="s">
+        <v>165</v>
+      </c>
+      <c r="G163" t="s">
+        <v>423</v>
+      </c>
+      <c r="H163" t="s">
+        <v>427</v>
+      </c>
+      <c r="I163" t="s">
+        <v>706</v>
+      </c>
+      <c r="L163" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="164" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B164" t="s">
+        <v>766</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="D164" t="s">
+        <v>787</v>
+      </c>
+      <c r="E164" t="s">
+        <v>418</v>
+      </c>
+      <c r="F164" t="s">
+        <v>165</v>
+      </c>
+      <c r="G164" t="s">
+        <v>423</v>
+      </c>
+      <c r="H164" t="s">
+        <v>427</v>
+      </c>
+      <c r="I164" t="s">
+        <v>706</v>
+      </c>
+      <c r="L164" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="165" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B165" t="s">
+        <v>767</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="D165" t="s">
+        <v>787</v>
+      </c>
+      <c r="E165" t="s">
+        <v>418</v>
+      </c>
+      <c r="F165" t="s">
+        <v>165</v>
+      </c>
+      <c r="G165" t="s">
+        <v>423</v>
+      </c>
+      <c r="H165" t="s">
+        <v>427</v>
+      </c>
+      <c r="I165" t="s">
+        <v>706</v>
+      </c>
+      <c r="L165" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="166" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B166" t="s">
+        <v>768</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="D166" t="s">
+        <v>787</v>
+      </c>
+      <c r="E166" t="s">
+        <v>418</v>
+      </c>
+      <c r="F166" t="s">
+        <v>165</v>
+      </c>
+      <c r="G166" t="s">
+        <v>423</v>
+      </c>
+      <c r="H166" t="s">
+        <v>427</v>
+      </c>
+      <c r="I166" t="s">
+        <v>706</v>
+      </c>
+      <c r="L166" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="167" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B167" t="s">
+        <v>769</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="D167" t="s">
+        <v>788</v>
+      </c>
+      <c r="E167" t="s">
+        <v>418</v>
+      </c>
+      <c r="F167" t="s">
+        <v>165</v>
+      </c>
+      <c r="G167" t="s">
+        <v>423</v>
+      </c>
+      <c r="H167" t="s">
+        <v>427</v>
+      </c>
+      <c r="I167" t="s">
+        <v>706</v>
+      </c>
+      <c r="L167" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="168" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B168" t="s">
+        <v>770</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="D168" t="s">
+        <v>788</v>
+      </c>
+      <c r="E168" t="s">
+        <v>418</v>
+      </c>
+      <c r="F168" t="s">
+        <v>165</v>
+      </c>
+      <c r="G168" t="s">
+        <v>423</v>
+      </c>
+      <c r="H168" t="s">
+        <v>427</v>
+      </c>
+      <c r="I168" t="s">
+        <v>706</v>
+      </c>
+      <c r="L168" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="169" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B169" t="s">
+        <v>771</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="D169" t="s">
+        <v>788</v>
+      </c>
+      <c r="E169" t="s">
+        <v>418</v>
+      </c>
+      <c r="F169" t="s">
+        <v>165</v>
+      </c>
+      <c r="G169" t="s">
+        <v>423</v>
+      </c>
+      <c r="H169" t="s">
+        <v>427</v>
+      </c>
+      <c r="I169" t="s">
+        <v>706</v>
+      </c>
+      <c r="L169" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="170" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B170" t="s">
+        <v>772</v>
+      </c>
+      <c r="C170" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="D170" t="s">
+        <v>788</v>
+      </c>
+      <c r="E170" t="s">
+        <v>418</v>
+      </c>
+      <c r="F170" t="s">
+        <v>165</v>
+      </c>
+      <c r="G170" t="s">
+        <v>423</v>
+      </c>
+      <c r="H170" t="s">
+        <v>427</v>
+      </c>
+      <c r="I170" t="s">
+        <v>706</v>
+      </c>
+      <c r="L170" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="171" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B171" t="s">
+        <v>773</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="D171" t="s">
+        <v>788</v>
+      </c>
+      <c r="E171" t="s">
+        <v>418</v>
+      </c>
+      <c r="F171" t="s">
+        <v>165</v>
+      </c>
+      <c r="G171" t="s">
+        <v>423</v>
+      </c>
+      <c r="H171" t="s">
+        <v>427</v>
+      </c>
+      <c r="I171" t="s">
+        <v>706</v>
+      </c>
+      <c r="L171" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="172" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B172" t="s">
+        <v>774</v>
+      </c>
+      <c r="C172" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="D172" t="s">
+        <v>788</v>
+      </c>
+      <c r="E172" t="s">
+        <v>418</v>
+      </c>
+      <c r="F172" t="s">
+        <v>165</v>
+      </c>
+      <c r="G172" t="s">
+        <v>423</v>
+      </c>
+      <c r="H172" t="s">
+        <v>427</v>
+      </c>
+      <c r="I172" t="s">
+        <v>706</v>
+      </c>
+      <c r="L172" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="173" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B173" t="s">
+        <v>775</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="D173" t="s">
+        <v>789</v>
+      </c>
+      <c r="E173" t="s">
+        <v>418</v>
+      </c>
+      <c r="F173" t="s">
+        <v>165</v>
+      </c>
+      <c r="G173" t="s">
+        <v>423</v>
+      </c>
+      <c r="H173" t="s">
+        <v>427</v>
+      </c>
+      <c r="I173" t="s">
+        <v>706</v>
+      </c>
+      <c r="L173" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="174" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B174" t="s">
+        <v>776</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="D174" t="s">
+        <v>789</v>
+      </c>
+      <c r="E174" t="s">
+        <v>418</v>
+      </c>
+      <c r="F174" t="s">
+        <v>165</v>
+      </c>
+      <c r="G174" t="s">
+        <v>423</v>
+      </c>
+      <c r="H174" t="s">
+        <v>427</v>
+      </c>
+      <c r="I174" t="s">
+        <v>706</v>
+      </c>
+      <c r="L174" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="175" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B175" t="s">
+        <v>777</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="D175" t="s">
+        <v>789</v>
+      </c>
+      <c r="E175" t="s">
+        <v>418</v>
+      </c>
+      <c r="F175" t="s">
+        <v>165</v>
+      </c>
+      <c r="G175" t="s">
+        <v>423</v>
+      </c>
+      <c r="H175" t="s">
+        <v>427</v>
+      </c>
+      <c r="I175" t="s">
+        <v>706</v>
+      </c>
+      <c r="L175" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="176" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B176" t="s">
+        <v>778</v>
+      </c>
+      <c r="C176" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="D176" t="s">
+        <v>789</v>
+      </c>
+      <c r="E176" t="s">
+        <v>418</v>
+      </c>
+      <c r="F176" t="s">
+        <v>165</v>
+      </c>
+      <c r="G176" t="s">
+        <v>423</v>
+      </c>
+      <c r="H176" t="s">
+        <v>427</v>
+      </c>
+      <c r="I176" t="s">
+        <v>706</v>
+      </c>
+      <c r="L176" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="177" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B177" t="s">
+        <v>779</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="D177" t="s">
+        <v>789</v>
+      </c>
+      <c r="E177" t="s">
+        <v>418</v>
+      </c>
+      <c r="F177" t="s">
+        <v>165</v>
+      </c>
+      <c r="G177" t="s">
+        <v>423</v>
+      </c>
+      <c r="H177" t="s">
+        <v>427</v>
+      </c>
+      <c r="I177" t="s">
+        <v>706</v>
+      </c>
+      <c r="L177" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="178" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B178" t="s">
+        <v>780</v>
+      </c>
+      <c r="C178" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="D178" t="s">
+        <v>789</v>
+      </c>
+      <c r="E178" t="s">
+        <v>418</v>
+      </c>
+      <c r="F178" t="s">
+        <v>165</v>
+      </c>
+      <c r="G178" t="s">
+        <v>423</v>
+      </c>
+      <c r="H178" t="s">
+        <v>427</v>
+      </c>
+      <c r="I178" t="s">
+        <v>706</v>
+      </c>
+      <c r="L178" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="179" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B179" t="s">
+        <v>781</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="D179" t="s">
+        <v>790</v>
+      </c>
+      <c r="E179" t="s">
+        <v>418</v>
+      </c>
+      <c r="F179" t="s">
+        <v>165</v>
+      </c>
+      <c r="G179" t="s">
+        <v>423</v>
+      </c>
+      <c r="H179" t="s">
+        <v>427</v>
+      </c>
+      <c r="I179" t="s">
+        <v>706</v>
+      </c>
+      <c r="L179" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="180" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B180" t="s">
+        <v>782</v>
+      </c>
+      <c r="C180" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="D180" t="s">
+        <v>790</v>
+      </c>
+      <c r="E180" t="s">
+        <v>418</v>
+      </c>
+      <c r="F180" t="s">
+        <v>165</v>
+      </c>
+      <c r="G180" t="s">
+        <v>423</v>
+      </c>
+      <c r="H180" t="s">
+        <v>427</v>
+      </c>
+      <c r="I180" t="s">
+        <v>706</v>
+      </c>
+      <c r="L180" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="181" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B181" t="s">
+        <v>783</v>
+      </c>
+      <c r="C181" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="D181" t="s">
+        <v>790</v>
+      </c>
+      <c r="E181" t="s">
+        <v>418</v>
+      </c>
+      <c r="F181" t="s">
+        <v>165</v>
+      </c>
+      <c r="G181" t="s">
+        <v>423</v>
+      </c>
+      <c r="H181" t="s">
+        <v>427</v>
+      </c>
+      <c r="I181" t="s">
+        <v>706</v>
+      </c>
+      <c r="L181" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="182" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B182" t="s">
+        <v>784</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="D182" t="s">
+        <v>790</v>
+      </c>
+      <c r="E182" t="s">
+        <v>418</v>
+      </c>
+      <c r="F182" t="s">
+        <v>165</v>
+      </c>
+      <c r="G182" t="s">
+        <v>423</v>
+      </c>
+      <c r="H182" t="s">
+        <v>427</v>
+      </c>
+      <c r="I182" t="s">
+        <v>706</v>
+      </c>
+      <c r="L182" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="183" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B183" t="s">
+        <v>785</v>
+      </c>
+      <c r="C183" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="D183" t="s">
+        <v>790</v>
+      </c>
+      <c r="E183" t="s">
+        <v>418</v>
+      </c>
+      <c r="F183" t="s">
+        <v>165</v>
+      </c>
+      <c r="G183" t="s">
+        <v>423</v>
+      </c>
+      <c r="H183" t="s">
+        <v>427</v>
+      </c>
+      <c r="I183" t="s">
+        <v>706</v>
+      </c>
+      <c r="L183" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="184" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B184" t="s">
+        <v>786</v>
+      </c>
+      <c r="C184" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="D184" t="s">
+        <v>790</v>
+      </c>
+      <c r="E184" t="s">
+        <v>418</v>
+      </c>
+      <c r="F184" t="s">
+        <v>165</v>
+      </c>
+      <c r="G184" t="s">
+        <v>423</v>
+      </c>
+      <c r="H184" t="s">
+        <v>427</v>
+      </c>
+      <c r="I184" t="s">
+        <v>706</v>
+      </c>
+      <c r="L184" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="185" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C185" s="9"/>
+    </row>
+    <row r="186" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B186" t="s">
+        <v>800</v>
+      </c>
+      <c r="C186" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="G142" t="s">
-        <v>423</v>
-      </c>
-      <c r="L142" t="s">
+      <c r="D186" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="E186" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="F186" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G186" t="s">
+        <v>423</v>
+      </c>
+      <c r="H186" t="s">
+        <v>427</v>
+      </c>
+      <c r="I186" t="s">
+        <v>705</v>
+      </c>
+      <c r="J186" t="s">
+        <v>799</v>
+      </c>
+      <c r="L186" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="143" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C143" s="9"/>
-    </row>
-    <row r="144" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C144" s="9" t="s">
+    <row r="187" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B187" t="s">
+        <v>801</v>
+      </c>
+      <c r="C187" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="E187" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="F187" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G187" t="s">
+        <v>423</v>
+      </c>
+      <c r="H187" t="s">
+        <v>427</v>
+      </c>
+      <c r="I187" t="s">
+        <v>705</v>
+      </c>
+      <c r="J187" t="s">
+        <v>799</v>
+      </c>
+      <c r="L187" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="188" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B188" t="s">
+        <v>802</v>
+      </c>
+      <c r="C188" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="E188" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="F188" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G188" t="s">
+        <v>423</v>
+      </c>
+      <c r="H188" t="s">
+        <v>427</v>
+      </c>
+      <c r="I188" t="s">
+        <v>705</v>
+      </c>
+      <c r="J188" t="s">
+        <v>799</v>
+      </c>
+      <c r="L188" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="189" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B189" t="s">
+        <v>803</v>
+      </c>
+      <c r="C189" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="E189" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="F189" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G189" t="s">
+        <v>423</v>
+      </c>
+      <c r="H189" t="s">
+        <v>427</v>
+      </c>
+      <c r="I189" t="s">
+        <v>705</v>
+      </c>
+      <c r="J189" t="s">
+        <v>799</v>
+      </c>
+      <c r="L189" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="190" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B190" t="s">
+        <v>804</v>
+      </c>
+      <c r="C190" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="E190" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="F190" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G190" t="s">
+        <v>423</v>
+      </c>
+      <c r="H190" t="s">
+        <v>427</v>
+      </c>
+      <c r="I190" t="s">
+        <v>705</v>
+      </c>
+      <c r="J190" t="s">
+        <v>799</v>
+      </c>
+      <c r="L190" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="191" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B191" t="s">
+        <v>805</v>
+      </c>
+      <c r="C191" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="E191" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="F191" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G191" t="s">
+        <v>423</v>
+      </c>
+      <c r="H191" t="s">
+        <v>427</v>
+      </c>
+      <c r="I191" t="s">
+        <v>705</v>
+      </c>
+      <c r="J191" t="s">
+        <v>799</v>
+      </c>
+      <c r="L191" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="192" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B192" t="s">
+        <v>806</v>
+      </c>
+      <c r="C192" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="E192" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="F192" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G192" t="s">
+        <v>423</v>
+      </c>
+      <c r="H192" t="s">
+        <v>427</v>
+      </c>
+      <c r="I192" t="s">
+        <v>705</v>
+      </c>
+      <c r="J192" t="s">
+        <v>799</v>
+      </c>
+      <c r="L192" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="193" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B193" t="s">
+        <v>807</v>
+      </c>
+      <c r="C193" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="E193" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="F193" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G193" t="s">
+        <v>423</v>
+      </c>
+      <c r="H193" t="s">
+        <v>427</v>
+      </c>
+      <c r="I193" t="s">
+        <v>705</v>
+      </c>
+      <c r="J193" t="s">
+        <v>799</v>
+      </c>
+      <c r="L193" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="194" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C194" s="9"/>
+    </row>
+    <row r="195" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B195" t="s">
+        <v>809</v>
+      </c>
+      <c r="C195" s="9" t="s">
         <v>728</v>
       </c>
-      <c r="G144" t="s">
-        <v>423</v>
-      </c>
-      <c r="L144" t="s">
+      <c r="D195" t="s">
+        <v>834</v>
+      </c>
+      <c r="E195" t="s">
+        <v>418</v>
+      </c>
+      <c r="F195" t="s">
+        <v>166</v>
+      </c>
+      <c r="G195" t="s">
+        <v>423</v>
+      </c>
+      <c r="H195" t="s">
+        <v>427</v>
+      </c>
+      <c r="I195" t="s">
+        <v>706</v>
+      </c>
+      <c r="J195" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="L195" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="145" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C145" s="9"/>
-    </row>
-    <row r="146" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C146" s="9" t="s">
+    <row r="196" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B196" t="s">
+        <v>810</v>
+      </c>
+      <c r="C196" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="D196" t="s">
+        <v>834</v>
+      </c>
+      <c r="E196" t="s">
+        <v>418</v>
+      </c>
+      <c r="F196" t="s">
+        <v>166</v>
+      </c>
+      <c r="G196" t="s">
+        <v>423</v>
+      </c>
+      <c r="H196" t="s">
+        <v>427</v>
+      </c>
+      <c r="I196" t="s">
+        <v>706</v>
+      </c>
+      <c r="J196" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="L196" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="197" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B197" t="s">
+        <v>811</v>
+      </c>
+      <c r="C197" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="D197" t="s">
+        <v>834</v>
+      </c>
+      <c r="E197" t="s">
+        <v>418</v>
+      </c>
+      <c r="F197" t="s">
+        <v>166</v>
+      </c>
+      <c r="G197" t="s">
+        <v>423</v>
+      </c>
+      <c r="H197" t="s">
+        <v>427</v>
+      </c>
+      <c r="I197" t="s">
+        <v>706</v>
+      </c>
+      <c r="J197" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="L197" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="198" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B198" t="s">
+        <v>812</v>
+      </c>
+      <c r="C198" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="D198" t="s">
+        <v>834</v>
+      </c>
+      <c r="E198" t="s">
+        <v>418</v>
+      </c>
+      <c r="F198" t="s">
+        <v>166</v>
+      </c>
+      <c r="G198" t="s">
+        <v>423</v>
+      </c>
+      <c r="H198" t="s">
+        <v>427</v>
+      </c>
+      <c r="I198" t="s">
+        <v>706</v>
+      </c>
+      <c r="J198" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="L198" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="199" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B199" t="s">
+        <v>813</v>
+      </c>
+      <c r="C199" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="D199" t="s">
+        <v>834</v>
+      </c>
+      <c r="E199" t="s">
+        <v>418</v>
+      </c>
+      <c r="F199" t="s">
+        <v>166</v>
+      </c>
+      <c r="G199" t="s">
+        <v>423</v>
+      </c>
+      <c r="H199" t="s">
+        <v>427</v>
+      </c>
+      <c r="I199" t="s">
+        <v>706</v>
+      </c>
+      <c r="J199" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="L199" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="200" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B200" t="s">
+        <v>814</v>
+      </c>
+      <c r="C200" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="D200" t="s">
+        <v>835</v>
+      </c>
+      <c r="E200" t="s">
+        <v>418</v>
+      </c>
+      <c r="F200" t="s">
+        <v>166</v>
+      </c>
+      <c r="G200" t="s">
+        <v>423</v>
+      </c>
+      <c r="H200" t="s">
+        <v>427</v>
+      </c>
+      <c r="I200" t="s">
+        <v>706</v>
+      </c>
+      <c r="J200" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="L200" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="201" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B201" t="s">
+        <v>815</v>
+      </c>
+      <c r="C201" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="D201" t="s">
+        <v>835</v>
+      </c>
+      <c r="E201" t="s">
+        <v>418</v>
+      </c>
+      <c r="F201" t="s">
+        <v>166</v>
+      </c>
+      <c r="G201" t="s">
+        <v>423</v>
+      </c>
+      <c r="H201" t="s">
+        <v>427</v>
+      </c>
+      <c r="I201" t="s">
+        <v>706</v>
+      </c>
+      <c r="J201" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="L201" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="202" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B202" t="s">
+        <v>816</v>
+      </c>
+      <c r="C202" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="D202" t="s">
+        <v>835</v>
+      </c>
+      <c r="E202" t="s">
+        <v>418</v>
+      </c>
+      <c r="F202" t="s">
+        <v>166</v>
+      </c>
+      <c r="G202" t="s">
+        <v>423</v>
+      </c>
+      <c r="H202" t="s">
+        <v>427</v>
+      </c>
+      <c r="I202" t="s">
+        <v>706</v>
+      </c>
+      <c r="J202" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="L202" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="203" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B203" t="s">
+        <v>817</v>
+      </c>
+      <c r="C203" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="D203" t="s">
+        <v>835</v>
+      </c>
+      <c r="E203" t="s">
+        <v>418</v>
+      </c>
+      <c r="F203" t="s">
+        <v>166</v>
+      </c>
+      <c r="G203" t="s">
+        <v>423</v>
+      </c>
+      <c r="H203" t="s">
+        <v>427</v>
+      </c>
+      <c r="I203" t="s">
+        <v>706</v>
+      </c>
+      <c r="J203" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="L203" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="204" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B204" t="s">
+        <v>818</v>
+      </c>
+      <c r="C204" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="D204" t="s">
+        <v>835</v>
+      </c>
+      <c r="E204" t="s">
+        <v>418</v>
+      </c>
+      <c r="F204" t="s">
+        <v>166</v>
+      </c>
+      <c r="G204" t="s">
+        <v>423</v>
+      </c>
+      <c r="H204" t="s">
+        <v>427</v>
+      </c>
+      <c r="I204" t="s">
+        <v>706</v>
+      </c>
+      <c r="J204" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="L204" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="205" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B205" t="s">
+        <v>819</v>
+      </c>
+      <c r="C205" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="D205" t="s">
+        <v>836</v>
+      </c>
+      <c r="E205" t="s">
+        <v>418</v>
+      </c>
+      <c r="F205" t="s">
+        <v>166</v>
+      </c>
+      <c r="G205" t="s">
+        <v>423</v>
+      </c>
+      <c r="H205" t="s">
+        <v>427</v>
+      </c>
+      <c r="I205" t="s">
+        <v>706</v>
+      </c>
+      <c r="J205" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="L205" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="206" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B206" t="s">
+        <v>820</v>
+      </c>
+      <c r="C206" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="D206" t="s">
+        <v>836</v>
+      </c>
+      <c r="E206" t="s">
+        <v>418</v>
+      </c>
+      <c r="F206" t="s">
+        <v>166</v>
+      </c>
+      <c r="G206" t="s">
+        <v>423</v>
+      </c>
+      <c r="H206" t="s">
+        <v>427</v>
+      </c>
+      <c r="I206" t="s">
+        <v>706</v>
+      </c>
+      <c r="J206" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="L206" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="207" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B207" t="s">
+        <v>821</v>
+      </c>
+      <c r="C207" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="D207" t="s">
+        <v>836</v>
+      </c>
+      <c r="E207" t="s">
+        <v>418</v>
+      </c>
+      <c r="F207" t="s">
+        <v>166</v>
+      </c>
+      <c r="G207" t="s">
+        <v>423</v>
+      </c>
+      <c r="H207" t="s">
+        <v>427</v>
+      </c>
+      <c r="I207" t="s">
+        <v>706</v>
+      </c>
+      <c r="J207" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="L207" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="208" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B208" t="s">
+        <v>822</v>
+      </c>
+      <c r="C208" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="D208" t="s">
+        <v>836</v>
+      </c>
+      <c r="E208" t="s">
+        <v>418</v>
+      </c>
+      <c r="F208" t="s">
+        <v>166</v>
+      </c>
+      <c r="G208" t="s">
+        <v>423</v>
+      </c>
+      <c r="H208" t="s">
+        <v>427</v>
+      </c>
+      <c r="I208" t="s">
+        <v>706</v>
+      </c>
+      <c r="J208" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="L208" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="209" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B209" t="s">
+        <v>823</v>
+      </c>
+      <c r="C209" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="D209" t="s">
+        <v>836</v>
+      </c>
+      <c r="E209" t="s">
+        <v>418</v>
+      </c>
+      <c r="F209" t="s">
+        <v>166</v>
+      </c>
+      <c r="G209" t="s">
+        <v>423</v>
+      </c>
+      <c r="H209" t="s">
+        <v>427</v>
+      </c>
+      <c r="I209" t="s">
+        <v>706</v>
+      </c>
+      <c r="J209" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="L209" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="210" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B210" t="s">
+        <v>824</v>
+      </c>
+      <c r="C210" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="D210" t="s">
+        <v>837</v>
+      </c>
+      <c r="E210" t="s">
+        <v>418</v>
+      </c>
+      <c r="F210" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G210" t="s">
+        <v>423</v>
+      </c>
+      <c r="H210" t="s">
+        <v>427</v>
+      </c>
+      <c r="I210" t="s">
+        <v>706</v>
+      </c>
+      <c r="J210" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="L210" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="211" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B211" t="s">
+        <v>825</v>
+      </c>
+      <c r="C211" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="D211" t="s">
+        <v>837</v>
+      </c>
+      <c r="E211" t="s">
+        <v>418</v>
+      </c>
+      <c r="F211" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G211" t="s">
+        <v>423</v>
+      </c>
+      <c r="H211" t="s">
+        <v>427</v>
+      </c>
+      <c r="I211" t="s">
+        <v>706</v>
+      </c>
+      <c r="J211" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="L211" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="212" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B212" t="s">
+        <v>826</v>
+      </c>
+      <c r="C212" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="D212" t="s">
+        <v>837</v>
+      </c>
+      <c r="E212" t="s">
+        <v>418</v>
+      </c>
+      <c r="F212" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G212" t="s">
+        <v>423</v>
+      </c>
+      <c r="H212" t="s">
+        <v>427</v>
+      </c>
+      <c r="I212" t="s">
+        <v>706</v>
+      </c>
+      <c r="J212" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="L212" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="213" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B213" t="s">
+        <v>827</v>
+      </c>
+      <c r="C213" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="D213" t="s">
+        <v>837</v>
+      </c>
+      <c r="E213" t="s">
+        <v>418</v>
+      </c>
+      <c r="F213" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G213" t="s">
+        <v>423</v>
+      </c>
+      <c r="H213" t="s">
+        <v>427</v>
+      </c>
+      <c r="I213" t="s">
+        <v>706</v>
+      </c>
+      <c r="J213" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="L213" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="214" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B214" t="s">
+        <v>828</v>
+      </c>
+      <c r="C214" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="D214" t="s">
+        <v>837</v>
+      </c>
+      <c r="E214" t="s">
+        <v>418</v>
+      </c>
+      <c r="F214" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G214" t="s">
+        <v>423</v>
+      </c>
+      <c r="H214" t="s">
+        <v>427</v>
+      </c>
+      <c r="I214" t="s">
+        <v>706</v>
+      </c>
+      <c r="J214" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="L214" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="215" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B215" t="s">
+        <v>829</v>
+      </c>
+      <c r="C215" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="D215" t="s">
+        <v>838</v>
+      </c>
+      <c r="E215" t="s">
+        <v>418</v>
+      </c>
+      <c r="F215" t="s">
+        <v>165</v>
+      </c>
+      <c r="G215" t="s">
+        <v>423</v>
+      </c>
+      <c r="H215" t="s">
+        <v>427</v>
+      </c>
+      <c r="I215" t="s">
+        <v>706</v>
+      </c>
+      <c r="J215" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="L215" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="216" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B216" t="s">
+        <v>830</v>
+      </c>
+      <c r="C216" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="D216" t="s">
+        <v>838</v>
+      </c>
+      <c r="E216" t="s">
+        <v>418</v>
+      </c>
+      <c r="F216" t="s">
+        <v>165</v>
+      </c>
+      <c r="G216" t="s">
+        <v>423</v>
+      </c>
+      <c r="H216" t="s">
+        <v>427</v>
+      </c>
+      <c r="I216" t="s">
+        <v>706</v>
+      </c>
+      <c r="J216" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="L216" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="217" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B217" t="s">
+        <v>831</v>
+      </c>
+      <c r="C217" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="D217" t="s">
+        <v>838</v>
+      </c>
+      <c r="E217" t="s">
+        <v>418</v>
+      </c>
+      <c r="F217" t="s">
+        <v>165</v>
+      </c>
+      <c r="G217" t="s">
+        <v>423</v>
+      </c>
+      <c r="H217" t="s">
+        <v>427</v>
+      </c>
+      <c r="I217" t="s">
+        <v>706</v>
+      </c>
+      <c r="J217" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="L217" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="218" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B218" t="s">
+        <v>832</v>
+      </c>
+      <c r="C218" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="D218" t="s">
+        <v>838</v>
+      </c>
+      <c r="E218" t="s">
+        <v>418</v>
+      </c>
+      <c r="F218" t="s">
+        <v>165</v>
+      </c>
+      <c r="G218" t="s">
+        <v>423</v>
+      </c>
+      <c r="H218" t="s">
+        <v>427</v>
+      </c>
+      <c r="I218" t="s">
+        <v>706</v>
+      </c>
+      <c r="J218" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="L218" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="219" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B219" t="s">
+        <v>833</v>
+      </c>
+      <c r="C219" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="D219" t="s">
+        <v>838</v>
+      </c>
+      <c r="E219" t="s">
+        <v>418</v>
+      </c>
+      <c r="F219" t="s">
+        <v>165</v>
+      </c>
+      <c r="G219" t="s">
+        <v>423</v>
+      </c>
+      <c r="H219" t="s">
+        <v>427</v>
+      </c>
+      <c r="I219" t="s">
+        <v>706</v>
+      </c>
+      <c r="J219" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="L219" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="221" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B221" t="s">
+        <v>839</v>
+      </c>
+      <c r="C221" s="9" t="s">
+        <v>842</v>
+      </c>
+      <c r="D221" t="s">
+        <v>843</v>
+      </c>
+      <c r="E221" t="s">
+        <v>418</v>
+      </c>
+      <c r="F221" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G221" t="s">
+        <v>423</v>
+      </c>
+      <c r="H221" t="s">
+        <v>427</v>
+      </c>
+      <c r="I221" t="s">
+        <v>706</v>
+      </c>
+      <c r="J221" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="L221" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="222" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B222" t="s">
+        <v>840</v>
+      </c>
+      <c r="C222" s="9" t="s">
+        <v>842</v>
+      </c>
+      <c r="D222" t="s">
+        <v>843</v>
+      </c>
+      <c r="E222" t="s">
+        <v>418</v>
+      </c>
+      <c r="F222" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G222" t="s">
+        <v>423</v>
+      </c>
+      <c r="H222" t="s">
+        <v>427</v>
+      </c>
+      <c r="I222" t="s">
+        <v>706</v>
+      </c>
+      <c r="J222" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="L222" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="223" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C223" s="9"/>
+    </row>
+    <row r="224" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B224" t="s">
+        <v>844</v>
+      </c>
+      <c r="C224" s="9" t="s">
         <v>729</v>
       </c>
-      <c r="G146" t="s">
-        <v>423</v>
-      </c>
-      <c r="L146" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="147" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C147" s="9"/>
-    </row>
-    <row r="148" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C148" s="9" t="s">
+      <c r="D224" t="s">
+        <v>847</v>
+      </c>
+      <c r="E224" t="s">
+        <v>418</v>
+      </c>
+      <c r="F224" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G224" t="s">
+        <v>423</v>
+      </c>
+      <c r="H224" t="s">
+        <v>427</v>
+      </c>
+      <c r="I224" t="s">
+        <v>705</v>
+      </c>
+      <c r="J224" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="L224" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="225" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B225" t="s">
+        <v>845</v>
+      </c>
+      <c r="C225" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="D225" t="s">
+        <v>847</v>
+      </c>
+      <c r="E225" t="s">
+        <v>418</v>
+      </c>
+      <c r="F225" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G225" t="s">
+        <v>423</v>
+      </c>
+      <c r="H225" t="s">
+        <v>427</v>
+      </c>
+      <c r="I225" t="s">
+        <v>705</v>
+      </c>
+      <c r="J225" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="L225" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="226" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B226" t="s">
+        <v>846</v>
+      </c>
+      <c r="C226" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="D226" t="s">
+        <v>847</v>
+      </c>
+      <c r="E226" t="s">
+        <v>418</v>
+      </c>
+      <c r="F226" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G226" t="s">
+        <v>423</v>
+      </c>
+      <c r="H226" t="s">
+        <v>427</v>
+      </c>
+      <c r="I226" t="s">
+        <v>705</v>
+      </c>
+      <c r="J226" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="L226" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="227" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C227" s="9"/>
+    </row>
+    <row r="228" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B228" t="s">
+        <v>848</v>
+      </c>
+      <c r="C228" s="9" t="s">
+        <v>852</v>
+      </c>
+      <c r="D228" t="s">
+        <v>853</v>
+      </c>
+      <c r="E228" t="s">
+        <v>418</v>
+      </c>
+      <c r="F228" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G228" t="s">
+        <v>423</v>
+      </c>
+      <c r="H228" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="I228" t="s">
+        <v>705</v>
+      </c>
+      <c r="J228" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="L228" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="229" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B229" t="s">
+        <v>849</v>
+      </c>
+      <c r="C229" s="9" t="s">
+        <v>852</v>
+      </c>
+      <c r="D229" t="s">
+        <v>854</v>
+      </c>
+      <c r="E229" t="s">
+        <v>418</v>
+      </c>
+      <c r="F229" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G229" t="s">
+        <v>423</v>
+      </c>
+      <c r="H229" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="I229" t="s">
+        <v>705</v>
+      </c>
+      <c r="J229" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="L229" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="230" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B230" t="s">
+        <v>850</v>
+      </c>
+      <c r="C230" s="9" t="s">
+        <v>852</v>
+      </c>
+      <c r="D230" t="s">
+        <v>855</v>
+      </c>
+      <c r="E230" t="s">
+        <v>418</v>
+      </c>
+      <c r="F230" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G230" t="s">
+        <v>423</v>
+      </c>
+      <c r="H230" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="I230" t="s">
+        <v>705</v>
+      </c>
+      <c r="J230" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="L230" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="231" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B231" t="s">
+        <v>851</v>
+      </c>
+      <c r="C231" s="9" t="s">
+        <v>852</v>
+      </c>
+      <c r="D231" t="s">
+        <v>856</v>
+      </c>
+      <c r="E231" t="s">
+        <v>418</v>
+      </c>
+      <c r="F231" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G231" t="s">
+        <v>423</v>
+      </c>
+      <c r="H231" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="I231" t="s">
+        <v>705</v>
+      </c>
+      <c r="J231" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="L231" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="232" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C232" s="9"/>
+    </row>
+    <row r="233" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B233" t="s">
+        <v>857</v>
+      </c>
+      <c r="C233" s="9" t="s">
         <v>730</v>
       </c>
-      <c r="G148" t="s">
-        <v>423</v>
-      </c>
-      <c r="L148" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="149" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C149" s="9"/>
-    </row>
-    <row r="150" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C150" s="9" t="s">
+      <c r="D233" t="s">
+        <v>864</v>
+      </c>
+      <c r="E233" t="s">
+        <v>418</v>
+      </c>
+      <c r="F233" t="s">
+        <v>166</v>
+      </c>
+      <c r="G233" t="s">
+        <v>423</v>
+      </c>
+      <c r="H233" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="I233" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="J233" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="L233" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="234" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B234" t="s">
+        <v>858</v>
+      </c>
+      <c r="C234" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="D234" t="s">
+        <v>865</v>
+      </c>
+      <c r="E234" t="s">
+        <v>418</v>
+      </c>
+      <c r="F234" t="s">
+        <v>166</v>
+      </c>
+      <c r="G234" t="s">
+        <v>423</v>
+      </c>
+      <c r="H234" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="I234" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="J234" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="L234" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="235" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B235" t="s">
+        <v>859</v>
+      </c>
+      <c r="C235" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="D235" t="s">
+        <v>866</v>
+      </c>
+      <c r="E235" t="s">
+        <v>418</v>
+      </c>
+      <c r="F235" t="s">
+        <v>166</v>
+      </c>
+      <c r="G235" t="s">
+        <v>423</v>
+      </c>
+      <c r="H235" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="I235" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="J235" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="L235" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="236" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B236" t="s">
+        <v>860</v>
+      </c>
+      <c r="C236" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="D236" t="s">
+        <v>867</v>
+      </c>
+      <c r="E236" t="s">
+        <v>418</v>
+      </c>
+      <c r="F236" t="s">
+        <v>166</v>
+      </c>
+      <c r="G236" t="s">
+        <v>423</v>
+      </c>
+      <c r="H236" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="I236" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="J236" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="L236" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="237" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B237" t="s">
+        <v>861</v>
+      </c>
+      <c r="C237" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="D237" t="s">
+        <v>868</v>
+      </c>
+      <c r="E237" t="s">
+        <v>418</v>
+      </c>
+      <c r="F237" t="s">
+        <v>166</v>
+      </c>
+      <c r="G237" t="s">
+        <v>423</v>
+      </c>
+      <c r="H237" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="I237" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="J237" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="L237" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="238" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B238" t="s">
+        <v>862</v>
+      </c>
+      <c r="C238" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="D238" t="s">
+        <v>869</v>
+      </c>
+      <c r="E238" t="s">
+        <v>418</v>
+      </c>
+      <c r="F238" t="s">
+        <v>166</v>
+      </c>
+      <c r="G238" t="s">
+        <v>423</v>
+      </c>
+      <c r="H238" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="I238" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="J238" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="L238" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="239" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B239" t="s">
+        <v>863</v>
+      </c>
+      <c r="C239" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="D239" t="s">
+        <v>870</v>
+      </c>
+      <c r="E239" t="s">
+        <v>418</v>
+      </c>
+      <c r="F239" t="s">
+        <v>166</v>
+      </c>
+      <c r="G239" t="s">
+        <v>423</v>
+      </c>
+      <c r="H239" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="I239" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="J239" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="L239" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="240" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C240" s="9"/>
+    </row>
+    <row r="241" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B241" t="s">
+        <v>871</v>
+      </c>
+      <c r="C241" s="9" t="s">
+        <v>842</v>
+      </c>
+      <c r="D241" t="s">
+        <v>873</v>
+      </c>
+      <c r="E241" t="s">
+        <v>418</v>
+      </c>
+      <c r="F241" t="s">
+        <v>165</v>
+      </c>
+      <c r="G241" t="s">
+        <v>423</v>
+      </c>
+      <c r="H241" t="s">
+        <v>427</v>
+      </c>
+      <c r="I241" t="s">
+        <v>705</v>
+      </c>
+      <c r="L241" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="242" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B242" t="s">
+        <v>872</v>
+      </c>
+      <c r="C242" s="9" t="s">
+        <v>842</v>
+      </c>
+      <c r="D242" t="s">
+        <v>874</v>
+      </c>
+      <c r="E242" t="s">
+        <v>418</v>
+      </c>
+      <c r="F242" t="s">
+        <v>165</v>
+      </c>
+      <c r="G242" t="s">
+        <v>423</v>
+      </c>
+      <c r="H242" t="s">
+        <v>427</v>
+      </c>
+      <c r="I242" t="s">
+        <v>705</v>
+      </c>
+      <c r="L242" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="243" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C243" s="9"/>
+    </row>
+    <row r="244" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B244" t="s">
+        <v>875</v>
+      </c>
+      <c r="C244" s="9" t="s">
         <v>731</v>
       </c>
-      <c r="G150" t="s">
-        <v>423</v>
-      </c>
-      <c r="L150" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="151" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C151" s="9"/>
-    </row>
-    <row r="152" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C152" s="9" t="s">
+      <c r="D244" t="s">
+        <v>877</v>
+      </c>
+      <c r="E244" t="s">
+        <v>418</v>
+      </c>
+      <c r="F244" t="s">
+        <v>165</v>
+      </c>
+      <c r="G244" t="s">
+        <v>423</v>
+      </c>
+      <c r="H244" t="s">
+        <v>427</v>
+      </c>
+      <c r="I244" t="s">
+        <v>705</v>
+      </c>
+      <c r="L244" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="245" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B245" t="s">
+        <v>876</v>
+      </c>
+      <c r="C245" s="9" t="s">
+        <v>731</v>
+      </c>
+      <c r="D245" t="s">
+        <v>878</v>
+      </c>
+      <c r="E245" t="s">
+        <v>418</v>
+      </c>
+      <c r="F245" t="s">
+        <v>165</v>
+      </c>
+      <c r="G245" t="s">
+        <v>423</v>
+      </c>
+      <c r="H245" t="s">
+        <v>427</v>
+      </c>
+      <c r="I245" t="s">
+        <v>705</v>
+      </c>
+      <c r="L245" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="246" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C246" s="9"/>
+    </row>
+    <row r="247" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B247" t="s">
+        <v>880</v>
+      </c>
+      <c r="C247" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="G152" t="s">
-        <v>423</v>
-      </c>
-      <c r="L152" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="153" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C153" s="9"/>
-    </row>
-    <row r="154" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C154" s="9" t="s">
-        <v>729</v>
-      </c>
-      <c r="G154" t="s">
-        <v>423</v>
-      </c>
-      <c r="L154" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="155" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C155" s="9"/>
-    </row>
-    <row r="156" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C156" s="9" t="s">
-        <v>733</v>
-      </c>
-      <c r="G156" t="s">
-        <v>423</v>
-      </c>
-      <c r="L156" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="157" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C157" s="9"/>
-    </row>
-    <row r="158" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C158" s="9" t="s">
-        <v>734</v>
-      </c>
-      <c r="G158" t="s">
+      <c r="D247" t="s">
+        <v>886</v>
+      </c>
+      <c r="E247" t="s">
+        <v>101</v>
+      </c>
+      <c r="F247" t="s">
+        <v>166</v>
+      </c>
+      <c r="G247" t="s">
         <v>424</v>
       </c>
-      <c r="L158" t="s">
+      <c r="H247" t="s">
+        <v>427</v>
+      </c>
+      <c r="I247" t="s">
+        <v>705</v>
+      </c>
+      <c r="K247" t="s">
+        <v>879</v>
+      </c>
+      <c r="L247" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="159" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C159" s="9"/>
-    </row>
-    <row r="160" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C160" s="9" t="s">
-        <v>735</v>
-      </c>
-      <c r="G160" t="s">
+    <row r="248" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B248" t="s">
+        <v>881</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="D248" t="s">
+        <v>887</v>
+      </c>
+      <c r="E248" t="s">
+        <v>101</v>
+      </c>
+      <c r="F248" t="s">
+        <v>165</v>
+      </c>
+      <c r="G248" t="s">
         <v>424</v>
       </c>
-      <c r="L160" t="s">
+      <c r="H248" t="s">
+        <v>427</v>
+      </c>
+      <c r="I248" t="s">
+        <v>705</v>
+      </c>
+      <c r="K248" t="s">
+        <v>879</v>
+      </c>
+      <c r="L248" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="249" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B249" t="s">
+        <v>882</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="D249" t="s">
+        <v>886</v>
+      </c>
+      <c r="E249" t="s">
+        <v>101</v>
+      </c>
+      <c r="F249" t="s">
+        <v>166</v>
+      </c>
+      <c r="G249" t="s">
+        <v>424</v>
+      </c>
+      <c r="H249" t="s">
+        <v>427</v>
+      </c>
+      <c r="I249" t="s">
+        <v>705</v>
+      </c>
+      <c r="L249" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="250" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B250" t="s">
+        <v>883</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="D250" t="s">
+        <v>886</v>
+      </c>
+      <c r="E250" t="s">
+        <v>101</v>
+      </c>
+      <c r="F250" t="s">
+        <v>166</v>
+      </c>
+      <c r="G250" t="s">
+        <v>424</v>
+      </c>
+      <c r="H250" t="s">
+        <v>427</v>
+      </c>
+      <c r="I250" t="s">
+        <v>705</v>
+      </c>
+      <c r="L250" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="251" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B251" t="s">
+        <v>884</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="D251" t="s">
+        <v>887</v>
+      </c>
+      <c r="E251" t="s">
+        <v>101</v>
+      </c>
+      <c r="F251" t="s">
+        <v>165</v>
+      </c>
+      <c r="G251" t="s">
+        <v>424</v>
+      </c>
+      <c r="H251" t="s">
+        <v>427</v>
+      </c>
+      <c r="I251" t="s">
+        <v>705</v>
+      </c>
+      <c r="L251" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="252" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B252" t="s">
+        <v>885</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="D252" t="s">
+        <v>887</v>
+      </c>
+      <c r="E252" t="s">
+        <v>101</v>
+      </c>
+      <c r="F252" t="s">
+        <v>165</v>
+      </c>
+      <c r="G252" t="s">
+        <v>424</v>
+      </c>
+      <c r="H252" t="s">
+        <v>427</v>
+      </c>
+      <c r="I252" t="s">
+        <v>705</v>
+      </c>
+      <c r="L252" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="253" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C253" s="9"/>
+    </row>
+    <row r="254" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B254" t="s">
+        <v>888</v>
+      </c>
+      <c r="C254" s="9" t="s">
+        <v>889</v>
+      </c>
+      <c r="D254" t="s">
+        <v>890</v>
+      </c>
+      <c r="E254" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="F254" t="s">
+        <v>166</v>
+      </c>
+      <c r="G254" t="s">
+        <v>424</v>
+      </c>
+      <c r="H254" t="s">
+        <v>427</v>
+      </c>
+      <c r="I254" t="s">
+        <v>705</v>
+      </c>
+      <c r="L254" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="161" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C161" s="9"/>
-    </row>
-    <row r="162" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C162" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="G162" t="s">
+    <row r="255" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C255" s="9"/>
+    </row>
+    <row r="256" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B256" t="s">
+        <v>892</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="D256" t="s">
+        <v>893</v>
+      </c>
+      <c r="E256" s="7"/>
+      <c r="F256" t="s">
+        <v>166</v>
+      </c>
+      <c r="G256" t="s">
         <v>424</v>
       </c>
-      <c r="L162" t="s">
+      <c r="H256" s="7"/>
+      <c r="I256" t="s">
+        <v>705</v>
+      </c>
+      <c r="L256" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="163" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C163" s="9"/>
-    </row>
-    <row r="164" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C164" s="9"/>
-    </row>
-    <row r="165" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C165" s="9"/>
-    </row>
-    <row r="166" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C166" s="9"/>
-    </row>
-    <row r="167" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C167" s="9"/>
+    <row r="258" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B258" t="s">
+        <v>897</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="D258" t="s">
+        <v>836</v>
+      </c>
+      <c r="E258" t="s">
+        <v>418</v>
+      </c>
+      <c r="F258" t="s">
+        <v>166</v>
+      </c>
+      <c r="G258" t="s">
+        <v>423</v>
+      </c>
+      <c r="H258" t="s">
+        <v>427</v>
+      </c>
+      <c r="I258" t="s">
+        <v>706</v>
+      </c>
+      <c r="J258" t="s">
+        <v>799</v>
+      </c>
+      <c r="L258" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="259" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B259" t="s">
+        <v>898</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="D259" t="s">
+        <v>836</v>
+      </c>
+      <c r="E259" t="s">
+        <v>418</v>
+      </c>
+      <c r="F259" t="s">
+        <v>166</v>
+      </c>
+      <c r="G259" t="s">
+        <v>423</v>
+      </c>
+      <c r="H259" t="s">
+        <v>427</v>
+      </c>
+      <c r="I259" t="s">
+        <v>706</v>
+      </c>
+      <c r="J259" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="260" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B260" t="s">
+        <v>899</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="D260" t="s">
+        <v>836</v>
+      </c>
+      <c r="E260" t="s">
+        <v>418</v>
+      </c>
+      <c r="F260" t="s">
+        <v>166</v>
+      </c>
+      <c r="G260" t="s">
+        <v>423</v>
+      </c>
+      <c r="H260" t="s">
+        <v>427</v>
+      </c>
+      <c r="I260" t="s">
+        <v>706</v>
+      </c>
+      <c r="J260" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="261" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B261" t="s">
+        <v>900</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="D261" t="s">
+        <v>836</v>
+      </c>
+      <c r="E261" t="s">
+        <v>418</v>
+      </c>
+      <c r="F261" t="s">
+        <v>166</v>
+      </c>
+      <c r="G261" t="s">
+        <v>423</v>
+      </c>
+      <c r="H261" t="s">
+        <v>427</v>
+      </c>
+      <c r="I261" t="s">
+        <v>706</v>
+      </c>
+      <c r="J261" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="262" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B262" t="s">
+        <v>901</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="D262" t="s">
+        <v>914</v>
+      </c>
+      <c r="E262" t="s">
+        <v>418</v>
+      </c>
+      <c r="F262" t="s">
+        <v>166</v>
+      </c>
+      <c r="G262" t="s">
+        <v>423</v>
+      </c>
+      <c r="H262" t="s">
+        <v>427</v>
+      </c>
+      <c r="I262" t="s">
+        <v>706</v>
+      </c>
+      <c r="J262" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="263" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B263" t="s">
+        <v>902</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="D263" t="s">
+        <v>914</v>
+      </c>
+      <c r="E263" t="s">
+        <v>418</v>
+      </c>
+      <c r="F263" t="s">
+        <v>166</v>
+      </c>
+      <c r="G263" t="s">
+        <v>423</v>
+      </c>
+      <c r="H263" t="s">
+        <v>427</v>
+      </c>
+      <c r="I263" t="s">
+        <v>706</v>
+      </c>
+      <c r="J263" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="264" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B264" t="s">
+        <v>903</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="D264" t="s">
+        <v>914</v>
+      </c>
+      <c r="E264" t="s">
+        <v>418</v>
+      </c>
+      <c r="F264" t="s">
+        <v>166</v>
+      </c>
+      <c r="G264" t="s">
+        <v>423</v>
+      </c>
+      <c r="H264" t="s">
+        <v>427</v>
+      </c>
+      <c r="I264" t="s">
+        <v>706</v>
+      </c>
+      <c r="J264" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="265" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B265" t="s">
+        <v>904</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="D265" t="s">
+        <v>914</v>
+      </c>
+      <c r="E265" t="s">
+        <v>418</v>
+      </c>
+      <c r="F265" t="s">
+        <v>166</v>
+      </c>
+      <c r="G265" t="s">
+        <v>423</v>
+      </c>
+      <c r="H265" t="s">
+        <v>427</v>
+      </c>
+      <c r="I265" t="s">
+        <v>706</v>
+      </c>
+      <c r="J265" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="266" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B266" t="s">
+        <v>906</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="D266" t="s">
+        <v>915</v>
+      </c>
+      <c r="E266" t="s">
+        <v>418</v>
+      </c>
+      <c r="F266" t="s">
+        <v>166</v>
+      </c>
+      <c r="G266" t="s">
+        <v>423</v>
+      </c>
+      <c r="H266" t="s">
+        <v>427</v>
+      </c>
+      <c r="I266" t="s">
+        <v>706</v>
+      </c>
+      <c r="J266" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="267" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B267" t="s">
+        <v>905</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="D267" t="s">
+        <v>915</v>
+      </c>
+      <c r="E267" t="s">
+        <v>418</v>
+      </c>
+      <c r="F267" t="s">
+        <v>166</v>
+      </c>
+      <c r="G267" t="s">
+        <v>423</v>
+      </c>
+      <c r="H267" t="s">
+        <v>427</v>
+      </c>
+      <c r="I267" t="s">
+        <v>706</v>
+      </c>
+      <c r="J267" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="268" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B268" t="s">
+        <v>907</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="D268" t="s">
+        <v>915</v>
+      </c>
+      <c r="E268" t="s">
+        <v>418</v>
+      </c>
+      <c r="F268" t="s">
+        <v>166</v>
+      </c>
+      <c r="G268" t="s">
+        <v>423</v>
+      </c>
+      <c r="H268" t="s">
+        <v>427</v>
+      </c>
+      <c r="I268" t="s">
+        <v>706</v>
+      </c>
+      <c r="J268" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="269" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B269" t="s">
+        <v>908</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="D269" t="s">
+        <v>915</v>
+      </c>
+      <c r="E269" t="s">
+        <v>418</v>
+      </c>
+      <c r="F269" t="s">
+        <v>166</v>
+      </c>
+      <c r="G269" t="s">
+        <v>423</v>
+      </c>
+      <c r="H269" t="s">
+        <v>427</v>
+      </c>
+      <c r="I269" t="s">
+        <v>706</v>
+      </c>
+      <c r="J269" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="270" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B270" t="s">
+        <v>909</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="D270" t="s">
+        <v>916</v>
+      </c>
+      <c r="E270" t="s">
+        <v>418</v>
+      </c>
+      <c r="F270" t="s">
+        <v>166</v>
+      </c>
+      <c r="G270" t="s">
+        <v>423</v>
+      </c>
+      <c r="H270" t="s">
+        <v>427</v>
+      </c>
+      <c r="I270" t="s">
+        <v>706</v>
+      </c>
+      <c r="J270" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="271" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B271" t="s">
+        <v>910</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="D271" t="s">
+        <v>916</v>
+      </c>
+      <c r="E271" t="s">
+        <v>418</v>
+      </c>
+      <c r="F271" t="s">
+        <v>166</v>
+      </c>
+      <c r="G271" t="s">
+        <v>423</v>
+      </c>
+      <c r="H271" t="s">
+        <v>427</v>
+      </c>
+      <c r="I271" t="s">
+        <v>706</v>
+      </c>
+      <c r="J271" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="272" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B272" t="s">
+        <v>911</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="D272" t="s">
+        <v>916</v>
+      </c>
+      <c r="E272" t="s">
+        <v>418</v>
+      </c>
+      <c r="F272" t="s">
+        <v>166</v>
+      </c>
+      <c r="G272" t="s">
+        <v>423</v>
+      </c>
+      <c r="H272" t="s">
+        <v>427</v>
+      </c>
+      <c r="I272" t="s">
+        <v>706</v>
+      </c>
+      <c r="J272" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="273" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B273" t="s">
+        <v>912</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="D273" t="s">
+        <v>916</v>
+      </c>
+      <c r="E273" t="s">
+        <v>418</v>
+      </c>
+      <c r="F273" t="s">
+        <v>166</v>
+      </c>
+      <c r="G273" t="s">
+        <v>423</v>
+      </c>
+      <c r="H273" t="s">
+        <v>427</v>
+      </c>
+      <c r="I273" t="s">
+        <v>706</v>
+      </c>
+      <c r="J273" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="275" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B275" t="s">
+        <v>917</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="D275" t="s">
+        <v>919</v>
+      </c>
+      <c r="E275" t="s">
+        <v>418</v>
+      </c>
+      <c r="F275" t="s">
+        <v>166</v>
+      </c>
+      <c r="G275" t="s">
+        <v>423</v>
+      </c>
+      <c r="H275" t="s">
+        <v>427</v>
+      </c>
+      <c r="I275" t="s">
+        <v>705</v>
+      </c>
+      <c r="J275" t="s">
+        <v>799</v>
+      </c>
+      <c r="L275" t="s">
+        <v>896</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/ref.xlsx
+++ b/data/ref.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/Repositories/LCAdata/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3E8CAA-EE74-AC4D-BFF8-5B8EE377B265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA48817-950D-BD4F-88A3-78703CAA4881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40300" yWindow="500" windowWidth="26660" windowHeight="17620" activeTab="1" xr2:uid="{4F28B243-04AE-1E4D-B411-E86C9FDA2FDF}"/>
+    <workbookView xWindow="40900" yWindow="3980" windowWidth="26660" windowHeight="17620" activeTab="1" xr2:uid="{4F28B243-04AE-1E4D-B411-E86C9FDA2FDF}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6825" uniqueCount="1155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6870" uniqueCount="1166">
   <si>
     <t>old file name</t>
   </si>
@@ -5309,6 +5309,62 @@
   </si>
   <si>
     <t>Pearl millet (Pennisetum typhoides)</t>
+  </si>
+  <si>
+    <t>adven.root.csv</t>
+  </si>
+  <si>
+    <t>meso.root.csv</t>
+  </si>
+  <si>
+    <t>sec.root.csv</t>
+  </si>
+  <si>
+    <t>lat.root.csv</t>
+  </si>
+  <si>
+    <t>root.drywt.csv</t>
+  </si>
+  <si>
+    <t>number of adventitious roots</t>
+  </si>
+  <si>
+    <t>number of mesocotyl roots</t>
+  </si>
+  <si>
+    <t>number of secondary roots</t>
+  </si>
+  <si>
+    <t>number of lateral roots</t>
+  </si>
+  <si>
+    <t>root dry weight (gm)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rahman, H. et al. (1994) Generation mean analysis of seedling root characteristics in maize (Zea mays </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">L.) Maydica. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>39, 177-181.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -13053,11 +13109,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1AC297A-A885-7C40-9A4E-22B5A2A054BE}">
-  <dimension ref="A1:M512"/>
+  <dimension ref="A1:M523"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A467" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I492" sqref="I492"/>
+      <pane ySplit="1" topLeftCell="A499" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K525" sqref="K525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27691,6 +27747,151 @@
         <v>1152</v>
       </c>
     </row>
+    <row r="519" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B519" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C519" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="D519" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E519" t="s">
+        <v>418</v>
+      </c>
+      <c r="G519" t="s">
+        <v>423</v>
+      </c>
+      <c r="H519" t="s">
+        <v>427</v>
+      </c>
+      <c r="I519" t="s">
+        <v>706</v>
+      </c>
+      <c r="K519" t="s">
+        <v>916</v>
+      </c>
+      <c r="M519" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="520" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B520" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C520" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="D520" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E520" t="s">
+        <v>418</v>
+      </c>
+      <c r="G520" t="s">
+        <v>423</v>
+      </c>
+      <c r="H520" t="s">
+        <v>427</v>
+      </c>
+      <c r="I520" t="s">
+        <v>706</v>
+      </c>
+      <c r="K520" t="s">
+        <v>916</v>
+      </c>
+      <c r="M520" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="521" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B521" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C521" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="D521" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E521" t="s">
+        <v>418</v>
+      </c>
+      <c r="G521" t="s">
+        <v>423</v>
+      </c>
+      <c r="H521" t="s">
+        <v>427</v>
+      </c>
+      <c r="I521" t="s">
+        <v>706</v>
+      </c>
+      <c r="K521" t="s">
+        <v>916</v>
+      </c>
+      <c r="M521" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="522" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B522" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C522" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="D522" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E522" t="s">
+        <v>418</v>
+      </c>
+      <c r="G522" t="s">
+        <v>423</v>
+      </c>
+      <c r="H522" t="s">
+        <v>427</v>
+      </c>
+      <c r="I522" t="s">
+        <v>706</v>
+      </c>
+      <c r="K522" t="s">
+        <v>916</v>
+      </c>
+      <c r="M522" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="523" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B523" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C523" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="D523" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E523" t="s">
+        <v>418</v>
+      </c>
+      <c r="G523" t="s">
+        <v>423</v>
+      </c>
+      <c r="H523" t="s">
+        <v>427</v>
+      </c>
+      <c r="I523" t="s">
+        <v>706</v>
+      </c>
+      <c r="K523" t="s">
+        <v>916</v>
+      </c>
+      <c r="M523" t="s">
+        <v>1165</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
